--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
@@ -940,7 +940,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1490,7 +1490,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -1587,6 +1587,9 @@
                 <c:pt idx="31">
                   <c:v>44834</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>44865</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1595,7 +1598,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1692,6 +1695,9 @@
                 <c:pt idx="31">
                   <c:v>64000</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>66000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1733,7 +1739,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -1830,6 +1836,9 @@
                 <c:pt idx="31">
                   <c:v>44834</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>44865</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1838,7 +1847,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2000.0000000000002</c:v>
                 </c:pt>
@@ -1935,6 +1944,9 @@
                 <c:pt idx="31">
                   <c:v>52229.088937270295</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>53475.074735568647</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1976,7 +1988,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2073,6 +2085,9 @@
                 <c:pt idx="31">
                   <c:v>44834</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>44865</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2081,7 +2096,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2178,6 +2193,9 @@
                 <c:pt idx="31">
                   <c:v>-11770.911062729705</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>-12524.925264431353</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2198,11 +2216,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="261178496"/>
-        <c:axId val="261180032"/>
+        <c:axId val="39302272"/>
+        <c:axId val="39303808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="261178496"/>
+        <c:axId val="39302272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2245,14 +2263,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261180032"/>
+        <c:crossAx val="39303808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="261180032"/>
+        <c:axId val="39303808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2303,7 +2321,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261178496"/>
+        <c:crossAx val="39302272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15887,14 +15905,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -15915,7 +15933,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>180</v>
       </c>
@@ -15945,7 +15963,7 @@
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="14.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -15961,7 +15979,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="14.1" customHeight="1">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -16030,7 +16048,7 @@
         <v>-22000</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="14.1" customHeight="1">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -16105,7 +16123,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="14.1" customHeight="1">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -16175,7 +16193,7 @@
         <v>53008.069006718506</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="14.1" customHeight="1">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -16217,7 +16235,7 @@
         <v>9.9835199022272558E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="14.1" customHeight="1">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -16255,7 +16273,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="14.1" customHeight="1">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -16293,7 +16311,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="14.1" customHeight="1">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -16331,7 +16349,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="14.1" customHeight="1">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -16369,7 +16387,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="14.1" customHeight="1">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -16407,7 +16425,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="14.1" customHeight="1">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -16445,7 +16463,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="14.1" customHeight="1">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -16483,7 +16501,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="14.1" customHeight="1">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -16521,7 +16539,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="14.1" customHeight="1">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -16534,7 +16552,7 @@
         <v>2000</v>
       </c>
       <c r="D15" s="17">
-        <f t="shared" ref="D15:D34" si="9">C15/B15</f>
+        <f t="shared" ref="D15:D35" si="9">C15/B15</f>
         <v>423.43635539860185</v>
       </c>
       <c r="E15" s="17">
@@ -16542,7 +16560,7 @@
         <v>6766.6987073504279</v>
       </c>
       <c r="F15" s="17">
-        <f t="shared" ref="F15:F34" si="10">E15*B15</f>
+        <f t="shared" ref="F15:F35" si="10">E15*B15</f>
         <v>31960.877336479982</v>
       </c>
       <c r="G15" s="17">
@@ -16550,16 +16568,16 @@
         <v>26000</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" ref="H15:H34" si="11">F15</f>
+        <f t="shared" ref="H15:H35" si="11">F15</f>
         <v>31960.877336479982</v>
       </c>
       <c r="I15" s="17">
-        <f t="shared" ref="I15:I34" si="12">H15-G15</f>
+        <f t="shared" ref="I15:I35" si="12">H15-G15</f>
         <v>5960.8773364799818</v>
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="14.1" customHeight="1">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -16568,7 +16586,7 @@
         <v>4.4379900000000001</v>
       </c>
       <c r="C16" s="16">
-        <f t="shared" ref="C16:C34" si="13">C15</f>
+        <f t="shared" ref="C16:C35" si="13">C15</f>
         <v>2000</v>
       </c>
       <c r="D16" s="17">
@@ -16576,7 +16594,7 @@
         <v>450.65446294381013</v>
       </c>
       <c r="E16" s="17">
-        <f t="shared" ref="E16:E34" si="14">E15+D16</f>
+        <f t="shared" ref="E16:E35" si="14">E15+D16</f>
         <v>7217.3531702942382</v>
       </c>
       <c r="F16" s="17">
@@ -16584,7 +16602,7 @@
         <v>32030.541196234128</v>
       </c>
       <c r="G16" s="17">
-        <f t="shared" ref="G16:G34" si="15">G15+C16</f>
+        <f t="shared" ref="G16:G35" si="15">G15+C16</f>
         <v>28000</v>
       </c>
       <c r="H16" s="17">
@@ -16597,7 +16615,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1">
       <c r="A17" s="14">
         <v>44316</v>
       </c>
@@ -16635,7 +16653,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1">
       <c r="A18" s="14">
         <v>44347</v>
       </c>
@@ -16673,7 +16691,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1">
       <c r="A19" s="14">
         <v>44377</v>
       </c>
@@ -16711,7 +16729,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1">
       <c r="A20" s="14">
         <v>44407</v>
       </c>
@@ -16749,7 +16767,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1">
       <c r="A21" s="14">
         <v>44439</v>
       </c>
@@ -16788,7 +16806,7 @@
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1">
       <c r="A22" s="14">
         <v>44469</v>
       </c>
@@ -16826,7 +16844,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1">
       <c r="A23" s="14">
         <v>44498</v>
       </c>
@@ -16864,7 +16882,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1">
       <c r="A24" s="14">
         <v>44530</v>
       </c>
@@ -16902,7 +16920,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1">
       <c r="A25" s="14">
         <v>44561</v>
       </c>
@@ -16940,7 +16958,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1">
       <c r="A26" s="14">
         <v>44589</v>
       </c>
@@ -16978,7 +16996,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1">
       <c r="A27" s="14">
         <v>44620</v>
       </c>
@@ -17016,7 +17034,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1">
       <c r="A28" s="14">
         <v>44651</v>
       </c>
@@ -17054,7 +17072,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1">
       <c r="A29" s="14">
         <v>44680</v>
       </c>
@@ -17092,7 +17110,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1">
       <c r="A30" s="14">
         <v>44712</v>
       </c>
@@ -17130,7 +17148,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1">
       <c r="A31" s="14">
         <v>44742</v>
       </c>
@@ -17168,7 +17186,7 @@
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1">
       <c r="A32" s="14">
         <v>44771</v>
       </c>
@@ -17206,7 +17224,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1">
       <c r="A33" s="14">
         <v>44804</v>
       </c>
@@ -17245,7 +17263,7 @@
       <c r="J33" s="6"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="12.75">
       <c r="A34" s="14">
         <v>44834</v>
       </c>
@@ -17280,6 +17298,43 @@
       <c r="I34" s="17">
         <f t="shared" si="12"/>
         <v>-11770.911062729705</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="12.75">
+      <c r="A35" s="14">
+        <v>44865</v>
+      </c>
+      <c r="B35" s="15">
+        <f>VLOOKUP(A35,[1]szse_innovation_100!$A:$F,6)</f>
+        <v>3.2993999023437501</v>
+      </c>
+      <c r="C35" s="16">
+        <f t="shared" si="13"/>
+        <v>2000</v>
+      </c>
+      <c r="D35" s="17">
+        <f t="shared" si="9"/>
+        <v>606.17083687833269</v>
+      </c>
+      <c r="E35" s="17">
+        <f t="shared" si="14"/>
+        <v>16207.515402295514</v>
+      </c>
+      <c r="F35" s="17">
+        <f t="shared" si="10"/>
+        <v>53475.074735568647</v>
+      </c>
+      <c r="G35" s="17">
+        <f t="shared" si="15"/>
+        <v>66000</v>
+      </c>
+      <c r="H35" s="17">
+        <f t="shared" si="11"/>
+        <v>53475.074735568647</v>
+      </c>
+      <c r="I35" s="17">
+        <f t="shared" si="12"/>
+        <v>-12524.925264431353</v>
       </c>
     </row>
   </sheetData>
@@ -17297,11 +17352,11 @@
   </sheetPr>
   <dimension ref="A1:D383"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
@@ -17309,7 +17364,7 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="B1" s="30" t="s">
         <v>194</v>
       </c>
@@ -17317,7 +17372,7 @@
         <v>399088</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1">
       <c r="B2" s="30"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
@@ -17326,7 +17381,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -17341,7 +17396,7 @@
         <v>45.12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>2</v>
@@ -17357,7 +17412,7 @@
         <v>44.965000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1">
       <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -17373,7 +17428,7 @@
         <v>44.99666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -17389,7 +17444,7 @@
         <v>44.792500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1">
       <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -17405,7 +17460,7 @@
         <v>44.440000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -17421,7 +17476,7 @@
         <v>44.256666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -17437,7 +17492,7 @@
         <v>44.252857142857145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -17453,7 +17508,7 @@
         <v>44.220000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -17469,7 +17524,7 @@
         <v>44.181111111111115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -17485,7 +17540,7 @@
         <v>44.341000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -17501,7 +17556,7 @@
         <v>44.458181818181828</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -17517,7 +17572,7 @@
         <v>44.577500000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -17533,7 +17588,7 @@
         <v>44.703076923076928</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -17549,7 +17604,7 @@
         <v>44.860000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -17565,7 +17620,7 @@
         <v>44.968000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -17581,7 +17636,7 @@
         <v>45.078750000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -17597,7 +17652,7 @@
         <v>45.214117647058828</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -17613,7 +17668,7 @@
         <v>45.345555555555563</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -17629,7 +17684,7 @@
         <v>45.46631578947369</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -17645,7 +17700,7 @@
         <v>45.062500000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1">
       <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -17661,7 +17716,7 @@
         <v>44.643333333333338</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1">
       <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -17677,7 +17732,7 @@
         <v>44.269090909090913</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1">
       <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -17693,7 +17748,7 @@
         <v>43.928695652173921</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1">
       <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -17709,7 +17764,7 @@
         <v>43.627500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1">
       <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -17725,7 +17780,7 @@
         <v>43.332400000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1">
       <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -17741,7 +17796,7 @@
         <v>43.088461538461544</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -17757,7 +17812,7 @@
         <v>42.901851851851859</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -17773,7 +17828,7 @@
         <v>42.726071428571437</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1">
       <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -17789,7 +17844,7 @@
         <v>42.570000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1">
       <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -17805,7 +17860,7 @@
         <v>42.435000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -17821,7 +17876,7 @@
         <v>42.298387096774199</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1">
       <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -17837,7 +17892,7 @@
         <v>42.179062500000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -17853,7 +17908,7 @@
         <v>42.093333333333341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -17869,7 +17924,7 @@
         <v>42.005000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1">
       <c r="A37" s="18">
         <f t="shared" ref="A37:A100" si="1">A36+1</f>
         <v>35</v>
@@ -17885,7 +17940,7 @@
         <v>41.929428571428573</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1">
       <c r="A38" s="18">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -17901,7 +17956,7 @@
         <v>41.856666666666662</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1">
       <c r="A39" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -17917,7 +17972,7 @@
         <v>41.802432432432425</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1">
       <c r="A40" s="18">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -17933,7 +17988,7 @@
         <v>41.751315789473679</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1">
       <c r="A41" s="18">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -17949,7 +18004,7 @@
         <v>41.689999999999991</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1">
       <c r="A42" s="18">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -17965,7 +18020,7 @@
         <v>41.621999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1">
       <c r="A43" s="18">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -17981,7 +18036,7 @@
         <v>41.5680487804878</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1">
       <c r="A44" s="18">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -17997,7 +18052,7 @@
         <v>41.512380952380944</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1">
       <c r="A45" s="18">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -18013,7 +18068,7 @@
         <v>41.454186046511623</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1">
       <c r="A46" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -18029,7 +18084,7 @@
         <v>41.399318181818174</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1">
       <c r="A47" s="18">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -18045,7 +18100,7 @@
         <v>41.36044444444444</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1">
       <c r="A48" s="18">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -18061,7 +18116,7 @@
         <v>41.322391304347818</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1">
       <c r="A49" s="18">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -18077,7 +18132,7 @@
         <v>41.285319148936161</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1">
       <c r="A50" s="18">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -18093,7 +18148,7 @@
         <v>41.222499999999989</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1">
       <c r="A51" s="18">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -18109,7 +18164,7 @@
         <v>41.174693877551015</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1">
       <c r="A52" s="18">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -18125,7 +18180,7 @@
         <v>41.139199999999988</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1">
       <c r="A53" s="18">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -18141,7 +18196,7 @@
         <v>41.106862745098027</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1">
       <c r="A54" s="18">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -18157,7 +18212,7 @@
         <v>41.078653846153834</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1">
       <c r="A55" s="18">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -18173,7 +18228,7 @@
         <v>41.062452830188661</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1">
       <c r="A56" s="18">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -18189,7 +18244,7 @@
         <v>41.045555555555538</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1">
       <c r="A57" s="18">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -18205,7 +18260,7 @@
         <v>41.038181818181798</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1">
       <c r="A58" s="18">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -18221,7 +18276,7 @@
         <v>41.038928571428549</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1">
       <c r="A59" s="18">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -18237,7 +18292,7 @@
         <v>41.034736842105247</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1">
       <c r="A60" s="18">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -18253,7 +18308,7 @@
         <v>41.041896551724122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1">
       <c r="A61" s="18">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -18269,7 +18324,7 @@
         <v>41.046101694915237</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1">
       <c r="A62" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -18285,7 +18340,7 @@
         <v>41.029166666666654</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1">
       <c r="A63" s="18">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -18301,7 +18356,7 @@
         <v>41.015737704918017</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1">
       <c r="A64" s="18">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -18317,7 +18372,7 @@
         <v>40.997580645161271</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1">
       <c r="A65" s="18">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -18333,7 +18388,7 @@
         <v>40.997301587301571</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1">
       <c r="A66" s="18">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -18349,7 +18404,7 @@
         <v>40.998281249999984</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1">
       <c r="A67" s="18">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -18365,7 +18420,7 @@
         <v>40.994153846153829</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1">
       <c r="A68" s="18">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -18381,7 +18436,7 @@
         <v>41.006060606060593</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1">
       <c r="A69" s="18">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -18397,7 +18452,7 @@
         <v>41.01641791044775</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1">
       <c r="A70" s="18">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -18413,7 +18468,7 @@
         <v>41.020294117647047</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1">
       <c r="A71" s="18">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -18429,7 +18484,7 @@
         <v>41.027826086956509</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1">
       <c r="A72" s="18">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -18445,7 +18500,7 @@
         <v>41.021428571428558</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1">
       <c r="A73" s="18">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -18461,7 +18516,7 @@
         <v>41.019295774647873</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1">
       <c r="A74" s="18">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -18477,7 +18532,7 @@
         <v>41.017499999999984</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1">
       <c r="A75" s="18">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -18493,7 +18548,7 @@
         <v>41.027123287671216</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1">
       <c r="A76" s="18">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -18509,7 +18564,7 @@
         <v>41.036081081081065</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1">
       <c r="A77" s="18">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -18525,7 +18580,7 @@
         <v>41.035466666666643</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1">
       <c r="A78" s="18">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -18541,7 +18596,7 @@
         <v>41.020526335866805</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1">
       <c r="A79" s="18">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -18557,7 +18612,7 @@
         <v>40.984025981952598</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1">
       <c r="A80" s="18">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -18573,7 +18628,7 @@
         <v>40.953717942849167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1">
       <c r="A81" s="18">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -18589,7 +18644,7 @@
         <v>40.943164537647085</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1">
       <c r="A82" s="18">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -18605,7 +18660,7 @@
         <v>40.930499984741189</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1">
       <c r="A83" s="18">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -18621,7 +18676,7 @@
         <v>40.927160476872935</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1">
       <c r="A84" s="18">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -18637,7 +18692,7 @@
         <v>40.921951202764724</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1">
       <c r="A85" s="18">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -18653,7 +18708,7 @@
         <v>40.929036107810127</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1">
       <c r="A86" s="18">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -18669,7 +18724,7 @@
         <v>40.931428547813759</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1">
       <c r="A87" s="18">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -18685,7 +18740,7 @@
         <v>40.92988232062843</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1">
       <c r="A88" s="18">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -18701,7 +18756,7 @@
         <v>40.928372052214847</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1">
       <c r="A89" s="18">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -18717,7 +18772,7 @@
         <v>40.927701096808754</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1">
       <c r="A90" s="18">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -18733,7 +18788,7 @@
         <v>40.924090864008107</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1">
       <c r="A91" s="18">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -18749,7 +18804,7 @@
         <v>40.917528047025854</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1">
       <c r="A92" s="18">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -18765,7 +18820,7 @@
         <v>40.904444420708536</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1">
       <c r="A93" s="18">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -18781,7 +18836,7 @@
         <v>40.886703283288959</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1">
       <c r="A94" s="18">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -18797,7 +18852,7 @@
         <v>40.859891271176529</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1">
       <c r="A95" s="18">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -18813,7 +18868,7 @@
         <v>40.836344033518131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1">
       <c r="A96" s="18">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -18829,7 +18884,7 @@
         <v>40.815851010261682</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1">
       <c r="A97" s="18">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -18845,7 +18900,7 @@
         <v>40.787684151097331</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1">
       <c r="A98" s="18">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -18861,7 +18916,7 @@
         <v>40.770416618982935</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1">
       <c r="A99" s="18">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -18877,7 +18932,7 @@
         <v>40.756804084384548</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1">
       <c r="A100" s="18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -18893,7 +18948,7 @@
         <v>40.744489749207773</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1">
       <c r="A101" s="18">
         <f t="shared" ref="A101:A355" si="2">A100+1</f>
         <v>99</v>
@@ -18909,7 +18964,7 @@
         <v>40.723232270828383</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1">
       <c r="A102" s="18">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -18925,7 +18980,7 @@
         <v>40.702299958801255</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1">
       <c r="A103" s="18">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -18941,7 +18996,7 @@
         <v>40.680296984379815</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1">
       <c r="A104" s="18">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -18957,7 +19012,7 @@
         <v>40.654705834482208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1">
       <c r="A105" s="18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -18973,7 +19028,7 @@
         <v>40.599999957038342</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1">
       <c r="A106" s="18">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -18989,7 +19044,7 @@
         <v>40.542692259274979</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1">
       <c r="A107" s="18">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -19005,7 +19060,7 @@
         <v>40.482476154145722</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1">
       <c r="A108" s="18">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -19021,7 +19076,7 @@
         <v>40.435849029253099</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1">
       <c r="A109" s="18">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -19037,7 +19092,7 @@
         <v>40.391775685247957</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1">
       <c r="A110" s="18">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -19053,7 +19108,7 @@
         <v>40.346574042991335</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1">
       <c r="A111" s="18">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -19069,7 +19124,7 @@
         <v>40.302110060945544</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1">
       <c r="A112" s="18">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -19085,7 +19140,7 @@
         <v>40.260272703690944</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1">
       <c r="A113" s="18">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -19101,7 +19156,7 @@
         <v>40.215585555342926</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1">
       <c r="A114" s="18">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -19117,7 +19172,7 @@
         <v>40.173214266640784</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1">
       <c r="A115" s="18">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -19133,7 +19188,7 @@
         <v>40.128584061344093</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1">
       <c r="A116" s="18">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -19149,7 +19204,7 @@
         <v>40.078245599311678</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1">
       <c r="A117" s="18">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -19165,7 +19220,7 @@
         <v>40.032521721881352</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1">
       <c r="A118" s="18">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -19181,7 +19236,7 @@
         <v>39.985344822324535</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1">
       <c r="A119" s="18">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -19197,7 +19252,7 @@
         <v>39.940427341298147</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1">
       <c r="A120" s="18">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -19213,7 +19268,7 @@
         <v>39.89703388666701</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1">
       <c r="A121" s="18">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -19229,7 +19284,7 @@
         <v>39.856638645204157</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1">
       <c r="A122" s="18">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -19245,7 +19300,7 @@
         <v>39.814833324432357</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1">
       <c r="A123" s="18">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -19261,7 +19316,7 @@
         <v>39.769752062332515</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1">
       <c r="A124" s="18">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -19277,7 +19332,7 @@
         <v>39.730819672131133</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1">
       <c r="A125" s="18">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -19293,7 +19348,7 @@
         <v>39.694634136422749</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1">
       <c r="A126" s="18">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -19309,7 +19364,7 @@
         <v>39.656854815322561</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1">
       <c r="A127" s="18">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -19325,7 +19380,7 @@
         <v>39.615839967039982</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1">
       <c r="A128" s="18">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -19341,7 +19396,7 @@
         <v>39.58039680484125</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1">
       <c r="A129" s="18">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -19357,7 +19412,7 @@
         <v>39.545433045669277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1">
       <c r="A130" s="18">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -19373,7 +19428,7 @@
         <v>39.514765591640611</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1">
       <c r="A131" s="18">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -19389,7 +19444,7 @@
         <v>39.483953462403086</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1">
       <c r="A132" s="18">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -19405,7 +19460,7 @@
         <v>39.455384593153838</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1">
       <c r="A133" s="18">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -19421,7 +19476,7 @@
         <v>39.425419815954186</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1">
       <c r="A134" s="18">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -19437,7 +19492,7 @@
         <v>39.396590869848474</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1">
       <c r="A135" s="18">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -19453,7 +19508,7 @@
         <v>39.371127767969917</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1">
       <c r="A136" s="18">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -19469,7 +19524,7 @@
         <v>39.348358155447755</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1">
       <c r="A137" s="18">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -19485,7 +19540,7 @@
         <v>39.325777719037028</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1">
       <c r="A138" s="18">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -19501,7 +19556,7 @@
         <v>39.30124995404411</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1">
       <c r="A139" s="18">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -19517,7 +19572,7 @@
         <v>39.275182432773718</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1">
       <c r="A140" s="18">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -19533,7 +19588,7 @@
         <v>39.253623134275358</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1">
       <c r="A141" s="18">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -19549,7 +19604,7 @@
         <v>39.222517934100708</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1">
       <c r="A142" s="18">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -19565,7 +19620,7 @@
         <v>39.191714233499987</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1">
       <c r="A143" s="18">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -19581,7 +19636,7 @@
         <v>39.159361657872324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1">
       <c r="A144" s="18">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -19597,7 +19652,7 @@
         <v>39.130704182464775</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1">
       <c r="A145" s="18">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -19613,7 +19668,7 @@
         <v>39.101118849230758</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1">
       <c r="A146" s="18">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -19629,7 +19684,7 @@
         <v>39.072916641388879</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1">
       <c r="A147" s="18">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -19645,7 +19700,7 @@
         <v>39.046344810896542</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1">
       <c r="A148" s="18">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -19661,7 +19716,7 @@
         <v>39.018561638767117</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1">
       <c r="A149" s="18">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -19677,7 +19732,7 @@
         <v>38.994013599387742</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1">
       <c r="A150" s="18">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -19693,7 +19748,7 @@
         <v>38.968783766418909</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1">
       <c r="A151" s="18">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -19709,7 +19764,7 @@
         <v>38.941812068389247</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1">
       <c r="A152" s="18">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -19725,7 +19780,7 @@
         <v>38.915199992999987</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1">
       <c r="A153" s="18">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -19741,7 +19796,7 @@
         <v>38.890794691986741</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1">
       <c r="A154" s="18">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -19757,7 +19812,7 @@
         <v>38.864144727894725</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1">
       <c r="A155" s="18">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -19773,7 +19828,7 @@
         <v>38.840653588888877</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1">
       <c r="A156" s="18">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -19789,7 +19844,7 @@
         <v>38.822142862207784</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1">
       <c r="A157" s="18">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -19805,7 +19860,7 @@
         <v>38.801870974774182</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1">
       <c r="A158" s="18">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -19821,7 +19876,7 @@
         <v>38.781025643141014</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1">
       <c r="A159" s="18">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -19837,7 +19892,7 @@
         <v>38.75942674980891</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1">
       <c r="A160" s="18">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -19853,7 +19908,7 @@
         <v>38.73683543259493</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1">
       <c r="A161" s="18">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -19869,7 +19924,7 @@
         <v>38.715911938364776</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1">
       <c r="A162" s="18">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -19885,7 +19940,7 @@
         <v>38.695499988749994</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1">
       <c r="A163" s="18">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -19901,7 +19956,7 @@
         <v>38.674285695527942</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1">
       <c r="A164" s="18">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -19917,7 +19972,7 @@
         <v>38.652962951851848</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1">
       <c r="A165" s="18">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -19933,7 +19988,7 @@
         <v>38.632515324478518</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1">
       <c r="A166" s="18">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -19949,7 +20004,7 @@
         <v>38.609999978780486</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1">
       <c r="A167" s="18">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -19965,7 +20020,7 @@
         <v>38.586363609696967</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1">
       <c r="A168" s="18">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -19981,7 +20036,7 @@
         <v>38.566746972469872</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1">
       <c r="A169" s="18">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -19997,7 +20052,7 @@
         <v>38.550598780598797</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1">
       <c r="A170" s="18">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -20013,7 +20068,7 @@
         <v>38.53458331529761</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1">
       <c r="A171" s="18">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -20029,7 +20084,7 @@
         <v>38.518757382130168</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1">
       <c r="A172" s="18">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -20045,7 +20100,7 @@
         <v>38.501588212058813</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1">
       <c r="A173" s="18">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -20061,7 +20116,7 @@
         <v>38.482806999824554</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1">
       <c r="A174" s="18">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -20077,7 +20132,7 @@
         <v>38.465581380406974</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1">
       <c r="A175" s="18">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -20093,7 +20148,7 @@
         <v>38.445202289364161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1">
       <c r="A176" s="18">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -20109,7 +20164,7 @@
         <v>38.42022985362069</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1">
       <c r="A177" s="18">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -20125,7 +20180,7 @@
         <v>38.397485675200002</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1">
       <c r="A178" s="18">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -20141,7 +20196,7 @@
         <v>38.376420407897733</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1">
       <c r="A179" s="18">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -20157,7 +20212,7 @@
         <v>38.356271147796612</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1">
       <c r="A180" s="18">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -20173,7 +20228,7 @@
         <v>38.333426933033707</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1">
       <c r="A181" s="18">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -20189,7 +20244,7 @@
         <v>38.311229020614526</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1">
       <c r="A182" s="18">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -20205,7 +20260,7 @@
         <v>38.290888867888889</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1">
       <c r="A183" s="18">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -20221,7 +20276,7 @@
         <v>38.268618754364638</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1">
       <c r="A184" s="18">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -20237,7 +20292,7 @@
         <v>38.248351618351641</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1">
       <c r="A185" s="18">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -20253,7 +20308,7 @@
         <v>38.228579205136612</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1">
       <c r="A186" s="18">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -20269,7 +20324,7 @@
         <v>38.206847793913042</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1">
       <c r="A187" s="18">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -20285,7 +20340,7 @@
         <v>38.181189152216213</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1">
       <c r="A188" s="18">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -20301,7 +20356,7 @@
         <v>38.15387092274193</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1">
       <c r="A189" s="18">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -20317,7 +20372,7 @@
         <v>38.12657749128342</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1">
       <c r="A190" s="18">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -20333,7 +20388,7 @@
         <v>38.100053139680853</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1">
       <c r="A191" s="18">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -20349,7 +20404,7 @@
         <v>38.071216879682538</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1">
       <c r="A192" s="18">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -20365,7 +20420,7 @@
         <v>38.0456315228421</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1">
       <c r="A193" s="18">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -20381,7 +20436,7 @@
         <v>38.017120363036646</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1">
       <c r="A194" s="18">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -20397,7 +20452,7 @@
         <v>37.989791613541662</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1">
       <c r="A195" s="18">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -20413,7 +20468,7 @@
         <v>37.965699429792743</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1">
       <c r="A196" s="18">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -20429,7 +20484,7 @@
         <v>37.941855619072165</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1">
       <c r="A197" s="18">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -20445,7 +20500,7 @@
         <v>37.915128152000001</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1">
       <c r="A198" s="18">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -20461,7 +20516,7 @@
         <v>37.889132598622453</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1">
       <c r="A199" s="18">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -20477,7 +20532,7 @@
         <v>37.861268989137059</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1">
       <c r="A200" s="18">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -20493,7 +20548,7 @@
         <v>37.834646419242425</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1">
       <c r="A201" s="18">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -20509,7 +20564,7 @@
         <v>37.804422063819104</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1">
       <c r="A202" s="18">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -20525,7 +20580,7 @@
         <v>37.775999948150009</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1">
       <c r="A203" s="18">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -20541,7 +20596,7 @@
         <v>37.743084524776123</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1">
       <c r="A204" s="18">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -20557,7 +20612,7 @@
         <v>37.710494996683174</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1">
       <c r="A205" s="18">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -20573,7 +20628,7 @@
         <v>37.678472849310346</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1">
       <c r="A206" s="18">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -20589,7 +20644,7 @@
         <v>37.643872496323532</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1">
       <c r="A207" s="18">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -20605,7 +20660,7 @@
         <v>37.61151214380488</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1">
       <c r="A208" s="18">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -20621,7 +20676,7 @@
         <v>37.577281499757277</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1">
       <c r="A209" s="18">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -20637,7 +20692,7 @@
         <v>37.540193181497585</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1">
       <c r="A210" s="18">
         <f t="shared" si="2"/>
         <v>208</v>
@@ -20653,7 +20708,7 @@
         <v>37.503221100721149</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1">
       <c r="A211" s="18">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -20669,7 +20724,7 @@
         <v>37.469999944593297</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1">
       <c r="A212" s="18">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -20685,7 +20740,7 @@
         <v>37.437380901238093</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1">
       <c r="A213" s="18">
         <f t="shared" si="2"/>
         <v>211</v>
@@ -20701,7 +20756,7 @@
         <v>37.405781941800946</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1">
       <c r="A214" s="18">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -20717,7 +20772,7 @@
         <v>37.374245231273584</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1">
       <c r="A215" s="18">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -20733,7 +20788,7 @@
         <v>37.342629053615028</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1">
       <c r="A216" s="18">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -20749,7 +20804,7 @@
         <v>37.309205555841125</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1">
       <c r="A217" s="18">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -20765,7 +20820,7 @@
         <v>37.27981390102326</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1">
       <c r="A218" s="18">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -20781,7 +20836,7 @@
         <v>37.247685133657413</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1">
       <c r="A219" s="18">
         <f t="shared" si="2"/>
         <v>217</v>
@@ -20797,7 +20852,7 @@
         <v>37.218433126682037</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1">
       <c r="A220" s="18">
         <f t="shared" si="2"/>
         <v>218</v>
@@ -20813,7 +20868,7 @@
         <v>37.189770586238538</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1">
       <c r="A221" s="18">
         <f t="shared" si="2"/>
         <v>219</v>
@@ -20829,7 +20884,7 @@
         <v>37.161232823424669</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1">
       <c r="A222" s="18">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -20845,7 +20900,7 @@
         <v>37.130772670045459</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1">
       <c r="A223" s="18">
         <f t="shared" si="2"/>
         <v>221</v>
@@ -20861,7 +20916,7 @@
         <v>37.098913970859734</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1">
       <c r="A224" s="18">
         <f t="shared" si="2"/>
         <v>222</v>
@@ -20877,7 +20932,7 @@
         <v>37.065180126891896</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1">
       <c r="A225" s="18">
         <f t="shared" si="2"/>
         <v>223</v>
@@ -20893,7 +20948,7 @@
         <v>37.026053759282519</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1">
       <c r="A226" s="18">
         <f t="shared" si="2"/>
         <v>224</v>
@@ -20909,7 +20964,7 @@
         <v>36.984464229464287</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1">
       <c r="A227" s="18">
         <f t="shared" si="2"/>
         <v>225</v>
@@ -20925,7 +20980,7 @@
         <v>36.94248883697778</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1">
       <c r="A228" s="18">
         <f t="shared" si="2"/>
         <v>226</v>
@@ -20941,7 +20996,7 @@
         <v>36.903849501769912</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1">
       <c r="A229" s="18">
         <f t="shared" si="2"/>
         <v>227</v>
@@ -20957,7 +21012,7 @@
         <v>36.866607877356834</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1">
       <c r="A230" s="18">
         <f t="shared" si="2"/>
         <v>228</v>
@@ -20973,7 +21028,7 @@
         <v>36.825438542543864</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1">
       <c r="A231" s="18">
         <f t="shared" si="2"/>
         <v>229</v>
@@ -20989,7 +21044,7 @@
         <v>36.780523967772936</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1">
       <c r="A232" s="18">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -21005,7 +21060,7 @@
         <v>36.740956473608705</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1">
       <c r="A233" s="18">
         <f t="shared" si="2"/>
         <v>231</v>
@@ -21021,7 +21076,7 @@
         <v>36.704978308398275</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1">
       <c r="A234" s="18">
         <f t="shared" si="2"/>
         <v>232</v>
@@ -21037,7 +21092,7 @@
         <v>36.66892236806035</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1">
       <c r="A235" s="18">
         <f t="shared" si="2"/>
         <v>233</v>
@@ -21053,7 +21108,7 @@
         <v>36.633948454291847</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1">
       <c r="A236" s="18">
         <f t="shared" si="2"/>
         <v>234</v>
@@ -21069,7 +21124,7 @@
         <v>36.598119614743588</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1">
       <c r="A237" s="18">
         <f t="shared" si="2"/>
         <v>235</v>
@@ -21085,7 +21140,7 @@
         <v>36.563361660255318</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1">
       <c r="A238" s="18">
         <f t="shared" si="2"/>
         <v>236</v>
@@ -21101,7 +21156,7 @@
         <v>36.528262673093217</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1">
       <c r="A239" s="18">
         <f t="shared" si="2"/>
         <v>237</v>
@@ -21117,7 +21172,7 @@
         <v>36.490632875358649</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1">
       <c r="A240" s="18">
         <f t="shared" si="2"/>
         <v>238</v>
@@ -21133,7 +21188,7 @@
         <v>36.451512570462185</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1">
       <c r="A241" s="18">
         <f t="shared" si="2"/>
         <v>239</v>
@@ -21149,7 +21204,7 @@
         <v>36.412008334728036</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1">
       <c r="A242" s="18">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -21165,7 +21220,7 @@
         <v>36.376874964750002</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1">
       <c r="A243" s="18">
         <f t="shared" si="2"/>
         <v>241</v>
@@ -21181,7 +21236,7 @@
         <v>36.340622369004151</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1">
       <c r="A244" s="18">
         <f t="shared" si="2"/>
         <v>242</v>
@@ -21197,7 +21252,7 @@
         <v>36.305495830909088</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1">
       <c r="A245" s="18">
         <f t="shared" si="2"/>
         <v>243</v>
@@ -21213,7 +21268,7 @@
         <v>36.269876504938274</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1">
       <c r="A246" s="18">
         <f t="shared" si="2"/>
         <v>244</v>
@@ -21229,7 +21284,7 @@
         <v>36.232704883032788</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1">
       <c r="A247" s="18">
         <f t="shared" si="2"/>
         <v>245</v>
@@ -21245,7 +21300,7 @@
         <v>36.195714251183674</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1">
       <c r="A248" s="18">
         <f t="shared" si="2"/>
         <v>246</v>
@@ -21261,7 +21316,7 @@
         <v>36.154715415243899</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1">
       <c r="A249" s="18">
         <f t="shared" si="2"/>
         <v>247</v>
@@ -21277,7 +21332,7 @@
         <v>36.116113331943318</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1">
       <c r="A250" s="18">
         <f t="shared" si="2"/>
         <v>248</v>
@@ -21293,7 +21348,7 @@
         <v>36.076048360080641</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1">
       <c r="A251" s="18">
         <f t="shared" si="2"/>
         <v>249</v>
@@ -21309,7 +21364,7 @@
         <v>36.036947764859427</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1">
       <c r="A252" s="18">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -21325,7 +21380,7 @@
         <v>35.997639970119991</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1">
       <c r="A253" s="18">
         <f t="shared" si="2"/>
         <v>251</v>
@@ -21341,7 +21396,7 @@
         <v>35.959402359163342</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1">
       <c r="A254" s="18">
         <f t="shared" si="2"/>
         <v>252</v>
@@ -21357,7 +21412,7 @@
         <v>35.920357115039671</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1">
       <c r="A255" s="18">
         <f t="shared" si="2"/>
         <v>253</v>
@@ -21373,7 +21428,7 @@
         <v>35.879051352964417</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1">
       <c r="A256" s="18">
         <f t="shared" si="2"/>
         <v>254</v>
@@ -21389,7 +21444,7 @@
         <v>35.835787368858256</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1">
       <c r="A257" s="18">
         <f t="shared" si="2"/>
         <v>255</v>
@@ -21405,7 +21460,7 @@
         <v>35.792862710117632</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1">
       <c r="A258" s="18">
         <f t="shared" si="2"/>
         <v>256</v>
@@ -21421,7 +21476,7 @@
         <v>35.744648405624986</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1">
       <c r="A259" s="18">
         <f t="shared" si="2"/>
         <v>257</v>
@@ -21437,7 +21492,7 @@
         <v>35.69571981291827</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1">
       <c r="A260" s="18">
         <f t="shared" si="2"/>
         <v>258</v>
@@ -21453,7 +21508,7 @@
         <v>35.651472839573628</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1">
       <c r="A261" s="18">
         <f t="shared" si="2"/>
         <v>259</v>
@@ -21469,7 +21524,7 @@
         <v>35.606949781660212</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1">
       <c r="A262" s="18">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -21485,7 +21540,7 @@
         <v>35.566653817730753</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1">
       <c r="A263" s="18">
         <f t="shared" si="2"/>
         <v>261</v>
@@ -21501,7 +21556,7 @@
         <v>35.519386943103434</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1">
       <c r="A264" s="18">
         <f t="shared" si="2"/>
         <v>262</v>
@@ -21517,7 +21572,7 @@
         <v>35.470534318549603</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1">
       <c r="A265" s="18">
         <f t="shared" si="2"/>
         <v>263</v>
@@ -21533,7 +21588,7 @@
         <v>35.421064602813672</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1">
       <c r="A266" s="18">
         <f t="shared" si="2"/>
         <v>264</v>
@@ -21549,7 +21604,7 @@
         <v>35.373181784962107</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1">
       <c r="A267" s="18">
         <f t="shared" si="2"/>
         <v>265</v>
@@ -21565,7 +21620,7 @@
         <v>35.328188649018855</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1">
       <c r="A268" s="18">
         <f t="shared" si="2"/>
         <v>266</v>
@@ -21581,7 +21636,7 @@
         <v>35.283233055751865</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1">
       <c r="A269" s="18">
         <f t="shared" si="2"/>
         <v>267</v>
@@ -21597,7 +21652,7 @@
         <v>35.239288359812718</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1">
       <c r="A270" s="18">
         <f t="shared" si="2"/>
         <v>268</v>
@@ -21613,7 +21668,7 @@
         <v>35.194701466380579</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1">
       <c r="A271" s="18">
         <f t="shared" si="2"/>
         <v>269</v>
@@ -21629,7 +21684,7 @@
         <v>35.152081756617086</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1">
       <c r="A272" s="18">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -21645,7 +21700,7 @@
         <v>35.109703672629614</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1">
       <c r="A273" s="18">
         <f t="shared" si="2"/>
         <v>271</v>
@@ -21661,7 +21716,7 @@
         <v>35.067933551771205</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1">
       <c r="A274" s="18">
         <f t="shared" si="2"/>
         <v>272</v>
@@ -21677,7 +21732,7 @@
         <v>35.027867619595575</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1">
       <c r="A275" s="18">
         <f t="shared" si="2"/>
         <v>273</v>
@@ -21693,7 +21748,7 @@
         <v>34.987655647509143</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1">
       <c r="A276" s="18">
         <f t="shared" si="2"/>
         <v>274</v>
@@ -21709,7 +21764,7 @@
         <v>34.944671499452539</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1">
       <c r="A277" s="18">
         <f t="shared" si="2"/>
         <v>275</v>
@@ -21725,7 +21780,7 @@
         <v>34.902363601163621</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1">
       <c r="A278" s="18">
         <f t="shared" si="2"/>
         <v>276</v>
@@ -21741,7 +21796,7 @@
         <v>34.860434747246366</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1">
       <c r="A279" s="18">
         <f t="shared" si="2"/>
         <v>277</v>
@@ -21757,7 +21812,7 @@
         <v>34.818953036389878</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1">
       <c r="A280" s="18">
         <f t="shared" si="2"/>
         <v>278</v>
@@ -21773,7 +21828,7 @@
         <v>34.778740972913653</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1">
       <c r="A281" s="18">
         <f t="shared" si="2"/>
         <v>279</v>
@@ -21789,7 +21844,7 @@
         <v>34.740573439534039</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1">
       <c r="A282" s="18">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -21805,7 +21860,7 @@
         <v>34.703321389642845</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1">
       <c r="A283" s="18">
         <f t="shared" si="2"/>
         <v>281</v>
@@ -21821,7 +21876,7 @@
         <v>34.66704622537366</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1">
       <c r="A284" s="18">
         <f t="shared" si="2"/>
         <v>282</v>
@@ -21837,7 +21892,7 @@
         <v>34.633936132092195</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1">
       <c r="A285" s="18">
         <f t="shared" si="2"/>
         <v>283</v>
@@ -21853,7 +21908,7 @@
         <v>34.60084802017667</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1">
       <c r="A286" s="18">
         <f t="shared" si="2"/>
         <v>284</v>
@@ -21869,7 +21924,7 @@
         <v>34.568661932359149</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1">
       <c r="A287" s="18">
         <f t="shared" si="2"/>
         <v>285</v>
@@ -21885,7 +21940,7 @@
         <v>34.534210486982445</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1">
       <c r="A288" s="18">
         <f t="shared" si="2"/>
         <v>286</v>
@@ -21901,7 +21956,7 @@
         <v>34.502202755069924</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1">
       <c r="A289" s="18">
         <f t="shared" si="2"/>
         <v>287</v>
@@ -21917,7 +21972,7 @@
         <v>34.441742116968634</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1">
       <c r="A290" s="18">
         <f t="shared" si="2"/>
         <v>288</v>
@@ -21933,7 +21988,7 @@
         <v>34.411076347847221</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1">
       <c r="A291" s="18">
         <f t="shared" si="2"/>
         <v>289</v>
@@ -21949,7 +22004,7 @@
         <v>34.381903071695504</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1">
       <c r="A292" s="18">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -21965,7 +22020,7 @@
         <v>34.352999957655172</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1">
       <c r="A293" s="18">
         <f t="shared" si="2"/>
         <v>291</v>
@@ -21981,7 +22036,7 @@
         <v>34.326013703505154</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1">
       <c r="A294" s="18">
         <f t="shared" si="2"/>
         <v>292</v>
@@ -21997,7 +22052,7 @@
         <v>34.300958862842464</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1">
       <c r="A295" s="18">
         <f t="shared" si="2"/>
         <v>293</v>
@@ -22013,7 +22068,7 @@
         <v>34.276006784027302</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1">
       <c r="A296" s="18">
         <f t="shared" si="2"/>
         <v>294</v>
@@ -22029,7 +22084,7 @@
         <v>34.249897918707482</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1">
       <c r="A297" s="18">
         <f t="shared" si="2"/>
         <v>295</v>
@@ -22045,7 +22100,7 @@
         <v>34.226135552101695</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1">
       <c r="A298" s="18">
         <f t="shared" si="2"/>
         <v>296</v>
@@ -22061,7 +22116,7 @@
         <v>34.204222931216215</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1">
       <c r="A299" s="18">
         <f t="shared" si="2"/>
         <v>297</v>
@@ -22077,7 +22132,7 @@
         <v>34.18289558410774</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1">
       <c r="A300" s="18">
         <f t="shared" si="2"/>
         <v>298</v>
@@ -22093,7 +22148,7 @@
         <v>34.162718082416099</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1">
       <c r="A301" s="18">
         <f t="shared" si="2"/>
         <v>299</v>
@@ -22109,7 +22164,7 @@
         <v>34.140468189933102</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1">
       <c r="A302" s="18">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -22125,7 +22180,7 @@
         <v>34.119366627533324</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1">
       <c r="A303" s="18">
         <f t="shared" si="2"/>
         <v>301</v>
@@ -22141,7 +22196,7 @@
         <v>34.097840490531553</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1">
       <c r="A304" s="18">
         <f t="shared" si="2"/>
         <v>302</v>
@@ -22157,7 +22212,7 @@
         <v>34.077913866125826</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1">
       <c r="A305" s="18">
         <f t="shared" si="2"/>
         <v>303</v>
@@ -22173,7 +22228,7 @@
         <v>34.057623722376235</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1">
       <c r="A306" s="18">
         <f t="shared" si="2"/>
         <v>304</v>
@@ -22189,7 +22244,7 @@
         <v>34.036743378157887</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1">
       <c r="A307" s="18">
         <f t="shared" si="2"/>
         <v>305</v>
@@ -22205,7 +22260,7 @@
         <v>34.0172130717377</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1">
       <c r="A308" s="18">
         <f t="shared" si="2"/>
         <v>306</v>
@@ -22221,7 +22276,7 @@
         <v>33.997091462385619</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1">
       <c r="A309" s="18">
         <f t="shared" si="2"/>
         <v>307</v>
@@ -22237,7 +22292,7 @@
         <v>33.975211687882734</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1">
       <c r="A310" s="18">
         <f t="shared" si="2"/>
         <v>308</v>
@@ -22253,7 +22308,7 @@
         <v>33.951818144935061</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1">
       <c r="A311" s="18">
         <f t="shared" si="2"/>
         <v>309</v>
@@ -22269,7 +22324,7 @@
         <v>33.929385077993516</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1">
       <c r="A312" s="18">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -22285,7 +22340,7 @@
         <v>33.90851609090322</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1">
       <c r="A313" s="18">
         <f t="shared" si="2"/>
         <v>311</v>
@@ -22301,7 +22356,7 @@
         <v>33.886495137138255</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1">
       <c r="A314" s="18">
         <f t="shared" si="2"/>
         <v>312</v>
@@ -22317,7 +22372,7 @@
         <v>33.865480729391024</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1">
       <c r="A315" s="18">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -22333,7 +22388,7 @@
         <v>33.843706028146961</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1">
       <c r="A316" s="18">
         <f t="shared" si="2"/>
         <v>314</v>
@@ -22349,7 +22404,7 @@
         <v>33.822292954299357</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1">
       <c r="A317" s="18">
         <f t="shared" si="2"/>
         <v>315</v>
@@ -22365,7 +22420,7 @@
         <v>33.800285673142845</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1">
       <c r="A318" s="18">
         <f t="shared" si="2"/>
         <v>316</v>
@@ -22381,7 +22436,7 @@
         <v>33.778132867974676</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1">
       <c r="A319" s="18">
         <f t="shared" si="2"/>
         <v>317</v>
@@ -22397,7 +22452,7 @@
         <v>33.755394277507875</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1">
       <c r="A320" s="18">
         <f t="shared" si="2"/>
         <v>318</v>
@@ -22413,7 +22468,7 @@
         <v>33.733238946698101</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1">
       <c r="A321" s="18">
         <f t="shared" si="2"/>
         <v>319</v>
@@ -22429,7 +22484,7 @@
         <v>33.710940394639486</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1">
       <c r="A322" s="18">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -22445,7 +22500,7 @@
         <v>33.689062453031241</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1">
       <c r="A323" s="18">
         <f t="shared" si="2"/>
         <v>321</v>
@@ -22461,7 +22516,7 @@
         <v>33.666137024579427</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1">
       <c r="A324" s="18">
         <f t="shared" si="2"/>
         <v>322</v>
@@ -22477,7 +22532,7 @@
         <v>33.645031011583839</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1">
       <c r="A325" s="18">
         <f t="shared" si="2"/>
         <v>323</v>
@@ -22493,7 +22548,7 @@
         <v>33.622414816501539</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1">
       <c r="A326" s="18">
         <f t="shared" si="2"/>
         <v>324</v>
@@ -22509,7 +22564,7 @@
         <v>33.59876538805554</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1">
       <c r="A327" s="18">
         <f t="shared" si="2"/>
         <v>325</v>
@@ -22525,7 +22580,7 @@
         <v>33.575630725323066</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1">
       <c r="A328" s="18">
         <f t="shared" si="2"/>
         <v>326</v>
@@ -22541,7 +22596,7 @@
         <v>33.55380363438649</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1">
       <c r="A329" s="18">
         <f t="shared" si="2"/>
         <v>327</v>
@@ -22557,7 +22612,7 @@
         <v>33.532079466574906</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1">
       <c r="A330" s="18">
         <f t="shared" si="2"/>
         <v>328</v>
@@ -22573,7 +22628,7 @@
         <v>33.510823125121938</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1">
       <c r="A331" s="18">
         <f t="shared" si="2"/>
         <v>329</v>
@@ -22589,7 +22644,7 @@
         <v>33.4886017805471</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1">
       <c r="A332" s="18">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -22605,7 +22660,7 @@
         <v>33.468363593333315</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1">
       <c r="A333" s="18">
         <f t="shared" si="2"/>
         <v>331</v>
@@ -22621,7 +22676,7 @@
         <v>33.447673675649533</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1">
       <c r="A334" s="18">
         <f t="shared" si="2"/>
         <v>332</v>
@@ -22637,7 +22692,7 @@
         <v>33.427379475060221</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1">
       <c r="A335" s="18">
         <f t="shared" si="2"/>
         <v>333</v>
@@ -22653,7 +22708,7 @@
         <v>33.407237192282267</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1">
       <c r="A336" s="18">
         <f t="shared" si="2"/>
         <v>334</v>
@@ -22669,7 +22724,7 @@
         <v>33.388532888862258</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1">
       <c r="A337" s="18">
         <f t="shared" si="2"/>
         <v>335</v>
@@ -22685,7 +22740,7 @@
         <v>33.36955219573133</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1">
       <c r="A338" s="18">
         <f t="shared" si="2"/>
         <v>336</v>
@@ -22701,7 +22756,7 @@
         <v>33.34928566976189</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1">
       <c r="A339" s="18">
         <f t="shared" si="2"/>
         <v>337</v>
@@ -22717,7 +22772,7 @@
         <v>33.330356036646869</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1">
       <c r="A340" s="18">
         <f t="shared" si="2"/>
         <v>338</v>
@@ -22733,7 +22788,7 @@
         <v>33.311212973254428</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1">
       <c r="A341" s="18">
         <f t="shared" si="2"/>
         <v>339</v>
@@ -22749,7 +22804,7 @@
         <v>33.289498482949838</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1">
       <c r="A342" s="18">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -22765,7 +22820,7 @@
         <v>33.267764662764691</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1">
       <c r="A343" s="18">
         <f t="shared" si="2"/>
         <v>341</v>
@@ -22781,7 +22836,7 @@
         <v>33.245806410645152</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1">
       <c r="A344" s="18">
         <f t="shared" si="2"/>
         <v>342</v>
@@ -22797,7 +22852,7 @@
         <v>33.223508733537997</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1">
       <c r="A345" s="18">
         <f t="shared" si="2"/>
         <v>343</v>
@@ -22813,7 +22868,7 @@
         <v>33.200932904985407</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1">
       <c r="A346" s="18">
         <f t="shared" si="2"/>
         <v>344</v>
@@ -22829,7 +22884,7 @@
         <v>33.177616240465106</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4">
       <c r="A347" s="18">
         <f t="shared" si="2"/>
         <v>345</v>
@@ -22845,7 +22900,7 @@
         <v>33.149565178898534</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4">
       <c r="A348" s="18">
         <f t="shared" si="2"/>
         <v>346</v>
@@ -22861,7 +22916,7 @@
         <v>33.121676262196516</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4">
       <c r="A349" s="18">
         <f t="shared" si="2"/>
         <v>347</v>
@@ -22877,7 +22932,7 @@
         <v>33.093948088530247</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4">
       <c r="A350" s="18">
         <f t="shared" si="2"/>
         <v>348</v>
@@ -22893,7 +22948,7 @@
         <v>33.065890766436766</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4">
       <c r="A351" s="18">
         <f t="shared" si="2"/>
         <v>349</v>
@@ -22909,7 +22964,7 @@
         <v>33.037191939025774</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4">
       <c r="A352" s="18">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -22925,7 +22980,7 @@
         <v>33.008257104914271</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4">
       <c r="A353" s="18">
         <f t="shared" si="2"/>
         <v>351</v>
@@ -22941,7 +22996,7 @@
         <v>32.979743551908818</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4">
       <c r="A354" s="18">
         <f t="shared" si="2"/>
         <v>352</v>
@@ -22957,7 +23012,7 @@
         <v>32.952698825909074</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4">
       <c r="A355" s="18">
         <f t="shared" si="2"/>
         <v>353</v>
@@ -22973,7 +23028,7 @@
         <v>32.924305911388082</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4">
       <c r="A356" s="18">
         <f t="shared" ref="A356:A383" si="3">A355+1</f>
         <v>354</v>
@@ -22989,7 +23044,7 @@
         <v>32.89635589468925</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4">
       <c r="A357" s="18">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -23005,7 +23060,7 @@
         <v>32.867380245999989</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4">
       <c r="A358" s="18">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -23021,7 +23076,7 @@
         <v>32.836966259129198</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4">
       <c r="A359" s="18">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -23037,7 +23092,7 @@
         <v>32.807282879607826</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4">
       <c r="A360" s="18">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -23053,7 +23108,7 @@
         <v>32.779664771229037</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4">
       <c r="A361" s="18">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -23069,7 +23124,7 @@
         <v>32.752005538941489</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4">
       <c r="A362" s="18">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -23085,7 +23140,7 @@
         <v>32.726722189166651</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4">
       <c r="A363" s="18">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -23101,7 +23156,7 @@
         <v>32.701772818310232</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4">
       <c r="A364" s="18">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -23117,7 +23172,7 @@
         <v>32.677320408259654</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4">
       <c r="A365" s="18">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -23133,7 +23188,7 @@
         <v>32.652286468154252</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4">
       <c r="A366" s="18">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -23149,7 +23204,7 @@
         <v>32.626868097692288</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4">
       <c r="A367" s="18">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -23165,7 +23220,7 @@
         <v>32.601424623862997</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4">
       <c r="A368" s="18">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -23181,7 +23236,7 @@
         <v>32.57256827494534</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4">
       <c r="A369" s="18">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -23197,7 +23252,7 @@
         <v>32.544414137329682</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4">
       <c r="A370" s="18">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -23213,7 +23268,7 @@
         <v>32.518260838260851</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4">
       <c r="A371" s="18">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -23229,7 +23284,7 @@
         <v>32.492059590406484</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4">
       <c r="A372" s="18">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -23245,7 +23300,7 @@
         <v>32.468162131027007</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4">
       <c r="A373" s="18">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -23261,7 +23316,7 @@
         <v>32.444582177331519</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4">
       <c r="A374" s="18">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -23277,7 +23332,7 @@
         <v>32.421478462822563</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4">
       <c r="A375" s="18">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -23293,7 +23348,7 @@
         <v>32.39780157726539</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4">
       <c r="A376" s="18">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -23309,7 +23364,7 @@
         <v>32.373743283262009</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4">
       <c r="A377" s="18">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -23325,7 +23380,7 @@
         <v>32.349653301573312</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4">
       <c r="A378" s="18">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -23341,7 +23396,7 @@
         <v>32.324335074494662</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4">
       <c r="A379" s="18">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -23357,7 +23412,7 @@
         <v>32.298912434429688</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4">
       <c r="A380" s="18">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -23373,7 +23428,7 @@
         <v>32.274788328280401</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4">
       <c r="A381" s="18">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -23389,7 +23444,7 @@
         <v>32.250211047941931</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4">
       <c r="A382" s="18">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -23405,7 +23460,7 @@
         <v>32.223605227789449</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4">
       <c r="A383" s="18">
         <f t="shared" si="3"/>
         <v>381</v>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="250">
   <si>
     <t>PE</t>
   </si>
@@ -1010,86 +1010,6 @@
   </si>
   <si>
     <t xml:space="preserve">2022/11/29
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/2
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/5
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/7
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/9
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/12
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/13
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/14
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/15
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/16
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/19
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/20
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/21
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/22
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/23
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/26
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/27
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022/12/28
 </t>
   </si>
 </sst>
@@ -1104,7 +1024,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1653,109 +1573,109 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1763,261 +1683,6 @@
           <c:val>
             <c:numRef>
               <c:f>model1!资金</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>38000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>46000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>48000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>52000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>54000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>56000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>58000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>62000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>66000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>68000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>model1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>total assets</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>model1!时间</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>43889</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43921</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43951</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43980</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44012</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44043</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44074</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44104</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44134</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44165</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44196</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44225</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44253</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44286</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44316</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44347</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44377</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44407</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44439</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44469</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44498</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44530</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44589</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44620</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44651</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44680</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44712</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44771</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44804</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44834</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44865</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44895</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="34"/>
@@ -2129,20 +1794,20 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
+              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>model1!$I$1</c:f>
+              <c:f>model1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>profit amount</c:v>
+                  <c:v>total assets</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2150,7 +1815,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2163,116 +1828,116 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>model1!金额</c:f>
+              <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="34"/>
@@ -2384,6 +2049,159 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>model1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>profit amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>model1!时间</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>3.25108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8991500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.17509</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1906699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6513100000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1706000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1298999999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9869400000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2014499999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.27712</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7245600000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9833500000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7232599999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4379900000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7860299999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.9806599999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.1114799999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9776999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7613100000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7106400000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8678999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.9547099609374996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8630097656249998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3440297851562502</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3355400390624999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8658500976562502</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5012099609375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6361599121093748</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1096201171875002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.8724699707031252</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7022099609375001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3477299804687499</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2993999023437501</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.4802900390625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>model1!金额</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
@@ -2398,17 +2216,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="529471360"/>
-        <c:axId val="532038400"/>
+        <c:axId val="256210048"/>
+        <c:axId val="256211584"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="529471360"/>
+      <c:catAx>
+        <c:axId val="256210048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2445,14 +2263,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532038400"/>
+        <c:crossAx val="256211584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="532038400"/>
+        <c:axId val="256211584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2503,7 +2322,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529471360"/>
+        <c:crossAx val="256210048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16689,12 +16508,12 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -16715,7 +16534,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>180</v>
       </c>
@@ -16745,7 +16564,7 @@
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:22" ht="14.1" customHeight="1">
+    <row r="2" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -16761,7 +16580,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="14.1" customHeight="1">
+    <row r="3" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -16830,7 +16649,7 @@
         <v>-22000</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="14.1" customHeight="1">
+    <row r="4" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -16905,7 +16724,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="14.1" customHeight="1">
+    <row r="5" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -16975,7 +16794,7 @@
         <v>53008.069006718506</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="14.1" customHeight="1">
+    <row r="6" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -17017,7 +16836,7 @@
         <v>9.9835199022272558E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="14.1" customHeight="1">
+    <row r="7" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -17055,7 +16874,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:22" ht="14.1" customHeight="1">
+    <row r="8" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -17093,7 +16912,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="14.1" customHeight="1">
+    <row r="9" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -17131,7 +16950,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="14.1" customHeight="1">
+    <row r="10" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -17169,7 +16988,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="14.1" customHeight="1">
+    <row r="11" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -17207,7 +17026,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="14.1" customHeight="1">
+    <row r="12" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -17245,7 +17064,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:22" ht="14.1" customHeight="1">
+    <row r="13" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -17283,7 +17102,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:22" ht="14.1" customHeight="1">
+    <row r="14" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -17321,7 +17140,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:22" ht="14.1" customHeight="1">
+    <row r="15" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -17359,7 +17178,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:22" ht="14.1" customHeight="1">
+    <row r="16" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -17397,7 +17216,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>44316</v>
       </c>
@@ -17435,7 +17254,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>44347</v>
       </c>
@@ -17473,7 +17292,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>44377</v>
       </c>
@@ -17511,7 +17330,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>44407</v>
       </c>
@@ -17549,7 +17368,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>44439</v>
       </c>
@@ -17588,7 +17407,7 @@
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>44469</v>
       </c>
@@ -17626,7 +17445,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>44498</v>
       </c>
@@ -17664,7 +17483,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>44530</v>
       </c>
@@ -17702,7 +17521,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>44561</v>
       </c>
@@ -17740,7 +17559,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>44589</v>
       </c>
@@ -17778,7 +17597,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>44620</v>
       </c>
@@ -17816,7 +17635,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>44651</v>
       </c>
@@ -17854,7 +17673,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>44680</v>
       </c>
@@ -17892,7 +17711,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>44712</v>
       </c>
@@ -17930,7 +17749,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>44742</v>
       </c>
@@ -17968,7 +17787,7 @@
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>44771</v>
       </c>
@@ -18006,7 +17825,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>44804</v>
       </c>
@@ -18045,7 +17864,7 @@
       <c r="J33" s="6"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75">
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>44834</v>
       </c>
@@ -18082,7 +17901,7 @@
         <v>-11770.911062729705</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75">
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>44865</v>
       </c>
@@ -18119,7 +17938,7 @@
         <v>-12524.925264431353</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.75">
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>44895</v>
       </c>
@@ -18171,11 +17990,11 @@
   </sheetPr>
   <dimension ref="A1:D427"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
@@ -18183,7 +18002,7 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="30" t="s">
         <v>194</v>
       </c>
@@ -18191,7 +18010,7 @@
         <v>399088</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
@@ -18200,7 +18019,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -18215,7 +18034,7 @@
         <v>45.12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>2</v>
@@ -18231,7 +18050,7 @@
         <v>44.965000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -18247,7 +18066,7 @@
         <v>44.99666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -18263,7 +18082,7 @@
         <v>44.792500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -18279,7 +18098,7 @@
         <v>44.440000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -18295,7 +18114,7 @@
         <v>44.256666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -18311,7 +18130,7 @@
         <v>44.252857142857145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -18327,7 +18146,7 @@
         <v>44.220000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -18343,7 +18162,7 @@
         <v>44.181111111111115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -18359,7 +18178,7 @@
         <v>44.341000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -18375,7 +18194,7 @@
         <v>44.458181818181828</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -18391,7 +18210,7 @@
         <v>44.577500000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -18407,7 +18226,7 @@
         <v>44.703076923076928</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -18423,7 +18242,7 @@
         <v>44.860000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -18439,7 +18258,7 @@
         <v>44.968000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -18455,7 +18274,7 @@
         <v>45.078750000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -18471,7 +18290,7 @@
         <v>45.214117647058828</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -18487,7 +18306,7 @@
         <v>45.345555555555563</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -18503,7 +18322,7 @@
         <v>45.46631578947369</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -18519,7 +18338,7 @@
         <v>45.062500000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -18535,7 +18354,7 @@
         <v>44.643333333333338</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -18551,7 +18370,7 @@
         <v>44.269090909090913</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -18567,7 +18386,7 @@
         <v>43.928695652173921</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -18583,7 +18402,7 @@
         <v>43.627500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -18599,7 +18418,7 @@
         <v>43.332400000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -18615,7 +18434,7 @@
         <v>43.088461538461544</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -18631,7 +18450,7 @@
         <v>42.901851851851859</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -18647,7 +18466,7 @@
         <v>42.726071428571437</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -18663,7 +18482,7 @@
         <v>42.570000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -18679,7 +18498,7 @@
         <v>42.435000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -18695,7 +18514,7 @@
         <v>42.298387096774199</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -18711,7 +18530,7 @@
         <v>42.179062500000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -18727,7 +18546,7 @@
         <v>42.093333333333341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -18743,7 +18562,7 @@
         <v>42.005000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
         <f t="shared" ref="A37:A100" si="1">A36+1</f>
         <v>35</v>
@@ -18759,7 +18578,7 @@
         <v>41.929428571428573</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -18775,7 +18594,7 @@
         <v>41.856666666666662</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -18791,7 +18610,7 @@
         <v>41.802432432432425</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -18807,7 +18626,7 @@
         <v>41.751315789473679</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -18823,7 +18642,7 @@
         <v>41.689999999999991</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -18839,7 +18658,7 @@
         <v>41.621999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -18855,7 +18674,7 @@
         <v>41.5680487804878</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -18871,7 +18690,7 @@
         <v>41.512380952380944</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -18887,7 +18706,7 @@
         <v>41.454186046511623</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -18903,7 +18722,7 @@
         <v>41.399318181818174</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -18919,7 +18738,7 @@
         <v>41.36044444444444</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -18935,7 +18754,7 @@
         <v>41.322391304347818</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -18951,7 +18770,7 @@
         <v>41.285319148936161</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -18967,7 +18786,7 @@
         <v>41.222499999999989</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -18983,7 +18802,7 @@
         <v>41.174693877551015</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -18999,7 +18818,7 @@
         <v>41.139199999999988</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="18">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -19015,7 +18834,7 @@
         <v>41.106862745098027</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="18">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -19031,7 +18850,7 @@
         <v>41.078653846153834</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="18">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -19047,7 +18866,7 @@
         <v>41.062452830188661</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="18">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -19063,7 +18882,7 @@
         <v>41.045555555555538</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="18">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -19079,7 +18898,7 @@
         <v>41.038181818181798</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -19095,7 +18914,7 @@
         <v>41.038928571428549</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="18">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -19111,7 +18930,7 @@
         <v>41.034736842105247</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="18">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -19127,7 +18946,7 @@
         <v>41.041896551724122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="18">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -19143,7 +18962,7 @@
         <v>41.046101694915237</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -19159,7 +18978,7 @@
         <v>41.029166666666654</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="18">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -19175,7 +18994,7 @@
         <v>41.015737704918017</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="18">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -19191,7 +19010,7 @@
         <v>40.997580645161271</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="18">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -19207,7 +19026,7 @@
         <v>40.997301587301571</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="18">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -19223,7 +19042,7 @@
         <v>40.998281249999984</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="18">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -19239,7 +19058,7 @@
         <v>40.994153846153829</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="18">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -19255,7 +19074,7 @@
         <v>41.006060606060593</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="18">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -19271,7 +19090,7 @@
         <v>41.01641791044775</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="18">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -19287,7 +19106,7 @@
         <v>41.020294117647047</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="18">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -19303,7 +19122,7 @@
         <v>41.027826086956509</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -19319,7 +19138,7 @@
         <v>41.021428571428558</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="18">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -19335,7 +19154,7 @@
         <v>41.019295774647873</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="18">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -19351,7 +19170,7 @@
         <v>41.017499999999984</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="18">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -19367,7 +19186,7 @@
         <v>41.027123287671216</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="18">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -19383,7 +19202,7 @@
         <v>41.036081081081065</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="18">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -19399,7 +19218,7 @@
         <v>41.035466666666643</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="18">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -19415,7 +19234,7 @@
         <v>41.020526335866805</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="18">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -19431,7 +19250,7 @@
         <v>40.984025981952598</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="18">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -19447,7 +19266,7 @@
         <v>40.953717942849167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="18">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -19463,7 +19282,7 @@
         <v>40.943164537647085</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="18">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -19479,7 +19298,7 @@
         <v>40.930499984741189</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="18">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -19495,7 +19314,7 @@
         <v>40.927160476872935</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="18">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -19511,7 +19330,7 @@
         <v>40.921951202764724</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="18">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -19527,7 +19346,7 @@
         <v>40.929036107810127</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="18">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -19543,7 +19362,7 @@
         <v>40.931428547813759</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="18">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -19559,7 +19378,7 @@
         <v>40.92988232062843</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="18">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -19575,7 +19394,7 @@
         <v>40.928372052214847</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="18">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -19591,7 +19410,7 @@
         <v>40.927701096808754</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="18">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -19607,7 +19426,7 @@
         <v>40.924090864008107</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="18">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -19623,7 +19442,7 @@
         <v>40.917528047025854</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="18">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -19639,7 +19458,7 @@
         <v>40.904444420708536</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="18">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -19655,7 +19474,7 @@
         <v>40.886703283288959</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="18">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -19671,7 +19490,7 @@
         <v>40.859891271176529</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="18">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -19687,7 +19506,7 @@
         <v>40.836344033518131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="18">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -19703,7 +19522,7 @@
         <v>40.815851010261682</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="18">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -19719,7 +19538,7 @@
         <v>40.787684151097331</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="18">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -19735,7 +19554,7 @@
         <v>40.770416618982935</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="18">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -19751,7 +19570,7 @@
         <v>40.756804084384548</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -19767,7 +19586,7 @@
         <v>40.744489749207773</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="18">
         <f t="shared" ref="A101:A355" si="2">A100+1</f>
         <v>99</v>
@@ -19783,7 +19602,7 @@
         <v>40.723232270828383</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="18">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -19799,7 +19618,7 @@
         <v>40.702299958801255</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="18">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -19815,7 +19634,7 @@
         <v>40.680296984379815</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="18">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -19831,7 +19650,7 @@
         <v>40.654705834482208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -19847,7 +19666,7 @@
         <v>40.599999957038342</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="18">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -19863,7 +19682,7 @@
         <v>40.542692259274979</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="18">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -19879,7 +19698,7 @@
         <v>40.482476154145722</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="18">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -19895,7 +19714,7 @@
         <v>40.435849029253099</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="18">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -19911,7 +19730,7 @@
         <v>40.391775685247957</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="18">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -19927,7 +19746,7 @@
         <v>40.346574042991335</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="18">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -19943,7 +19762,7 @@
         <v>40.302110060945544</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="18">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -19959,7 +19778,7 @@
         <v>40.260272703690944</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="18">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -19975,7 +19794,7 @@
         <v>40.215585555342926</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="18">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -19991,7 +19810,7 @@
         <v>40.173214266640784</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="18">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -20007,7 +19826,7 @@
         <v>40.128584061344093</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="18">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -20023,7 +19842,7 @@
         <v>40.078245599311678</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="18">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -20039,7 +19858,7 @@
         <v>40.032521721881352</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="18">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -20055,7 +19874,7 @@
         <v>39.985344822324535</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="18">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -20071,7 +19890,7 @@
         <v>39.940427341298147</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="18">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -20087,7 +19906,7 @@
         <v>39.89703388666701</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="18">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -20103,7 +19922,7 @@
         <v>39.856638645204157</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="18">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -20119,7 +19938,7 @@
         <v>39.814833324432357</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="18">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -20135,7 +19954,7 @@
         <v>39.769752062332515</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="18">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -20151,7 +19970,7 @@
         <v>39.730819672131133</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="18">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -20167,7 +19986,7 @@
         <v>39.694634136422749</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="18">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -20183,7 +20002,7 @@
         <v>39.656854815322561</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="18">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -20199,7 +20018,7 @@
         <v>39.615839967039982</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="18">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -20215,7 +20034,7 @@
         <v>39.58039680484125</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="18">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -20231,7 +20050,7 @@
         <v>39.545433045669277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="18">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -20247,7 +20066,7 @@
         <v>39.514765591640611</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="18">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -20263,7 +20082,7 @@
         <v>39.483953462403086</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="18">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -20279,7 +20098,7 @@
         <v>39.455384593153838</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="18">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -20295,7 +20114,7 @@
         <v>39.425419815954186</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="18">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -20311,7 +20130,7 @@
         <v>39.396590869848474</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="18">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -20327,7 +20146,7 @@
         <v>39.371127767969917</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="18">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -20343,7 +20162,7 @@
         <v>39.348358155447755</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="18">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -20359,7 +20178,7 @@
         <v>39.325777719037028</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="18">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -20375,7 +20194,7 @@
         <v>39.30124995404411</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="18">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -20391,7 +20210,7 @@
         <v>39.275182432773718</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="18">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -20407,7 +20226,7 @@
         <v>39.253623134275358</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="18">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -20423,7 +20242,7 @@
         <v>39.222517934100708</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="18">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -20439,7 +20258,7 @@
         <v>39.191714233499987</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="18">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -20455,7 +20274,7 @@
         <v>39.159361657872324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="18">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -20471,7 +20290,7 @@
         <v>39.130704182464775</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="18">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -20487,7 +20306,7 @@
         <v>39.101118849230758</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="18">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -20503,7 +20322,7 @@
         <v>39.072916641388879</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="18">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -20519,7 +20338,7 @@
         <v>39.046344810896542</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="18">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -20535,7 +20354,7 @@
         <v>39.018561638767117</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="18">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -20551,7 +20370,7 @@
         <v>38.994013599387742</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="18">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -20567,7 +20386,7 @@
         <v>38.968783766418909</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="18">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -20583,7 +20402,7 @@
         <v>38.941812068389247</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="18">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -20599,7 +20418,7 @@
         <v>38.915199992999987</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="18">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -20615,7 +20434,7 @@
         <v>38.890794691986741</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="18">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -20631,7 +20450,7 @@
         <v>38.864144727894725</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="18">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -20647,7 +20466,7 @@
         <v>38.840653588888877</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="18">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -20663,7 +20482,7 @@
         <v>38.822142862207784</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="18">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -20679,7 +20498,7 @@
         <v>38.801870974774182</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="18">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -20695,7 +20514,7 @@
         <v>38.781025643141014</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="18">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -20711,7 +20530,7 @@
         <v>38.75942674980891</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="18">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -20727,7 +20546,7 @@
         <v>38.73683543259493</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="18">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -20743,7 +20562,7 @@
         <v>38.715911938364776</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="18">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -20759,7 +20578,7 @@
         <v>38.695499988749994</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="18">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -20775,7 +20594,7 @@
         <v>38.674285695527942</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="18">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -20791,7 +20610,7 @@
         <v>38.652962951851848</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="18">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -20807,7 +20626,7 @@
         <v>38.632515324478518</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="18">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -20823,7 +20642,7 @@
         <v>38.609999978780486</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="18">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -20839,7 +20658,7 @@
         <v>38.586363609696967</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="18">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -20855,7 +20674,7 @@
         <v>38.566746972469872</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="18">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -20871,7 +20690,7 @@
         <v>38.550598780598797</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="18">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -20887,7 +20706,7 @@
         <v>38.53458331529761</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="18">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -20903,7 +20722,7 @@
         <v>38.518757382130168</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="18">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -20919,7 +20738,7 @@
         <v>38.501588212058813</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="18">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -20935,7 +20754,7 @@
         <v>38.482806999824554</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="18">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -20951,7 +20770,7 @@
         <v>38.465581380406974</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="18">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -20967,7 +20786,7 @@
         <v>38.445202289364161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="18">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -20983,7 +20802,7 @@
         <v>38.42022985362069</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="18">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -20999,7 +20818,7 @@
         <v>38.397485675200002</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="18">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -21015,7 +20834,7 @@
         <v>38.376420407897733</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="18">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -21031,7 +20850,7 @@
         <v>38.356271147796612</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="18">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -21047,7 +20866,7 @@
         <v>38.333426933033707</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="18">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -21063,7 +20882,7 @@
         <v>38.311229020614526</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="18">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -21079,7 +20898,7 @@
         <v>38.290888867888889</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="18">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -21095,7 +20914,7 @@
         <v>38.268618754364638</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="18">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -21111,7 +20930,7 @@
         <v>38.248351618351641</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="18">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -21127,7 +20946,7 @@
         <v>38.228579205136612</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="18">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -21143,7 +20962,7 @@
         <v>38.206847793913042</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="18">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -21159,7 +20978,7 @@
         <v>38.181189152216213</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="18">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -21175,7 +20994,7 @@
         <v>38.15387092274193</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="18">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -21191,7 +21010,7 @@
         <v>38.12657749128342</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="18">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -21207,7 +21026,7 @@
         <v>38.100053139680853</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="18">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -21223,7 +21042,7 @@
         <v>38.071216879682538</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="18">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -21239,7 +21058,7 @@
         <v>38.0456315228421</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="18">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -21255,7 +21074,7 @@
         <v>38.017120363036646</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="18">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -21271,7 +21090,7 @@
         <v>37.989791613541662</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="18">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -21287,7 +21106,7 @@
         <v>37.965699429792743</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="18">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -21303,7 +21122,7 @@
         <v>37.941855619072165</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="18">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -21319,7 +21138,7 @@
         <v>37.915128152000001</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="18">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -21335,7 +21154,7 @@
         <v>37.889132598622453</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="18">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -21351,7 +21170,7 @@
         <v>37.861268989137059</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="18">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -21367,7 +21186,7 @@
         <v>37.834646419242425</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="18">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -21383,7 +21202,7 @@
         <v>37.804422063819104</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="18">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -21399,7 +21218,7 @@
         <v>37.775999948150009</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="18">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -21415,7 +21234,7 @@
         <v>37.743084524776123</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="18">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -21431,7 +21250,7 @@
         <v>37.710494996683174</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="18">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -21447,7 +21266,7 @@
         <v>37.678472849310346</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="18">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -21463,7 +21282,7 @@
         <v>37.643872496323532</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="18">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -21479,7 +21298,7 @@
         <v>37.61151214380488</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="18">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -21495,7 +21314,7 @@
         <v>37.577281499757277</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="18">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -21511,7 +21330,7 @@
         <v>37.540193181497585</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="18">
         <f t="shared" si="2"/>
         <v>208</v>
@@ -21527,7 +21346,7 @@
         <v>37.503221100721149</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="18">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -21543,7 +21362,7 @@
         <v>37.469999944593297</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="18">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -21559,7 +21378,7 @@
         <v>37.437380901238093</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="18">
         <f t="shared" si="2"/>
         <v>211</v>
@@ -21575,7 +21394,7 @@
         <v>37.405781941800946</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="18">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -21591,7 +21410,7 @@
         <v>37.374245231273584</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="18">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -21607,7 +21426,7 @@
         <v>37.342629053615028</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="18">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -21623,7 +21442,7 @@
         <v>37.309205555841125</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="18">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -21639,7 +21458,7 @@
         <v>37.27981390102326</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="18">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -21655,7 +21474,7 @@
         <v>37.247685133657413</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="18">
         <f t="shared" si="2"/>
         <v>217</v>
@@ -21671,7 +21490,7 @@
         <v>37.218433126682037</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="18">
         <f t="shared" si="2"/>
         <v>218</v>
@@ -21687,7 +21506,7 @@
         <v>37.189770586238538</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="18">
         <f t="shared" si="2"/>
         <v>219</v>
@@ -21703,7 +21522,7 @@
         <v>37.161232823424669</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="18">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -21719,7 +21538,7 @@
         <v>37.130772670045459</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="18">
         <f t="shared" si="2"/>
         <v>221</v>
@@ -21735,7 +21554,7 @@
         <v>37.098913970859734</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="18">
         <f t="shared" si="2"/>
         <v>222</v>
@@ -21751,7 +21570,7 @@
         <v>37.065180126891896</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="18">
         <f t="shared" si="2"/>
         <v>223</v>
@@ -21767,7 +21586,7 @@
         <v>37.026053759282519</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="18">
         <f t="shared" si="2"/>
         <v>224</v>
@@ -21783,7 +21602,7 @@
         <v>36.984464229464287</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="18">
         <f t="shared" si="2"/>
         <v>225</v>
@@ -21799,7 +21618,7 @@
         <v>36.94248883697778</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="18">
         <f t="shared" si="2"/>
         <v>226</v>
@@ -21815,7 +21634,7 @@
         <v>36.903849501769912</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="18">
         <f t="shared" si="2"/>
         <v>227</v>
@@ -21831,7 +21650,7 @@
         <v>36.866607877356834</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="18">
         <f t="shared" si="2"/>
         <v>228</v>
@@ -21847,7 +21666,7 @@
         <v>36.825438542543864</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="18">
         <f t="shared" si="2"/>
         <v>229</v>
@@ -21863,7 +21682,7 @@
         <v>36.780523967772936</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="18">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -21879,7 +21698,7 @@
         <v>36.740956473608705</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="18">
         <f t="shared" si="2"/>
         <v>231</v>
@@ -21895,7 +21714,7 @@
         <v>36.704978308398275</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="18">
         <f t="shared" si="2"/>
         <v>232</v>
@@ -21911,7 +21730,7 @@
         <v>36.66892236806035</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="18">
         <f t="shared" si="2"/>
         <v>233</v>
@@ -21927,7 +21746,7 @@
         <v>36.633948454291847</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="18">
         <f t="shared" si="2"/>
         <v>234</v>
@@ -21943,7 +21762,7 @@
         <v>36.598119614743588</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="18">
         <f t="shared" si="2"/>
         <v>235</v>
@@ -21959,7 +21778,7 @@
         <v>36.563361660255318</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="18">
         <f t="shared" si="2"/>
         <v>236</v>
@@ -21975,7 +21794,7 @@
         <v>36.528262673093217</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="18">
         <f t="shared" si="2"/>
         <v>237</v>
@@ -21991,7 +21810,7 @@
         <v>36.490632875358649</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="18">
         <f t="shared" si="2"/>
         <v>238</v>
@@ -22007,7 +21826,7 @@
         <v>36.451512570462185</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="18">
         <f t="shared" si="2"/>
         <v>239</v>
@@ -22023,7 +21842,7 @@
         <v>36.412008334728036</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="18">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -22039,7 +21858,7 @@
         <v>36.376874964750002</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="18">
         <f t="shared" si="2"/>
         <v>241</v>
@@ -22055,7 +21874,7 @@
         <v>36.340622369004151</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="18">
         <f t="shared" si="2"/>
         <v>242</v>
@@ -22071,7 +21890,7 @@
         <v>36.305495830909088</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="18">
         <f t="shared" si="2"/>
         <v>243</v>
@@ -22087,7 +21906,7 @@
         <v>36.269876504938274</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="18">
         <f t="shared" si="2"/>
         <v>244</v>
@@ -22103,7 +21922,7 @@
         <v>36.232704883032788</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="18">
         <f t="shared" si="2"/>
         <v>245</v>
@@ -22119,7 +21938,7 @@
         <v>36.195714251183674</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="18">
         <f t="shared" si="2"/>
         <v>246</v>
@@ -22135,7 +21954,7 @@
         <v>36.154715415243899</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="18">
         <f t="shared" si="2"/>
         <v>247</v>
@@ -22151,7 +21970,7 @@
         <v>36.116113331943318</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="18">
         <f t="shared" si="2"/>
         <v>248</v>
@@ -22167,7 +21986,7 @@
         <v>36.076048360080641</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="18">
         <f t="shared" si="2"/>
         <v>249</v>
@@ -22183,7 +22002,7 @@
         <v>36.036947764859427</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="18">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -22199,7 +22018,7 @@
         <v>35.997639970119991</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="18">
         <f t="shared" si="2"/>
         <v>251</v>
@@ -22215,7 +22034,7 @@
         <v>35.959402359163342</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="18">
         <f t="shared" si="2"/>
         <v>252</v>
@@ -22231,7 +22050,7 @@
         <v>35.920357115039671</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="18">
         <f t="shared" si="2"/>
         <v>253</v>
@@ -22247,7 +22066,7 @@
         <v>35.879051352964417</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="18">
         <f t="shared" si="2"/>
         <v>254</v>
@@ -22263,7 +22082,7 @@
         <v>35.835787368858256</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="18">
         <f t="shared" si="2"/>
         <v>255</v>
@@ -22279,7 +22098,7 @@
         <v>35.792862710117632</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="18">
         <f t="shared" si="2"/>
         <v>256</v>
@@ -22295,7 +22114,7 @@
         <v>35.744648405624986</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="18">
         <f t="shared" si="2"/>
         <v>257</v>
@@ -22311,7 +22130,7 @@
         <v>35.69571981291827</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="18">
         <f t="shared" si="2"/>
         <v>258</v>
@@ -22327,7 +22146,7 @@
         <v>35.651472839573628</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="18">
         <f t="shared" si="2"/>
         <v>259</v>
@@ -22343,7 +22162,7 @@
         <v>35.606949781660212</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="18">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -22359,7 +22178,7 @@
         <v>35.566653817730753</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="18">
         <f t="shared" si="2"/>
         <v>261</v>
@@ -22375,7 +22194,7 @@
         <v>35.519386943103434</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="18">
         <f t="shared" si="2"/>
         <v>262</v>
@@ -22391,7 +22210,7 @@
         <v>35.470534318549603</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="18">
         <f t="shared" si="2"/>
         <v>263</v>
@@ -22407,7 +22226,7 @@
         <v>35.421064602813672</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="18">
         <f t="shared" si="2"/>
         <v>264</v>
@@ -22423,7 +22242,7 @@
         <v>35.373181784962107</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="18">
         <f t="shared" si="2"/>
         <v>265</v>
@@ -22439,7 +22258,7 @@
         <v>35.328188649018855</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="18">
         <f t="shared" si="2"/>
         <v>266</v>
@@ -22455,7 +22274,7 @@
         <v>35.283233055751865</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="18">
         <f t="shared" si="2"/>
         <v>267</v>
@@ -22471,7 +22290,7 @@
         <v>35.239288359812718</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="18">
         <f t="shared" si="2"/>
         <v>268</v>
@@ -22487,7 +22306,7 @@
         <v>35.194701466380579</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="18">
         <f t="shared" si="2"/>
         <v>269</v>
@@ -22503,7 +22322,7 @@
         <v>35.152081756617086</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="18">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -22519,7 +22338,7 @@
         <v>35.109703672629614</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="18">
         <f t="shared" si="2"/>
         <v>271</v>
@@ -22535,7 +22354,7 @@
         <v>35.067933551771205</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="18">
         <f t="shared" si="2"/>
         <v>272</v>
@@ -22551,7 +22370,7 @@
         <v>35.027867619595575</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="18">
         <f t="shared" si="2"/>
         <v>273</v>
@@ -22567,7 +22386,7 @@
         <v>34.987655647509143</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="18">
         <f t="shared" si="2"/>
         <v>274</v>
@@ -22583,7 +22402,7 @@
         <v>34.944671499452539</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="18">
         <f t="shared" si="2"/>
         <v>275</v>
@@ -22599,7 +22418,7 @@
         <v>34.902363601163621</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="18">
         <f t="shared" si="2"/>
         <v>276</v>
@@ -22615,7 +22434,7 @@
         <v>34.860434747246366</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="18">
         <f t="shared" si="2"/>
         <v>277</v>
@@ -22631,7 +22450,7 @@
         <v>34.818953036389878</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="18">
         <f t="shared" si="2"/>
         <v>278</v>
@@ -22647,7 +22466,7 @@
         <v>34.778740972913653</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="18">
         <f t="shared" si="2"/>
         <v>279</v>
@@ -22663,7 +22482,7 @@
         <v>34.740573439534039</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="18">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -22679,7 +22498,7 @@
         <v>34.703321389642845</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="18">
         <f t="shared" si="2"/>
         <v>281</v>
@@ -22695,7 +22514,7 @@
         <v>34.66704622537366</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="18">
         <f t="shared" si="2"/>
         <v>282</v>
@@ -22711,7 +22530,7 @@
         <v>34.633936132092195</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="18">
         <f t="shared" si="2"/>
         <v>283</v>
@@ -22727,7 +22546,7 @@
         <v>34.60084802017667</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="18">
         <f t="shared" si="2"/>
         <v>284</v>
@@ -22743,7 +22562,7 @@
         <v>34.568661932359149</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="18">
         <f t="shared" si="2"/>
         <v>285</v>
@@ -22759,7 +22578,7 @@
         <v>34.534210486982445</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="18">
         <f t="shared" si="2"/>
         <v>286</v>
@@ -22775,7 +22594,7 @@
         <v>34.502202755069924</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="18">
         <f t="shared" si="2"/>
         <v>287</v>
@@ -22791,7 +22610,7 @@
         <v>34.441742116968634</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="18">
         <f t="shared" si="2"/>
         <v>288</v>
@@ -22807,7 +22626,7 @@
         <v>34.411076347847221</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="18">
         <f t="shared" si="2"/>
         <v>289</v>
@@ -22823,7 +22642,7 @@
         <v>34.381903071695504</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="18">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -22839,7 +22658,7 @@
         <v>34.352999957655172</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="18">
         <f t="shared" si="2"/>
         <v>291</v>
@@ -22855,7 +22674,7 @@
         <v>34.326013703505154</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="18">
         <f t="shared" si="2"/>
         <v>292</v>
@@ -22871,7 +22690,7 @@
         <v>34.300958862842464</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="18">
         <f t="shared" si="2"/>
         <v>293</v>
@@ -22887,7 +22706,7 @@
         <v>34.276006784027302</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="18">
         <f t="shared" si="2"/>
         <v>294</v>
@@ -22903,7 +22722,7 @@
         <v>34.249897918707482</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="18">
         <f t="shared" si="2"/>
         <v>295</v>
@@ -22919,7 +22738,7 @@
         <v>34.226135552101695</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="18">
         <f t="shared" si="2"/>
         <v>296</v>
@@ -22935,7 +22754,7 @@
         <v>34.204222931216215</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="18">
         <f t="shared" si="2"/>
         <v>297</v>
@@ -22951,7 +22770,7 @@
         <v>34.18289558410774</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="18">
         <f t="shared" si="2"/>
         <v>298</v>
@@ -22967,7 +22786,7 @@
         <v>34.162718082416099</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="18">
         <f t="shared" si="2"/>
         <v>299</v>
@@ -22983,7 +22802,7 @@
         <v>34.140468189933102</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="18">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -22999,7 +22818,7 @@
         <v>34.119366627533324</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="18">
         <f t="shared" si="2"/>
         <v>301</v>
@@ -23015,7 +22834,7 @@
         <v>34.097840490531553</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="18">
         <f t="shared" si="2"/>
         <v>302</v>
@@ -23031,7 +22850,7 @@
         <v>34.077913866125826</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="18">
         <f t="shared" si="2"/>
         <v>303</v>
@@ -23047,7 +22866,7 @@
         <v>34.057623722376235</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="18">
         <f t="shared" si="2"/>
         <v>304</v>
@@ -23063,7 +22882,7 @@
         <v>34.036743378157887</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="18">
         <f t="shared" si="2"/>
         <v>305</v>
@@ -23079,7 +22898,7 @@
         <v>34.0172130717377</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="18">
         <f t="shared" si="2"/>
         <v>306</v>
@@ -23095,7 +22914,7 @@
         <v>33.997091462385619</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="18">
         <f t="shared" si="2"/>
         <v>307</v>
@@ -23111,7 +22930,7 @@
         <v>33.975211687882734</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="18">
         <f t="shared" si="2"/>
         <v>308</v>
@@ -23127,7 +22946,7 @@
         <v>33.951818144935061</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="18">
         <f t="shared" si="2"/>
         <v>309</v>
@@ -23143,7 +22962,7 @@
         <v>33.929385077993516</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="18">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -23159,7 +22978,7 @@
         <v>33.90851609090322</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="18">
         <f t="shared" si="2"/>
         <v>311</v>
@@ -23175,7 +22994,7 @@
         <v>33.886495137138255</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="18">
         <f t="shared" si="2"/>
         <v>312</v>
@@ -23191,7 +23010,7 @@
         <v>33.865480729391024</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="18">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -23207,7 +23026,7 @@
         <v>33.843706028146961</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="18">
         <f t="shared" si="2"/>
         <v>314</v>
@@ -23223,7 +23042,7 @@
         <v>33.822292954299357</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="18">
         <f t="shared" si="2"/>
         <v>315</v>
@@ -23239,7 +23058,7 @@
         <v>33.800285673142845</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="18">
         <f t="shared" si="2"/>
         <v>316</v>
@@ -23255,7 +23074,7 @@
         <v>33.778132867974676</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="18">
         <f t="shared" si="2"/>
         <v>317</v>
@@ -23271,7 +23090,7 @@
         <v>33.755394277507875</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="18">
         <f t="shared" si="2"/>
         <v>318</v>
@@ -23287,7 +23106,7 @@
         <v>33.733238946698101</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="18">
         <f t="shared" si="2"/>
         <v>319</v>
@@ -23303,7 +23122,7 @@
         <v>33.710940394639486</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="18">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -23319,7 +23138,7 @@
         <v>33.689062453031241</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="18">
         <f t="shared" si="2"/>
         <v>321</v>
@@ -23335,7 +23154,7 @@
         <v>33.666137024579427</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="18">
         <f t="shared" si="2"/>
         <v>322</v>
@@ -23351,7 +23170,7 @@
         <v>33.645031011583839</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="18">
         <f t="shared" si="2"/>
         <v>323</v>
@@ -23367,7 +23186,7 @@
         <v>33.622414816501539</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="18">
         <f t="shared" si="2"/>
         <v>324</v>
@@ -23383,7 +23202,7 @@
         <v>33.59876538805554</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="18">
         <f t="shared" si="2"/>
         <v>325</v>
@@ -23399,7 +23218,7 @@
         <v>33.575630725323066</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="18">
         <f t="shared" si="2"/>
         <v>326</v>
@@ -23415,7 +23234,7 @@
         <v>33.55380363438649</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="18">
         <f t="shared" si="2"/>
         <v>327</v>
@@ -23431,7 +23250,7 @@
         <v>33.532079466574906</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="18">
         <f t="shared" si="2"/>
         <v>328</v>
@@ -23447,7 +23266,7 @@
         <v>33.510823125121938</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="18">
         <f t="shared" si="2"/>
         <v>329</v>
@@ -23463,7 +23282,7 @@
         <v>33.4886017805471</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="18">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -23479,7 +23298,7 @@
         <v>33.468363593333315</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="18">
         <f t="shared" si="2"/>
         <v>331</v>
@@ -23495,7 +23314,7 @@
         <v>33.447673675649533</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="18">
         <f t="shared" si="2"/>
         <v>332</v>
@@ -23511,7 +23330,7 @@
         <v>33.427379475060221</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="18">
         <f t="shared" si="2"/>
         <v>333</v>
@@ -23527,7 +23346,7 @@
         <v>33.407237192282267</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="18">
         <f t="shared" si="2"/>
         <v>334</v>
@@ -23543,7 +23362,7 @@
         <v>33.388532888862258</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="18">
         <f t="shared" si="2"/>
         <v>335</v>
@@ -23559,7 +23378,7 @@
         <v>33.36955219573133</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="18">
         <f t="shared" si="2"/>
         <v>336</v>
@@ -23575,7 +23394,7 @@
         <v>33.34928566976189</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="18">
         <f t="shared" si="2"/>
         <v>337</v>
@@ -23591,7 +23410,7 @@
         <v>33.330356036646869</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="18">
         <f t="shared" si="2"/>
         <v>338</v>
@@ -23607,7 +23426,7 @@
         <v>33.311212973254428</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="18">
         <f t="shared" si="2"/>
         <v>339</v>
@@ -23623,7 +23442,7 @@
         <v>33.289498482949838</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="18">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -23639,7 +23458,7 @@
         <v>33.267764662764691</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="18">
         <f t="shared" si="2"/>
         <v>341</v>
@@ -23655,7 +23474,7 @@
         <v>33.245806410645152</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="18">
         <f t="shared" si="2"/>
         <v>342</v>
@@ -23671,7 +23490,7 @@
         <v>33.223508733537997</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="18">
         <f t="shared" si="2"/>
         <v>343</v>
@@ -23687,7 +23506,7 @@
         <v>33.200932904985407</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="18">
         <f t="shared" si="2"/>
         <v>344</v>
@@ -23703,7 +23522,7 @@
         <v>33.177616240465106</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="18">
         <f t="shared" si="2"/>
         <v>345</v>
@@ -23719,7 +23538,7 @@
         <v>33.149565178898534</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="18">
         <f t="shared" si="2"/>
         <v>346</v>
@@ -23735,7 +23554,7 @@
         <v>33.121676262196516</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="18">
         <f t="shared" si="2"/>
         <v>347</v>
@@ -23751,7 +23570,7 @@
         <v>33.093948088530247</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="18">
         <f t="shared" si="2"/>
         <v>348</v>
@@ -23767,7 +23586,7 @@
         <v>33.065890766436766</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="18">
         <f t="shared" si="2"/>
         <v>349</v>
@@ -23783,7 +23602,7 @@
         <v>33.037191939025774</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="18">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -23799,7 +23618,7 @@
         <v>33.008257104914271</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="18">
         <f t="shared" si="2"/>
         <v>351</v>
@@ -23815,7 +23634,7 @@
         <v>32.979743551908818</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="18">
         <f t="shared" si="2"/>
         <v>352</v>
@@ -23831,7 +23650,7 @@
         <v>32.952698825909074</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="18">
         <f t="shared" si="2"/>
         <v>353</v>
@@ -23847,7 +23666,7 @@
         <v>32.924305911388082</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="18">
         <f t="shared" ref="A356:A427" si="3">A355+1</f>
         <v>354</v>
@@ -23863,7 +23682,7 @@
         <v>32.89635589468925</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="18">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -23879,7 +23698,7 @@
         <v>32.867380245999989</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="18">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -23895,7 +23714,7 @@
         <v>32.836966259129198</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="18">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -23911,7 +23730,7 @@
         <v>32.807282879607826</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="18">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -23927,7 +23746,7 @@
         <v>32.779664771229037</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="18">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -23943,7 +23762,7 @@
         <v>32.752005538941489</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="18">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -23959,7 +23778,7 @@
         <v>32.726722189166651</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="18">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -23975,7 +23794,7 @@
         <v>32.701772818310232</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="18">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -23991,7 +23810,7 @@
         <v>32.677320408259654</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="18">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -24007,7 +23826,7 @@
         <v>32.652286468154252</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="18">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -24023,7 +23842,7 @@
         <v>32.626868097692288</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="18">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -24039,7 +23858,7 @@
         <v>32.601424623862997</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="18">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -24055,7 +23874,7 @@
         <v>32.57256827494534</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="18">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -24071,7 +23890,7 @@
         <v>32.544414137329682</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="18">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -24087,7 +23906,7 @@
         <v>32.518260838260851</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="18">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -24103,7 +23922,7 @@
         <v>32.492059590406484</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="18">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -24119,7 +23938,7 @@
         <v>32.468162131027007</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="18">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -24135,7 +23954,7 @@
         <v>32.444582177331519</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="18">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -24151,7 +23970,7 @@
         <v>32.421478462822563</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="18">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -24167,7 +23986,7 @@
         <v>32.39780157726539</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="18">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -24183,7 +24002,7 @@
         <v>32.373743283262009</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="18">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -24199,7 +24018,7 @@
         <v>32.349653301573312</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="18">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -24215,7 +24034,7 @@
         <v>32.324335074494662</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="18">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -24231,7 +24050,7 @@
         <v>32.298912434429688</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="18">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -24247,7 +24066,7 @@
         <v>32.274788328280401</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="18">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -24263,7 +24082,7 @@
         <v>32.250211047941931</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="18">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -24279,7 +24098,7 @@
         <v>32.223605227789449</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="18">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -24295,7 +24114,7 @@
         <v>32.197401538923856</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="18">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -24311,7 +24130,7 @@
         <v>32.171413577984268</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="18">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -24327,7 +24146,7 @@
         <v>32.146422943002584</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="18">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -24343,7 +24162,7 @@
         <v>32.121249965390597</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="18">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -24359,7 +24178,7 @@
         <v>32.098077889532441</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="18">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -24375,7 +24194,7 @@
         <v>32.074999968911889</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="18">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -24391,7 +24210,7 @@
         <v>32.051627877751912</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="18">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -24407,7 +24226,7 @@
         <v>32.027680383814406</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="18">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -24423,7 +24242,7 @@
         <v>32.002724906452414</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="18">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -24439,7 +24258,7 @@
         <v>31.979307665256382</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="18">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -24455,7 +24274,7 @@
         <v>31.95606135253194</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="18">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -24471,7 +24290,7 @@
         <v>31.934362218367319</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="18">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -24487,7 +24306,7 @@
         <v>31.911959258931272</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="18">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -24503,7 +24322,7 @@
         <v>31.889365454289315</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="18">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -24519,7 +24338,7 @@
         <v>31.866936682734149</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="18">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -24535,7 +24354,7 @@
         <v>31.844545428484821</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="18">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -24551,7 +24370,7 @@
         <v>31.821385363476043</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="18">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -24567,7 +24386,7 @@
         <v>31.798065302060277</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="18">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -24583,7 +24402,7 @@
         <v>31.774786943483686</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="18">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -24599,7 +24418,7 @@
         <v>31.751249977649977</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="18">
         <f t="shared" si="3"/>
         <v>401</v>
@@ -24615,7 +24434,7 @@
         <v>31.727431401047358</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="18">
         <f t="shared" si="3"/>
         <v>402</v>
@@ -24631,7 +24450,7 @@
         <v>31.704975105920376</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="18">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -24647,357 +24466,93 @@
         <v>31.682903206079384</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
-      <c r="A406" s="18">
-        <f t="shared" si="3"/>
-        <v>404</v>
-      </c>
-      <c r="B406" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="C406" s="20">
-        <v>23.170000080000001</v>
-      </c>
-      <c r="D406" s="18">
-        <f>SUM(C$3:C406)/A406</f>
-        <v>31.661831663688094</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4">
-      <c r="A407" s="18">
-        <f t="shared" si="3"/>
-        <v>405</v>
-      </c>
-      <c r="B407" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="C407" s="20">
-        <v>23.030000690000001</v>
-      </c>
-      <c r="D407" s="18">
-        <f>SUM(C$3:C407)/A407</f>
-        <v>31.640518500790101</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4">
-      <c r="A408" s="18">
-        <f t="shared" si="3"/>
-        <v>406</v>
-      </c>
-      <c r="B408" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="C408" s="20">
-        <v>23.219999309999999</v>
-      </c>
-      <c r="D408" s="18">
-        <f>SUM(C$3:C408)/A408</f>
-        <v>31.619778305738894</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4">
-      <c r="A409" s="18">
-        <f t="shared" si="3"/>
-        <v>407</v>
-      </c>
-      <c r="B409" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="C409" s="20">
-        <v>23.459999079999999</v>
-      </c>
-      <c r="D409" s="18">
-        <f>SUM(C$3:C409)/A409</f>
-        <v>31.599729708132653</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4">
-      <c r="A410" s="18">
-        <f t="shared" si="3"/>
-        <v>408</v>
-      </c>
-      <c r="B410" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="C410" s="20">
-        <v>23.649999619999999</v>
-      </c>
-      <c r="D410" s="18">
-        <f>SUM(C$3:C410)/A410</f>
-        <v>31.580245075563703</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4">
-      <c r="A411" s="18">
-        <f t="shared" si="3"/>
-        <v>409</v>
-      </c>
-      <c r="B411" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="C411" s="20">
-        <v>23.629999160000001</v>
-      </c>
-      <c r="D411" s="18">
-        <f>SUM(C$3:C411)/A411</f>
-        <v>31.560806821491422</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4">
-      <c r="A412" s="18">
-        <f t="shared" si="3"/>
-        <v>410</v>
-      </c>
-      <c r="B412" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="C412" s="20">
-        <v>23.840000150000002</v>
-      </c>
-      <c r="D412" s="18">
-        <f>SUM(C$3:C412)/A412</f>
-        <v>31.541975585707295</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4">
-      <c r="A413" s="18">
-        <f t="shared" si="3"/>
-        <v>411</v>
-      </c>
-      <c r="B413" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="C413" s="20">
-        <v>23.600000380000001</v>
-      </c>
-      <c r="D413" s="18">
-        <f>SUM(C$3:C413)/A413</f>
-        <v>31.522652045060806</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4">
-      <c r="A414" s="18">
-        <f t="shared" si="3"/>
-        <v>412</v>
-      </c>
-      <c r="B414" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="C414" s="20">
-        <v>23.329999919999999</v>
-      </c>
-      <c r="D414" s="18">
-        <f>SUM(C$3:C414)/A414</f>
-        <v>31.502766967087357</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4">
-      <c r="A415" s="18">
-        <f t="shared" si="3"/>
-        <v>413</v>
-      </c>
-      <c r="B415" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="C415" s="20">
-        <v>23.270000459999999</v>
-      </c>
-      <c r="D415" s="18">
-        <f>SUM(C$3:C415)/A415</f>
-        <v>31.482832907748161</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4">
-      <c r="A416" s="18">
-        <f t="shared" si="3"/>
-        <v>414</v>
-      </c>
-      <c r="B416" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="C416" s="20">
-        <v>23.5</v>
-      </c>
-      <c r="D416" s="18">
-        <f>SUM(C$3:C416)/A416</f>
-        <v>31.463550702656981</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4">
-      <c r="A417" s="18">
-        <f t="shared" si="3"/>
-        <v>415</v>
-      </c>
-      <c r="B417" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="C417" s="20">
-        <v>23.350000380000001</v>
-      </c>
-      <c r="D417" s="18">
-        <f>SUM(C$3:C417)/A417</f>
-        <v>31.443999978987929</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4">
-      <c r="A418" s="18">
-        <f t="shared" si="3"/>
-        <v>416</v>
-      </c>
-      <c r="B418" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="C418" s="20">
-        <v>23.079999919999999</v>
-      </c>
-      <c r="D418" s="18">
-        <f>SUM(C$3:C418)/A418</f>
-        <v>31.423894209615362</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4">
-      <c r="A419" s="18">
-        <f t="shared" si="3"/>
-        <v>417</v>
-      </c>
-      <c r="B419" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="C419" s="20">
-        <v>22.709999079999999</v>
-      </c>
-      <c r="D419" s="18">
-        <f>SUM(C$3:C419)/A419</f>
-        <v>31.402997578609092</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4">
-      <c r="A420" s="18">
-        <f t="shared" si="3"/>
-        <v>418</v>
-      </c>
-      <c r="B420" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C420" s="20">
-        <v>22.61000061</v>
-      </c>
-      <c r="D420" s="18">
-        <f>SUM(C$3:C420)/A420</f>
-        <v>31.381961700693761</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4">
-      <c r="A421" s="18">
-        <f t="shared" si="3"/>
-        <v>419</v>
-      </c>
-      <c r="B421" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C421" s="20">
-        <v>22.549999239999998</v>
-      </c>
-      <c r="D421" s="18">
-        <f>SUM(C$3:C421)/A421</f>
-        <v>31.360883031336495</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4">
-      <c r="A422" s="18">
-        <f t="shared" si="3"/>
-        <v>420</v>
-      </c>
-      <c r="B422" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="C422" s="20">
-        <v>22.450000760000002</v>
-      </c>
-      <c r="D422" s="18">
-        <f>SUM(C$3:C422)/A422</f>
-        <v>31.33966664497617</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4">
-      <c r="A423" s="18">
-        <f t="shared" si="3"/>
-        <v>421</v>
-      </c>
-      <c r="B423" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="C423" s="20">
-        <v>22.790000920000001</v>
-      </c>
-      <c r="D423" s="18">
-        <f>SUM(C$3:C423)/A423</f>
-        <v>31.319358650380028</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4">
-      <c r="A424" s="18">
-        <f t="shared" si="3"/>
-        <v>422</v>
-      </c>
-      <c r="B424" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="C424" s="20">
-        <v>23</v>
-      </c>
-      <c r="D424" s="18">
-        <f>SUM(C$3:C424)/A424</f>
-        <v>31.29964453035543</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4">
-      <c r="A425" s="18">
-        <f t="shared" si="3"/>
-        <v>423</v>
-      </c>
-      <c r="B425" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="C425" s="20">
-        <v>22.729999540000001</v>
-      </c>
-      <c r="D425" s="18">
-        <f>SUM(C$3:C425)/A425</f>
-        <v>31.279385322340406</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4">
-      <c r="A426" s="18">
-        <f t="shared" si="3"/>
-        <v>424</v>
-      </c>
-      <c r="B426" s="19">
-        <v>44924</v>
-      </c>
-      <c r="C426" s="20">
-        <v>22.760000229999999</v>
-      </c>
-      <c r="D426" s="18">
-        <f>SUM(C$3:C426)/A426</f>
-        <v>31.259292432971684</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4">
-      <c r="A427" s="18">
-        <f t="shared" si="3"/>
-        <v>425</v>
-      </c>
-      <c r="B427" s="19">
-        <v>44925</v>
-      </c>
-      <c r="C427" s="20">
-        <v>22.739999770000001</v>
-      </c>
-      <c r="D427" s="18">
-        <f>SUM(C$3:C427)/A427</f>
-        <v>31.23924703847057</v>
-      </c>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B406" s="19"/>
+      <c r="C406" s="20"/>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B407" s="19"/>
+      <c r="C407" s="20"/>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B408" s="19"/>
+      <c r="C408" s="20"/>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B409" s="19"/>
+      <c r="C409" s="20"/>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B410" s="19"/>
+      <c r="C410" s="20"/>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B411" s="19"/>
+      <c r="C411" s="20"/>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B412" s="19"/>
+      <c r="C412" s="20"/>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B413" s="19"/>
+      <c r="C413" s="20"/>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B414" s="19"/>
+      <c r="C414" s="20"/>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B415" s="19"/>
+      <c r="C415" s="20"/>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B416" s="19"/>
+      <c r="C416" s="20"/>
+    </row>
+    <row r="417" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B417" s="19"/>
+      <c r="C417" s="20"/>
+    </row>
+    <row r="418" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B418" s="19"/>
+      <c r="C418" s="20"/>
+    </row>
+    <row r="419" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B419" s="19"/>
+      <c r="C419" s="20"/>
+    </row>
+    <row r="420" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B420" s="19"/>
+      <c r="C420" s="20"/>
+    </row>
+    <row r="421" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B421" s="19"/>
+      <c r="C421" s="20"/>
+    </row>
+    <row r="422" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B422" s="19"/>
+      <c r="C422" s="20"/>
+    </row>
+    <row r="423" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B423" s="19"/>
+      <c r="C423" s="20"/>
+    </row>
+    <row r="424" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B424" s="19"/>
+      <c r="C424" s="20"/>
+    </row>
+    <row r="425" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B425" s="19"/>
+      <c r="C425" s="20"/>
+    </row>
+    <row r="426" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B426" s="19"/>
+      <c r="C426" s="20"/>
+    </row>
+    <row r="427" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B427" s="19"/>
+      <c r="C427" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
@@ -2216,11 +2216,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="256210048"/>
-        <c:axId val="256211584"/>
+        <c:axId val="260727552"/>
+        <c:axId val="260729088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="256210048"/>
+        <c:axId val="260727552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2263,7 +2263,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256211584"/>
+        <c:crossAx val="260729088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2271,7 +2271,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="256211584"/>
+        <c:axId val="260729088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2322,7 +2322,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256210048"/>
+        <c:crossAx val="260727552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17988,7 +17988,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D427"/>
+  <dimension ref="A1:D405"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -23668,7 +23668,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A427" si="3">A355+1</f>
+        <f t="shared" ref="A356:A405" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -24465,94 +24465,6 @@
         <f>SUM(C$3:C405)/A405</f>
         <v>31.682903206079384</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B406" s="19"/>
-      <c r="C406" s="20"/>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B407" s="19"/>
-      <c r="C407" s="20"/>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B408" s="19"/>
-      <c r="C408" s="20"/>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B409" s="19"/>
-      <c r="C409" s="20"/>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B410" s="19"/>
-      <c r="C410" s="20"/>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B411" s="19"/>
-      <c r="C411" s="20"/>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B412" s="19"/>
-      <c r="C412" s="20"/>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B413" s="19"/>
-      <c r="C413" s="20"/>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B414" s="19"/>
-      <c r="C414" s="20"/>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B415" s="19"/>
-      <c r="C415" s="20"/>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B416" s="19"/>
-      <c r="C416" s="20"/>
-    </row>
-    <row r="417" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B417" s="19"/>
-      <c r="C417" s="20"/>
-    </row>
-    <row r="418" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B418" s="19"/>
-      <c r="C418" s="20"/>
-    </row>
-    <row r="419" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B419" s="19"/>
-      <c r="C419" s="20"/>
-    </row>
-    <row r="420" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B420" s="19"/>
-      <c r="C420" s="20"/>
-    </row>
-    <row r="421" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B421" s="19"/>
-      <c r="C421" s="20"/>
-    </row>
-    <row r="422" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B422" s="19"/>
-      <c r="C422" s="20"/>
-    </row>
-    <row r="423" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B423" s="19"/>
-      <c r="C423" s="20"/>
-    </row>
-    <row r="424" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B424" s="19"/>
-      <c r="C424" s="20"/>
-    </row>
-    <row r="425" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B425" s="19"/>
-      <c r="C425" s="20"/>
-    </row>
-    <row r="426" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B426" s="19"/>
-      <c r="C426" s="20"/>
-    </row>
-    <row r="427" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B427" s="19"/>
-      <c r="C427" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="270">
   <si>
     <t>PE</t>
   </si>
@@ -1010,6 +1010,86 @@
   </si>
   <si>
     <t xml:space="preserve">2022/11/29
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/27
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/12/28
 </t>
   </si>
 </sst>
@@ -1024,7 +1104,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1573,109 +1653,109 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1683,6 +1763,261 @@
           <c:val>
             <c:numRef>
               <c:f>model1!资金</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>68000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>model1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total assets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>model1!时间</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44253</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44286</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44347</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44530</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="34"/>
@@ -1794,20 +2129,20 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
+              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>model1!$H$1</c:f>
+              <c:f>model1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>total assets</c:v>
+                  <c:v>profit amount</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1815,7 +2150,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1828,116 +2163,116 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>model1!资产</c:f>
+              <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="34"/>
@@ -2049,159 +2384,6 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>model1!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>profit amount</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>model1!时间</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>3.25108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.17509</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.27712</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>model1!金额</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
@@ -2216,17 +2398,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="260727552"/>
-        <c:axId val="260729088"/>
+        <c:axId val="529471360"/>
+        <c:axId val="532038400"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="260727552"/>
+      <c:dateAx>
+        <c:axId val="529471360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2263,15 +2445,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260729088"/>
+        <c:crossAx val="532038400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="260729088"/>
+        <c:axId val="532038400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2322,7 +2503,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260727552"/>
+        <c:crossAx val="529471360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16508,12 +16689,12 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -16534,7 +16715,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>180</v>
       </c>
@@ -16564,7 +16745,7 @@
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="14.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -16580,7 +16761,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="14.1" customHeight="1">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -16649,7 +16830,7 @@
         <v>-22000</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="14.1" customHeight="1">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -16724,7 +16905,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="14.1" customHeight="1">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -16794,7 +16975,7 @@
         <v>53008.069006718506</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="14.1" customHeight="1">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -16836,7 +17017,7 @@
         <v>9.9835199022272558E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="14.1" customHeight="1">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -16874,7 +17055,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="14.1" customHeight="1">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -16912,7 +17093,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="14.1" customHeight="1">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -16950,7 +17131,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="14.1" customHeight="1">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -16988,7 +17169,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="14.1" customHeight="1">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -17026,7 +17207,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="14.1" customHeight="1">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -17064,7 +17245,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="14.1" customHeight="1">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -17102,7 +17283,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="14.1" customHeight="1">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -17140,7 +17321,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="14.1" customHeight="1">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -17178,7 +17359,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="14.1" customHeight="1">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -17216,7 +17397,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1">
       <c r="A17" s="14">
         <v>44316</v>
       </c>
@@ -17254,7 +17435,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1">
       <c r="A18" s="14">
         <v>44347</v>
       </c>
@@ -17292,7 +17473,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1">
       <c r="A19" s="14">
         <v>44377</v>
       </c>
@@ -17330,7 +17511,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1">
       <c r="A20" s="14">
         <v>44407</v>
       </c>
@@ -17368,7 +17549,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1">
       <c r="A21" s="14">
         <v>44439</v>
       </c>
@@ -17407,7 +17588,7 @@
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1">
       <c r="A22" s="14">
         <v>44469</v>
       </c>
@@ -17445,7 +17626,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1">
       <c r="A23" s="14">
         <v>44498</v>
       </c>
@@ -17483,7 +17664,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1">
       <c r="A24" s="14">
         <v>44530</v>
       </c>
@@ -17521,7 +17702,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1">
       <c r="A25" s="14">
         <v>44561</v>
       </c>
@@ -17559,7 +17740,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1">
       <c r="A26" s="14">
         <v>44589</v>
       </c>
@@ -17597,7 +17778,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1">
       <c r="A27" s="14">
         <v>44620</v>
       </c>
@@ -17635,7 +17816,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1">
       <c r="A28" s="14">
         <v>44651</v>
       </c>
@@ -17673,7 +17854,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1">
       <c r="A29" s="14">
         <v>44680</v>
       </c>
@@ -17711,7 +17892,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1">
       <c r="A30" s="14">
         <v>44712</v>
       </c>
@@ -17749,7 +17930,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1">
       <c r="A31" s="14">
         <v>44742</v>
       </c>
@@ -17787,7 +17968,7 @@
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1">
       <c r="A32" s="14">
         <v>44771</v>
       </c>
@@ -17825,7 +18006,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1">
       <c r="A33" s="14">
         <v>44804</v>
       </c>
@@ -17864,7 +18045,7 @@
       <c r="J33" s="6"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="12.75">
       <c r="A34" s="14">
         <v>44834</v>
       </c>
@@ -17901,7 +18082,7 @@
         <v>-11770.911062729705</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="12.75">
       <c r="A35" s="14">
         <v>44865</v>
       </c>
@@ -17938,7 +18119,7 @@
         <v>-12524.925264431353</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="12.75">
       <c r="A36" s="14">
         <v>44895</v>
       </c>
@@ -17988,13 +18169,13 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D405"/>
+  <dimension ref="A1:D427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
@@ -18002,7 +18183,7 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="B1" s="30" t="s">
         <v>194</v>
       </c>
@@ -18010,7 +18191,7 @@
         <v>399088</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1">
       <c r="B2" s="30"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
@@ -18019,7 +18200,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -18034,7 +18215,7 @@
         <v>45.12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>2</v>
@@ -18050,7 +18231,7 @@
         <v>44.965000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1">
       <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -18066,7 +18247,7 @@
         <v>44.99666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -18082,7 +18263,7 @@
         <v>44.792500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1">
       <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -18098,7 +18279,7 @@
         <v>44.440000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -18114,7 +18295,7 @@
         <v>44.256666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -18130,7 +18311,7 @@
         <v>44.252857142857145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -18146,7 +18327,7 @@
         <v>44.220000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -18162,7 +18343,7 @@
         <v>44.181111111111115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -18178,7 +18359,7 @@
         <v>44.341000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -18194,7 +18375,7 @@
         <v>44.458181818181828</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -18210,7 +18391,7 @@
         <v>44.577500000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -18226,7 +18407,7 @@
         <v>44.703076923076928</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -18242,7 +18423,7 @@
         <v>44.860000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -18258,7 +18439,7 @@
         <v>44.968000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -18274,7 +18455,7 @@
         <v>45.078750000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -18290,7 +18471,7 @@
         <v>45.214117647058828</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -18306,7 +18487,7 @@
         <v>45.345555555555563</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -18322,7 +18503,7 @@
         <v>45.46631578947369</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -18338,7 +18519,7 @@
         <v>45.062500000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1">
       <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -18354,7 +18535,7 @@
         <v>44.643333333333338</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1">
       <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -18370,7 +18551,7 @@
         <v>44.269090909090913</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1">
       <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -18386,7 +18567,7 @@
         <v>43.928695652173921</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1">
       <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -18402,7 +18583,7 @@
         <v>43.627500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1">
       <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -18418,7 +18599,7 @@
         <v>43.332400000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1">
       <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -18434,7 +18615,7 @@
         <v>43.088461538461544</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -18450,7 +18631,7 @@
         <v>42.901851851851859</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -18466,7 +18647,7 @@
         <v>42.726071428571437</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1">
       <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -18482,7 +18663,7 @@
         <v>42.570000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1">
       <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -18498,7 +18679,7 @@
         <v>42.435000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -18514,7 +18695,7 @@
         <v>42.298387096774199</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1">
       <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -18530,7 +18711,7 @@
         <v>42.179062500000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -18546,7 +18727,7 @@
         <v>42.093333333333341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -18562,7 +18743,7 @@
         <v>42.005000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1">
       <c r="A37" s="18">
         <f t="shared" ref="A37:A100" si="1">A36+1</f>
         <v>35</v>
@@ -18578,7 +18759,7 @@
         <v>41.929428571428573</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1">
       <c r="A38" s="18">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -18594,7 +18775,7 @@
         <v>41.856666666666662</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1">
       <c r="A39" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -18610,7 +18791,7 @@
         <v>41.802432432432425</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1">
       <c r="A40" s="18">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -18626,7 +18807,7 @@
         <v>41.751315789473679</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1">
       <c r="A41" s="18">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -18642,7 +18823,7 @@
         <v>41.689999999999991</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1">
       <c r="A42" s="18">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -18658,7 +18839,7 @@
         <v>41.621999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1">
       <c r="A43" s="18">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -18674,7 +18855,7 @@
         <v>41.5680487804878</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1">
       <c r="A44" s="18">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -18690,7 +18871,7 @@
         <v>41.512380952380944</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1">
       <c r="A45" s="18">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -18706,7 +18887,7 @@
         <v>41.454186046511623</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1">
       <c r="A46" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -18722,7 +18903,7 @@
         <v>41.399318181818174</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1">
       <c r="A47" s="18">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -18738,7 +18919,7 @@
         <v>41.36044444444444</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1">
       <c r="A48" s="18">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -18754,7 +18935,7 @@
         <v>41.322391304347818</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1">
       <c r="A49" s="18">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -18770,7 +18951,7 @@
         <v>41.285319148936161</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1">
       <c r="A50" s="18">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -18786,7 +18967,7 @@
         <v>41.222499999999989</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1">
       <c r="A51" s="18">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -18802,7 +18983,7 @@
         <v>41.174693877551015</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1">
       <c r="A52" s="18">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -18818,7 +18999,7 @@
         <v>41.139199999999988</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1">
       <c r="A53" s="18">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -18834,7 +19015,7 @@
         <v>41.106862745098027</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1">
       <c r="A54" s="18">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -18850,7 +19031,7 @@
         <v>41.078653846153834</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1">
       <c r="A55" s="18">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -18866,7 +19047,7 @@
         <v>41.062452830188661</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1">
       <c r="A56" s="18">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -18882,7 +19063,7 @@
         <v>41.045555555555538</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1">
       <c r="A57" s="18">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -18898,7 +19079,7 @@
         <v>41.038181818181798</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1">
       <c r="A58" s="18">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -18914,7 +19095,7 @@
         <v>41.038928571428549</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1">
       <c r="A59" s="18">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -18930,7 +19111,7 @@
         <v>41.034736842105247</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1">
       <c r="A60" s="18">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -18946,7 +19127,7 @@
         <v>41.041896551724122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1">
       <c r="A61" s="18">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -18962,7 +19143,7 @@
         <v>41.046101694915237</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1">
       <c r="A62" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -18978,7 +19159,7 @@
         <v>41.029166666666654</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1">
       <c r="A63" s="18">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -18994,7 +19175,7 @@
         <v>41.015737704918017</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1">
       <c r="A64" s="18">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -19010,7 +19191,7 @@
         <v>40.997580645161271</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1">
       <c r="A65" s="18">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -19026,7 +19207,7 @@
         <v>40.997301587301571</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1">
       <c r="A66" s="18">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -19042,7 +19223,7 @@
         <v>40.998281249999984</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1">
       <c r="A67" s="18">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -19058,7 +19239,7 @@
         <v>40.994153846153829</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1">
       <c r="A68" s="18">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -19074,7 +19255,7 @@
         <v>41.006060606060593</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1">
       <c r="A69" s="18">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -19090,7 +19271,7 @@
         <v>41.01641791044775</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1">
       <c r="A70" s="18">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -19106,7 +19287,7 @@
         <v>41.020294117647047</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1">
       <c r="A71" s="18">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -19122,7 +19303,7 @@
         <v>41.027826086956509</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1">
       <c r="A72" s="18">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -19138,7 +19319,7 @@
         <v>41.021428571428558</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1">
       <c r="A73" s="18">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -19154,7 +19335,7 @@
         <v>41.019295774647873</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1">
       <c r="A74" s="18">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -19170,7 +19351,7 @@
         <v>41.017499999999984</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1">
       <c r="A75" s="18">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -19186,7 +19367,7 @@
         <v>41.027123287671216</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1">
       <c r="A76" s="18">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -19202,7 +19383,7 @@
         <v>41.036081081081065</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1">
       <c r="A77" s="18">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -19218,7 +19399,7 @@
         <v>41.035466666666643</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1">
       <c r="A78" s="18">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -19234,7 +19415,7 @@
         <v>41.020526335866805</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1">
       <c r="A79" s="18">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -19250,7 +19431,7 @@
         <v>40.984025981952598</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1">
       <c r="A80" s="18">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -19266,7 +19447,7 @@
         <v>40.953717942849167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1">
       <c r="A81" s="18">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -19282,7 +19463,7 @@
         <v>40.943164537647085</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1">
       <c r="A82" s="18">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -19298,7 +19479,7 @@
         <v>40.930499984741189</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1">
       <c r="A83" s="18">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -19314,7 +19495,7 @@
         <v>40.927160476872935</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1">
       <c r="A84" s="18">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -19330,7 +19511,7 @@
         <v>40.921951202764724</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1">
       <c r="A85" s="18">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -19346,7 +19527,7 @@
         <v>40.929036107810127</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1">
       <c r="A86" s="18">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -19362,7 +19543,7 @@
         <v>40.931428547813759</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1">
       <c r="A87" s="18">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -19378,7 +19559,7 @@
         <v>40.92988232062843</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1">
       <c r="A88" s="18">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -19394,7 +19575,7 @@
         <v>40.928372052214847</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1">
       <c r="A89" s="18">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -19410,7 +19591,7 @@
         <v>40.927701096808754</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1">
       <c r="A90" s="18">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -19426,7 +19607,7 @@
         <v>40.924090864008107</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1">
       <c r="A91" s="18">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -19442,7 +19623,7 @@
         <v>40.917528047025854</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1">
       <c r="A92" s="18">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -19458,7 +19639,7 @@
         <v>40.904444420708536</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1">
       <c r="A93" s="18">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -19474,7 +19655,7 @@
         <v>40.886703283288959</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1">
       <c r="A94" s="18">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -19490,7 +19671,7 @@
         <v>40.859891271176529</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1">
       <c r="A95" s="18">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -19506,7 +19687,7 @@
         <v>40.836344033518131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1">
       <c r="A96" s="18">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -19522,7 +19703,7 @@
         <v>40.815851010261682</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1">
       <c r="A97" s="18">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -19538,7 +19719,7 @@
         <v>40.787684151097331</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1">
       <c r="A98" s="18">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -19554,7 +19735,7 @@
         <v>40.770416618982935</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1">
       <c r="A99" s="18">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -19570,7 +19751,7 @@
         <v>40.756804084384548</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1">
       <c r="A100" s="18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -19586,7 +19767,7 @@
         <v>40.744489749207773</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1">
       <c r="A101" s="18">
         <f t="shared" ref="A101:A355" si="2">A100+1</f>
         <v>99</v>
@@ -19602,7 +19783,7 @@
         <v>40.723232270828383</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1">
       <c r="A102" s="18">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -19618,7 +19799,7 @@
         <v>40.702299958801255</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1">
       <c r="A103" s="18">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -19634,7 +19815,7 @@
         <v>40.680296984379815</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1">
       <c r="A104" s="18">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -19650,7 +19831,7 @@
         <v>40.654705834482208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1">
       <c r="A105" s="18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -19666,7 +19847,7 @@
         <v>40.599999957038342</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1">
       <c r="A106" s="18">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -19682,7 +19863,7 @@
         <v>40.542692259274979</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1">
       <c r="A107" s="18">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -19698,7 +19879,7 @@
         <v>40.482476154145722</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1">
       <c r="A108" s="18">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -19714,7 +19895,7 @@
         <v>40.435849029253099</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1">
       <c r="A109" s="18">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -19730,7 +19911,7 @@
         <v>40.391775685247957</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1">
       <c r="A110" s="18">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -19746,7 +19927,7 @@
         <v>40.346574042991335</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1">
       <c r="A111" s="18">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -19762,7 +19943,7 @@
         <v>40.302110060945544</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1">
       <c r="A112" s="18">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -19778,7 +19959,7 @@
         <v>40.260272703690944</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1">
       <c r="A113" s="18">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -19794,7 +19975,7 @@
         <v>40.215585555342926</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1">
       <c r="A114" s="18">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -19810,7 +19991,7 @@
         <v>40.173214266640784</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1">
       <c r="A115" s="18">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -19826,7 +20007,7 @@
         <v>40.128584061344093</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1">
       <c r="A116" s="18">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -19842,7 +20023,7 @@
         <v>40.078245599311678</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1">
       <c r="A117" s="18">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -19858,7 +20039,7 @@
         <v>40.032521721881352</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1">
       <c r="A118" s="18">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -19874,7 +20055,7 @@
         <v>39.985344822324535</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1">
       <c r="A119" s="18">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -19890,7 +20071,7 @@
         <v>39.940427341298147</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1">
       <c r="A120" s="18">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -19906,7 +20087,7 @@
         <v>39.89703388666701</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1">
       <c r="A121" s="18">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -19922,7 +20103,7 @@
         <v>39.856638645204157</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1">
       <c r="A122" s="18">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -19938,7 +20119,7 @@
         <v>39.814833324432357</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1">
       <c r="A123" s="18">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -19954,7 +20135,7 @@
         <v>39.769752062332515</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1">
       <c r="A124" s="18">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -19970,7 +20151,7 @@
         <v>39.730819672131133</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1">
       <c r="A125" s="18">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -19986,7 +20167,7 @@
         <v>39.694634136422749</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1">
       <c r="A126" s="18">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -20002,7 +20183,7 @@
         <v>39.656854815322561</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1">
       <c r="A127" s="18">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -20018,7 +20199,7 @@
         <v>39.615839967039982</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1">
       <c r="A128" s="18">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -20034,7 +20215,7 @@
         <v>39.58039680484125</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1">
       <c r="A129" s="18">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -20050,7 +20231,7 @@
         <v>39.545433045669277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1">
       <c r="A130" s="18">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -20066,7 +20247,7 @@
         <v>39.514765591640611</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1">
       <c r="A131" s="18">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -20082,7 +20263,7 @@
         <v>39.483953462403086</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1">
       <c r="A132" s="18">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -20098,7 +20279,7 @@
         <v>39.455384593153838</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1">
       <c r="A133" s="18">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -20114,7 +20295,7 @@
         <v>39.425419815954186</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1">
       <c r="A134" s="18">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -20130,7 +20311,7 @@
         <v>39.396590869848474</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1">
       <c r="A135" s="18">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -20146,7 +20327,7 @@
         <v>39.371127767969917</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1">
       <c r="A136" s="18">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -20162,7 +20343,7 @@
         <v>39.348358155447755</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1">
       <c r="A137" s="18">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -20178,7 +20359,7 @@
         <v>39.325777719037028</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1">
       <c r="A138" s="18">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -20194,7 +20375,7 @@
         <v>39.30124995404411</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1">
       <c r="A139" s="18">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -20210,7 +20391,7 @@
         <v>39.275182432773718</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1">
       <c r="A140" s="18">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -20226,7 +20407,7 @@
         <v>39.253623134275358</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1">
       <c r="A141" s="18">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -20242,7 +20423,7 @@
         <v>39.222517934100708</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1">
       <c r="A142" s="18">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -20258,7 +20439,7 @@
         <v>39.191714233499987</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1">
       <c r="A143" s="18">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -20274,7 +20455,7 @@
         <v>39.159361657872324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1">
       <c r="A144" s="18">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -20290,7 +20471,7 @@
         <v>39.130704182464775</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1">
       <c r="A145" s="18">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -20306,7 +20487,7 @@
         <v>39.101118849230758</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1">
       <c r="A146" s="18">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -20322,7 +20503,7 @@
         <v>39.072916641388879</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1">
       <c r="A147" s="18">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -20338,7 +20519,7 @@
         <v>39.046344810896542</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1">
       <c r="A148" s="18">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -20354,7 +20535,7 @@
         <v>39.018561638767117</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1">
       <c r="A149" s="18">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -20370,7 +20551,7 @@
         <v>38.994013599387742</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1">
       <c r="A150" s="18">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -20386,7 +20567,7 @@
         <v>38.968783766418909</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1">
       <c r="A151" s="18">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -20402,7 +20583,7 @@
         <v>38.941812068389247</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1">
       <c r="A152" s="18">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -20418,7 +20599,7 @@
         <v>38.915199992999987</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1">
       <c r="A153" s="18">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -20434,7 +20615,7 @@
         <v>38.890794691986741</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1">
       <c r="A154" s="18">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -20450,7 +20631,7 @@
         <v>38.864144727894725</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1">
       <c r="A155" s="18">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -20466,7 +20647,7 @@
         <v>38.840653588888877</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1">
       <c r="A156" s="18">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -20482,7 +20663,7 @@
         <v>38.822142862207784</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1">
       <c r="A157" s="18">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -20498,7 +20679,7 @@
         <v>38.801870974774182</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1">
       <c r="A158" s="18">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -20514,7 +20695,7 @@
         <v>38.781025643141014</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1">
       <c r="A159" s="18">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -20530,7 +20711,7 @@
         <v>38.75942674980891</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1">
       <c r="A160" s="18">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -20546,7 +20727,7 @@
         <v>38.73683543259493</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1">
       <c r="A161" s="18">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -20562,7 +20743,7 @@
         <v>38.715911938364776</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1">
       <c r="A162" s="18">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -20578,7 +20759,7 @@
         <v>38.695499988749994</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1">
       <c r="A163" s="18">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -20594,7 +20775,7 @@
         <v>38.674285695527942</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1">
       <c r="A164" s="18">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -20610,7 +20791,7 @@
         <v>38.652962951851848</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1">
       <c r="A165" s="18">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -20626,7 +20807,7 @@
         <v>38.632515324478518</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1">
       <c r="A166" s="18">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -20642,7 +20823,7 @@
         <v>38.609999978780486</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1">
       <c r="A167" s="18">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -20658,7 +20839,7 @@
         <v>38.586363609696967</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1">
       <c r="A168" s="18">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -20674,7 +20855,7 @@
         <v>38.566746972469872</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1">
       <c r="A169" s="18">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -20690,7 +20871,7 @@
         <v>38.550598780598797</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1">
       <c r="A170" s="18">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -20706,7 +20887,7 @@
         <v>38.53458331529761</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1">
       <c r="A171" s="18">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -20722,7 +20903,7 @@
         <v>38.518757382130168</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1">
       <c r="A172" s="18">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -20738,7 +20919,7 @@
         <v>38.501588212058813</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1">
       <c r="A173" s="18">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -20754,7 +20935,7 @@
         <v>38.482806999824554</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1">
       <c r="A174" s="18">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -20770,7 +20951,7 @@
         <v>38.465581380406974</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1">
       <c r="A175" s="18">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -20786,7 +20967,7 @@
         <v>38.445202289364161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1">
       <c r="A176" s="18">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -20802,7 +20983,7 @@
         <v>38.42022985362069</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1">
       <c r="A177" s="18">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -20818,7 +20999,7 @@
         <v>38.397485675200002</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1">
       <c r="A178" s="18">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -20834,7 +21015,7 @@
         <v>38.376420407897733</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1">
       <c r="A179" s="18">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -20850,7 +21031,7 @@
         <v>38.356271147796612</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1">
       <c r="A180" s="18">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -20866,7 +21047,7 @@
         <v>38.333426933033707</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1">
       <c r="A181" s="18">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -20882,7 +21063,7 @@
         <v>38.311229020614526</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1">
       <c r="A182" s="18">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -20898,7 +21079,7 @@
         <v>38.290888867888889</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1">
       <c r="A183" s="18">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -20914,7 +21095,7 @@
         <v>38.268618754364638</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1">
       <c r="A184" s="18">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -20930,7 +21111,7 @@
         <v>38.248351618351641</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1">
       <c r="A185" s="18">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -20946,7 +21127,7 @@
         <v>38.228579205136612</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1">
       <c r="A186" s="18">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -20962,7 +21143,7 @@
         <v>38.206847793913042</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1">
       <c r="A187" s="18">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -20978,7 +21159,7 @@
         <v>38.181189152216213</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1">
       <c r="A188" s="18">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -20994,7 +21175,7 @@
         <v>38.15387092274193</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1">
       <c r="A189" s="18">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -21010,7 +21191,7 @@
         <v>38.12657749128342</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1">
       <c r="A190" s="18">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -21026,7 +21207,7 @@
         <v>38.100053139680853</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1">
       <c r="A191" s="18">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -21042,7 +21223,7 @@
         <v>38.071216879682538</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1">
       <c r="A192" s="18">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -21058,7 +21239,7 @@
         <v>38.0456315228421</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1">
       <c r="A193" s="18">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -21074,7 +21255,7 @@
         <v>38.017120363036646</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1">
       <c r="A194" s="18">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -21090,7 +21271,7 @@
         <v>37.989791613541662</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1">
       <c r="A195" s="18">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -21106,7 +21287,7 @@
         <v>37.965699429792743</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1">
       <c r="A196" s="18">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -21122,7 +21303,7 @@
         <v>37.941855619072165</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1">
       <c r="A197" s="18">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -21138,7 +21319,7 @@
         <v>37.915128152000001</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1">
       <c r="A198" s="18">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -21154,7 +21335,7 @@
         <v>37.889132598622453</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1">
       <c r="A199" s="18">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -21170,7 +21351,7 @@
         <v>37.861268989137059</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1">
       <c r="A200" s="18">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -21186,7 +21367,7 @@
         <v>37.834646419242425</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1">
       <c r="A201" s="18">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -21202,7 +21383,7 @@
         <v>37.804422063819104</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1">
       <c r="A202" s="18">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -21218,7 +21399,7 @@
         <v>37.775999948150009</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1">
       <c r="A203" s="18">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -21234,7 +21415,7 @@
         <v>37.743084524776123</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1">
       <c r="A204" s="18">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -21250,7 +21431,7 @@
         <v>37.710494996683174</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1">
       <c r="A205" s="18">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -21266,7 +21447,7 @@
         <v>37.678472849310346</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1">
       <c r="A206" s="18">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -21282,7 +21463,7 @@
         <v>37.643872496323532</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1">
       <c r="A207" s="18">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -21298,7 +21479,7 @@
         <v>37.61151214380488</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1">
       <c r="A208" s="18">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -21314,7 +21495,7 @@
         <v>37.577281499757277</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1">
       <c r="A209" s="18">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -21330,7 +21511,7 @@
         <v>37.540193181497585</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1">
       <c r="A210" s="18">
         <f t="shared" si="2"/>
         <v>208</v>
@@ -21346,7 +21527,7 @@
         <v>37.503221100721149</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1">
       <c r="A211" s="18">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -21362,7 +21543,7 @@
         <v>37.469999944593297</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1">
       <c r="A212" s="18">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -21378,7 +21559,7 @@
         <v>37.437380901238093</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1">
       <c r="A213" s="18">
         <f t="shared" si="2"/>
         <v>211</v>
@@ -21394,7 +21575,7 @@
         <v>37.405781941800946</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1">
       <c r="A214" s="18">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -21410,7 +21591,7 @@
         <v>37.374245231273584</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1">
       <c r="A215" s="18">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -21426,7 +21607,7 @@
         <v>37.342629053615028</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1">
       <c r="A216" s="18">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -21442,7 +21623,7 @@
         <v>37.309205555841125</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1">
       <c r="A217" s="18">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -21458,7 +21639,7 @@
         <v>37.27981390102326</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1">
       <c r="A218" s="18">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -21474,7 +21655,7 @@
         <v>37.247685133657413</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1">
       <c r="A219" s="18">
         <f t="shared" si="2"/>
         <v>217</v>
@@ -21490,7 +21671,7 @@
         <v>37.218433126682037</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1">
       <c r="A220" s="18">
         <f t="shared" si="2"/>
         <v>218</v>
@@ -21506,7 +21687,7 @@
         <v>37.189770586238538</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1">
       <c r="A221" s="18">
         <f t="shared" si="2"/>
         <v>219</v>
@@ -21522,7 +21703,7 @@
         <v>37.161232823424669</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1">
       <c r="A222" s="18">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -21538,7 +21719,7 @@
         <v>37.130772670045459</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1">
       <c r="A223" s="18">
         <f t="shared" si="2"/>
         <v>221</v>
@@ -21554,7 +21735,7 @@
         <v>37.098913970859734</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1">
       <c r="A224" s="18">
         <f t="shared" si="2"/>
         <v>222</v>
@@ -21570,7 +21751,7 @@
         <v>37.065180126891896</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1">
       <c r="A225" s="18">
         <f t="shared" si="2"/>
         <v>223</v>
@@ -21586,7 +21767,7 @@
         <v>37.026053759282519</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1">
       <c r="A226" s="18">
         <f t="shared" si="2"/>
         <v>224</v>
@@ -21602,7 +21783,7 @@
         <v>36.984464229464287</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1">
       <c r="A227" s="18">
         <f t="shared" si="2"/>
         <v>225</v>
@@ -21618,7 +21799,7 @@
         <v>36.94248883697778</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1">
       <c r="A228" s="18">
         <f t="shared" si="2"/>
         <v>226</v>
@@ -21634,7 +21815,7 @@
         <v>36.903849501769912</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1">
       <c r="A229" s="18">
         <f t="shared" si="2"/>
         <v>227</v>
@@ -21650,7 +21831,7 @@
         <v>36.866607877356834</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1">
       <c r="A230" s="18">
         <f t="shared" si="2"/>
         <v>228</v>
@@ -21666,7 +21847,7 @@
         <v>36.825438542543864</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1">
       <c r="A231" s="18">
         <f t="shared" si="2"/>
         <v>229</v>
@@ -21682,7 +21863,7 @@
         <v>36.780523967772936</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1">
       <c r="A232" s="18">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -21698,7 +21879,7 @@
         <v>36.740956473608705</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1">
       <c r="A233" s="18">
         <f t="shared" si="2"/>
         <v>231</v>
@@ -21714,7 +21895,7 @@
         <v>36.704978308398275</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1">
       <c r="A234" s="18">
         <f t="shared" si="2"/>
         <v>232</v>
@@ -21730,7 +21911,7 @@
         <v>36.66892236806035</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1">
       <c r="A235" s="18">
         <f t="shared" si="2"/>
         <v>233</v>
@@ -21746,7 +21927,7 @@
         <v>36.633948454291847</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1">
       <c r="A236" s="18">
         <f t="shared" si="2"/>
         <v>234</v>
@@ -21762,7 +21943,7 @@
         <v>36.598119614743588</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1">
       <c r="A237" s="18">
         <f t="shared" si="2"/>
         <v>235</v>
@@ -21778,7 +21959,7 @@
         <v>36.563361660255318</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1">
       <c r="A238" s="18">
         <f t="shared" si="2"/>
         <v>236</v>
@@ -21794,7 +21975,7 @@
         <v>36.528262673093217</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1">
       <c r="A239" s="18">
         <f t="shared" si="2"/>
         <v>237</v>
@@ -21810,7 +21991,7 @@
         <v>36.490632875358649</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1">
       <c r="A240" s="18">
         <f t="shared" si="2"/>
         <v>238</v>
@@ -21826,7 +22007,7 @@
         <v>36.451512570462185</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1">
       <c r="A241" s="18">
         <f t="shared" si="2"/>
         <v>239</v>
@@ -21842,7 +22023,7 @@
         <v>36.412008334728036</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1">
       <c r="A242" s="18">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -21858,7 +22039,7 @@
         <v>36.376874964750002</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1">
       <c r="A243" s="18">
         <f t="shared" si="2"/>
         <v>241</v>
@@ -21874,7 +22055,7 @@
         <v>36.340622369004151</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1">
       <c r="A244" s="18">
         <f t="shared" si="2"/>
         <v>242</v>
@@ -21890,7 +22071,7 @@
         <v>36.305495830909088</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1">
       <c r="A245" s="18">
         <f t="shared" si="2"/>
         <v>243</v>
@@ -21906,7 +22087,7 @@
         <v>36.269876504938274</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1">
       <c r="A246" s="18">
         <f t="shared" si="2"/>
         <v>244</v>
@@ -21922,7 +22103,7 @@
         <v>36.232704883032788</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1">
       <c r="A247" s="18">
         <f t="shared" si="2"/>
         <v>245</v>
@@ -21938,7 +22119,7 @@
         <v>36.195714251183674</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1">
       <c r="A248" s="18">
         <f t="shared" si="2"/>
         <v>246</v>
@@ -21954,7 +22135,7 @@
         <v>36.154715415243899</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1">
       <c r="A249" s="18">
         <f t="shared" si="2"/>
         <v>247</v>
@@ -21970,7 +22151,7 @@
         <v>36.116113331943318</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1">
       <c r="A250" s="18">
         <f t="shared" si="2"/>
         <v>248</v>
@@ -21986,7 +22167,7 @@
         <v>36.076048360080641</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1">
       <c r="A251" s="18">
         <f t="shared" si="2"/>
         <v>249</v>
@@ -22002,7 +22183,7 @@
         <v>36.036947764859427</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1">
       <c r="A252" s="18">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -22018,7 +22199,7 @@
         <v>35.997639970119991</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1">
       <c r="A253" s="18">
         <f t="shared" si="2"/>
         <v>251</v>
@@ -22034,7 +22215,7 @@
         <v>35.959402359163342</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1">
       <c r="A254" s="18">
         <f t="shared" si="2"/>
         <v>252</v>
@@ -22050,7 +22231,7 @@
         <v>35.920357115039671</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1">
       <c r="A255" s="18">
         <f t="shared" si="2"/>
         <v>253</v>
@@ -22066,7 +22247,7 @@
         <v>35.879051352964417</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1">
       <c r="A256" s="18">
         <f t="shared" si="2"/>
         <v>254</v>
@@ -22082,7 +22263,7 @@
         <v>35.835787368858256</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1">
       <c r="A257" s="18">
         <f t="shared" si="2"/>
         <v>255</v>
@@ -22098,7 +22279,7 @@
         <v>35.792862710117632</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1">
       <c r="A258" s="18">
         <f t="shared" si="2"/>
         <v>256</v>
@@ -22114,7 +22295,7 @@
         <v>35.744648405624986</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1">
       <c r="A259" s="18">
         <f t="shared" si="2"/>
         <v>257</v>
@@ -22130,7 +22311,7 @@
         <v>35.69571981291827</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1">
       <c r="A260" s="18">
         <f t="shared" si="2"/>
         <v>258</v>
@@ -22146,7 +22327,7 @@
         <v>35.651472839573628</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1">
       <c r="A261" s="18">
         <f t="shared" si="2"/>
         <v>259</v>
@@ -22162,7 +22343,7 @@
         <v>35.606949781660212</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1">
       <c r="A262" s="18">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -22178,7 +22359,7 @@
         <v>35.566653817730753</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1">
       <c r="A263" s="18">
         <f t="shared" si="2"/>
         <v>261</v>
@@ -22194,7 +22375,7 @@
         <v>35.519386943103434</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1">
       <c r="A264" s="18">
         <f t="shared" si="2"/>
         <v>262</v>
@@ -22210,7 +22391,7 @@
         <v>35.470534318549603</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1">
       <c r="A265" s="18">
         <f t="shared" si="2"/>
         <v>263</v>
@@ -22226,7 +22407,7 @@
         <v>35.421064602813672</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1">
       <c r="A266" s="18">
         <f t="shared" si="2"/>
         <v>264</v>
@@ -22242,7 +22423,7 @@
         <v>35.373181784962107</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1">
       <c r="A267" s="18">
         <f t="shared" si="2"/>
         <v>265</v>
@@ -22258,7 +22439,7 @@
         <v>35.328188649018855</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1">
       <c r="A268" s="18">
         <f t="shared" si="2"/>
         <v>266</v>
@@ -22274,7 +22455,7 @@
         <v>35.283233055751865</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1">
       <c r="A269" s="18">
         <f t="shared" si="2"/>
         <v>267</v>
@@ -22290,7 +22471,7 @@
         <v>35.239288359812718</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1">
       <c r="A270" s="18">
         <f t="shared" si="2"/>
         <v>268</v>
@@ -22306,7 +22487,7 @@
         <v>35.194701466380579</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1">
       <c r="A271" s="18">
         <f t="shared" si="2"/>
         <v>269</v>
@@ -22322,7 +22503,7 @@
         <v>35.152081756617086</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1">
       <c r="A272" s="18">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -22338,7 +22519,7 @@
         <v>35.109703672629614</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1">
       <c r="A273" s="18">
         <f t="shared" si="2"/>
         <v>271</v>
@@ -22354,7 +22535,7 @@
         <v>35.067933551771205</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1">
       <c r="A274" s="18">
         <f t="shared" si="2"/>
         <v>272</v>
@@ -22370,7 +22551,7 @@
         <v>35.027867619595575</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1">
       <c r="A275" s="18">
         <f t="shared" si="2"/>
         <v>273</v>
@@ -22386,7 +22567,7 @@
         <v>34.987655647509143</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1">
       <c r="A276" s="18">
         <f t="shared" si="2"/>
         <v>274</v>
@@ -22402,7 +22583,7 @@
         <v>34.944671499452539</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1">
       <c r="A277" s="18">
         <f t="shared" si="2"/>
         <v>275</v>
@@ -22418,7 +22599,7 @@
         <v>34.902363601163621</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1">
       <c r="A278" s="18">
         <f t="shared" si="2"/>
         <v>276</v>
@@ -22434,7 +22615,7 @@
         <v>34.860434747246366</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1">
       <c r="A279" s="18">
         <f t="shared" si="2"/>
         <v>277</v>
@@ -22450,7 +22631,7 @@
         <v>34.818953036389878</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1">
       <c r="A280" s="18">
         <f t="shared" si="2"/>
         <v>278</v>
@@ -22466,7 +22647,7 @@
         <v>34.778740972913653</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1">
       <c r="A281" s="18">
         <f t="shared" si="2"/>
         <v>279</v>
@@ -22482,7 +22663,7 @@
         <v>34.740573439534039</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1">
       <c r="A282" s="18">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -22498,7 +22679,7 @@
         <v>34.703321389642845</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1">
       <c r="A283" s="18">
         <f t="shared" si="2"/>
         <v>281</v>
@@ -22514,7 +22695,7 @@
         <v>34.66704622537366</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1">
       <c r="A284" s="18">
         <f t="shared" si="2"/>
         <v>282</v>
@@ -22530,7 +22711,7 @@
         <v>34.633936132092195</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1">
       <c r="A285" s="18">
         <f t="shared" si="2"/>
         <v>283</v>
@@ -22546,7 +22727,7 @@
         <v>34.60084802017667</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1">
       <c r="A286" s="18">
         <f t="shared" si="2"/>
         <v>284</v>
@@ -22562,7 +22743,7 @@
         <v>34.568661932359149</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1">
       <c r="A287" s="18">
         <f t="shared" si="2"/>
         <v>285</v>
@@ -22578,7 +22759,7 @@
         <v>34.534210486982445</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1">
       <c r="A288" s="18">
         <f t="shared" si="2"/>
         <v>286</v>
@@ -22594,7 +22775,7 @@
         <v>34.502202755069924</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1">
       <c r="A289" s="18">
         <f t="shared" si="2"/>
         <v>287</v>
@@ -22610,7 +22791,7 @@
         <v>34.441742116968634</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1">
       <c r="A290" s="18">
         <f t="shared" si="2"/>
         <v>288</v>
@@ -22626,7 +22807,7 @@
         <v>34.411076347847221</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1">
       <c r="A291" s="18">
         <f t="shared" si="2"/>
         <v>289</v>
@@ -22642,7 +22823,7 @@
         <v>34.381903071695504</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1">
       <c r="A292" s="18">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -22658,7 +22839,7 @@
         <v>34.352999957655172</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1">
       <c r="A293" s="18">
         <f t="shared" si="2"/>
         <v>291</v>
@@ -22674,7 +22855,7 @@
         <v>34.326013703505154</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1">
       <c r="A294" s="18">
         <f t="shared" si="2"/>
         <v>292</v>
@@ -22690,7 +22871,7 @@
         <v>34.300958862842464</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1">
       <c r="A295" s="18">
         <f t="shared" si="2"/>
         <v>293</v>
@@ -22706,7 +22887,7 @@
         <v>34.276006784027302</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1">
       <c r="A296" s="18">
         <f t="shared" si="2"/>
         <v>294</v>
@@ -22722,7 +22903,7 @@
         <v>34.249897918707482</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1">
       <c r="A297" s="18">
         <f t="shared" si="2"/>
         <v>295</v>
@@ -22738,7 +22919,7 @@
         <v>34.226135552101695</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1">
       <c r="A298" s="18">
         <f t="shared" si="2"/>
         <v>296</v>
@@ -22754,7 +22935,7 @@
         <v>34.204222931216215</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1">
       <c r="A299" s="18">
         <f t="shared" si="2"/>
         <v>297</v>
@@ -22770,7 +22951,7 @@
         <v>34.18289558410774</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1">
       <c r="A300" s="18">
         <f t="shared" si="2"/>
         <v>298</v>
@@ -22786,7 +22967,7 @@
         <v>34.162718082416099</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1">
       <c r="A301" s="18">
         <f t="shared" si="2"/>
         <v>299</v>
@@ -22802,7 +22983,7 @@
         <v>34.140468189933102</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1">
       <c r="A302" s="18">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -22818,7 +22999,7 @@
         <v>34.119366627533324</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1">
       <c r="A303" s="18">
         <f t="shared" si="2"/>
         <v>301</v>
@@ -22834,7 +23015,7 @@
         <v>34.097840490531553</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1">
       <c r="A304" s="18">
         <f t="shared" si="2"/>
         <v>302</v>
@@ -22850,7 +23031,7 @@
         <v>34.077913866125826</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1">
       <c r="A305" s="18">
         <f t="shared" si="2"/>
         <v>303</v>
@@ -22866,7 +23047,7 @@
         <v>34.057623722376235</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1">
       <c r="A306" s="18">
         <f t="shared" si="2"/>
         <v>304</v>
@@ -22882,7 +23063,7 @@
         <v>34.036743378157887</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1">
       <c r="A307" s="18">
         <f t="shared" si="2"/>
         <v>305</v>
@@ -22898,7 +23079,7 @@
         <v>34.0172130717377</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1">
       <c r="A308" s="18">
         <f t="shared" si="2"/>
         <v>306</v>
@@ -22914,7 +23095,7 @@
         <v>33.997091462385619</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1">
       <c r="A309" s="18">
         <f t="shared" si="2"/>
         <v>307</v>
@@ -22930,7 +23111,7 @@
         <v>33.975211687882734</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1">
       <c r="A310" s="18">
         <f t="shared" si="2"/>
         <v>308</v>
@@ -22946,7 +23127,7 @@
         <v>33.951818144935061</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1">
       <c r="A311" s="18">
         <f t="shared" si="2"/>
         <v>309</v>
@@ -22962,7 +23143,7 @@
         <v>33.929385077993516</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1">
       <c r="A312" s="18">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -22978,7 +23159,7 @@
         <v>33.90851609090322</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1">
       <c r="A313" s="18">
         <f t="shared" si="2"/>
         <v>311</v>
@@ -22994,7 +23175,7 @@
         <v>33.886495137138255</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1">
       <c r="A314" s="18">
         <f t="shared" si="2"/>
         <v>312</v>
@@ -23010,7 +23191,7 @@
         <v>33.865480729391024</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1">
       <c r="A315" s="18">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -23026,7 +23207,7 @@
         <v>33.843706028146961</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1">
       <c r="A316" s="18">
         <f t="shared" si="2"/>
         <v>314</v>
@@ -23042,7 +23223,7 @@
         <v>33.822292954299357</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1">
       <c r="A317" s="18">
         <f t="shared" si="2"/>
         <v>315</v>
@@ -23058,7 +23239,7 @@
         <v>33.800285673142845</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1">
       <c r="A318" s="18">
         <f t="shared" si="2"/>
         <v>316</v>
@@ -23074,7 +23255,7 @@
         <v>33.778132867974676</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1">
       <c r="A319" s="18">
         <f t="shared" si="2"/>
         <v>317</v>
@@ -23090,7 +23271,7 @@
         <v>33.755394277507875</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1">
       <c r="A320" s="18">
         <f t="shared" si="2"/>
         <v>318</v>
@@ -23106,7 +23287,7 @@
         <v>33.733238946698101</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1">
       <c r="A321" s="18">
         <f t="shared" si="2"/>
         <v>319</v>
@@ -23122,7 +23303,7 @@
         <v>33.710940394639486</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1">
       <c r="A322" s="18">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -23138,7 +23319,7 @@
         <v>33.689062453031241</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1">
       <c r="A323" s="18">
         <f t="shared" si="2"/>
         <v>321</v>
@@ -23154,7 +23335,7 @@
         <v>33.666137024579427</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1">
       <c r="A324" s="18">
         <f t="shared" si="2"/>
         <v>322</v>
@@ -23170,7 +23351,7 @@
         <v>33.645031011583839</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1">
       <c r="A325" s="18">
         <f t="shared" si="2"/>
         <v>323</v>
@@ -23186,7 +23367,7 @@
         <v>33.622414816501539</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1">
       <c r="A326" s="18">
         <f t="shared" si="2"/>
         <v>324</v>
@@ -23202,7 +23383,7 @@
         <v>33.59876538805554</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1">
       <c r="A327" s="18">
         <f t="shared" si="2"/>
         <v>325</v>
@@ -23218,7 +23399,7 @@
         <v>33.575630725323066</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1">
       <c r="A328" s="18">
         <f t="shared" si="2"/>
         <v>326</v>
@@ -23234,7 +23415,7 @@
         <v>33.55380363438649</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1">
       <c r="A329" s="18">
         <f t="shared" si="2"/>
         <v>327</v>
@@ -23250,7 +23431,7 @@
         <v>33.532079466574906</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1">
       <c r="A330" s="18">
         <f t="shared" si="2"/>
         <v>328</v>
@@ -23266,7 +23447,7 @@
         <v>33.510823125121938</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1">
       <c r="A331" s="18">
         <f t="shared" si="2"/>
         <v>329</v>
@@ -23282,7 +23463,7 @@
         <v>33.4886017805471</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1">
       <c r="A332" s="18">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -23298,7 +23479,7 @@
         <v>33.468363593333315</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1">
       <c r="A333" s="18">
         <f t="shared" si="2"/>
         <v>331</v>
@@ -23314,7 +23495,7 @@
         <v>33.447673675649533</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1">
       <c r="A334" s="18">
         <f t="shared" si="2"/>
         <v>332</v>
@@ -23330,7 +23511,7 @@
         <v>33.427379475060221</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1">
       <c r="A335" s="18">
         <f t="shared" si="2"/>
         <v>333</v>
@@ -23346,7 +23527,7 @@
         <v>33.407237192282267</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1">
       <c r="A336" s="18">
         <f t="shared" si="2"/>
         <v>334</v>
@@ -23362,7 +23543,7 @@
         <v>33.388532888862258</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1">
       <c r="A337" s="18">
         <f t="shared" si="2"/>
         <v>335</v>
@@ -23378,7 +23559,7 @@
         <v>33.36955219573133</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1">
       <c r="A338" s="18">
         <f t="shared" si="2"/>
         <v>336</v>
@@ -23394,7 +23575,7 @@
         <v>33.34928566976189</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1">
       <c r="A339" s="18">
         <f t="shared" si="2"/>
         <v>337</v>
@@ -23410,7 +23591,7 @@
         <v>33.330356036646869</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1">
       <c r="A340" s="18">
         <f t="shared" si="2"/>
         <v>338</v>
@@ -23426,7 +23607,7 @@
         <v>33.311212973254428</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1">
       <c r="A341" s="18">
         <f t="shared" si="2"/>
         <v>339</v>
@@ -23442,7 +23623,7 @@
         <v>33.289498482949838</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1">
       <c r="A342" s="18">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -23458,7 +23639,7 @@
         <v>33.267764662764691</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1">
       <c r="A343" s="18">
         <f t="shared" si="2"/>
         <v>341</v>
@@ -23474,7 +23655,7 @@
         <v>33.245806410645152</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1">
       <c r="A344" s="18">
         <f t="shared" si="2"/>
         <v>342</v>
@@ -23490,7 +23671,7 @@
         <v>33.223508733537997</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1">
       <c r="A345" s="18">
         <f t="shared" si="2"/>
         <v>343</v>
@@ -23506,7 +23687,7 @@
         <v>33.200932904985407</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1">
       <c r="A346" s="18">
         <f t="shared" si="2"/>
         <v>344</v>
@@ -23522,7 +23703,7 @@
         <v>33.177616240465106</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4">
       <c r="A347" s="18">
         <f t="shared" si="2"/>
         <v>345</v>
@@ -23538,7 +23719,7 @@
         <v>33.149565178898534</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4">
       <c r="A348" s="18">
         <f t="shared" si="2"/>
         <v>346</v>
@@ -23554,7 +23735,7 @@
         <v>33.121676262196516</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4">
       <c r="A349" s="18">
         <f t="shared" si="2"/>
         <v>347</v>
@@ -23570,7 +23751,7 @@
         <v>33.093948088530247</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4">
       <c r="A350" s="18">
         <f t="shared" si="2"/>
         <v>348</v>
@@ -23586,7 +23767,7 @@
         <v>33.065890766436766</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4">
       <c r="A351" s="18">
         <f t="shared" si="2"/>
         <v>349</v>
@@ -23602,7 +23783,7 @@
         <v>33.037191939025774</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4">
       <c r="A352" s="18">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -23618,7 +23799,7 @@
         <v>33.008257104914271</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4">
       <c r="A353" s="18">
         <f t="shared" si="2"/>
         <v>351</v>
@@ -23634,7 +23815,7 @@
         <v>32.979743551908818</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4">
       <c r="A354" s="18">
         <f t="shared" si="2"/>
         <v>352</v>
@@ -23650,7 +23831,7 @@
         <v>32.952698825909074</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4">
       <c r="A355" s="18">
         <f t="shared" si="2"/>
         <v>353</v>
@@ -23666,9 +23847,9 @@
         <v>32.924305911388082</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A405" si="3">A355+1</f>
+        <f t="shared" ref="A356:A427" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -23682,7 +23863,7 @@
         <v>32.89635589468925</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4">
       <c r="A357" s="18">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -23698,7 +23879,7 @@
         <v>32.867380245999989</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4">
       <c r="A358" s="18">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -23714,7 +23895,7 @@
         <v>32.836966259129198</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4">
       <c r="A359" s="18">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -23730,7 +23911,7 @@
         <v>32.807282879607826</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4">
       <c r="A360" s="18">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -23746,7 +23927,7 @@
         <v>32.779664771229037</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4">
       <c r="A361" s="18">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -23762,7 +23943,7 @@
         <v>32.752005538941489</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4">
       <c r="A362" s="18">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -23778,7 +23959,7 @@
         <v>32.726722189166651</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4">
       <c r="A363" s="18">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -23794,7 +23975,7 @@
         <v>32.701772818310232</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4">
       <c r="A364" s="18">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -23810,7 +23991,7 @@
         <v>32.677320408259654</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4">
       <c r="A365" s="18">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -23826,7 +24007,7 @@
         <v>32.652286468154252</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4">
       <c r="A366" s="18">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -23842,7 +24023,7 @@
         <v>32.626868097692288</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4">
       <c r="A367" s="18">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -23858,7 +24039,7 @@
         <v>32.601424623862997</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4">
       <c r="A368" s="18">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -23874,7 +24055,7 @@
         <v>32.57256827494534</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4">
       <c r="A369" s="18">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -23890,7 +24071,7 @@
         <v>32.544414137329682</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4">
       <c r="A370" s="18">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -23906,7 +24087,7 @@
         <v>32.518260838260851</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4">
       <c r="A371" s="18">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -23922,7 +24103,7 @@
         <v>32.492059590406484</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4">
       <c r="A372" s="18">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -23938,7 +24119,7 @@
         <v>32.468162131027007</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4">
       <c r="A373" s="18">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -23954,7 +24135,7 @@
         <v>32.444582177331519</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4">
       <c r="A374" s="18">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -23970,7 +24151,7 @@
         <v>32.421478462822563</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4">
       <c r="A375" s="18">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -23986,7 +24167,7 @@
         <v>32.39780157726539</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4">
       <c r="A376" s="18">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -24002,7 +24183,7 @@
         <v>32.373743283262009</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4">
       <c r="A377" s="18">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -24018,7 +24199,7 @@
         <v>32.349653301573312</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4">
       <c r="A378" s="18">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -24034,7 +24215,7 @@
         <v>32.324335074494662</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4">
       <c r="A379" s="18">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -24050,7 +24231,7 @@
         <v>32.298912434429688</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4">
       <c r="A380" s="18">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -24066,7 +24247,7 @@
         <v>32.274788328280401</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4">
       <c r="A381" s="18">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -24082,7 +24263,7 @@
         <v>32.250211047941931</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4">
       <c r="A382" s="18">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -24098,7 +24279,7 @@
         <v>32.223605227789449</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4">
       <c r="A383" s="18">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -24114,7 +24295,7 @@
         <v>32.197401538923856</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4">
       <c r="A384" s="18">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -24130,7 +24311,7 @@
         <v>32.171413577984268</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4">
       <c r="A385" s="18">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -24146,7 +24327,7 @@
         <v>32.146422943002584</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4">
       <c r="A386" s="18">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -24162,7 +24343,7 @@
         <v>32.121249965390597</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4">
       <c r="A387" s="18">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -24178,7 +24359,7 @@
         <v>32.098077889532441</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4">
       <c r="A388" s="18">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -24194,7 +24375,7 @@
         <v>32.074999968911889</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4">
       <c r="A389" s="18">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -24210,7 +24391,7 @@
         <v>32.051627877751912</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4">
       <c r="A390" s="18">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -24226,7 +24407,7 @@
         <v>32.027680383814406</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4">
       <c r="A391" s="18">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -24242,7 +24423,7 @@
         <v>32.002724906452414</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4">
       <c r="A392" s="18">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -24258,7 +24439,7 @@
         <v>31.979307665256382</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4">
       <c r="A393" s="18">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -24274,7 +24455,7 @@
         <v>31.95606135253194</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4">
       <c r="A394" s="18">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -24290,7 +24471,7 @@
         <v>31.934362218367319</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4">
       <c r="A395" s="18">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -24306,7 +24487,7 @@
         <v>31.911959258931272</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4">
       <c r="A396" s="18">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -24322,7 +24503,7 @@
         <v>31.889365454289315</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4">
       <c r="A397" s="18">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -24338,7 +24519,7 @@
         <v>31.866936682734149</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4">
       <c r="A398" s="18">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -24354,7 +24535,7 @@
         <v>31.844545428484821</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4">
       <c r="A399" s="18">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -24370,7 +24551,7 @@
         <v>31.821385363476043</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4">
       <c r="A400" s="18">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -24386,7 +24567,7 @@
         <v>31.798065302060277</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4">
       <c r="A401" s="18">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -24402,7 +24583,7 @@
         <v>31.774786943483686</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4">
       <c r="A402" s="18">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -24418,7 +24599,7 @@
         <v>31.751249977649977</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4">
       <c r="A403" s="18">
         <f t="shared" si="3"/>
         <v>401</v>
@@ -24434,7 +24615,7 @@
         <v>31.727431401047358</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4">
       <c r="A404" s="18">
         <f t="shared" si="3"/>
         <v>402</v>
@@ -24450,7 +24631,7 @@
         <v>31.704975105920376</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4">
       <c r="A405" s="18">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -24464,6 +24645,358 @@
       <c r="D405" s="18">
         <f>SUM(C$3:C405)/A405</f>
         <v>31.682903206079384</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="18">
+        <f t="shared" si="3"/>
+        <v>404</v>
+      </c>
+      <c r="B406" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C406" s="20">
+        <v>23.170000080000001</v>
+      </c>
+      <c r="D406" s="18">
+        <f>SUM(C$3:C406)/A406</f>
+        <v>31.661831663688094</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="18">
+        <f t="shared" si="3"/>
+        <v>405</v>
+      </c>
+      <c r="B407" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C407" s="20">
+        <v>23.030000690000001</v>
+      </c>
+      <c r="D407" s="18">
+        <f>SUM(C$3:C407)/A407</f>
+        <v>31.640518500790101</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="18">
+        <f t="shared" si="3"/>
+        <v>406</v>
+      </c>
+      <c r="B408" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C408" s="20">
+        <v>23.219999309999999</v>
+      </c>
+      <c r="D408" s="18">
+        <f>SUM(C$3:C408)/A408</f>
+        <v>31.619778305738894</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="18">
+        <f t="shared" si="3"/>
+        <v>407</v>
+      </c>
+      <c r="B409" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C409" s="20">
+        <v>23.459999079999999</v>
+      </c>
+      <c r="D409" s="18">
+        <f>SUM(C$3:C409)/A409</f>
+        <v>31.599729708132653</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="18">
+        <f t="shared" si="3"/>
+        <v>408</v>
+      </c>
+      <c r="B410" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C410" s="20">
+        <v>23.649999619999999</v>
+      </c>
+      <c r="D410" s="18">
+        <f>SUM(C$3:C410)/A410</f>
+        <v>31.580245075563703</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="18">
+        <f t="shared" si="3"/>
+        <v>409</v>
+      </c>
+      <c r="B411" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C411" s="20">
+        <v>23.629999160000001</v>
+      </c>
+      <c r="D411" s="18">
+        <f>SUM(C$3:C411)/A411</f>
+        <v>31.560806821491422</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="18">
+        <f t="shared" si="3"/>
+        <v>410</v>
+      </c>
+      <c r="B412" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C412" s="20">
+        <v>23.840000150000002</v>
+      </c>
+      <c r="D412" s="18">
+        <f>SUM(C$3:C412)/A412</f>
+        <v>31.541975585707295</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="18">
+        <f t="shared" si="3"/>
+        <v>411</v>
+      </c>
+      <c r="B413" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C413" s="20">
+        <v>23.600000380000001</v>
+      </c>
+      <c r="D413" s="18">
+        <f>SUM(C$3:C413)/A413</f>
+        <v>31.522652045060806</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="18">
+        <f t="shared" si="3"/>
+        <v>412</v>
+      </c>
+      <c r="B414" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C414" s="20">
+        <v>23.329999919999999</v>
+      </c>
+      <c r="D414" s="18">
+        <f>SUM(C$3:C414)/A414</f>
+        <v>31.502766967087357</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="18">
+        <f t="shared" si="3"/>
+        <v>413</v>
+      </c>
+      <c r="B415" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C415" s="20">
+        <v>23.270000459999999</v>
+      </c>
+      <c r="D415" s="18">
+        <f>SUM(C$3:C415)/A415</f>
+        <v>31.482832907748161</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="18">
+        <f t="shared" si="3"/>
+        <v>414</v>
+      </c>
+      <c r="B416" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C416" s="20">
+        <v>23.5</v>
+      </c>
+      <c r="D416" s="18">
+        <f>SUM(C$3:C416)/A416</f>
+        <v>31.463550702656981</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="18">
+        <f t="shared" si="3"/>
+        <v>415</v>
+      </c>
+      <c r="B417" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C417" s="20">
+        <v>23.350000380000001</v>
+      </c>
+      <c r="D417" s="18">
+        <f>SUM(C$3:C417)/A417</f>
+        <v>31.443999978987929</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="18">
+        <f t="shared" si="3"/>
+        <v>416</v>
+      </c>
+      <c r="B418" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C418" s="20">
+        <v>23.079999919999999</v>
+      </c>
+      <c r="D418" s="18">
+        <f>SUM(C$3:C418)/A418</f>
+        <v>31.423894209615362</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="18">
+        <f t="shared" si="3"/>
+        <v>417</v>
+      </c>
+      <c r="B419" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C419" s="20">
+        <v>22.709999079999999</v>
+      </c>
+      <c r="D419" s="18">
+        <f>SUM(C$3:C419)/A419</f>
+        <v>31.402997578609092</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="18">
+        <f t="shared" si="3"/>
+        <v>418</v>
+      </c>
+      <c r="B420" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C420" s="20">
+        <v>22.61000061</v>
+      </c>
+      <c r="D420" s="18">
+        <f>SUM(C$3:C420)/A420</f>
+        <v>31.381961700693761</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="18">
+        <f t="shared" si="3"/>
+        <v>419</v>
+      </c>
+      <c r="B421" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C421" s="20">
+        <v>22.549999239999998</v>
+      </c>
+      <c r="D421" s="18">
+        <f>SUM(C$3:C421)/A421</f>
+        <v>31.360883031336495</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="18">
+        <f t="shared" si="3"/>
+        <v>420</v>
+      </c>
+      <c r="B422" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C422" s="20">
+        <v>22.450000760000002</v>
+      </c>
+      <c r="D422" s="18">
+        <f>SUM(C$3:C422)/A422</f>
+        <v>31.33966664497617</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="18">
+        <f t="shared" si="3"/>
+        <v>421</v>
+      </c>
+      <c r="B423" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C423" s="20">
+        <v>22.790000920000001</v>
+      </c>
+      <c r="D423" s="18">
+        <f>SUM(C$3:C423)/A423</f>
+        <v>31.319358650380028</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="18">
+        <f t="shared" si="3"/>
+        <v>422</v>
+      </c>
+      <c r="B424" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C424" s="20">
+        <v>23</v>
+      </c>
+      <c r="D424" s="18">
+        <f>SUM(C$3:C424)/A424</f>
+        <v>31.29964453035543</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="18">
+        <f t="shared" si="3"/>
+        <v>423</v>
+      </c>
+      <c r="B425" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="C425" s="20">
+        <v>22.729999540000001</v>
+      </c>
+      <c r="D425" s="18">
+        <f>SUM(C$3:C425)/A425</f>
+        <v>31.279385322340406</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="18">
+        <f t="shared" si="3"/>
+        <v>424</v>
+      </c>
+      <c r="B426" s="19">
+        <v>44924</v>
+      </c>
+      <c r="C426" s="20">
+        <v>22.760000229999999</v>
+      </c>
+      <c r="D426" s="18">
+        <f>SUM(C$3:C426)/A426</f>
+        <v>31.259292432971684</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="18">
+        <f t="shared" si="3"/>
+        <v>425</v>
+      </c>
+      <c r="B427" s="19">
+        <v>44925</v>
+      </c>
+      <c r="C427" s="20">
+        <v>22.739999770000001</v>
+      </c>
+      <c r="D427" s="18">
+        <f>SUM(C$3:C427)/A427</f>
+        <v>31.23924703847057</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
@@ -1654,7 +1654,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -1757,6 +1757,9 @@
                 <c:pt idx="33">
                   <c:v>44895</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>44925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1765,7 +1768,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1868,6 +1871,9 @@
                 <c:pt idx="33">
                   <c:v>68000</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>70000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1909,7 +1915,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2012,6 +2018,9 @@
                 <c:pt idx="33">
                   <c:v>44895</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>44925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2020,7 +2029,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2000.0000000000002</c:v>
                 </c:pt>
@@ -2123,6 +2132,9 @@
                 <c:pt idx="33">
                   <c:v>58406.85441256113</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>60293.406710853284</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2164,7 +2176,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43889</c:v>
                 </c:pt>
@@ -2267,6 +2279,9 @@
                 <c:pt idx="33">
                   <c:v>44895</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>44925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2275,7 +2290,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2378,6 +2393,9 @@
                 <c:pt idx="33">
                   <c:v>-9593.1455874388703</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>-9706.5932891467164</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2398,11 +2416,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="529471360"/>
-        <c:axId val="532038400"/>
+        <c:axId val="77868032"/>
+        <c:axId val="77914880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="529471360"/>
+        <c:axId val="77868032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2445,14 +2463,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532038400"/>
+        <c:crossAx val="77914880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="532038400"/>
+        <c:axId val="77914880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2503,7 +2521,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529471360"/>
+        <c:crossAx val="77868032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16687,7 +16705,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17334,7 +17352,7 @@
         <v>2000</v>
       </c>
       <c r="D15" s="17">
-        <f t="shared" ref="D15:D36" si="9">C15/B15</f>
+        <f t="shared" ref="D15:D37" si="9">C15/B15</f>
         <v>423.43635539860185</v>
       </c>
       <c r="E15" s="17">
@@ -17342,7 +17360,7 @@
         <v>6766.6987073504279</v>
       </c>
       <c r="F15" s="17">
-        <f t="shared" ref="F15:F36" si="10">E15*B15</f>
+        <f t="shared" ref="F15:F37" si="10">E15*B15</f>
         <v>31960.877336479982</v>
       </c>
       <c r="G15" s="17">
@@ -17350,11 +17368,11 @@
         <v>26000</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" ref="H15:H36" si="11">F15</f>
+        <f t="shared" ref="H15:H37" si="11">F15</f>
         <v>31960.877336479982</v>
       </c>
       <c r="I15" s="17">
-        <f t="shared" ref="I15:I36" si="12">H15-G15</f>
+        <f t="shared" ref="I15:I37" si="12">H15-G15</f>
         <v>5960.8773364799818</v>
       </c>
       <c r="J15" s="6"/>
@@ -17368,7 +17386,7 @@
         <v>4.4379900000000001</v>
       </c>
       <c r="C16" s="16">
-        <f t="shared" ref="C16:C36" si="13">C15</f>
+        <f t="shared" ref="C16:C37" si="13">C15</f>
         <v>2000</v>
       </c>
       <c r="D16" s="17">
@@ -17376,7 +17394,7 @@
         <v>450.65446294381013</v>
       </c>
       <c r="E16" s="17">
-        <f t="shared" ref="E16:E36" si="14">E15+D16</f>
+        <f t="shared" ref="E16:E37" si="14">E15+D16</f>
         <v>7217.3531702942382</v>
       </c>
       <c r="F16" s="17">
@@ -17384,7 +17402,7 @@
         <v>32030.541196234128</v>
       </c>
       <c r="G16" s="17">
-        <f t="shared" ref="G16:G36" si="15">G15+C16</f>
+        <f t="shared" ref="G16:G37" si="15">G15+C16</f>
         <v>28000</v>
       </c>
       <c r="H16" s="17">
@@ -18154,6 +18172,43 @@
       <c r="I36" s="17">
         <f t="shared" si="12"/>
         <v>-9593.1455874388703</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="12.75">
+      <c r="A37" s="14">
+        <v>44925</v>
+      </c>
+      <c r="B37" s="15">
+        <f>VLOOKUP(A37,[1]szse_innovation_100!$A:$F,6)</f>
+        <v>3.4735300292968749</v>
+      </c>
+      <c r="C37" s="16">
+        <f t="shared" si="13"/>
+        <v>2000</v>
+      </c>
+      <c r="D37" s="17">
+        <f t="shared" si="9"/>
+        <v>575.78313218292442</v>
+      </c>
+      <c r="E37" s="17">
+        <f t="shared" si="14"/>
+        <v>17357.963282977031</v>
+      </c>
+      <c r="F37" s="17">
+        <f t="shared" si="10"/>
+        <v>60293.406710853284</v>
+      </c>
+      <c r="G37" s="17">
+        <f t="shared" si="15"/>
+        <v>70000</v>
+      </c>
+      <c r="H37" s="17">
+        <f t="shared" si="11"/>
+        <v>60293.406710853284</v>
+      </c>
+      <c r="I37" s="17">
+        <f t="shared" si="12"/>
+        <v>-9706.5932891467164</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -1653,112 +1653,112 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1766,267 +1766,6 @@
           <c:val>
             <c:numRef>
               <c:f>model1!资金</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>38000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>46000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>48000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>52000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>54000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>56000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>58000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>62000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>66000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>68000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>70000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>model1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>total assets</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>model1!时间</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>43889</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43921</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43951</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43980</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44012</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44043</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44074</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44104</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44134</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44165</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44196</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44225</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44253</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44286</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44316</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44347</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44377</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44407</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44439</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44469</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44498</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44530</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44589</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44620</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44651</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44680</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44712</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44771</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44804</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44834</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44865</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44895</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44925</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="35"/>
@@ -2141,20 +1880,20 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
+              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>model1!$I$1</c:f>
+              <c:f>model1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>profit amount</c:v>
+                  <c:v>total assets</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2162,7 +1901,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2175,119 +1914,119 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>model1!金额</c:f>
+              <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="35"/>
@@ -2402,6 +2141,162 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>model1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>profit amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>model1!时间</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>3.25108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8991500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.17509</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1906699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6513100000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1706000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1298999999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9869400000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2014499999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.27712</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7245600000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9833500000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7232599999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4379900000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7860299999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.9806599999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.1114799999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9776999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7613100000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7106400000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8678999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.9547099609374996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8630097656249998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3440297851562502</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3355400390624999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8658500976562502</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5012099609375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6361599121093748</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1096201171875002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.8724699707031252</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7022099609375001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3477299804687499</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2993999023437501</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.4802900390625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4735300292968749</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>model1!金额</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
@@ -2416,17 +2311,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77868032"/>
-        <c:axId val="77914880"/>
+        <c:axId val="105192448"/>
+        <c:axId val="160554368"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="77868032"/>
+      <c:catAx>
+        <c:axId val="105192448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2463,14 +2358,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77914880"/>
+        <c:crossAx val="160554368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="77914880"/>
+        <c:axId val="160554368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2521,7 +2417,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77868032"/>
+        <c:crossAx val="105192448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16707,7 +16603,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -18226,7 +18122,7 @@
   </sheetPr>
   <dimension ref="A1:D427"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -23767,11 +23663,11 @@
         <v>195</v>
       </c>
       <c r="C347" s="20">
-        <v>23.5</v>
+        <v>24.68000031</v>
       </c>
       <c r="D347" s="18">
         <f>SUM(C$3:C347)/A347</f>
-        <v>33.149565178898534</v>
+        <v>33.152985469652158</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -23783,11 +23679,11 @@
         <v>196</v>
       </c>
       <c r="C348" s="20">
-        <v>23.5</v>
+        <v>24.6341</v>
       </c>
       <c r="D348" s="18">
         <f>SUM(C$3:C348)/A348</f>
-        <v>33.121676262196516</v>
+        <v>33.128364413381483</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -23799,11 +23695,11 @@
         <v>197</v>
       </c>
       <c r="C349" s="20">
-        <v>23.5</v>
+        <v>24.469999309999999</v>
       </c>
       <c r="D349" s="18">
         <f>SUM(C$3:C349)/A349</f>
-        <v>33.093948088530247</v>
+        <v>33.103412352564824</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -23815,11 +23711,11 @@
         <v>198</v>
       </c>
       <c r="C350" s="20">
-        <v>23.33</v>
+        <v>24.540000920000001</v>
       </c>
       <c r="D350" s="18">
         <f>SUM(C$3:C350)/A350</f>
-        <v>33.065890766436766</v>
+        <v>33.078804848448264</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -23831,11 +23727,11 @@
         <v>199</v>
       </c>
       <c r="C351" s="20">
-        <v>23.05</v>
+        <v>24.780000690000001</v>
       </c>
       <c r="D351" s="18">
         <f>SUM(C$3:C351)/A351</f>
-        <v>33.037191939025774</v>
+        <v>33.055026039971331</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -23847,11 +23743,11 @@
         <v>200</v>
       </c>
       <c r="C352" s="20">
-        <v>22.91</v>
+        <v>24.440000529999999</v>
       </c>
       <c r="D352" s="18">
         <f>SUM(C$3:C352)/A352</f>
-        <v>33.008257104914271</v>
+        <v>33.030411681371412</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -23863,11 +23759,11 @@
         <v>201</v>
       </c>
       <c r="C353" s="20">
-        <v>23</v>
+        <v>24.770099999999999</v>
       </c>
       <c r="D353" s="18">
         <f>SUM(C$3:C353)/A353</f>
-        <v>32.979743551908818</v>
+        <v>33.006878029857532</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -23879,11 +23775,11 @@
         <v>202</v>
       </c>
       <c r="C354" s="20">
-        <v>23.46</v>
+        <v>24.93</v>
       </c>
       <c r="D354" s="18">
         <f>SUM(C$3:C354)/A354</f>
-        <v>32.952698825909074</v>
+        <v>32.983932353636348</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -23895,11 +23791,11 @@
         <v>203</v>
       </c>
       <c r="C355" s="20">
-        <v>22.93</v>
+        <v>24.52</v>
       </c>
       <c r="D355" s="18">
         <f>SUM(C$3:C355)/A355</f>
-        <v>32.924305911388082</v>
+        <v>32.959955208158625</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -23911,11 +23807,11 @@
         <v>204</v>
       </c>
       <c r="C356" s="20">
-        <v>23.03</v>
+        <v>23.94</v>
       </c>
       <c r="D356" s="18">
         <f>SUM(C$3:C356)/A356</f>
-        <v>32.89635589468925</v>
+        <v>32.934475108700553</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -23927,11 +23823,11 @@
         <v>205</v>
       </c>
       <c r="C357" s="20">
-        <v>22.61000061</v>
+        <v>23.5</v>
       </c>
       <c r="D357" s="18">
         <f>SUM(C$3:C357)/A357</f>
-        <v>32.867380245999989</v>
+        <v>32.90789912247886</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -23943,11 +23839,11 @@
         <v>206</v>
       </c>
       <c r="C358" s="20">
-        <v>22.040000920000001</v>
+        <v>23.5</v>
       </c>
       <c r="D358" s="18">
         <f>SUM(C$3:C358)/A358</f>
-        <v>32.836966259129198</v>
+        <v>32.881472439550549</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -23959,11 +23855,11 @@
         <v>207</v>
       </c>
       <c r="C359" s="20">
-        <v>22.239999770000001</v>
+        <v>23.5</v>
       </c>
       <c r="D359" s="18">
         <f>SUM(C$3:C359)/A359</f>
-        <v>32.807282879607826</v>
+        <v>32.85519380526609</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -23975,11 +23871,11 @@
         <v>208</v>
       </c>
       <c r="C360" s="20">
-        <v>22.920000080000001</v>
+        <v>23.33</v>
       </c>
       <c r="D360" s="18">
         <f>SUM(C$3:C360)/A360</f>
-        <v>32.779664771229037</v>
+        <v>32.8285871186592</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -23991,11 +23887,11 @@
         <v>209</v>
       </c>
       <c r="C361" s="20">
-        <v>22.850000380000001</v>
+        <v>23.05</v>
       </c>
       <c r="D361" s="18">
         <f>SUM(C$3:C361)/A361</f>
-        <v>32.752005538941489</v>
+        <v>32.801348714428954</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -24007,11 +23903,11 @@
         <v>210</v>
       </c>
       <c r="C362" s="20">
-        <v>23.649999619999999</v>
+        <v>22.91</v>
       </c>
       <c r="D362" s="18">
         <f>SUM(C$3:C362)/A362</f>
-        <v>32.726722189166651</v>
+        <v>32.773872745777759</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -24023,11 +23919,11 @@
         <v>211</v>
       </c>
       <c r="C363" s="20">
-        <v>23.719999309999999</v>
+        <v>23</v>
       </c>
       <c r="D363" s="18">
         <f>SUM(C$3:C363)/A363</f>
-        <v>32.701772818310232</v>
+        <v>32.746798306038762</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -24039,11 +23935,11 @@
         <v>212</v>
       </c>
       <c r="C364" s="20">
-        <v>23.850000380000001</v>
+        <v>23.46</v>
       </c>
       <c r="D364" s="18">
         <f>SUM(C$3:C364)/A364</f>
-        <v>32.677320408259654</v>
+        <v>32.721144167071806</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -24055,11 +23951,11 @@
         <v>213</v>
       </c>
       <c r="C365" s="20">
-        <v>23.590000150000002</v>
+        <v>22.93</v>
       </c>
       <c r="D365" s="18">
         <f>SUM(C$3:C365)/A365</f>
-        <v>32.652286468154252</v>
+        <v>32.694171318126706</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -24071,11 +23967,11 @@
         <v>214</v>
       </c>
       <c r="C366" s="20">
-        <v>23.399999619999999</v>
+        <v>23.030000690000001</v>
       </c>
       <c r="D366" s="18">
         <f>SUM(C$3:C366)/A366</f>
-        <v>32.626868097692288</v>
+        <v>32.66762139881866</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -24087,11 +23983,11 @@
         <v>44834</v>
       </c>
       <c r="C367" s="20">
-        <v>23.340000150000002</v>
+        <v>22.61</v>
       </c>
       <c r="D367" s="18">
         <f>SUM(C$3:C367)/A367</f>
-        <v>32.601424623862997</v>
+        <v>32.640066271698615</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -24107,7 +24003,7 @@
       </c>
       <c r="D368" s="18">
         <f>SUM(C$3:C368)/A368</f>
-        <v>32.57256827494534</v>
+        <v>32.611104344508178</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -24123,7 +24019,7 @@
       </c>
       <c r="D369" s="18">
         <f>SUM(C$3:C369)/A369</f>
-        <v>32.544414137329682</v>
+        <v>32.582845203978181</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -24139,7 +24035,7 @@
       </c>
       <c r="D370" s="18">
         <f>SUM(C$3:C370)/A370</f>
-        <v>32.518260838260851</v>
+        <v>32.556587472663026</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -24155,7 +24051,7 @@
       </c>
       <c r="D371" s="18">
         <f>SUM(C$3:C371)/A371</f>
-        <v>32.492059590406484</v>
+        <v>32.530282358590767</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -24171,7 +24067,7 @@
       </c>
       <c r="D372" s="18">
         <f>SUM(C$3:C372)/A372</f>
-        <v>32.468162131027007</v>
+        <v>32.506281594432416</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -24187,7 +24083,7 @@
       </c>
       <c r="D373" s="18">
         <f>SUM(C$3:C373)/A373</f>
-        <v>32.444582177331519</v>
+        <v>32.482598892857126</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -24203,7 +24099,7 @@
       </c>
       <c r="D374" s="18">
         <f>SUM(C$3:C374)/A374</f>
-        <v>32.421478462822563</v>
+        <v>32.459392982876324</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -24219,7 +24115,7 @@
       </c>
       <c r="D375" s="18">
         <f>SUM(C$3:C375)/A375</f>
-        <v>32.39780157726539</v>
+        <v>32.435614449812313</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -24235,7 +24131,7 @@
       </c>
       <c r="D376" s="18">
         <f>SUM(C$3:C376)/A376</f>
-        <v>32.373743283262009</v>
+        <v>32.411455051871634</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -24251,7 +24147,7 @@
       </c>
       <c r="D377" s="18">
         <f>SUM(C$3:C377)/A377</f>
-        <v>32.349653301573312</v>
+        <v>32.387264505466646</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -24267,7 +24163,7 @@
       </c>
       <c r="D378" s="18">
         <f>SUM(C$3:C378)/A378</f>
-        <v>32.324335074494662</v>
+        <v>32.361846248590403</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -24283,7 +24179,7 @@
       </c>
       <c r="D379" s="18">
         <f>SUM(C$3:C379)/A379</f>
-        <v>32.298912434429688</v>
+        <v>32.336324109389899</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -24299,7 +24195,7 @@
       </c>
       <c r="D380" s="18">
         <f>SUM(C$3:C380)/A380</f>
-        <v>32.274788328280401</v>
+        <v>32.312101030555532</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -24315,7 +24211,7 @@
       </c>
       <c r="D381" s="18">
         <f>SUM(C$3:C381)/A381</f>
-        <v>32.250211047941931</v>
+        <v>32.287425299815283</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -24331,7 +24227,7 @@
       </c>
       <c r="D382" s="18">
         <f>SUM(C$3:C382)/A382</f>
-        <v>32.223605227789449</v>
+        <v>32.260721547421028</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -24347,7 +24243,7 @@
       </c>
       <c r="D383" s="18">
         <f>SUM(C$3:C383)/A383</f>
-        <v>32.197401538923856</v>
+        <v>32.234420440393677</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -24363,7 +24259,7 @@
       </c>
       <c r="D384" s="18">
         <f>SUM(C$3:C384)/A384</f>
-        <v>32.171413577984268</v>
+        <v>32.208335571335049</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -24379,7 +24275,7 @@
       </c>
       <c r="D385" s="18">
         <f>SUM(C$3:C385)/A385</f>
-        <v>32.146422943002584</v>
+        <v>32.183248534281958</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -24395,7 +24291,7 @@
       </c>
       <c r="D386" s="18">
         <f>SUM(C$3:C386)/A386</f>
-        <v>32.121249965390597</v>
+        <v>32.157979656692682</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -24411,7 +24307,7 @@
       </c>
       <c r="D387" s="18">
         <f>SUM(C$3:C387)/A387</f>
-        <v>32.098077889532441</v>
+        <v>32.134712179038935</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -24427,7 +24323,7 @@
       </c>
       <c r="D388" s="18">
         <f>SUM(C$3:C388)/A388</f>
-        <v>32.074999968911889</v>
+        <v>32.111539350932617</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -24443,7 +24339,7 @@
       </c>
       <c r="D389" s="18">
         <f>SUM(C$3:C389)/A389</f>
-        <v>32.051627877751912</v>
+        <v>32.088072842764831</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -24459,7 +24355,7 @@
       </c>
       <c r="D390" s="18">
         <f>SUM(C$3:C390)/A390</f>
-        <v>32.027680383814406</v>
+        <v>32.064031418505131</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -24475,7 +24371,7 @@
       </c>
       <c r="D391" s="18">
         <f>SUM(C$3:C391)/A391</f>
-        <v>32.002724906452414</v>
+        <v>32.038982493753188</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -24491,7 +24387,7 @@
       </c>
       <c r="D392" s="18">
         <f>SUM(C$3:C392)/A392</f>
-        <v>31.979307665256382</v>
+        <v>32.015472284384586</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -24507,7 +24403,7 @@
       </c>
       <c r="D393" s="18">
         <f>SUM(C$3:C393)/A393</f>
-        <v>31.95606135253194</v>
+        <v>31.992133479028105</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -24523,7 +24419,7 @@
       </c>
       <c r="D394" s="18">
         <f>SUM(C$3:C394)/A394</f>
-        <v>31.934362218367319</v>
+        <v>31.970342324132627</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -24539,7 +24435,7 @@
       </c>
       <c r="D395" s="18">
         <f>SUM(C$3:C395)/A395</f>
-        <v>31.911959258931272</v>
+        <v>31.947847812264605</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -24555,7 +24451,7 @@
       </c>
       <c r="D396" s="18">
         <f>SUM(C$3:C396)/A396</f>
-        <v>31.889365454289315</v>
+        <v>31.925162919923835</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -24571,7 +24467,7 @@
       </c>
       <c r="D397" s="18">
         <f>SUM(C$3:C397)/A397</f>
-        <v>31.866936682734149</v>
+        <v>31.902643521873394</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -24587,7 +24483,7 @@
       </c>
       <c r="D398" s="18">
         <f>SUM(C$3:C398)/A398</f>
-        <v>31.844545428484821</v>
+        <v>31.880162098838358</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -24603,7 +24499,7 @@
       </c>
       <c r="D399" s="18">
         <f>SUM(C$3:C399)/A399</f>
-        <v>31.821385363476043</v>
+        <v>31.856912319294686</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -24619,7 +24515,7 @@
       </c>
       <c r="D400" s="18">
         <f>SUM(C$3:C400)/A400</f>
-        <v>31.798065302060277</v>
+        <v>31.833502994170832</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -24635,7 +24531,7 @@
       </c>
       <c r="D401" s="18">
         <f>SUM(C$3:C401)/A401</f>
-        <v>31.774786943483686</v>
+        <v>31.810135819323285</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -24651,7 +24547,7 @@
       </c>
       <c r="D402" s="18">
         <f>SUM(C$3:C402)/A402</f>
-        <v>31.751249977649977</v>
+        <v>31.786510481299977</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -24667,7 +24563,7 @@
       </c>
       <c r="D403" s="18">
         <f>SUM(C$3:C403)/A403</f>
-        <v>31.727431401047358</v>
+        <v>31.762603973266813</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -24683,7 +24579,7 @@
       </c>
       <c r="D404" s="18">
         <f>SUM(C$3:C404)/A404</f>
-        <v>31.704975105920376</v>
+        <v>31.740060184179082</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -24699,7 +24595,7 @@
       </c>
       <c r="D405" s="18">
         <f>SUM(C$3:C405)/A405</f>
-        <v>31.682903206079384</v>
+        <v>31.717901224590552</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -24715,7 +24611,7 @@
       </c>
       <c r="D406" s="18">
         <f>SUM(C$3:C406)/A406</f>
-        <v>31.661831663688094</v>
+        <v>31.696743053440571</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -24731,7 +24627,7 @@
       </c>
       <c r="D407" s="18">
         <f>SUM(C$3:C407)/A407</f>
-        <v>31.640518500790101</v>
+        <v>31.675343689580224</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -24747,7 +24643,7 @@
       </c>
       <c r="D408" s="18">
         <f>SUM(C$3:C408)/A408</f>
-        <v>31.619778305738894</v>
+        <v>31.654517718201948</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -24763,7 +24659,7 @@
       </c>
       <c r="D409" s="18">
         <f>SUM(C$3:C409)/A409</f>
-        <v>31.599729708132653</v>
+        <v>31.634383765773933</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -24779,7 +24675,7 @@
       </c>
       <c r="D410" s="18">
         <f>SUM(C$3:C410)/A410</f>
-        <v>31.580245075563703</v>
+        <v>31.614814196789194</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -24795,7 +24691,7 @@
       </c>
       <c r="D411" s="18">
         <f>SUM(C$3:C411)/A411</f>
-        <v>31.560806821491422</v>
+        <v>31.595291421638123</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -24811,7 +24707,7 @@
       </c>
       <c r="D412" s="18">
         <f>SUM(C$3:C412)/A412</f>
-        <v>31.541975585707295</v>
+        <v>31.576376077073149</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -24827,7 +24723,7 @@
       </c>
       <c r="D413" s="18">
         <f>SUM(C$3:C413)/A413</f>
-        <v>31.522652045060806</v>
+        <v>31.556968836934285</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -24843,7 +24739,7 @@
       </c>
       <c r="D414" s="18">
         <f>SUM(C$3:C414)/A414</f>
-        <v>31.502766967087357</v>
+        <v>31.537000465776678</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -24859,7 +24755,7 @@
       </c>
       <c r="D415" s="18">
         <f>SUM(C$3:C415)/A415</f>
-        <v>31.482832907748161</v>
+        <v>31.51698351661015</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -24875,7 +24771,7 @@
       </c>
       <c r="D416" s="18">
         <f>SUM(C$3:C416)/A416</f>
-        <v>31.463550702656981</v>
+        <v>31.497618822125581</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -24891,7 +24787,7 @@
       </c>
       <c r="D417" s="18">
         <f>SUM(C$3:C417)/A417</f>
-        <v>31.443999978987929</v>
+        <v>31.477986006602389</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -24907,7 +24803,7 @@
       </c>
       <c r="D418" s="18">
         <f>SUM(C$3:C418)/A418</f>
-        <v>31.423894209615362</v>
+        <v>31.457798540048056</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -24923,7 +24819,7 @@
       </c>
       <c r="D419" s="18">
         <f>SUM(C$3:C419)/A419</f>
-        <v>31.402997578609092</v>
+        <v>31.436820603693025</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -24939,7 +24835,7 @@
       </c>
       <c r="D420" s="18">
         <f>SUM(C$3:C420)/A420</f>
-        <v>31.381961700693761</v>
+        <v>31.415703809449742</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -24955,7 +24851,7 @@
       </c>
       <c r="D421" s="18">
         <f>SUM(C$3:C421)/A421</f>
-        <v>31.360883031336495</v>
+        <v>31.394544609999983</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -24971,7 +24867,7 @@
       </c>
       <c r="D422" s="18">
         <f>SUM(C$3:C422)/A422</f>
-        <v>31.33966664497617</v>
+        <v>31.373248077023792</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -24987,7 +24883,7 @@
       </c>
       <c r="D423" s="18">
         <f>SUM(C$3:C423)/A423</f>
-        <v>31.319358650380028</v>
+        <v>31.352860316555802</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -25003,7 +24899,7 @@
       </c>
       <c r="D424" s="18">
         <f>SUM(C$3:C424)/A424</f>
-        <v>31.29964453035543</v>
+        <v>31.333066808696664</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -25019,7 +24915,7 @@
       </c>
       <c r="D425" s="18">
         <f>SUM(C$3:C425)/A425</f>
-        <v>31.279385322340406</v>
+        <v>31.312728588203292</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -25035,7 +24931,7 @@
       </c>
       <c r="D426" s="18">
         <f>SUM(C$3:C426)/A426</f>
-        <v>31.259292432971684</v>
+        <v>31.292557059056588</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -25051,7 +24947,7 @@
       </c>
       <c r="D427" s="18">
         <f>SUM(C$3:C427)/A427</f>
-        <v>31.23924703847057</v>
+        <v>31.272433394847042</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="284">
   <si>
     <t>PE</t>
   </si>
@@ -1090,6 +1090,62 @@
   </si>
   <si>
     <t xml:space="preserve">2022/12/28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/20
 </t>
   </si>
 </sst>
@@ -1607,7 +1663,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2311,11 +2366,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105192448"/>
-        <c:axId val="160554368"/>
+        <c:axId val="324213376"/>
+        <c:axId val="324215168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105192448"/>
+        <c:axId val="324213376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2358,7 +2413,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160554368"/>
+        <c:crossAx val="324215168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2366,7 +2421,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160554368"/>
+        <c:axId val="324215168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2417,7 +2472,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105192448"/>
+        <c:crossAx val="324213376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2431,7 +2486,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18120,9 +18174,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D427"/>
+  <dimension ref="A1:D443"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -23800,7 +23854,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A427" si="3">A355+1</f>
+        <f t="shared" ref="A356:A443" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -24948,6 +25002,262 @@
       <c r="D427" s="18">
         <f>SUM(C$3:C427)/A427</f>
         <v>31.272433394847042</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="18">
+        <f t="shared" si="3"/>
+        <v>426</v>
+      </c>
+      <c r="B428" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C428" s="20">
+        <v>22.829999919999999</v>
+      </c>
+      <c r="D428" s="18">
+        <f>SUM(C$3:C428)/A428</f>
+        <v>31.252615475892004</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="18">
+        <f t="shared" si="3"/>
+        <v>427</v>
+      </c>
+      <c r="B429" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="C429" s="20">
+        <v>23.409999849999998</v>
+      </c>
+      <c r="D429" s="18">
+        <f>SUM(C$3:C429)/A429</f>
+        <v>31.234248694566734</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="18">
+        <f t="shared" si="3"/>
+        <v>428</v>
+      </c>
+      <c r="B430" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C430" s="20">
+        <v>23.5</v>
+      </c>
+      <c r="D430" s="18">
+        <f>SUM(C$3:C430)/A430</f>
+        <v>31.216178020046716</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="18">
+        <f t="shared" si="3"/>
+        <v>429</v>
+      </c>
+      <c r="B431" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C431" s="20">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D431" s="18">
+        <f>SUM(C$3:C431)/A431</f>
+        <v>31.198378071095561</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="18">
+        <f t="shared" si="3"/>
+        <v>430</v>
+      </c>
+      <c r="B432" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C432" s="20">
+        <v>23.81999969</v>
+      </c>
+      <c r="D432" s="18">
+        <f>SUM(C$3:C432)/A432</f>
+        <v>31.181219051604643</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="18">
+        <f t="shared" si="3"/>
+        <v>431</v>
+      </c>
+      <c r="B433" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C433" s="20">
+        <v>23.649999619999999</v>
+      </c>
+      <c r="D433" s="18">
+        <f>SUM(C$3:C433)/A433</f>
+        <v>31.163745224617159</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="18">
+        <f t="shared" si="3"/>
+        <v>432</v>
+      </c>
+      <c r="B434" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="C434" s="20">
+        <v>23.780000690000001</v>
+      </c>
+      <c r="D434" s="18">
+        <f>SUM(C$3:C434)/A434</f>
+        <v>31.146653223379619</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="18">
+        <f t="shared" si="3"/>
+        <v>433</v>
+      </c>
+      <c r="B435" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="C435" s="20">
+        <v>24.100000380000001</v>
+      </c>
+      <c r="D435" s="18">
+        <f>SUM(C$3:C435)/A435</f>
+        <v>31.13037919833717</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="18">
+        <f t="shared" si="3"/>
+        <v>434</v>
+      </c>
+      <c r="B436" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C436" s="20">
+        <v>24.450000760000002</v>
+      </c>
+      <c r="D436" s="18">
+        <f>SUM(C$3:C436)/A436</f>
+        <v>31.114986621290313</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="18">
+        <f t="shared" si="3"/>
+        <v>435</v>
+      </c>
+      <c r="B437" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C437" s="20">
+        <v>24.520000459999999</v>
+      </c>
+      <c r="D437" s="18">
+        <f>SUM(C$3:C437)/A437</f>
+        <v>31.099825733563208</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="18">
+        <f t="shared" si="3"/>
+        <v>436</v>
+      </c>
+      <c r="B438" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="C438" s="20">
+        <v>24.530000690000001</v>
+      </c>
+      <c r="D438" s="18">
+        <f>SUM(C$3:C438)/A438</f>
+        <v>31.084757327499986</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="18">
+        <f t="shared" si="3"/>
+        <v>437</v>
+      </c>
+      <c r="B439" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C439" s="20">
+        <v>24.739999770000001</v>
+      </c>
+      <c r="D439" s="18">
+        <f>SUM(C$3:C439)/A439</f>
+        <v>31.0702384314874</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="18">
+        <f t="shared" si="3"/>
+        <v>438</v>
+      </c>
+      <c r="B440" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C440" s="20">
+        <v>24.829999919999999</v>
+      </c>
+      <c r="D440" s="18">
+        <f>SUM(C$3:C440)/A440</f>
+        <v>31.055991311598159</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="18">
+        <f t="shared" si="3"/>
+        <v>439</v>
+      </c>
+      <c r="B441" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C441" s="20">
+        <v>25.170000080000001</v>
+      </c>
+      <c r="D441" s="18">
+        <f>SUM(C$3:C441)/A441</f>
+        <v>31.042583586697024</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="18">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="B442" s="19">
+        <v>44956</v>
+      </c>
+      <c r="C442" s="20">
+        <v>24.899999619999999</v>
+      </c>
+      <c r="D442" s="18">
+        <f>SUM(C$3:C442)/A442</f>
+        <v>31.028623168590894</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="18">
+        <f t="shared" si="3"/>
+        <v>441</v>
+      </c>
+      <c r="B443" s="19">
+        <v>44957</v>
+      </c>
+      <c r="C443" s="20">
+        <v>24.899999619999999</v>
+      </c>
+      <c r="D443" s="18">
+        <f>SUM(C$3:C443)/A443</f>
+        <v>31.014726063038534</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="270">
   <si>
     <t>PE</t>
   </si>
@@ -1090,62 +1090,6 @@
   </si>
   <si>
     <t xml:space="preserve">2022/12/28
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/1/3
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/1/4
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/1/5
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/1/6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/1/9
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/1/10
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/1/11
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/1/12
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/1/13
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/1/16
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/1/17
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/1/18
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/1/19
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/1/20
 </t>
   </si>
 </sst>
@@ -1160,7 +1104,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2366,11 +2310,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="324213376"/>
-        <c:axId val="324215168"/>
+        <c:axId val="245629696"/>
+        <c:axId val="245631232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="324213376"/>
+        <c:axId val="245629696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2413,7 +2357,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324215168"/>
+        <c:crossAx val="245631232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2421,7 +2365,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324215168"/>
+        <c:axId val="245631232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2472,7 +2416,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324213376"/>
+        <c:crossAx val="245629696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16662,7 +16606,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -16683,7 +16627,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>180</v>
       </c>
@@ -16713,7 +16657,7 @@
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:22" ht="14.1" customHeight="1">
+    <row r="2" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -16729,7 +16673,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="14.1" customHeight="1">
+    <row r="3" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -16798,7 +16742,7 @@
         <v>-22000</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="14.1" customHeight="1">
+    <row r="4" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -16873,7 +16817,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="14.1" customHeight="1">
+    <row r="5" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -16943,7 +16887,7 @@
         <v>53008.069006718506</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="14.1" customHeight="1">
+    <row r="6" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -16985,7 +16929,7 @@
         <v>9.9835199022272558E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="14.1" customHeight="1">
+    <row r="7" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -17023,7 +16967,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:22" ht="14.1" customHeight="1">
+    <row r="8" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -17061,7 +17005,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="14.1" customHeight="1">
+    <row r="9" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -17099,7 +17043,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="14.1" customHeight="1">
+    <row r="10" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -17137,7 +17081,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="14.1" customHeight="1">
+    <row r="11" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -17175,7 +17119,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="14.1" customHeight="1">
+    <row r="12" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -17213,7 +17157,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:22" ht="14.1" customHeight="1">
+    <row r="13" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -17251,7 +17195,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:22" ht="14.1" customHeight="1">
+    <row r="14" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -17289,7 +17233,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:22" ht="14.1" customHeight="1">
+    <row r="15" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -17327,7 +17271,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:22" ht="14.1" customHeight="1">
+    <row r="16" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -17365,7 +17309,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>44316</v>
       </c>
@@ -17403,7 +17347,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>44347</v>
       </c>
@@ -17441,7 +17385,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>44377</v>
       </c>
@@ -17479,7 +17423,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>44407</v>
       </c>
@@ -17517,7 +17461,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>44439</v>
       </c>
@@ -17556,7 +17500,7 @@
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>44469</v>
       </c>
@@ -17594,7 +17538,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>44498</v>
       </c>
@@ -17632,7 +17576,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>44530</v>
       </c>
@@ -17670,7 +17614,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>44561</v>
       </c>
@@ -17708,7 +17652,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>44589</v>
       </c>
@@ -17746,7 +17690,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>44620</v>
       </c>
@@ -17784,7 +17728,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>44651</v>
       </c>
@@ -17822,7 +17766,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>44680</v>
       </c>
@@ -17860,7 +17804,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>44712</v>
       </c>
@@ -17898,7 +17842,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>44742</v>
       </c>
@@ -17936,7 +17880,7 @@
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>44771</v>
       </c>
@@ -17974,7 +17918,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>44804</v>
       </c>
@@ -18013,7 +17957,7 @@
       <c r="J33" s="6"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75">
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>44834</v>
       </c>
@@ -18050,7 +17994,7 @@
         <v>-11770.911062729705</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75">
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>44865</v>
       </c>
@@ -18087,7 +18031,7 @@
         <v>-12524.925264431353</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.75">
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>44895</v>
       </c>
@@ -18124,7 +18068,7 @@
         <v>-9593.1455874388703</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.75">
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>44925</v>
       </c>
@@ -18174,13 +18118,13 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D443"/>
+  <dimension ref="A1:D427"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
@@ -18188,7 +18132,7 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="30" t="s">
         <v>194</v>
       </c>
@@ -18196,7 +18140,7 @@
         <v>399088</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="30"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
@@ -18205,7 +18149,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -18220,7 +18164,7 @@
         <v>45.12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>2</v>
@@ -18236,7 +18180,7 @@
         <v>44.965000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -18252,7 +18196,7 @@
         <v>44.99666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -18268,7 +18212,7 @@
         <v>44.792500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -18284,7 +18228,7 @@
         <v>44.440000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -18300,7 +18244,7 @@
         <v>44.256666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -18316,7 +18260,7 @@
         <v>44.252857142857145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -18332,7 +18276,7 @@
         <v>44.220000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -18348,7 +18292,7 @@
         <v>44.181111111111115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -18364,7 +18308,7 @@
         <v>44.341000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -18380,7 +18324,7 @@
         <v>44.458181818181828</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -18396,7 +18340,7 @@
         <v>44.577500000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -18412,7 +18356,7 @@
         <v>44.703076923076928</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -18428,7 +18372,7 @@
         <v>44.860000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -18444,7 +18388,7 @@
         <v>44.968000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -18460,7 +18404,7 @@
         <v>45.078750000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -18476,7 +18420,7 @@
         <v>45.214117647058828</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -18492,7 +18436,7 @@
         <v>45.345555555555563</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -18508,7 +18452,7 @@
         <v>45.46631578947369</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -18524,7 +18468,7 @@
         <v>45.062500000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -18540,7 +18484,7 @@
         <v>44.643333333333338</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -18556,7 +18500,7 @@
         <v>44.269090909090913</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -18572,7 +18516,7 @@
         <v>43.928695652173921</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -18588,7 +18532,7 @@
         <v>43.627500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -18604,7 +18548,7 @@
         <v>43.332400000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -18620,7 +18564,7 @@
         <v>43.088461538461544</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -18636,7 +18580,7 @@
         <v>42.901851851851859</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -18652,7 +18596,7 @@
         <v>42.726071428571437</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -18668,7 +18612,7 @@
         <v>42.570000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -18684,7 +18628,7 @@
         <v>42.435000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -18700,7 +18644,7 @@
         <v>42.298387096774199</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -18716,7 +18660,7 @@
         <v>42.179062500000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -18732,7 +18676,7 @@
         <v>42.093333333333341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -18748,7 +18692,7 @@
         <v>42.005000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
         <f t="shared" ref="A37:A100" si="1">A36+1</f>
         <v>35</v>
@@ -18764,7 +18708,7 @@
         <v>41.929428571428573</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -18780,7 +18724,7 @@
         <v>41.856666666666662</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -18796,7 +18740,7 @@
         <v>41.802432432432425</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -18812,7 +18756,7 @@
         <v>41.751315789473679</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -18828,7 +18772,7 @@
         <v>41.689999999999991</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -18844,7 +18788,7 @@
         <v>41.621999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -18860,7 +18804,7 @@
         <v>41.5680487804878</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -18876,7 +18820,7 @@
         <v>41.512380952380944</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -18892,7 +18836,7 @@
         <v>41.454186046511623</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -18908,7 +18852,7 @@
         <v>41.399318181818174</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -18924,7 +18868,7 @@
         <v>41.36044444444444</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -18940,7 +18884,7 @@
         <v>41.322391304347818</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -18956,7 +18900,7 @@
         <v>41.285319148936161</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -18972,7 +18916,7 @@
         <v>41.222499999999989</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -18988,7 +18932,7 @@
         <v>41.174693877551015</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -19004,7 +18948,7 @@
         <v>41.139199999999988</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="18">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -19020,7 +18964,7 @@
         <v>41.106862745098027</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="18">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -19036,7 +18980,7 @@
         <v>41.078653846153834</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="18">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -19052,7 +18996,7 @@
         <v>41.062452830188661</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="18">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -19068,7 +19012,7 @@
         <v>41.045555555555538</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="18">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -19084,7 +19028,7 @@
         <v>41.038181818181798</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -19100,7 +19044,7 @@
         <v>41.038928571428549</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="18">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -19116,7 +19060,7 @@
         <v>41.034736842105247</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="18">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -19132,7 +19076,7 @@
         <v>41.041896551724122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="18">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -19148,7 +19092,7 @@
         <v>41.046101694915237</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -19164,7 +19108,7 @@
         <v>41.029166666666654</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="18">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -19180,7 +19124,7 @@
         <v>41.015737704918017</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="18">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -19196,7 +19140,7 @@
         <v>40.997580645161271</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="18">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -19212,7 +19156,7 @@
         <v>40.997301587301571</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="18">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -19228,7 +19172,7 @@
         <v>40.998281249999984</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="18">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -19244,7 +19188,7 @@
         <v>40.994153846153829</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="18">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -19260,7 +19204,7 @@
         <v>41.006060606060593</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="18">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -19276,7 +19220,7 @@
         <v>41.01641791044775</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="18">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -19292,7 +19236,7 @@
         <v>41.020294117647047</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="18">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -19308,7 +19252,7 @@
         <v>41.027826086956509</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -19324,7 +19268,7 @@
         <v>41.021428571428558</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="18">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -19340,7 +19284,7 @@
         <v>41.019295774647873</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="18">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -19356,7 +19300,7 @@
         <v>41.017499999999984</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="18">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -19372,7 +19316,7 @@
         <v>41.027123287671216</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="18">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -19388,7 +19332,7 @@
         <v>41.036081081081065</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="18">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -19404,7 +19348,7 @@
         <v>41.035466666666643</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="18">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -19420,7 +19364,7 @@
         <v>41.020526335866805</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="18">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -19436,7 +19380,7 @@
         <v>40.984025981952598</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="18">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -19452,7 +19396,7 @@
         <v>40.953717942849167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="18">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -19468,7 +19412,7 @@
         <v>40.943164537647085</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="18">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -19484,7 +19428,7 @@
         <v>40.930499984741189</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="18">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -19500,7 +19444,7 @@
         <v>40.927160476872935</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="18">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -19516,7 +19460,7 @@
         <v>40.921951202764724</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="18">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -19532,7 +19476,7 @@
         <v>40.929036107810127</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="18">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -19548,7 +19492,7 @@
         <v>40.931428547813759</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="18">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -19564,7 +19508,7 @@
         <v>40.92988232062843</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="18">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -19580,7 +19524,7 @@
         <v>40.928372052214847</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="18">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -19596,7 +19540,7 @@
         <v>40.927701096808754</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="18">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -19612,7 +19556,7 @@
         <v>40.924090864008107</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="18">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -19628,7 +19572,7 @@
         <v>40.917528047025854</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="18">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -19644,7 +19588,7 @@
         <v>40.904444420708536</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="18">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -19660,7 +19604,7 @@
         <v>40.886703283288959</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="18">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -19676,7 +19620,7 @@
         <v>40.859891271176529</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="18">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -19692,7 +19636,7 @@
         <v>40.836344033518131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="18">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -19708,7 +19652,7 @@
         <v>40.815851010261682</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="18">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -19724,7 +19668,7 @@
         <v>40.787684151097331</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="18">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -19740,7 +19684,7 @@
         <v>40.770416618982935</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="18">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -19756,7 +19700,7 @@
         <v>40.756804084384548</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -19772,7 +19716,7 @@
         <v>40.744489749207773</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="18">
         <f t="shared" ref="A101:A355" si="2">A100+1</f>
         <v>99</v>
@@ -19788,7 +19732,7 @@
         <v>40.723232270828383</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="18">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -19804,7 +19748,7 @@
         <v>40.702299958801255</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="18">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -19820,7 +19764,7 @@
         <v>40.680296984379815</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="18">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -19836,7 +19780,7 @@
         <v>40.654705834482208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -19852,7 +19796,7 @@
         <v>40.599999957038342</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="18">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -19868,7 +19812,7 @@
         <v>40.542692259274979</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="18">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -19884,7 +19828,7 @@
         <v>40.482476154145722</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="18">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -19900,7 +19844,7 @@
         <v>40.435849029253099</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="18">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -19916,7 +19860,7 @@
         <v>40.391775685247957</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="18">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -19932,7 +19876,7 @@
         <v>40.346574042991335</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="18">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -19948,7 +19892,7 @@
         <v>40.302110060945544</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="18">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -19964,7 +19908,7 @@
         <v>40.260272703690944</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="18">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -19980,7 +19924,7 @@
         <v>40.215585555342926</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="18">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -19996,7 +19940,7 @@
         <v>40.173214266640784</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="18">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -20012,7 +19956,7 @@
         <v>40.128584061344093</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="18">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -20028,7 +19972,7 @@
         <v>40.078245599311678</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="18">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -20044,7 +19988,7 @@
         <v>40.032521721881352</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="18">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -20060,7 +20004,7 @@
         <v>39.985344822324535</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="18">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -20076,7 +20020,7 @@
         <v>39.940427341298147</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="18">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -20092,7 +20036,7 @@
         <v>39.89703388666701</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="18">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -20108,7 +20052,7 @@
         <v>39.856638645204157</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="18">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -20124,7 +20068,7 @@
         <v>39.814833324432357</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="18">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -20140,7 +20084,7 @@
         <v>39.769752062332515</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="18">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -20156,7 +20100,7 @@
         <v>39.730819672131133</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="18">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -20172,7 +20116,7 @@
         <v>39.694634136422749</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="18">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -20188,7 +20132,7 @@
         <v>39.656854815322561</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="18">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -20204,7 +20148,7 @@
         <v>39.615839967039982</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="18">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -20220,7 +20164,7 @@
         <v>39.58039680484125</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="18">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -20236,7 +20180,7 @@
         <v>39.545433045669277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="18">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -20252,7 +20196,7 @@
         <v>39.514765591640611</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="18">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -20268,7 +20212,7 @@
         <v>39.483953462403086</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="18">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -20284,7 +20228,7 @@
         <v>39.455384593153838</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="18">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -20300,7 +20244,7 @@
         <v>39.425419815954186</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="18">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -20316,7 +20260,7 @@
         <v>39.396590869848474</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="18">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -20332,7 +20276,7 @@
         <v>39.371127767969917</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="18">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -20348,7 +20292,7 @@
         <v>39.348358155447755</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="18">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -20364,7 +20308,7 @@
         <v>39.325777719037028</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="18">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -20380,7 +20324,7 @@
         <v>39.30124995404411</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="18">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -20396,7 +20340,7 @@
         <v>39.275182432773718</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="18">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -20412,7 +20356,7 @@
         <v>39.253623134275358</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="18">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -20428,7 +20372,7 @@
         <v>39.222517934100708</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="18">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -20444,7 +20388,7 @@
         <v>39.191714233499987</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="18">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -20460,7 +20404,7 @@
         <v>39.159361657872324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="18">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -20476,7 +20420,7 @@
         <v>39.130704182464775</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="18">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -20492,7 +20436,7 @@
         <v>39.101118849230758</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="18">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -20508,7 +20452,7 @@
         <v>39.072916641388879</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="18">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -20524,7 +20468,7 @@
         <v>39.046344810896542</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="18">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -20540,7 +20484,7 @@
         <v>39.018561638767117</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="18">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -20556,7 +20500,7 @@
         <v>38.994013599387742</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="18">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -20572,7 +20516,7 @@
         <v>38.968783766418909</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="18">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -20588,7 +20532,7 @@
         <v>38.941812068389247</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="18">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -20604,7 +20548,7 @@
         <v>38.915199992999987</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="18">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -20620,7 +20564,7 @@
         <v>38.890794691986741</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="18">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -20636,7 +20580,7 @@
         <v>38.864144727894725</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="18">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -20652,7 +20596,7 @@
         <v>38.840653588888877</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="18">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -20668,7 +20612,7 @@
         <v>38.822142862207784</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="18">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -20684,7 +20628,7 @@
         <v>38.801870974774182</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="18">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -20700,7 +20644,7 @@
         <v>38.781025643141014</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="18">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -20716,7 +20660,7 @@
         <v>38.75942674980891</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="18">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -20732,7 +20676,7 @@
         <v>38.73683543259493</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="18">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -20748,7 +20692,7 @@
         <v>38.715911938364776</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="18">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -20764,7 +20708,7 @@
         <v>38.695499988749994</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="18">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -20780,7 +20724,7 @@
         <v>38.674285695527942</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="18">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -20796,7 +20740,7 @@
         <v>38.652962951851848</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="18">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -20812,7 +20756,7 @@
         <v>38.632515324478518</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="18">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -20828,7 +20772,7 @@
         <v>38.609999978780486</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="18">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -20844,7 +20788,7 @@
         <v>38.586363609696967</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="18">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -20860,7 +20804,7 @@
         <v>38.566746972469872</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="18">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -20876,7 +20820,7 @@
         <v>38.550598780598797</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="18">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -20892,7 +20836,7 @@
         <v>38.53458331529761</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="18">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -20908,7 +20852,7 @@
         <v>38.518757382130168</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="18">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -20924,7 +20868,7 @@
         <v>38.501588212058813</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="18">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -20940,7 +20884,7 @@
         <v>38.482806999824554</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="18">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -20956,7 +20900,7 @@
         <v>38.465581380406974</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="18">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -20972,7 +20916,7 @@
         <v>38.445202289364161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="18">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -20988,7 +20932,7 @@
         <v>38.42022985362069</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="18">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -21004,7 +20948,7 @@
         <v>38.397485675200002</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="18">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -21020,7 +20964,7 @@
         <v>38.376420407897733</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="18">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -21036,7 +20980,7 @@
         <v>38.356271147796612</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="18">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -21052,7 +20996,7 @@
         <v>38.333426933033707</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="18">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -21068,7 +21012,7 @@
         <v>38.311229020614526</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="18">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -21084,7 +21028,7 @@
         <v>38.290888867888889</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="18">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -21100,7 +21044,7 @@
         <v>38.268618754364638</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="18">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -21116,7 +21060,7 @@
         <v>38.248351618351641</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="18">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -21132,7 +21076,7 @@
         <v>38.228579205136612</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="18">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -21148,7 +21092,7 @@
         <v>38.206847793913042</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="18">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -21164,7 +21108,7 @@
         <v>38.181189152216213</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="18">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -21180,7 +21124,7 @@
         <v>38.15387092274193</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="18">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -21196,7 +21140,7 @@
         <v>38.12657749128342</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="18">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -21212,7 +21156,7 @@
         <v>38.100053139680853</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="18">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -21228,7 +21172,7 @@
         <v>38.071216879682538</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="18">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -21244,7 +21188,7 @@
         <v>38.0456315228421</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="18">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -21260,7 +21204,7 @@
         <v>38.017120363036646</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="18">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -21276,7 +21220,7 @@
         <v>37.989791613541662</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="18">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -21292,7 +21236,7 @@
         <v>37.965699429792743</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="18">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -21308,7 +21252,7 @@
         <v>37.941855619072165</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="18">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -21324,7 +21268,7 @@
         <v>37.915128152000001</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="18">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -21340,7 +21284,7 @@
         <v>37.889132598622453</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="18">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -21356,7 +21300,7 @@
         <v>37.861268989137059</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="18">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -21372,7 +21316,7 @@
         <v>37.834646419242425</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="18">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -21388,7 +21332,7 @@
         <v>37.804422063819104</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="18">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -21404,7 +21348,7 @@
         <v>37.775999948150009</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="18">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -21420,7 +21364,7 @@
         <v>37.743084524776123</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="18">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -21436,7 +21380,7 @@
         <v>37.710494996683174</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="18">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -21452,7 +21396,7 @@
         <v>37.678472849310346</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="18">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -21468,7 +21412,7 @@
         <v>37.643872496323532</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="18">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -21484,7 +21428,7 @@
         <v>37.61151214380488</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="18">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -21500,7 +21444,7 @@
         <v>37.577281499757277</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="18">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -21516,7 +21460,7 @@
         <v>37.540193181497585</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="18">
         <f t="shared" si="2"/>
         <v>208</v>
@@ -21532,7 +21476,7 @@
         <v>37.503221100721149</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="18">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -21548,7 +21492,7 @@
         <v>37.469999944593297</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="18">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -21564,7 +21508,7 @@
         <v>37.437380901238093</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="18">
         <f t="shared" si="2"/>
         <v>211</v>
@@ -21580,7 +21524,7 @@
         <v>37.405781941800946</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="18">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -21596,7 +21540,7 @@
         <v>37.374245231273584</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="18">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -21612,7 +21556,7 @@
         <v>37.342629053615028</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="18">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -21628,7 +21572,7 @@
         <v>37.309205555841125</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="18">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -21644,7 +21588,7 @@
         <v>37.27981390102326</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="18">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -21660,7 +21604,7 @@
         <v>37.247685133657413</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="18">
         <f t="shared" si="2"/>
         <v>217</v>
@@ -21676,7 +21620,7 @@
         <v>37.218433126682037</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="18">
         <f t="shared" si="2"/>
         <v>218</v>
@@ -21692,7 +21636,7 @@
         <v>37.189770586238538</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="18">
         <f t="shared" si="2"/>
         <v>219</v>
@@ -21708,7 +21652,7 @@
         <v>37.161232823424669</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="18">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -21724,7 +21668,7 @@
         <v>37.130772670045459</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="18">
         <f t="shared" si="2"/>
         <v>221</v>
@@ -21740,7 +21684,7 @@
         <v>37.098913970859734</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="18">
         <f t="shared" si="2"/>
         <v>222</v>
@@ -21756,7 +21700,7 @@
         <v>37.065180126891896</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="18">
         <f t="shared" si="2"/>
         <v>223</v>
@@ -21772,7 +21716,7 @@
         <v>37.026053759282519</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="18">
         <f t="shared" si="2"/>
         <v>224</v>
@@ -21788,7 +21732,7 @@
         <v>36.984464229464287</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="18">
         <f t="shared" si="2"/>
         <v>225</v>
@@ -21804,7 +21748,7 @@
         <v>36.94248883697778</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="18">
         <f t="shared" si="2"/>
         <v>226</v>
@@ -21820,7 +21764,7 @@
         <v>36.903849501769912</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="18">
         <f t="shared" si="2"/>
         <v>227</v>
@@ -21836,7 +21780,7 @@
         <v>36.866607877356834</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="18">
         <f t="shared" si="2"/>
         <v>228</v>
@@ -21852,7 +21796,7 @@
         <v>36.825438542543864</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="18">
         <f t="shared" si="2"/>
         <v>229</v>
@@ -21868,7 +21812,7 @@
         <v>36.780523967772936</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="18">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -21884,7 +21828,7 @@
         <v>36.740956473608705</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="18">
         <f t="shared" si="2"/>
         <v>231</v>
@@ -21900,7 +21844,7 @@
         <v>36.704978308398275</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="18">
         <f t="shared" si="2"/>
         <v>232</v>
@@ -21916,7 +21860,7 @@
         <v>36.66892236806035</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="18">
         <f t="shared" si="2"/>
         <v>233</v>
@@ -21932,7 +21876,7 @@
         <v>36.633948454291847</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="18">
         <f t="shared" si="2"/>
         <v>234</v>
@@ -21948,7 +21892,7 @@
         <v>36.598119614743588</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="18">
         <f t="shared" si="2"/>
         <v>235</v>
@@ -21964,7 +21908,7 @@
         <v>36.563361660255318</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="18">
         <f t="shared" si="2"/>
         <v>236</v>
@@ -21980,7 +21924,7 @@
         <v>36.528262673093217</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="18">
         <f t="shared" si="2"/>
         <v>237</v>
@@ -21996,7 +21940,7 @@
         <v>36.490632875358649</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="18">
         <f t="shared" si="2"/>
         <v>238</v>
@@ -22012,7 +21956,7 @@
         <v>36.451512570462185</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="18">
         <f t="shared" si="2"/>
         <v>239</v>
@@ -22028,7 +21972,7 @@
         <v>36.412008334728036</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="18">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -22044,7 +21988,7 @@
         <v>36.376874964750002</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="18">
         <f t="shared" si="2"/>
         <v>241</v>
@@ -22060,7 +22004,7 @@
         <v>36.340622369004151</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="18">
         <f t="shared" si="2"/>
         <v>242</v>
@@ -22076,7 +22020,7 @@
         <v>36.305495830909088</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="18">
         <f t="shared" si="2"/>
         <v>243</v>
@@ -22092,7 +22036,7 @@
         <v>36.269876504938274</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="18">
         <f t="shared" si="2"/>
         <v>244</v>
@@ -22108,7 +22052,7 @@
         <v>36.232704883032788</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="18">
         <f t="shared" si="2"/>
         <v>245</v>
@@ -22124,7 +22068,7 @@
         <v>36.195714251183674</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="18">
         <f t="shared" si="2"/>
         <v>246</v>
@@ -22140,7 +22084,7 @@
         <v>36.154715415243899</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="18">
         <f t="shared" si="2"/>
         <v>247</v>
@@ -22156,7 +22100,7 @@
         <v>36.116113331943318</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="18">
         <f t="shared" si="2"/>
         <v>248</v>
@@ -22172,7 +22116,7 @@
         <v>36.076048360080641</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="18">
         <f t="shared" si="2"/>
         <v>249</v>
@@ -22188,7 +22132,7 @@
         <v>36.036947764859427</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="18">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -22204,7 +22148,7 @@
         <v>35.997639970119991</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="18">
         <f t="shared" si="2"/>
         <v>251</v>
@@ -22220,7 +22164,7 @@
         <v>35.959402359163342</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="18">
         <f t="shared" si="2"/>
         <v>252</v>
@@ -22236,7 +22180,7 @@
         <v>35.920357115039671</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="18">
         <f t="shared" si="2"/>
         <v>253</v>
@@ -22252,7 +22196,7 @@
         <v>35.879051352964417</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="18">
         <f t="shared" si="2"/>
         <v>254</v>
@@ -22268,7 +22212,7 @@
         <v>35.835787368858256</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="18">
         <f t="shared" si="2"/>
         <v>255</v>
@@ -22284,7 +22228,7 @@
         <v>35.792862710117632</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="18">
         <f t="shared" si="2"/>
         <v>256</v>
@@ -22300,7 +22244,7 @@
         <v>35.744648405624986</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="18">
         <f t="shared" si="2"/>
         <v>257</v>
@@ -22316,7 +22260,7 @@
         <v>35.69571981291827</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="18">
         <f t="shared" si="2"/>
         <v>258</v>
@@ -22332,7 +22276,7 @@
         <v>35.651472839573628</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="18">
         <f t="shared" si="2"/>
         <v>259</v>
@@ -22348,7 +22292,7 @@
         <v>35.606949781660212</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="18">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -22364,7 +22308,7 @@
         <v>35.566653817730753</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="18">
         <f t="shared" si="2"/>
         <v>261</v>
@@ -22380,7 +22324,7 @@
         <v>35.519386943103434</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="18">
         <f t="shared" si="2"/>
         <v>262</v>
@@ -22396,7 +22340,7 @@
         <v>35.470534318549603</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="18">
         <f t="shared" si="2"/>
         <v>263</v>
@@ -22412,7 +22356,7 @@
         <v>35.421064602813672</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="18">
         <f t="shared" si="2"/>
         <v>264</v>
@@ -22428,7 +22372,7 @@
         <v>35.373181784962107</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="18">
         <f t="shared" si="2"/>
         <v>265</v>
@@ -22444,7 +22388,7 @@
         <v>35.328188649018855</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="18">
         <f t="shared" si="2"/>
         <v>266</v>
@@ -22460,7 +22404,7 @@
         <v>35.283233055751865</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="18">
         <f t="shared" si="2"/>
         <v>267</v>
@@ -22476,7 +22420,7 @@
         <v>35.239288359812718</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="18">
         <f t="shared" si="2"/>
         <v>268</v>
@@ -22492,7 +22436,7 @@
         <v>35.194701466380579</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="18">
         <f t="shared" si="2"/>
         <v>269</v>
@@ -22508,7 +22452,7 @@
         <v>35.152081756617086</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="18">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -22524,7 +22468,7 @@
         <v>35.109703672629614</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="18">
         <f t="shared" si="2"/>
         <v>271</v>
@@ -22540,7 +22484,7 @@
         <v>35.067933551771205</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="18">
         <f t="shared" si="2"/>
         <v>272</v>
@@ -22556,7 +22500,7 @@
         <v>35.027867619595575</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="18">
         <f t="shared" si="2"/>
         <v>273</v>
@@ -22572,7 +22516,7 @@
         <v>34.987655647509143</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="18">
         <f t="shared" si="2"/>
         <v>274</v>
@@ -22588,7 +22532,7 @@
         <v>34.944671499452539</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="18">
         <f t="shared" si="2"/>
         <v>275</v>
@@ -22604,7 +22548,7 @@
         <v>34.902363601163621</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="18">
         <f t="shared" si="2"/>
         <v>276</v>
@@ -22620,7 +22564,7 @@
         <v>34.860434747246366</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="18">
         <f t="shared" si="2"/>
         <v>277</v>
@@ -22636,7 +22580,7 @@
         <v>34.818953036389878</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="18">
         <f t="shared" si="2"/>
         <v>278</v>
@@ -22652,7 +22596,7 @@
         <v>34.778740972913653</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="18">
         <f t="shared" si="2"/>
         <v>279</v>
@@ -22668,7 +22612,7 @@
         <v>34.740573439534039</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="18">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -22684,7 +22628,7 @@
         <v>34.703321389642845</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="18">
         <f t="shared" si="2"/>
         <v>281</v>
@@ -22700,7 +22644,7 @@
         <v>34.66704622537366</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="18">
         <f t="shared" si="2"/>
         <v>282</v>
@@ -22716,7 +22660,7 @@
         <v>34.633936132092195</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="18">
         <f t="shared" si="2"/>
         <v>283</v>
@@ -22732,7 +22676,7 @@
         <v>34.60084802017667</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="18">
         <f t="shared" si="2"/>
         <v>284</v>
@@ -22748,7 +22692,7 @@
         <v>34.568661932359149</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="18">
         <f t="shared" si="2"/>
         <v>285</v>
@@ -22764,7 +22708,7 @@
         <v>34.534210486982445</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="18">
         <f t="shared" si="2"/>
         <v>286</v>
@@ -22780,7 +22724,7 @@
         <v>34.502202755069924</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="18">
         <f t="shared" si="2"/>
         <v>287</v>
@@ -22796,7 +22740,7 @@
         <v>34.441742116968634</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="18">
         <f t="shared" si="2"/>
         <v>288</v>
@@ -22812,7 +22756,7 @@
         <v>34.411076347847221</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="18">
         <f t="shared" si="2"/>
         <v>289</v>
@@ -22828,7 +22772,7 @@
         <v>34.381903071695504</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="18">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -22844,7 +22788,7 @@
         <v>34.352999957655172</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="18">
         <f t="shared" si="2"/>
         <v>291</v>
@@ -22860,7 +22804,7 @@
         <v>34.326013703505154</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="18">
         <f t="shared" si="2"/>
         <v>292</v>
@@ -22876,7 +22820,7 @@
         <v>34.300958862842464</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="18">
         <f t="shared" si="2"/>
         <v>293</v>
@@ -22892,7 +22836,7 @@
         <v>34.276006784027302</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="18">
         <f t="shared" si="2"/>
         <v>294</v>
@@ -22908,7 +22852,7 @@
         <v>34.249897918707482</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="18">
         <f t="shared" si="2"/>
         <v>295</v>
@@ -22924,7 +22868,7 @@
         <v>34.226135552101695</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="18">
         <f t="shared" si="2"/>
         <v>296</v>
@@ -22940,7 +22884,7 @@
         <v>34.204222931216215</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="18">
         <f t="shared" si="2"/>
         <v>297</v>
@@ -22956,7 +22900,7 @@
         <v>34.18289558410774</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="18">
         <f t="shared" si="2"/>
         <v>298</v>
@@ -22972,7 +22916,7 @@
         <v>34.162718082416099</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="18">
         <f t="shared" si="2"/>
         <v>299</v>
@@ -22988,7 +22932,7 @@
         <v>34.140468189933102</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="18">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -23004,7 +22948,7 @@
         <v>34.119366627533324</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="18">
         <f t="shared" si="2"/>
         <v>301</v>
@@ -23020,7 +22964,7 @@
         <v>34.097840490531553</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="18">
         <f t="shared" si="2"/>
         <v>302</v>
@@ -23036,7 +22980,7 @@
         <v>34.077913866125826</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="18">
         <f t="shared" si="2"/>
         <v>303</v>
@@ -23052,7 +22996,7 @@
         <v>34.057623722376235</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="18">
         <f t="shared" si="2"/>
         <v>304</v>
@@ -23068,7 +23012,7 @@
         <v>34.036743378157887</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="18">
         <f t="shared" si="2"/>
         <v>305</v>
@@ -23084,7 +23028,7 @@
         <v>34.0172130717377</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="18">
         <f t="shared" si="2"/>
         <v>306</v>
@@ -23100,7 +23044,7 @@
         <v>33.997091462385619</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="18">
         <f t="shared" si="2"/>
         <v>307</v>
@@ -23116,7 +23060,7 @@
         <v>33.975211687882734</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="18">
         <f t="shared" si="2"/>
         <v>308</v>
@@ -23132,7 +23076,7 @@
         <v>33.951818144935061</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="18">
         <f t="shared" si="2"/>
         <v>309</v>
@@ -23148,7 +23092,7 @@
         <v>33.929385077993516</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="18">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -23164,7 +23108,7 @@
         <v>33.90851609090322</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="18">
         <f t="shared" si="2"/>
         <v>311</v>
@@ -23180,7 +23124,7 @@
         <v>33.886495137138255</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="18">
         <f t="shared" si="2"/>
         <v>312</v>
@@ -23196,7 +23140,7 @@
         <v>33.865480729391024</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="18">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -23212,7 +23156,7 @@
         <v>33.843706028146961</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="18">
         <f t="shared" si="2"/>
         <v>314</v>
@@ -23228,7 +23172,7 @@
         <v>33.822292954299357</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="18">
         <f t="shared" si="2"/>
         <v>315</v>
@@ -23244,7 +23188,7 @@
         <v>33.800285673142845</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="18">
         <f t="shared" si="2"/>
         <v>316</v>
@@ -23260,7 +23204,7 @@
         <v>33.778132867974676</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="18">
         <f t="shared" si="2"/>
         <v>317</v>
@@ -23276,7 +23220,7 @@
         <v>33.755394277507875</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="18">
         <f t="shared" si="2"/>
         <v>318</v>
@@ -23292,7 +23236,7 @@
         <v>33.733238946698101</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="18">
         <f t="shared" si="2"/>
         <v>319</v>
@@ -23308,7 +23252,7 @@
         <v>33.710940394639486</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="18">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -23324,7 +23268,7 @@
         <v>33.689062453031241</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="18">
         <f t="shared" si="2"/>
         <v>321</v>
@@ -23340,7 +23284,7 @@
         <v>33.666137024579427</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="18">
         <f t="shared" si="2"/>
         <v>322</v>
@@ -23356,7 +23300,7 @@
         <v>33.645031011583839</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="18">
         <f t="shared" si="2"/>
         <v>323</v>
@@ -23372,7 +23316,7 @@
         <v>33.622414816501539</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="18">
         <f t="shared" si="2"/>
         <v>324</v>
@@ -23388,7 +23332,7 @@
         <v>33.59876538805554</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="18">
         <f t="shared" si="2"/>
         <v>325</v>
@@ -23404,7 +23348,7 @@
         <v>33.575630725323066</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="18">
         <f t="shared" si="2"/>
         <v>326</v>
@@ -23420,7 +23364,7 @@
         <v>33.55380363438649</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="18">
         <f t="shared" si="2"/>
         <v>327</v>
@@ -23436,7 +23380,7 @@
         <v>33.532079466574906</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="18">
         <f t="shared" si="2"/>
         <v>328</v>
@@ -23452,7 +23396,7 @@
         <v>33.510823125121938</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="18">
         <f t="shared" si="2"/>
         <v>329</v>
@@ -23468,7 +23412,7 @@
         <v>33.4886017805471</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="18">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -23484,7 +23428,7 @@
         <v>33.468363593333315</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="18">
         <f t="shared" si="2"/>
         <v>331</v>
@@ -23500,7 +23444,7 @@
         <v>33.447673675649533</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="18">
         <f t="shared" si="2"/>
         <v>332</v>
@@ -23516,7 +23460,7 @@
         <v>33.427379475060221</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="18">
         <f t="shared" si="2"/>
         <v>333</v>
@@ -23532,7 +23476,7 @@
         <v>33.407237192282267</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="18">
         <f t="shared" si="2"/>
         <v>334</v>
@@ -23548,7 +23492,7 @@
         <v>33.388532888862258</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="18">
         <f t="shared" si="2"/>
         <v>335</v>
@@ -23564,7 +23508,7 @@
         <v>33.36955219573133</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="18">
         <f t="shared" si="2"/>
         <v>336</v>
@@ -23580,7 +23524,7 @@
         <v>33.34928566976189</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="18">
         <f t="shared" si="2"/>
         <v>337</v>
@@ -23596,7 +23540,7 @@
         <v>33.330356036646869</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="18">
         <f t="shared" si="2"/>
         <v>338</v>
@@ -23612,7 +23556,7 @@
         <v>33.311212973254428</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="18">
         <f t="shared" si="2"/>
         <v>339</v>
@@ -23628,7 +23572,7 @@
         <v>33.289498482949838</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="18">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -23644,7 +23588,7 @@
         <v>33.267764662764691</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="18">
         <f t="shared" si="2"/>
         <v>341</v>
@@ -23660,7 +23604,7 @@
         <v>33.245806410645152</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="18">
         <f t="shared" si="2"/>
         <v>342</v>
@@ -23676,7 +23620,7 @@
         <v>33.223508733537997</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="18">
         <f t="shared" si="2"/>
         <v>343</v>
@@ -23692,7 +23636,7 @@
         <v>33.200932904985407</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="18">
         <f t="shared" si="2"/>
         <v>344</v>
@@ -23708,7 +23652,7 @@
         <v>33.177616240465106</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="18">
         <f t="shared" si="2"/>
         <v>345</v>
@@ -23724,7 +23668,7 @@
         <v>33.152985469652158</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="18">
         <f t="shared" si="2"/>
         <v>346</v>
@@ -23740,7 +23684,7 @@
         <v>33.128364413381483</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="18">
         <f t="shared" si="2"/>
         <v>347</v>
@@ -23756,7 +23700,7 @@
         <v>33.103412352564824</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="18">
         <f t="shared" si="2"/>
         <v>348</v>
@@ -23772,7 +23716,7 @@
         <v>33.078804848448264</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="18">
         <f t="shared" si="2"/>
         <v>349</v>
@@ -23788,7 +23732,7 @@
         <v>33.055026039971331</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="18">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -23804,7 +23748,7 @@
         <v>33.030411681371412</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="18">
         <f t="shared" si="2"/>
         <v>351</v>
@@ -23820,7 +23764,7 @@
         <v>33.006878029857532</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="18">
         <f t="shared" si="2"/>
         <v>352</v>
@@ -23836,7 +23780,7 @@
         <v>32.983932353636348</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="18">
         <f t="shared" si="2"/>
         <v>353</v>
@@ -23852,9 +23796,9 @@
         <v>32.959955208158625</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A443" si="3">A355+1</f>
+        <f t="shared" ref="A356:A427" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -23868,7 +23812,7 @@
         <v>32.934475108700553</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="18">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -23884,7 +23828,7 @@
         <v>32.90789912247886</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="18">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -23900,7 +23844,7 @@
         <v>32.881472439550549</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="18">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -23916,7 +23860,7 @@
         <v>32.85519380526609</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="18">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -23932,7 +23876,7 @@
         <v>32.8285871186592</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="18">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -23948,7 +23892,7 @@
         <v>32.801348714428954</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="18">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -23964,7 +23908,7 @@
         <v>32.773872745777759</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="18">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -23980,7 +23924,7 @@
         <v>32.746798306038762</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="18">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -23996,7 +23940,7 @@
         <v>32.721144167071806</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="18">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -24012,7 +23956,7 @@
         <v>32.694171318126706</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="18">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -24028,7 +23972,7 @@
         <v>32.66762139881866</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="18">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -24044,7 +23988,7 @@
         <v>32.640066271698615</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="18">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -24060,7 +24004,7 @@
         <v>32.611104344508178</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="18">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -24076,7 +24020,7 @@
         <v>32.582845203978181</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="18">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -24092,7 +24036,7 @@
         <v>32.556587472663026</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="18">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -24108,7 +24052,7 @@
         <v>32.530282358590767</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="18">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -24124,7 +24068,7 @@
         <v>32.506281594432416</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="18">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -24140,7 +24084,7 @@
         <v>32.482598892857126</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="18">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -24156,7 +24100,7 @@
         <v>32.459392982876324</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="18">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -24172,7 +24116,7 @@
         <v>32.435614449812313</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="18">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -24188,7 +24132,7 @@
         <v>32.411455051871634</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="18">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -24204,7 +24148,7 @@
         <v>32.387264505466646</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="18">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -24220,7 +24164,7 @@
         <v>32.361846248590403</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="18">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -24236,7 +24180,7 @@
         <v>32.336324109389899</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="18">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -24252,7 +24196,7 @@
         <v>32.312101030555532</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="18">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -24268,7 +24212,7 @@
         <v>32.287425299815283</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="18">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -24284,7 +24228,7 @@
         <v>32.260721547421028</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="18">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -24300,7 +24244,7 @@
         <v>32.234420440393677</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="18">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -24316,7 +24260,7 @@
         <v>32.208335571335049</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="18">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -24332,7 +24276,7 @@
         <v>32.183248534281958</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="18">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -24348,7 +24292,7 @@
         <v>32.157979656692682</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="18">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -24364,7 +24308,7 @@
         <v>32.134712179038935</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="18">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -24380,7 +24324,7 @@
         <v>32.111539350932617</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="18">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -24396,7 +24340,7 @@
         <v>32.088072842764831</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="18">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -24412,7 +24356,7 @@
         <v>32.064031418505131</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="18">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -24428,7 +24372,7 @@
         <v>32.038982493753188</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="18">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -24444,7 +24388,7 @@
         <v>32.015472284384586</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="18">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -24460,7 +24404,7 @@
         <v>31.992133479028105</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="18">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -24476,7 +24420,7 @@
         <v>31.970342324132627</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="18">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -24492,7 +24436,7 @@
         <v>31.947847812264605</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="18">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -24508,7 +24452,7 @@
         <v>31.925162919923835</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="18">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -24524,7 +24468,7 @@
         <v>31.902643521873394</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="18">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -24540,7 +24484,7 @@
         <v>31.880162098838358</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="18">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -24556,7 +24500,7 @@
         <v>31.856912319294686</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="18">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -24572,7 +24516,7 @@
         <v>31.833502994170832</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="18">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -24588,7 +24532,7 @@
         <v>31.810135819323285</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="18">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -24604,7 +24548,7 @@
         <v>31.786510481299977</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="18">
         <f t="shared" si="3"/>
         <v>401</v>
@@ -24620,7 +24564,7 @@
         <v>31.762603973266813</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="18">
         <f t="shared" si="3"/>
         <v>402</v>
@@ -24636,7 +24580,7 @@
         <v>31.740060184179082</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="18">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -24652,7 +24596,7 @@
         <v>31.717901224590552</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="18">
         <f t="shared" si="3"/>
         <v>404</v>
@@ -24668,7 +24612,7 @@
         <v>31.696743053440571</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="18">
         <f t="shared" si="3"/>
         <v>405</v>
@@ -24684,7 +24628,7 @@
         <v>31.675343689580224</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="18">
         <f t="shared" si="3"/>
         <v>406</v>
@@ -24700,7 +24644,7 @@
         <v>31.654517718201948</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="18">
         <f t="shared" si="3"/>
         <v>407</v>
@@ -24716,7 +24660,7 @@
         <v>31.634383765773933</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="18">
         <f t="shared" si="3"/>
         <v>408</v>
@@ -24732,7 +24676,7 @@
         <v>31.614814196789194</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="18">
         <f t="shared" si="3"/>
         <v>409</v>
@@ -24748,7 +24692,7 @@
         <v>31.595291421638123</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="18">
         <f t="shared" si="3"/>
         <v>410</v>
@@ -24764,7 +24708,7 @@
         <v>31.576376077073149</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="18">
         <f t="shared" si="3"/>
         <v>411</v>
@@ -24780,7 +24724,7 @@
         <v>31.556968836934285</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="18">
         <f t="shared" si="3"/>
         <v>412</v>
@@ -24796,7 +24740,7 @@
         <v>31.537000465776678</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="18">
         <f t="shared" si="3"/>
         <v>413</v>
@@ -24812,7 +24756,7 @@
         <v>31.51698351661015</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="18">
         <f t="shared" si="3"/>
         <v>414</v>
@@ -24828,7 +24772,7 @@
         <v>31.497618822125581</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="18">
         <f t="shared" si="3"/>
         <v>415</v>
@@ -24844,7 +24788,7 @@
         <v>31.477986006602389</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="18">
         <f t="shared" si="3"/>
         <v>416</v>
@@ -24860,7 +24804,7 @@
         <v>31.457798540048056</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="18">
         <f t="shared" si="3"/>
         <v>417</v>
@@ -24876,7 +24820,7 @@
         <v>31.436820603693025</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="18">
         <f t="shared" si="3"/>
         <v>418</v>
@@ -24892,7 +24836,7 @@
         <v>31.415703809449742</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="18">
         <f t="shared" si="3"/>
         <v>419</v>
@@ -24908,7 +24852,7 @@
         <v>31.394544609999983</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="18">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -24924,7 +24868,7 @@
         <v>31.373248077023792</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="18">
         <f t="shared" si="3"/>
         <v>421</v>
@@ -24940,7 +24884,7 @@
         <v>31.352860316555802</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="18">
         <f t="shared" si="3"/>
         <v>422</v>
@@ -24956,7 +24900,7 @@
         <v>31.333066808696664</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="18">
         <f t="shared" si="3"/>
         <v>423</v>
@@ -24972,7 +24916,7 @@
         <v>31.312728588203292</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="18">
         <f t="shared" si="3"/>
         <v>424</v>
@@ -24988,7 +24932,7 @@
         <v>31.292557059056588</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="18">
         <f t="shared" si="3"/>
         <v>425</v>
@@ -25002,262 +24946,6 @@
       <c r="D427" s="18">
         <f>SUM(C$3:C427)/A427</f>
         <v>31.272433394847042</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4">
-      <c r="A428" s="18">
-        <f t="shared" si="3"/>
-        <v>426</v>
-      </c>
-      <c r="B428" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="C428" s="20">
-        <v>22.829999919999999</v>
-      </c>
-      <c r="D428" s="18">
-        <f>SUM(C$3:C428)/A428</f>
-        <v>31.252615475892004</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4">
-      <c r="A429" s="18">
-        <f t="shared" si="3"/>
-        <v>427</v>
-      </c>
-      <c r="B429" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="C429" s="20">
-        <v>23.409999849999998</v>
-      </c>
-      <c r="D429" s="18">
-        <f>SUM(C$3:C429)/A429</f>
-        <v>31.234248694566734</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4">
-      <c r="A430" s="18">
-        <f t="shared" si="3"/>
-        <v>428</v>
-      </c>
-      <c r="B430" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="C430" s="20">
-        <v>23.5</v>
-      </c>
-      <c r="D430" s="18">
-        <f>SUM(C$3:C430)/A430</f>
-        <v>31.216178020046716</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4">
-      <c r="A431" s="18">
-        <f t="shared" si="3"/>
-        <v>429</v>
-      </c>
-      <c r="B431" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="C431" s="20">
-        <v>23.579999919999999</v>
-      </c>
-      <c r="D431" s="18">
-        <f>SUM(C$3:C431)/A431</f>
-        <v>31.198378071095561</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4">
-      <c r="A432" s="18">
-        <f t="shared" si="3"/>
-        <v>430</v>
-      </c>
-      <c r="B432" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="C432" s="20">
-        <v>23.81999969</v>
-      </c>
-      <c r="D432" s="18">
-        <f>SUM(C$3:C432)/A432</f>
-        <v>31.181219051604643</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4">
-      <c r="A433" s="18">
-        <f t="shared" si="3"/>
-        <v>431</v>
-      </c>
-      <c r="B433" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="C433" s="20">
-        <v>23.649999619999999</v>
-      </c>
-      <c r="D433" s="18">
-        <f>SUM(C$3:C433)/A433</f>
-        <v>31.163745224617159</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4">
-      <c r="A434" s="18">
-        <f t="shared" si="3"/>
-        <v>432</v>
-      </c>
-      <c r="B434" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="C434" s="20">
-        <v>23.780000690000001</v>
-      </c>
-      <c r="D434" s="18">
-        <f>SUM(C$3:C434)/A434</f>
-        <v>31.146653223379619</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4">
-      <c r="A435" s="18">
-        <f t="shared" si="3"/>
-        <v>433</v>
-      </c>
-      <c r="B435" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="C435" s="20">
-        <v>24.100000380000001</v>
-      </c>
-      <c r="D435" s="18">
-        <f>SUM(C$3:C435)/A435</f>
-        <v>31.13037919833717</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4">
-      <c r="A436" s="18">
-        <f t="shared" si="3"/>
-        <v>434</v>
-      </c>
-      <c r="B436" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="C436" s="20">
-        <v>24.450000760000002</v>
-      </c>
-      <c r="D436" s="18">
-        <f>SUM(C$3:C436)/A436</f>
-        <v>31.114986621290313</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4">
-      <c r="A437" s="18">
-        <f t="shared" si="3"/>
-        <v>435</v>
-      </c>
-      <c r="B437" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="C437" s="20">
-        <v>24.520000459999999</v>
-      </c>
-      <c r="D437" s="18">
-        <f>SUM(C$3:C437)/A437</f>
-        <v>31.099825733563208</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4">
-      <c r="A438" s="18">
-        <f t="shared" si="3"/>
-        <v>436</v>
-      </c>
-      <c r="B438" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="C438" s="20">
-        <v>24.530000690000001</v>
-      </c>
-      <c r="D438" s="18">
-        <f>SUM(C$3:C438)/A438</f>
-        <v>31.084757327499986</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4">
-      <c r="A439" s="18">
-        <f t="shared" si="3"/>
-        <v>437</v>
-      </c>
-      <c r="B439" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="C439" s="20">
-        <v>24.739999770000001</v>
-      </c>
-      <c r="D439" s="18">
-        <f>SUM(C$3:C439)/A439</f>
-        <v>31.0702384314874</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4">
-      <c r="A440" s="18">
-        <f t="shared" si="3"/>
-        <v>438</v>
-      </c>
-      <c r="B440" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="C440" s="20">
-        <v>24.829999919999999</v>
-      </c>
-      <c r="D440" s="18">
-        <f>SUM(C$3:C440)/A440</f>
-        <v>31.055991311598159</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4">
-      <c r="A441" s="18">
-        <f t="shared" si="3"/>
-        <v>439</v>
-      </c>
-      <c r="B441" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="C441" s="20">
-        <v>25.170000080000001</v>
-      </c>
-      <c r="D441" s="18">
-        <f>SUM(C$3:C441)/A441</f>
-        <v>31.042583586697024</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4">
-      <c r="A442" s="18">
-        <f t="shared" si="3"/>
-        <v>440</v>
-      </c>
-      <c r="B442" s="19">
-        <v>44956</v>
-      </c>
-      <c r="C442" s="20">
-        <v>24.899999619999999</v>
-      </c>
-      <c r="D442" s="18">
-        <f>SUM(C$3:C442)/A442</f>
-        <v>31.028623168590894</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4">
-      <c r="A443" s="18">
-        <f t="shared" si="3"/>
-        <v>441</v>
-      </c>
-      <c r="B443" s="19">
-        <v>44957</v>
-      </c>
-      <c r="C443" s="20">
-        <v>24.899999619999999</v>
-      </c>
-      <c r="D443" s="18">
-        <f>SUM(C$3:C443)/A443</f>
-        <v>31.014726063038534</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="284">
   <si>
     <t>PE</t>
   </si>
@@ -1090,6 +1090,62 @@
   </si>
   <si>
     <t xml:space="preserve">2022/12/28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/11
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/18
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/19
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/1/20
 </t>
   </si>
 </sst>
@@ -1104,7 +1160,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2310,11 +2366,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="245629696"/>
-        <c:axId val="245631232"/>
+        <c:axId val="324213376"/>
+        <c:axId val="324215168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="245629696"/>
+        <c:axId val="324213376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2357,7 +2413,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245631232"/>
+        <c:crossAx val="324215168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2365,7 +2421,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245631232"/>
+        <c:axId val="324215168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2416,7 +2472,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245629696"/>
+        <c:crossAx val="324213376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16606,7 +16662,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -16627,7 +16683,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>180</v>
       </c>
@@ -16657,7 +16713,7 @@
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="14.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -16673,7 +16729,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="14.1" customHeight="1">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -16742,7 +16798,7 @@
         <v>-22000</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="14.1" customHeight="1">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -16817,7 +16873,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="14.1" customHeight="1">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -16887,7 +16943,7 @@
         <v>53008.069006718506</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="14.1" customHeight="1">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -16929,7 +16985,7 @@
         <v>9.9835199022272558E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="14.1" customHeight="1">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -16967,7 +17023,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="14.1" customHeight="1">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -17005,7 +17061,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="14.1" customHeight="1">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -17043,7 +17099,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="14.1" customHeight="1">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -17081,7 +17137,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="14.1" customHeight="1">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -17119,7 +17175,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="14.1" customHeight="1">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -17157,7 +17213,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="14.1" customHeight="1">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -17195,7 +17251,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="14.1" customHeight="1">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -17233,7 +17289,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="14.1" customHeight="1">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -17271,7 +17327,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="14.1" customHeight="1">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -17309,7 +17365,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1">
       <c r="A17" s="14">
         <v>44316</v>
       </c>
@@ -17347,7 +17403,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1">
       <c r="A18" s="14">
         <v>44347</v>
       </c>
@@ -17385,7 +17441,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1">
       <c r="A19" s="14">
         <v>44377</v>
       </c>
@@ -17423,7 +17479,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1">
       <c r="A20" s="14">
         <v>44407</v>
       </c>
@@ -17461,7 +17517,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1">
       <c r="A21" s="14">
         <v>44439</v>
       </c>
@@ -17500,7 +17556,7 @@
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1">
       <c r="A22" s="14">
         <v>44469</v>
       </c>
@@ -17538,7 +17594,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1">
       <c r="A23" s="14">
         <v>44498</v>
       </c>
@@ -17576,7 +17632,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1">
       <c r="A24" s="14">
         <v>44530</v>
       </c>
@@ -17614,7 +17670,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1">
       <c r="A25" s="14">
         <v>44561</v>
       </c>
@@ -17652,7 +17708,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1">
       <c r="A26" s="14">
         <v>44589</v>
       </c>
@@ -17690,7 +17746,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1">
       <c r="A27" s="14">
         <v>44620</v>
       </c>
@@ -17728,7 +17784,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1">
       <c r="A28" s="14">
         <v>44651</v>
       </c>
@@ -17766,7 +17822,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1">
       <c r="A29" s="14">
         <v>44680</v>
       </c>
@@ -17804,7 +17860,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1">
       <c r="A30" s="14">
         <v>44712</v>
       </c>
@@ -17842,7 +17898,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1">
       <c r="A31" s="14">
         <v>44742</v>
       </c>
@@ -17880,7 +17936,7 @@
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1">
       <c r="A32" s="14">
         <v>44771</v>
       </c>
@@ -17918,7 +17974,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1">
       <c r="A33" s="14">
         <v>44804</v>
       </c>
@@ -17957,7 +18013,7 @@
       <c r="J33" s="6"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="12.75">
       <c r="A34" s="14">
         <v>44834</v>
       </c>
@@ -17994,7 +18050,7 @@
         <v>-11770.911062729705</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="12.75">
       <c r="A35" s="14">
         <v>44865</v>
       </c>
@@ -18031,7 +18087,7 @@
         <v>-12524.925264431353</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="12.75">
       <c r="A36" s="14">
         <v>44895</v>
       </c>
@@ -18068,7 +18124,7 @@
         <v>-9593.1455874388703</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="12.75">
       <c r="A37" s="14">
         <v>44925</v>
       </c>
@@ -18118,13 +18174,13 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D427"/>
+  <dimension ref="A1:D443"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
@@ -18132,7 +18188,7 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="B1" s="30" t="s">
         <v>194</v>
       </c>
@@ -18140,7 +18196,7 @@
         <v>399088</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="12.75" customHeight="1">
       <c r="B2" s="30"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
@@ -18149,7 +18205,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -18164,7 +18220,7 @@
         <v>45.12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>2</v>
@@ -18180,7 +18236,7 @@
         <v>44.965000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1">
       <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -18196,7 +18252,7 @@
         <v>44.99666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -18212,7 +18268,7 @@
         <v>44.792500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1">
       <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -18228,7 +18284,7 @@
         <v>44.440000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -18244,7 +18300,7 @@
         <v>44.256666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -18260,7 +18316,7 @@
         <v>44.252857142857145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -18276,7 +18332,7 @@
         <v>44.220000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -18292,7 +18348,7 @@
         <v>44.181111111111115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -18308,7 +18364,7 @@
         <v>44.341000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -18324,7 +18380,7 @@
         <v>44.458181818181828</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -18340,7 +18396,7 @@
         <v>44.577500000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -18356,7 +18412,7 @@
         <v>44.703076923076928</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -18372,7 +18428,7 @@
         <v>44.860000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -18388,7 +18444,7 @@
         <v>44.968000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -18404,7 +18460,7 @@
         <v>45.078750000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -18420,7 +18476,7 @@
         <v>45.214117647058828</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -18436,7 +18492,7 @@
         <v>45.345555555555563</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -18452,7 +18508,7 @@
         <v>45.46631578947369</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -18468,7 +18524,7 @@
         <v>45.062500000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1">
       <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -18484,7 +18540,7 @@
         <v>44.643333333333338</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1">
       <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -18500,7 +18556,7 @@
         <v>44.269090909090913</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1">
       <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -18516,7 +18572,7 @@
         <v>43.928695652173921</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1">
       <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -18532,7 +18588,7 @@
         <v>43.627500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1">
       <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -18548,7 +18604,7 @@
         <v>43.332400000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1">
       <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -18564,7 +18620,7 @@
         <v>43.088461538461544</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -18580,7 +18636,7 @@
         <v>42.901851851851859</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -18596,7 +18652,7 @@
         <v>42.726071428571437</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1">
       <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -18612,7 +18668,7 @@
         <v>42.570000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1">
       <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -18628,7 +18684,7 @@
         <v>42.435000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -18644,7 +18700,7 @@
         <v>42.298387096774199</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1">
       <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -18660,7 +18716,7 @@
         <v>42.179062500000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -18676,7 +18732,7 @@
         <v>42.093333333333341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -18692,7 +18748,7 @@
         <v>42.005000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1">
       <c r="A37" s="18">
         <f t="shared" ref="A37:A100" si="1">A36+1</f>
         <v>35</v>
@@ -18708,7 +18764,7 @@
         <v>41.929428571428573</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1">
       <c r="A38" s="18">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -18724,7 +18780,7 @@
         <v>41.856666666666662</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1">
       <c r="A39" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -18740,7 +18796,7 @@
         <v>41.802432432432425</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1">
       <c r="A40" s="18">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -18756,7 +18812,7 @@
         <v>41.751315789473679</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1">
       <c r="A41" s="18">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -18772,7 +18828,7 @@
         <v>41.689999999999991</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1">
       <c r="A42" s="18">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -18788,7 +18844,7 @@
         <v>41.621999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1">
       <c r="A43" s="18">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -18804,7 +18860,7 @@
         <v>41.5680487804878</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1">
       <c r="A44" s="18">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -18820,7 +18876,7 @@
         <v>41.512380952380944</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1">
       <c r="A45" s="18">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -18836,7 +18892,7 @@
         <v>41.454186046511623</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1">
       <c r="A46" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -18852,7 +18908,7 @@
         <v>41.399318181818174</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1">
       <c r="A47" s="18">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -18868,7 +18924,7 @@
         <v>41.36044444444444</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1">
       <c r="A48" s="18">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -18884,7 +18940,7 @@
         <v>41.322391304347818</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1">
       <c r="A49" s="18">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -18900,7 +18956,7 @@
         <v>41.285319148936161</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1">
       <c r="A50" s="18">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -18916,7 +18972,7 @@
         <v>41.222499999999989</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1">
       <c r="A51" s="18">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -18932,7 +18988,7 @@
         <v>41.174693877551015</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1">
       <c r="A52" s="18">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -18948,7 +19004,7 @@
         <v>41.139199999999988</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1">
       <c r="A53" s="18">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -18964,7 +19020,7 @@
         <v>41.106862745098027</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1">
       <c r="A54" s="18">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -18980,7 +19036,7 @@
         <v>41.078653846153834</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1">
       <c r="A55" s="18">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -18996,7 +19052,7 @@
         <v>41.062452830188661</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1">
       <c r="A56" s="18">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -19012,7 +19068,7 @@
         <v>41.045555555555538</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1">
       <c r="A57" s="18">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -19028,7 +19084,7 @@
         <v>41.038181818181798</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1">
       <c r="A58" s="18">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -19044,7 +19100,7 @@
         <v>41.038928571428549</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1">
       <c r="A59" s="18">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -19060,7 +19116,7 @@
         <v>41.034736842105247</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1">
       <c r="A60" s="18">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -19076,7 +19132,7 @@
         <v>41.041896551724122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1">
       <c r="A61" s="18">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -19092,7 +19148,7 @@
         <v>41.046101694915237</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1">
       <c r="A62" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -19108,7 +19164,7 @@
         <v>41.029166666666654</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1">
       <c r="A63" s="18">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -19124,7 +19180,7 @@
         <v>41.015737704918017</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1">
       <c r="A64" s="18">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -19140,7 +19196,7 @@
         <v>40.997580645161271</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1">
       <c r="A65" s="18">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -19156,7 +19212,7 @@
         <v>40.997301587301571</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1">
       <c r="A66" s="18">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -19172,7 +19228,7 @@
         <v>40.998281249999984</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1">
       <c r="A67" s="18">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -19188,7 +19244,7 @@
         <v>40.994153846153829</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1">
       <c r="A68" s="18">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -19204,7 +19260,7 @@
         <v>41.006060606060593</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1">
       <c r="A69" s="18">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -19220,7 +19276,7 @@
         <v>41.01641791044775</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1">
       <c r="A70" s="18">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -19236,7 +19292,7 @@
         <v>41.020294117647047</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1">
       <c r="A71" s="18">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -19252,7 +19308,7 @@
         <v>41.027826086956509</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1">
       <c r="A72" s="18">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -19268,7 +19324,7 @@
         <v>41.021428571428558</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1">
       <c r="A73" s="18">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -19284,7 +19340,7 @@
         <v>41.019295774647873</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1">
       <c r="A74" s="18">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -19300,7 +19356,7 @@
         <v>41.017499999999984</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1">
       <c r="A75" s="18">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -19316,7 +19372,7 @@
         <v>41.027123287671216</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1">
       <c r="A76" s="18">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -19332,7 +19388,7 @@
         <v>41.036081081081065</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1">
       <c r="A77" s="18">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -19348,7 +19404,7 @@
         <v>41.035466666666643</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1">
       <c r="A78" s="18">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -19364,7 +19420,7 @@
         <v>41.020526335866805</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1">
       <c r="A79" s="18">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -19380,7 +19436,7 @@
         <v>40.984025981952598</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1">
       <c r="A80" s="18">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -19396,7 +19452,7 @@
         <v>40.953717942849167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1">
       <c r="A81" s="18">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -19412,7 +19468,7 @@
         <v>40.943164537647085</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1">
       <c r="A82" s="18">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -19428,7 +19484,7 @@
         <v>40.930499984741189</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1">
       <c r="A83" s="18">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -19444,7 +19500,7 @@
         <v>40.927160476872935</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1">
       <c r="A84" s="18">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -19460,7 +19516,7 @@
         <v>40.921951202764724</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1">
       <c r="A85" s="18">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -19476,7 +19532,7 @@
         <v>40.929036107810127</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1">
       <c r="A86" s="18">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -19492,7 +19548,7 @@
         <v>40.931428547813759</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1">
       <c r="A87" s="18">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -19508,7 +19564,7 @@
         <v>40.92988232062843</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1">
       <c r="A88" s="18">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -19524,7 +19580,7 @@
         <v>40.928372052214847</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1">
       <c r="A89" s="18">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -19540,7 +19596,7 @@
         <v>40.927701096808754</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1">
       <c r="A90" s="18">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -19556,7 +19612,7 @@
         <v>40.924090864008107</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1">
       <c r="A91" s="18">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -19572,7 +19628,7 @@
         <v>40.917528047025854</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1">
       <c r="A92" s="18">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -19588,7 +19644,7 @@
         <v>40.904444420708536</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1">
       <c r="A93" s="18">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -19604,7 +19660,7 @@
         <v>40.886703283288959</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1">
       <c r="A94" s="18">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -19620,7 +19676,7 @@
         <v>40.859891271176529</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1">
       <c r="A95" s="18">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -19636,7 +19692,7 @@
         <v>40.836344033518131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1">
       <c r="A96" s="18">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -19652,7 +19708,7 @@
         <v>40.815851010261682</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1">
       <c r="A97" s="18">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -19668,7 +19724,7 @@
         <v>40.787684151097331</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1">
       <c r="A98" s="18">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -19684,7 +19740,7 @@
         <v>40.770416618982935</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1">
       <c r="A99" s="18">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -19700,7 +19756,7 @@
         <v>40.756804084384548</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1">
       <c r="A100" s="18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -19716,7 +19772,7 @@
         <v>40.744489749207773</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1">
       <c r="A101" s="18">
         <f t="shared" ref="A101:A355" si="2">A100+1</f>
         <v>99</v>
@@ -19732,7 +19788,7 @@
         <v>40.723232270828383</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1">
       <c r="A102" s="18">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -19748,7 +19804,7 @@
         <v>40.702299958801255</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1">
       <c r="A103" s="18">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -19764,7 +19820,7 @@
         <v>40.680296984379815</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1">
       <c r="A104" s="18">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -19780,7 +19836,7 @@
         <v>40.654705834482208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1">
       <c r="A105" s="18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -19796,7 +19852,7 @@
         <v>40.599999957038342</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1">
       <c r="A106" s="18">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -19812,7 +19868,7 @@
         <v>40.542692259274979</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1">
       <c r="A107" s="18">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -19828,7 +19884,7 @@
         <v>40.482476154145722</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1">
       <c r="A108" s="18">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -19844,7 +19900,7 @@
         <v>40.435849029253099</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1">
       <c r="A109" s="18">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -19860,7 +19916,7 @@
         <v>40.391775685247957</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1">
       <c r="A110" s="18">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -19876,7 +19932,7 @@
         <v>40.346574042991335</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1">
       <c r="A111" s="18">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -19892,7 +19948,7 @@
         <v>40.302110060945544</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1">
       <c r="A112" s="18">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -19908,7 +19964,7 @@
         <v>40.260272703690944</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1">
       <c r="A113" s="18">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -19924,7 +19980,7 @@
         <v>40.215585555342926</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1">
       <c r="A114" s="18">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -19940,7 +19996,7 @@
         <v>40.173214266640784</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1">
       <c r="A115" s="18">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -19956,7 +20012,7 @@
         <v>40.128584061344093</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1">
       <c r="A116" s="18">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -19972,7 +20028,7 @@
         <v>40.078245599311678</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1">
       <c r="A117" s="18">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -19988,7 +20044,7 @@
         <v>40.032521721881352</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1">
       <c r="A118" s="18">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -20004,7 +20060,7 @@
         <v>39.985344822324535</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1">
       <c r="A119" s="18">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -20020,7 +20076,7 @@
         <v>39.940427341298147</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1">
       <c r="A120" s="18">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -20036,7 +20092,7 @@
         <v>39.89703388666701</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1">
       <c r="A121" s="18">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -20052,7 +20108,7 @@
         <v>39.856638645204157</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1">
       <c r="A122" s="18">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -20068,7 +20124,7 @@
         <v>39.814833324432357</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1">
       <c r="A123" s="18">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -20084,7 +20140,7 @@
         <v>39.769752062332515</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1">
       <c r="A124" s="18">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -20100,7 +20156,7 @@
         <v>39.730819672131133</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1">
       <c r="A125" s="18">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -20116,7 +20172,7 @@
         <v>39.694634136422749</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1">
       <c r="A126" s="18">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -20132,7 +20188,7 @@
         <v>39.656854815322561</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1">
       <c r="A127" s="18">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -20148,7 +20204,7 @@
         <v>39.615839967039982</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1">
       <c r="A128" s="18">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -20164,7 +20220,7 @@
         <v>39.58039680484125</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1">
       <c r="A129" s="18">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -20180,7 +20236,7 @@
         <v>39.545433045669277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1">
       <c r="A130" s="18">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -20196,7 +20252,7 @@
         <v>39.514765591640611</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1">
       <c r="A131" s="18">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -20212,7 +20268,7 @@
         <v>39.483953462403086</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1">
       <c r="A132" s="18">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -20228,7 +20284,7 @@
         <v>39.455384593153838</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1">
       <c r="A133" s="18">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -20244,7 +20300,7 @@
         <v>39.425419815954186</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1">
       <c r="A134" s="18">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -20260,7 +20316,7 @@
         <v>39.396590869848474</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1">
       <c r="A135" s="18">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -20276,7 +20332,7 @@
         <v>39.371127767969917</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1">
       <c r="A136" s="18">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -20292,7 +20348,7 @@
         <v>39.348358155447755</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1">
       <c r="A137" s="18">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -20308,7 +20364,7 @@
         <v>39.325777719037028</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1">
       <c r="A138" s="18">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -20324,7 +20380,7 @@
         <v>39.30124995404411</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1">
       <c r="A139" s="18">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -20340,7 +20396,7 @@
         <v>39.275182432773718</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1">
       <c r="A140" s="18">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -20356,7 +20412,7 @@
         <v>39.253623134275358</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1">
       <c r="A141" s="18">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -20372,7 +20428,7 @@
         <v>39.222517934100708</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1">
       <c r="A142" s="18">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -20388,7 +20444,7 @@
         <v>39.191714233499987</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1">
       <c r="A143" s="18">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -20404,7 +20460,7 @@
         <v>39.159361657872324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1">
       <c r="A144" s="18">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -20420,7 +20476,7 @@
         <v>39.130704182464775</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1">
       <c r="A145" s="18">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -20436,7 +20492,7 @@
         <v>39.101118849230758</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1">
       <c r="A146" s="18">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -20452,7 +20508,7 @@
         <v>39.072916641388879</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1">
       <c r="A147" s="18">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -20468,7 +20524,7 @@
         <v>39.046344810896542</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1">
       <c r="A148" s="18">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -20484,7 +20540,7 @@
         <v>39.018561638767117</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1">
       <c r="A149" s="18">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -20500,7 +20556,7 @@
         <v>38.994013599387742</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1">
       <c r="A150" s="18">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -20516,7 +20572,7 @@
         <v>38.968783766418909</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1">
       <c r="A151" s="18">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -20532,7 +20588,7 @@
         <v>38.941812068389247</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1">
       <c r="A152" s="18">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -20548,7 +20604,7 @@
         <v>38.915199992999987</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1">
       <c r="A153" s="18">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -20564,7 +20620,7 @@
         <v>38.890794691986741</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1">
       <c r="A154" s="18">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -20580,7 +20636,7 @@
         <v>38.864144727894725</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1">
       <c r="A155" s="18">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -20596,7 +20652,7 @@
         <v>38.840653588888877</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1">
       <c r="A156" s="18">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -20612,7 +20668,7 @@
         <v>38.822142862207784</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1">
       <c r="A157" s="18">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -20628,7 +20684,7 @@
         <v>38.801870974774182</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1">
       <c r="A158" s="18">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -20644,7 +20700,7 @@
         <v>38.781025643141014</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1">
       <c r="A159" s="18">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -20660,7 +20716,7 @@
         <v>38.75942674980891</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1">
       <c r="A160" s="18">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -20676,7 +20732,7 @@
         <v>38.73683543259493</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1">
       <c r="A161" s="18">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -20692,7 +20748,7 @@
         <v>38.715911938364776</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1">
       <c r="A162" s="18">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -20708,7 +20764,7 @@
         <v>38.695499988749994</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1">
       <c r="A163" s="18">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -20724,7 +20780,7 @@
         <v>38.674285695527942</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1">
       <c r="A164" s="18">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -20740,7 +20796,7 @@
         <v>38.652962951851848</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1">
       <c r="A165" s="18">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -20756,7 +20812,7 @@
         <v>38.632515324478518</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1">
       <c r="A166" s="18">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -20772,7 +20828,7 @@
         <v>38.609999978780486</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1">
       <c r="A167" s="18">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -20788,7 +20844,7 @@
         <v>38.586363609696967</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1">
       <c r="A168" s="18">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -20804,7 +20860,7 @@
         <v>38.566746972469872</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1">
       <c r="A169" s="18">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -20820,7 +20876,7 @@
         <v>38.550598780598797</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1">
       <c r="A170" s="18">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -20836,7 +20892,7 @@
         <v>38.53458331529761</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1">
       <c r="A171" s="18">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -20852,7 +20908,7 @@
         <v>38.518757382130168</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1">
       <c r="A172" s="18">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -20868,7 +20924,7 @@
         <v>38.501588212058813</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1">
       <c r="A173" s="18">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -20884,7 +20940,7 @@
         <v>38.482806999824554</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1">
       <c r="A174" s="18">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -20900,7 +20956,7 @@
         <v>38.465581380406974</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1">
       <c r="A175" s="18">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -20916,7 +20972,7 @@
         <v>38.445202289364161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1">
       <c r="A176" s="18">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -20932,7 +20988,7 @@
         <v>38.42022985362069</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1">
       <c r="A177" s="18">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -20948,7 +21004,7 @@
         <v>38.397485675200002</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1">
       <c r="A178" s="18">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -20964,7 +21020,7 @@
         <v>38.376420407897733</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1">
       <c r="A179" s="18">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -20980,7 +21036,7 @@
         <v>38.356271147796612</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1">
       <c r="A180" s="18">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -20996,7 +21052,7 @@
         <v>38.333426933033707</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1">
       <c r="A181" s="18">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -21012,7 +21068,7 @@
         <v>38.311229020614526</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1">
       <c r="A182" s="18">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -21028,7 +21084,7 @@
         <v>38.290888867888889</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1">
       <c r="A183" s="18">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -21044,7 +21100,7 @@
         <v>38.268618754364638</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1">
       <c r="A184" s="18">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -21060,7 +21116,7 @@
         <v>38.248351618351641</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1">
       <c r="A185" s="18">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -21076,7 +21132,7 @@
         <v>38.228579205136612</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1">
       <c r="A186" s="18">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -21092,7 +21148,7 @@
         <v>38.206847793913042</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1">
       <c r="A187" s="18">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -21108,7 +21164,7 @@
         <v>38.181189152216213</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1">
       <c r="A188" s="18">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -21124,7 +21180,7 @@
         <v>38.15387092274193</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1">
       <c r="A189" s="18">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -21140,7 +21196,7 @@
         <v>38.12657749128342</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1">
       <c r="A190" s="18">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -21156,7 +21212,7 @@
         <v>38.100053139680853</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1">
       <c r="A191" s="18">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -21172,7 +21228,7 @@
         <v>38.071216879682538</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1">
       <c r="A192" s="18">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -21188,7 +21244,7 @@
         <v>38.0456315228421</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1">
       <c r="A193" s="18">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -21204,7 +21260,7 @@
         <v>38.017120363036646</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1">
       <c r="A194" s="18">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -21220,7 +21276,7 @@
         <v>37.989791613541662</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1">
       <c r="A195" s="18">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -21236,7 +21292,7 @@
         <v>37.965699429792743</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1">
       <c r="A196" s="18">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -21252,7 +21308,7 @@
         <v>37.941855619072165</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1">
       <c r="A197" s="18">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -21268,7 +21324,7 @@
         <v>37.915128152000001</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1">
       <c r="A198" s="18">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -21284,7 +21340,7 @@
         <v>37.889132598622453</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1">
       <c r="A199" s="18">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -21300,7 +21356,7 @@
         <v>37.861268989137059</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1">
       <c r="A200" s="18">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -21316,7 +21372,7 @@
         <v>37.834646419242425</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1">
       <c r="A201" s="18">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -21332,7 +21388,7 @@
         <v>37.804422063819104</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1">
       <c r="A202" s="18">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -21348,7 +21404,7 @@
         <v>37.775999948150009</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1">
       <c r="A203" s="18">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -21364,7 +21420,7 @@
         <v>37.743084524776123</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1">
       <c r="A204" s="18">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -21380,7 +21436,7 @@
         <v>37.710494996683174</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1">
       <c r="A205" s="18">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -21396,7 +21452,7 @@
         <v>37.678472849310346</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1">
       <c r="A206" s="18">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -21412,7 +21468,7 @@
         <v>37.643872496323532</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1">
       <c r="A207" s="18">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -21428,7 +21484,7 @@
         <v>37.61151214380488</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1">
       <c r="A208" s="18">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -21444,7 +21500,7 @@
         <v>37.577281499757277</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1">
       <c r="A209" s="18">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -21460,7 +21516,7 @@
         <v>37.540193181497585</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1">
       <c r="A210" s="18">
         <f t="shared" si="2"/>
         <v>208</v>
@@ -21476,7 +21532,7 @@
         <v>37.503221100721149</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1">
       <c r="A211" s="18">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -21492,7 +21548,7 @@
         <v>37.469999944593297</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1">
       <c r="A212" s="18">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -21508,7 +21564,7 @@
         <v>37.437380901238093</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1">
       <c r="A213" s="18">
         <f t="shared" si="2"/>
         <v>211</v>
@@ -21524,7 +21580,7 @@
         <v>37.405781941800946</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1">
       <c r="A214" s="18">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -21540,7 +21596,7 @@
         <v>37.374245231273584</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1">
       <c r="A215" s="18">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -21556,7 +21612,7 @@
         <v>37.342629053615028</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1">
       <c r="A216" s="18">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -21572,7 +21628,7 @@
         <v>37.309205555841125</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1">
       <c r="A217" s="18">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -21588,7 +21644,7 @@
         <v>37.27981390102326</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1">
       <c r="A218" s="18">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -21604,7 +21660,7 @@
         <v>37.247685133657413</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1">
       <c r="A219" s="18">
         <f t="shared" si="2"/>
         <v>217</v>
@@ -21620,7 +21676,7 @@
         <v>37.218433126682037</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1">
       <c r="A220" s="18">
         <f t="shared" si="2"/>
         <v>218</v>
@@ -21636,7 +21692,7 @@
         <v>37.189770586238538</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1">
       <c r="A221" s="18">
         <f t="shared" si="2"/>
         <v>219</v>
@@ -21652,7 +21708,7 @@
         <v>37.161232823424669</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1">
       <c r="A222" s="18">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -21668,7 +21724,7 @@
         <v>37.130772670045459</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1">
       <c r="A223" s="18">
         <f t="shared" si="2"/>
         <v>221</v>
@@ -21684,7 +21740,7 @@
         <v>37.098913970859734</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1">
       <c r="A224" s="18">
         <f t="shared" si="2"/>
         <v>222</v>
@@ -21700,7 +21756,7 @@
         <v>37.065180126891896</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1">
       <c r="A225" s="18">
         <f t="shared" si="2"/>
         <v>223</v>
@@ -21716,7 +21772,7 @@
         <v>37.026053759282519</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1">
       <c r="A226" s="18">
         <f t="shared" si="2"/>
         <v>224</v>
@@ -21732,7 +21788,7 @@
         <v>36.984464229464287</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1">
       <c r="A227" s="18">
         <f t="shared" si="2"/>
         <v>225</v>
@@ -21748,7 +21804,7 @@
         <v>36.94248883697778</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1">
       <c r="A228" s="18">
         <f t="shared" si="2"/>
         <v>226</v>
@@ -21764,7 +21820,7 @@
         <v>36.903849501769912</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1">
       <c r="A229" s="18">
         <f t="shared" si="2"/>
         <v>227</v>
@@ -21780,7 +21836,7 @@
         <v>36.866607877356834</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1">
       <c r="A230" s="18">
         <f t="shared" si="2"/>
         <v>228</v>
@@ -21796,7 +21852,7 @@
         <v>36.825438542543864</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1">
       <c r="A231" s="18">
         <f t="shared" si="2"/>
         <v>229</v>
@@ -21812,7 +21868,7 @@
         <v>36.780523967772936</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1">
       <c r="A232" s="18">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -21828,7 +21884,7 @@
         <v>36.740956473608705</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1">
       <c r="A233" s="18">
         <f t="shared" si="2"/>
         <v>231</v>
@@ -21844,7 +21900,7 @@
         <v>36.704978308398275</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1">
       <c r="A234" s="18">
         <f t="shared" si="2"/>
         <v>232</v>
@@ -21860,7 +21916,7 @@
         <v>36.66892236806035</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1">
       <c r="A235" s="18">
         <f t="shared" si="2"/>
         <v>233</v>
@@ -21876,7 +21932,7 @@
         <v>36.633948454291847</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1">
       <c r="A236" s="18">
         <f t="shared" si="2"/>
         <v>234</v>
@@ -21892,7 +21948,7 @@
         <v>36.598119614743588</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1">
       <c r="A237" s="18">
         <f t="shared" si="2"/>
         <v>235</v>
@@ -21908,7 +21964,7 @@
         <v>36.563361660255318</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1">
       <c r="A238" s="18">
         <f t="shared" si="2"/>
         <v>236</v>
@@ -21924,7 +21980,7 @@
         <v>36.528262673093217</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1">
       <c r="A239" s="18">
         <f t="shared" si="2"/>
         <v>237</v>
@@ -21940,7 +21996,7 @@
         <v>36.490632875358649</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1">
       <c r="A240" s="18">
         <f t="shared" si="2"/>
         <v>238</v>
@@ -21956,7 +22012,7 @@
         <v>36.451512570462185</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1">
       <c r="A241" s="18">
         <f t="shared" si="2"/>
         <v>239</v>
@@ -21972,7 +22028,7 @@
         <v>36.412008334728036</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1">
       <c r="A242" s="18">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -21988,7 +22044,7 @@
         <v>36.376874964750002</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1">
       <c r="A243" s="18">
         <f t="shared" si="2"/>
         <v>241</v>
@@ -22004,7 +22060,7 @@
         <v>36.340622369004151</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1">
       <c r="A244" s="18">
         <f t="shared" si="2"/>
         <v>242</v>
@@ -22020,7 +22076,7 @@
         <v>36.305495830909088</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1">
       <c r="A245" s="18">
         <f t="shared" si="2"/>
         <v>243</v>
@@ -22036,7 +22092,7 @@
         <v>36.269876504938274</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1">
       <c r="A246" s="18">
         <f t="shared" si="2"/>
         <v>244</v>
@@ -22052,7 +22108,7 @@
         <v>36.232704883032788</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1">
       <c r="A247" s="18">
         <f t="shared" si="2"/>
         <v>245</v>
@@ -22068,7 +22124,7 @@
         <v>36.195714251183674</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1">
       <c r="A248" s="18">
         <f t="shared" si="2"/>
         <v>246</v>
@@ -22084,7 +22140,7 @@
         <v>36.154715415243899</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1">
       <c r="A249" s="18">
         <f t="shared" si="2"/>
         <v>247</v>
@@ -22100,7 +22156,7 @@
         <v>36.116113331943318</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1">
       <c r="A250" s="18">
         <f t="shared" si="2"/>
         <v>248</v>
@@ -22116,7 +22172,7 @@
         <v>36.076048360080641</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1">
       <c r="A251" s="18">
         <f t="shared" si="2"/>
         <v>249</v>
@@ -22132,7 +22188,7 @@
         <v>36.036947764859427</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1">
       <c r="A252" s="18">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -22148,7 +22204,7 @@
         <v>35.997639970119991</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1">
       <c r="A253" s="18">
         <f t="shared" si="2"/>
         <v>251</v>
@@ -22164,7 +22220,7 @@
         <v>35.959402359163342</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1">
       <c r="A254" s="18">
         <f t="shared" si="2"/>
         <v>252</v>
@@ -22180,7 +22236,7 @@
         <v>35.920357115039671</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1">
       <c r="A255" s="18">
         <f t="shared" si="2"/>
         <v>253</v>
@@ -22196,7 +22252,7 @@
         <v>35.879051352964417</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1">
       <c r="A256" s="18">
         <f t="shared" si="2"/>
         <v>254</v>
@@ -22212,7 +22268,7 @@
         <v>35.835787368858256</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1">
       <c r="A257" s="18">
         <f t="shared" si="2"/>
         <v>255</v>
@@ -22228,7 +22284,7 @@
         <v>35.792862710117632</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1">
       <c r="A258" s="18">
         <f t="shared" si="2"/>
         <v>256</v>
@@ -22244,7 +22300,7 @@
         <v>35.744648405624986</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1">
       <c r="A259" s="18">
         <f t="shared" si="2"/>
         <v>257</v>
@@ -22260,7 +22316,7 @@
         <v>35.69571981291827</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1">
       <c r="A260" s="18">
         <f t="shared" si="2"/>
         <v>258</v>
@@ -22276,7 +22332,7 @@
         <v>35.651472839573628</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1">
       <c r="A261" s="18">
         <f t="shared" si="2"/>
         <v>259</v>
@@ -22292,7 +22348,7 @@
         <v>35.606949781660212</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1">
       <c r="A262" s="18">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -22308,7 +22364,7 @@
         <v>35.566653817730753</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1">
       <c r="A263" s="18">
         <f t="shared" si="2"/>
         <v>261</v>
@@ -22324,7 +22380,7 @@
         <v>35.519386943103434</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1">
       <c r="A264" s="18">
         <f t="shared" si="2"/>
         <v>262</v>
@@ -22340,7 +22396,7 @@
         <v>35.470534318549603</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1">
       <c r="A265" s="18">
         <f t="shared" si="2"/>
         <v>263</v>
@@ -22356,7 +22412,7 @@
         <v>35.421064602813672</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1">
       <c r="A266" s="18">
         <f t="shared" si="2"/>
         <v>264</v>
@@ -22372,7 +22428,7 @@
         <v>35.373181784962107</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1">
       <c r="A267" s="18">
         <f t="shared" si="2"/>
         <v>265</v>
@@ -22388,7 +22444,7 @@
         <v>35.328188649018855</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1">
       <c r="A268" s="18">
         <f t="shared" si="2"/>
         <v>266</v>
@@ -22404,7 +22460,7 @@
         <v>35.283233055751865</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1">
       <c r="A269" s="18">
         <f t="shared" si="2"/>
         <v>267</v>
@@ -22420,7 +22476,7 @@
         <v>35.239288359812718</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1">
       <c r="A270" s="18">
         <f t="shared" si="2"/>
         <v>268</v>
@@ -22436,7 +22492,7 @@
         <v>35.194701466380579</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1">
       <c r="A271" s="18">
         <f t="shared" si="2"/>
         <v>269</v>
@@ -22452,7 +22508,7 @@
         <v>35.152081756617086</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1">
       <c r="A272" s="18">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -22468,7 +22524,7 @@
         <v>35.109703672629614</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1">
       <c r="A273" s="18">
         <f t="shared" si="2"/>
         <v>271</v>
@@ -22484,7 +22540,7 @@
         <v>35.067933551771205</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1">
       <c r="A274" s="18">
         <f t="shared" si="2"/>
         <v>272</v>
@@ -22500,7 +22556,7 @@
         <v>35.027867619595575</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1">
       <c r="A275" s="18">
         <f t="shared" si="2"/>
         <v>273</v>
@@ -22516,7 +22572,7 @@
         <v>34.987655647509143</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1">
       <c r="A276" s="18">
         <f t="shared" si="2"/>
         <v>274</v>
@@ -22532,7 +22588,7 @@
         <v>34.944671499452539</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1">
       <c r="A277" s="18">
         <f t="shared" si="2"/>
         <v>275</v>
@@ -22548,7 +22604,7 @@
         <v>34.902363601163621</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1">
       <c r="A278" s="18">
         <f t="shared" si="2"/>
         <v>276</v>
@@ -22564,7 +22620,7 @@
         <v>34.860434747246366</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1">
       <c r="A279" s="18">
         <f t="shared" si="2"/>
         <v>277</v>
@@ -22580,7 +22636,7 @@
         <v>34.818953036389878</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1">
       <c r="A280" s="18">
         <f t="shared" si="2"/>
         <v>278</v>
@@ -22596,7 +22652,7 @@
         <v>34.778740972913653</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1">
       <c r="A281" s="18">
         <f t="shared" si="2"/>
         <v>279</v>
@@ -22612,7 +22668,7 @@
         <v>34.740573439534039</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1">
       <c r="A282" s="18">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -22628,7 +22684,7 @@
         <v>34.703321389642845</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1">
       <c r="A283" s="18">
         <f t="shared" si="2"/>
         <v>281</v>
@@ -22644,7 +22700,7 @@
         <v>34.66704622537366</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1">
       <c r="A284" s="18">
         <f t="shared" si="2"/>
         <v>282</v>
@@ -22660,7 +22716,7 @@
         <v>34.633936132092195</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1">
       <c r="A285" s="18">
         <f t="shared" si="2"/>
         <v>283</v>
@@ -22676,7 +22732,7 @@
         <v>34.60084802017667</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1">
       <c r="A286" s="18">
         <f t="shared" si="2"/>
         <v>284</v>
@@ -22692,7 +22748,7 @@
         <v>34.568661932359149</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1">
       <c r="A287" s="18">
         <f t="shared" si="2"/>
         <v>285</v>
@@ -22708,7 +22764,7 @@
         <v>34.534210486982445</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1">
       <c r="A288" s="18">
         <f t="shared" si="2"/>
         <v>286</v>
@@ -22724,7 +22780,7 @@
         <v>34.502202755069924</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1">
       <c r="A289" s="18">
         <f t="shared" si="2"/>
         <v>287</v>
@@ -22740,7 +22796,7 @@
         <v>34.441742116968634</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1">
       <c r="A290" s="18">
         <f t="shared" si="2"/>
         <v>288</v>
@@ -22756,7 +22812,7 @@
         <v>34.411076347847221</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1">
       <c r="A291" s="18">
         <f t="shared" si="2"/>
         <v>289</v>
@@ -22772,7 +22828,7 @@
         <v>34.381903071695504</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1">
       <c r="A292" s="18">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -22788,7 +22844,7 @@
         <v>34.352999957655172</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1">
       <c r="A293" s="18">
         <f t="shared" si="2"/>
         <v>291</v>
@@ -22804,7 +22860,7 @@
         <v>34.326013703505154</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1">
       <c r="A294" s="18">
         <f t="shared" si="2"/>
         <v>292</v>
@@ -22820,7 +22876,7 @@
         <v>34.300958862842464</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1">
       <c r="A295" s="18">
         <f t="shared" si="2"/>
         <v>293</v>
@@ -22836,7 +22892,7 @@
         <v>34.276006784027302</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1">
       <c r="A296" s="18">
         <f t="shared" si="2"/>
         <v>294</v>
@@ -22852,7 +22908,7 @@
         <v>34.249897918707482</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1">
       <c r="A297" s="18">
         <f t="shared" si="2"/>
         <v>295</v>
@@ -22868,7 +22924,7 @@
         <v>34.226135552101695</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1">
       <c r="A298" s="18">
         <f t="shared" si="2"/>
         <v>296</v>
@@ -22884,7 +22940,7 @@
         <v>34.204222931216215</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1">
       <c r="A299" s="18">
         <f t="shared" si="2"/>
         <v>297</v>
@@ -22900,7 +22956,7 @@
         <v>34.18289558410774</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1">
       <c r="A300" s="18">
         <f t="shared" si="2"/>
         <v>298</v>
@@ -22916,7 +22972,7 @@
         <v>34.162718082416099</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1">
       <c r="A301" s="18">
         <f t="shared" si="2"/>
         <v>299</v>
@@ -22932,7 +22988,7 @@
         <v>34.140468189933102</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1">
       <c r="A302" s="18">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -22948,7 +23004,7 @@
         <v>34.119366627533324</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1">
       <c r="A303" s="18">
         <f t="shared" si="2"/>
         <v>301</v>
@@ -22964,7 +23020,7 @@
         <v>34.097840490531553</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1">
       <c r="A304" s="18">
         <f t="shared" si="2"/>
         <v>302</v>
@@ -22980,7 +23036,7 @@
         <v>34.077913866125826</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1">
       <c r="A305" s="18">
         <f t="shared" si="2"/>
         <v>303</v>
@@ -22996,7 +23052,7 @@
         <v>34.057623722376235</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1">
       <c r="A306" s="18">
         <f t="shared" si="2"/>
         <v>304</v>
@@ -23012,7 +23068,7 @@
         <v>34.036743378157887</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1">
       <c r="A307" s="18">
         <f t="shared" si="2"/>
         <v>305</v>
@@ -23028,7 +23084,7 @@
         <v>34.0172130717377</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1">
       <c r="A308" s="18">
         <f t="shared" si="2"/>
         <v>306</v>
@@ -23044,7 +23100,7 @@
         <v>33.997091462385619</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1">
       <c r="A309" s="18">
         <f t="shared" si="2"/>
         <v>307</v>
@@ -23060,7 +23116,7 @@
         <v>33.975211687882734</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1">
       <c r="A310" s="18">
         <f t="shared" si="2"/>
         <v>308</v>
@@ -23076,7 +23132,7 @@
         <v>33.951818144935061</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1">
       <c r="A311" s="18">
         <f t="shared" si="2"/>
         <v>309</v>
@@ -23092,7 +23148,7 @@
         <v>33.929385077993516</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1">
       <c r="A312" s="18">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -23108,7 +23164,7 @@
         <v>33.90851609090322</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1">
       <c r="A313" s="18">
         <f t="shared" si="2"/>
         <v>311</v>
@@ -23124,7 +23180,7 @@
         <v>33.886495137138255</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1">
       <c r="A314" s="18">
         <f t="shared" si="2"/>
         <v>312</v>
@@ -23140,7 +23196,7 @@
         <v>33.865480729391024</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1">
       <c r="A315" s="18">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -23156,7 +23212,7 @@
         <v>33.843706028146961</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1">
       <c r="A316" s="18">
         <f t="shared" si="2"/>
         <v>314</v>
@@ -23172,7 +23228,7 @@
         <v>33.822292954299357</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1">
       <c r="A317" s="18">
         <f t="shared" si="2"/>
         <v>315</v>
@@ -23188,7 +23244,7 @@
         <v>33.800285673142845</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1">
       <c r="A318" s="18">
         <f t="shared" si="2"/>
         <v>316</v>
@@ -23204,7 +23260,7 @@
         <v>33.778132867974676</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1">
       <c r="A319" s="18">
         <f t="shared" si="2"/>
         <v>317</v>
@@ -23220,7 +23276,7 @@
         <v>33.755394277507875</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1">
       <c r="A320" s="18">
         <f t="shared" si="2"/>
         <v>318</v>
@@ -23236,7 +23292,7 @@
         <v>33.733238946698101</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1">
       <c r="A321" s="18">
         <f t="shared" si="2"/>
         <v>319</v>
@@ -23252,7 +23308,7 @@
         <v>33.710940394639486</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1">
       <c r="A322" s="18">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -23268,7 +23324,7 @@
         <v>33.689062453031241</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1">
       <c r="A323" s="18">
         <f t="shared" si="2"/>
         <v>321</v>
@@ -23284,7 +23340,7 @@
         <v>33.666137024579427</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1">
       <c r="A324" s="18">
         <f t="shared" si="2"/>
         <v>322</v>
@@ -23300,7 +23356,7 @@
         <v>33.645031011583839</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1">
       <c r="A325" s="18">
         <f t="shared" si="2"/>
         <v>323</v>
@@ -23316,7 +23372,7 @@
         <v>33.622414816501539</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1">
       <c r="A326" s="18">
         <f t="shared" si="2"/>
         <v>324</v>
@@ -23332,7 +23388,7 @@
         <v>33.59876538805554</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1">
       <c r="A327" s="18">
         <f t="shared" si="2"/>
         <v>325</v>
@@ -23348,7 +23404,7 @@
         <v>33.575630725323066</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1">
       <c r="A328" s="18">
         <f t="shared" si="2"/>
         <v>326</v>
@@ -23364,7 +23420,7 @@
         <v>33.55380363438649</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1">
       <c r="A329" s="18">
         <f t="shared" si="2"/>
         <v>327</v>
@@ -23380,7 +23436,7 @@
         <v>33.532079466574906</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1">
       <c r="A330" s="18">
         <f t="shared" si="2"/>
         <v>328</v>
@@ -23396,7 +23452,7 @@
         <v>33.510823125121938</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1">
       <c r="A331" s="18">
         <f t="shared" si="2"/>
         <v>329</v>
@@ -23412,7 +23468,7 @@
         <v>33.4886017805471</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1">
       <c r="A332" s="18">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -23428,7 +23484,7 @@
         <v>33.468363593333315</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1">
       <c r="A333" s="18">
         <f t="shared" si="2"/>
         <v>331</v>
@@ -23444,7 +23500,7 @@
         <v>33.447673675649533</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1">
       <c r="A334" s="18">
         <f t="shared" si="2"/>
         <v>332</v>
@@ -23460,7 +23516,7 @@
         <v>33.427379475060221</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1">
       <c r="A335" s="18">
         <f t="shared" si="2"/>
         <v>333</v>
@@ -23476,7 +23532,7 @@
         <v>33.407237192282267</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1">
       <c r="A336" s="18">
         <f t="shared" si="2"/>
         <v>334</v>
@@ -23492,7 +23548,7 @@
         <v>33.388532888862258</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1">
       <c r="A337" s="18">
         <f t="shared" si="2"/>
         <v>335</v>
@@ -23508,7 +23564,7 @@
         <v>33.36955219573133</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1">
       <c r="A338" s="18">
         <f t="shared" si="2"/>
         <v>336</v>
@@ -23524,7 +23580,7 @@
         <v>33.34928566976189</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1">
       <c r="A339" s="18">
         <f t="shared" si="2"/>
         <v>337</v>
@@ -23540,7 +23596,7 @@
         <v>33.330356036646869</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1">
       <c r="A340" s="18">
         <f t="shared" si="2"/>
         <v>338</v>
@@ -23556,7 +23612,7 @@
         <v>33.311212973254428</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1">
       <c r="A341" s="18">
         <f t="shared" si="2"/>
         <v>339</v>
@@ -23572,7 +23628,7 @@
         <v>33.289498482949838</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1">
       <c r="A342" s="18">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -23588,7 +23644,7 @@
         <v>33.267764662764691</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1">
       <c r="A343" s="18">
         <f t="shared" si="2"/>
         <v>341</v>
@@ -23604,7 +23660,7 @@
         <v>33.245806410645152</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1">
       <c r="A344" s="18">
         <f t="shared" si="2"/>
         <v>342</v>
@@ -23620,7 +23676,7 @@
         <v>33.223508733537997</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1">
       <c r="A345" s="18">
         <f t="shared" si="2"/>
         <v>343</v>
@@ -23636,7 +23692,7 @@
         <v>33.200932904985407</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1">
       <c r="A346" s="18">
         <f t="shared" si="2"/>
         <v>344</v>
@@ -23652,7 +23708,7 @@
         <v>33.177616240465106</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4">
       <c r="A347" s="18">
         <f t="shared" si="2"/>
         <v>345</v>
@@ -23668,7 +23724,7 @@
         <v>33.152985469652158</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4">
       <c r="A348" s="18">
         <f t="shared" si="2"/>
         <v>346</v>
@@ -23684,7 +23740,7 @@
         <v>33.128364413381483</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4">
       <c r="A349" s="18">
         <f t="shared" si="2"/>
         <v>347</v>
@@ -23700,7 +23756,7 @@
         <v>33.103412352564824</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4">
       <c r="A350" s="18">
         <f t="shared" si="2"/>
         <v>348</v>
@@ -23716,7 +23772,7 @@
         <v>33.078804848448264</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4">
       <c r="A351" s="18">
         <f t="shared" si="2"/>
         <v>349</v>
@@ -23732,7 +23788,7 @@
         <v>33.055026039971331</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4">
       <c r="A352" s="18">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -23748,7 +23804,7 @@
         <v>33.030411681371412</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4">
       <c r="A353" s="18">
         <f t="shared" si="2"/>
         <v>351</v>
@@ -23764,7 +23820,7 @@
         <v>33.006878029857532</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4">
       <c r="A354" s="18">
         <f t="shared" si="2"/>
         <v>352</v>
@@ -23780,7 +23836,7 @@
         <v>32.983932353636348</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4">
       <c r="A355" s="18">
         <f t="shared" si="2"/>
         <v>353</v>
@@ -23796,9 +23852,9 @@
         <v>32.959955208158625</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A427" si="3">A355+1</f>
+        <f t="shared" ref="A356:A443" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -23812,7 +23868,7 @@
         <v>32.934475108700553</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4">
       <c r="A357" s="18">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -23828,7 +23884,7 @@
         <v>32.90789912247886</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4">
       <c r="A358" s="18">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -23844,7 +23900,7 @@
         <v>32.881472439550549</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4">
       <c r="A359" s="18">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -23860,7 +23916,7 @@
         <v>32.85519380526609</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4">
       <c r="A360" s="18">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -23876,7 +23932,7 @@
         <v>32.8285871186592</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4">
       <c r="A361" s="18">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -23892,7 +23948,7 @@
         <v>32.801348714428954</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4">
       <c r="A362" s="18">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -23908,7 +23964,7 @@
         <v>32.773872745777759</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4">
       <c r="A363" s="18">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -23924,7 +23980,7 @@
         <v>32.746798306038762</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4">
       <c r="A364" s="18">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -23940,7 +23996,7 @@
         <v>32.721144167071806</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4">
       <c r="A365" s="18">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -23956,7 +24012,7 @@
         <v>32.694171318126706</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4">
       <c r="A366" s="18">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -23972,7 +24028,7 @@
         <v>32.66762139881866</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4">
       <c r="A367" s="18">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -23988,7 +24044,7 @@
         <v>32.640066271698615</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4">
       <c r="A368" s="18">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -24004,7 +24060,7 @@
         <v>32.611104344508178</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4">
       <c r="A369" s="18">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -24020,7 +24076,7 @@
         <v>32.582845203978181</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4">
       <c r="A370" s="18">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -24036,7 +24092,7 @@
         <v>32.556587472663026</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4">
       <c r="A371" s="18">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -24052,7 +24108,7 @@
         <v>32.530282358590767</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4">
       <c r="A372" s="18">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -24068,7 +24124,7 @@
         <v>32.506281594432416</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4">
       <c r="A373" s="18">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -24084,7 +24140,7 @@
         <v>32.482598892857126</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4">
       <c r="A374" s="18">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -24100,7 +24156,7 @@
         <v>32.459392982876324</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4">
       <c r="A375" s="18">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -24116,7 +24172,7 @@
         <v>32.435614449812313</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4">
       <c r="A376" s="18">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -24132,7 +24188,7 @@
         <v>32.411455051871634</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4">
       <c r="A377" s="18">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -24148,7 +24204,7 @@
         <v>32.387264505466646</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4">
       <c r="A378" s="18">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -24164,7 +24220,7 @@
         <v>32.361846248590403</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4">
       <c r="A379" s="18">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -24180,7 +24236,7 @@
         <v>32.336324109389899</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4">
       <c r="A380" s="18">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -24196,7 +24252,7 @@
         <v>32.312101030555532</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4">
       <c r="A381" s="18">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -24212,7 +24268,7 @@
         <v>32.287425299815283</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4">
       <c r="A382" s="18">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -24228,7 +24284,7 @@
         <v>32.260721547421028</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4">
       <c r="A383" s="18">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -24244,7 +24300,7 @@
         <v>32.234420440393677</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4">
       <c r="A384" s="18">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -24260,7 +24316,7 @@
         <v>32.208335571335049</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4">
       <c r="A385" s="18">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -24276,7 +24332,7 @@
         <v>32.183248534281958</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4">
       <c r="A386" s="18">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -24292,7 +24348,7 @@
         <v>32.157979656692682</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4">
       <c r="A387" s="18">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -24308,7 +24364,7 @@
         <v>32.134712179038935</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4">
       <c r="A388" s="18">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -24324,7 +24380,7 @@
         <v>32.111539350932617</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4">
       <c r="A389" s="18">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -24340,7 +24396,7 @@
         <v>32.088072842764831</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4">
       <c r="A390" s="18">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -24356,7 +24412,7 @@
         <v>32.064031418505131</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4">
       <c r="A391" s="18">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -24372,7 +24428,7 @@
         <v>32.038982493753188</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4">
       <c r="A392" s="18">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -24388,7 +24444,7 @@
         <v>32.015472284384586</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4">
       <c r="A393" s="18">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -24404,7 +24460,7 @@
         <v>31.992133479028105</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4">
       <c r="A394" s="18">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -24420,7 +24476,7 @@
         <v>31.970342324132627</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4">
       <c r="A395" s="18">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -24436,7 +24492,7 @@
         <v>31.947847812264605</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4">
       <c r="A396" s="18">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -24452,7 +24508,7 @@
         <v>31.925162919923835</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4">
       <c r="A397" s="18">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -24468,7 +24524,7 @@
         <v>31.902643521873394</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4">
       <c r="A398" s="18">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -24484,7 +24540,7 @@
         <v>31.880162098838358</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4">
       <c r="A399" s="18">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -24500,7 +24556,7 @@
         <v>31.856912319294686</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4">
       <c r="A400" s="18">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -24516,7 +24572,7 @@
         <v>31.833502994170832</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4">
       <c r="A401" s="18">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -24532,7 +24588,7 @@
         <v>31.810135819323285</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4">
       <c r="A402" s="18">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -24548,7 +24604,7 @@
         <v>31.786510481299977</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4">
       <c r="A403" s="18">
         <f t="shared" si="3"/>
         <v>401</v>
@@ -24564,7 +24620,7 @@
         <v>31.762603973266813</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4">
       <c r="A404" s="18">
         <f t="shared" si="3"/>
         <v>402</v>
@@ -24580,7 +24636,7 @@
         <v>31.740060184179082</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4">
       <c r="A405" s="18">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -24596,7 +24652,7 @@
         <v>31.717901224590552</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4">
       <c r="A406" s="18">
         <f t="shared" si="3"/>
         <v>404</v>
@@ -24612,7 +24668,7 @@
         <v>31.696743053440571</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4">
       <c r="A407" s="18">
         <f t="shared" si="3"/>
         <v>405</v>
@@ -24628,7 +24684,7 @@
         <v>31.675343689580224</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4">
       <c r="A408" s="18">
         <f t="shared" si="3"/>
         <v>406</v>
@@ -24644,7 +24700,7 @@
         <v>31.654517718201948</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4">
       <c r="A409" s="18">
         <f t="shared" si="3"/>
         <v>407</v>
@@ -24660,7 +24716,7 @@
         <v>31.634383765773933</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4">
       <c r="A410" s="18">
         <f t="shared" si="3"/>
         <v>408</v>
@@ -24676,7 +24732,7 @@
         <v>31.614814196789194</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4">
       <c r="A411" s="18">
         <f t="shared" si="3"/>
         <v>409</v>
@@ -24692,7 +24748,7 @@
         <v>31.595291421638123</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4">
       <c r="A412" s="18">
         <f t="shared" si="3"/>
         <v>410</v>
@@ -24708,7 +24764,7 @@
         <v>31.576376077073149</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4">
       <c r="A413" s="18">
         <f t="shared" si="3"/>
         <v>411</v>
@@ -24724,7 +24780,7 @@
         <v>31.556968836934285</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4">
       <c r="A414" s="18">
         <f t="shared" si="3"/>
         <v>412</v>
@@ -24740,7 +24796,7 @@
         <v>31.537000465776678</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4">
       <c r="A415" s="18">
         <f t="shared" si="3"/>
         <v>413</v>
@@ -24756,7 +24812,7 @@
         <v>31.51698351661015</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4">
       <c r="A416" s="18">
         <f t="shared" si="3"/>
         <v>414</v>
@@ -24772,7 +24828,7 @@
         <v>31.497618822125581</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4">
       <c r="A417" s="18">
         <f t="shared" si="3"/>
         <v>415</v>
@@ -24788,7 +24844,7 @@
         <v>31.477986006602389</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4">
       <c r="A418" s="18">
         <f t="shared" si="3"/>
         <v>416</v>
@@ -24804,7 +24860,7 @@
         <v>31.457798540048056</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4">
       <c r="A419" s="18">
         <f t="shared" si="3"/>
         <v>417</v>
@@ -24820,7 +24876,7 @@
         <v>31.436820603693025</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4">
       <c r="A420" s="18">
         <f t="shared" si="3"/>
         <v>418</v>
@@ -24836,7 +24892,7 @@
         <v>31.415703809449742</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4">
       <c r="A421" s="18">
         <f t="shared" si="3"/>
         <v>419</v>
@@ -24852,7 +24908,7 @@
         <v>31.394544609999983</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4">
       <c r="A422" s="18">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -24868,7 +24924,7 @@
         <v>31.373248077023792</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4">
       <c r="A423" s="18">
         <f t="shared" si="3"/>
         <v>421</v>
@@ -24884,7 +24940,7 @@
         <v>31.352860316555802</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4">
       <c r="A424" s="18">
         <f t="shared" si="3"/>
         <v>422</v>
@@ -24900,7 +24956,7 @@
         <v>31.333066808696664</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4">
       <c r="A425" s="18">
         <f t="shared" si="3"/>
         <v>423</v>
@@ -24916,7 +24972,7 @@
         <v>31.312728588203292</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4">
       <c r="A426" s="18">
         <f t="shared" si="3"/>
         <v>424</v>
@@ -24932,7 +24988,7 @@
         <v>31.292557059056588</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4">
       <c r="A427" s="18">
         <f t="shared" si="3"/>
         <v>425</v>
@@ -24946,6 +25002,262 @@
       <c r="D427" s="18">
         <f>SUM(C$3:C427)/A427</f>
         <v>31.272433394847042</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="18">
+        <f t="shared" si="3"/>
+        <v>426</v>
+      </c>
+      <c r="B428" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C428" s="20">
+        <v>22.829999919999999</v>
+      </c>
+      <c r="D428" s="18">
+        <f>SUM(C$3:C428)/A428</f>
+        <v>31.252615475892004</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="18">
+        <f t="shared" si="3"/>
+        <v>427</v>
+      </c>
+      <c r="B429" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="C429" s="20">
+        <v>23.409999849999998</v>
+      </c>
+      <c r="D429" s="18">
+        <f>SUM(C$3:C429)/A429</f>
+        <v>31.234248694566734</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="18">
+        <f t="shared" si="3"/>
+        <v>428</v>
+      </c>
+      <c r="B430" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C430" s="20">
+        <v>23.5</v>
+      </c>
+      <c r="D430" s="18">
+        <f>SUM(C$3:C430)/A430</f>
+        <v>31.216178020046716</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="18">
+        <f t="shared" si="3"/>
+        <v>429</v>
+      </c>
+      <c r="B431" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C431" s="20">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D431" s="18">
+        <f>SUM(C$3:C431)/A431</f>
+        <v>31.198378071095561</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="18">
+        <f t="shared" si="3"/>
+        <v>430</v>
+      </c>
+      <c r="B432" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C432" s="20">
+        <v>23.81999969</v>
+      </c>
+      <c r="D432" s="18">
+        <f>SUM(C$3:C432)/A432</f>
+        <v>31.181219051604643</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="18">
+        <f t="shared" si="3"/>
+        <v>431</v>
+      </c>
+      <c r="B433" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C433" s="20">
+        <v>23.649999619999999</v>
+      </c>
+      <c r="D433" s="18">
+        <f>SUM(C$3:C433)/A433</f>
+        <v>31.163745224617159</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="18">
+        <f t="shared" si="3"/>
+        <v>432</v>
+      </c>
+      <c r="B434" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="C434" s="20">
+        <v>23.780000690000001</v>
+      </c>
+      <c r="D434" s="18">
+        <f>SUM(C$3:C434)/A434</f>
+        <v>31.146653223379619</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="18">
+        <f t="shared" si="3"/>
+        <v>433</v>
+      </c>
+      <c r="B435" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="C435" s="20">
+        <v>24.100000380000001</v>
+      </c>
+      <c r="D435" s="18">
+        <f>SUM(C$3:C435)/A435</f>
+        <v>31.13037919833717</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="18">
+        <f t="shared" si="3"/>
+        <v>434</v>
+      </c>
+      <c r="B436" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C436" s="20">
+        <v>24.450000760000002</v>
+      </c>
+      <c r="D436" s="18">
+        <f>SUM(C$3:C436)/A436</f>
+        <v>31.114986621290313</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="18">
+        <f t="shared" si="3"/>
+        <v>435</v>
+      </c>
+      <c r="B437" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C437" s="20">
+        <v>24.520000459999999</v>
+      </c>
+      <c r="D437" s="18">
+        <f>SUM(C$3:C437)/A437</f>
+        <v>31.099825733563208</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="18">
+        <f t="shared" si="3"/>
+        <v>436</v>
+      </c>
+      <c r="B438" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="C438" s="20">
+        <v>24.530000690000001</v>
+      </c>
+      <c r="D438" s="18">
+        <f>SUM(C$3:C438)/A438</f>
+        <v>31.084757327499986</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="18">
+        <f t="shared" si="3"/>
+        <v>437</v>
+      </c>
+      <c r="B439" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C439" s="20">
+        <v>24.739999770000001</v>
+      </c>
+      <c r="D439" s="18">
+        <f>SUM(C$3:C439)/A439</f>
+        <v>31.0702384314874</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="18">
+        <f t="shared" si="3"/>
+        <v>438</v>
+      </c>
+      <c r="B440" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C440" s="20">
+        <v>24.829999919999999</v>
+      </c>
+      <c r="D440" s="18">
+        <f>SUM(C$3:C440)/A440</f>
+        <v>31.055991311598159</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="18">
+        <f t="shared" si="3"/>
+        <v>439</v>
+      </c>
+      <c r="B441" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C441" s="20">
+        <v>25.170000080000001</v>
+      </c>
+      <c r="D441" s="18">
+        <f>SUM(C$3:C441)/A441</f>
+        <v>31.042583586697024</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="18">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="B442" s="19">
+        <v>44956</v>
+      </c>
+      <c r="C442" s="20">
+        <v>24.899999619999999</v>
+      </c>
+      <c r="D442" s="18">
+        <f>SUM(C$3:C442)/A442</f>
+        <v>31.028623168590894</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="18">
+        <f t="shared" si="3"/>
+        <v>441</v>
+      </c>
+      <c r="B443" s="19">
+        <v>44957</v>
+      </c>
+      <c r="C443" s="20">
+        <v>24.899999619999999</v>
+      </c>
+      <c r="D443" s="18">
+        <f>SUM(C$3:C443)/A443</f>
+        <v>31.014726063038534</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
@@ -1663,6 +1663,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1709,7 +1710,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>3.25108</c:v>
                 </c:pt>
@@ -1815,6 +1816,9 @@
                 <c:pt idx="34">
                   <c:v>3.4735300292968749</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.8110336914062501</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1823,7 +1827,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2000.0000000000002</c:v>
                 </c:pt>
@@ -1929,6 +1933,9 @@
                 <c:pt idx="34">
                   <c:v>60293.406710853284</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>68151.7828856181</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1970,7 +1977,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>3.25108</c:v>
                 </c:pt>
@@ -2076,6 +2083,9 @@
                 <c:pt idx="34">
                   <c:v>3.4735300292968749</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.8110336914062501</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2084,7 +2094,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2190,6 +2200,9 @@
                 <c:pt idx="34">
                   <c:v>-9706.5932891467164</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3848.2171143818996</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2231,7 +2244,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>3.25108</c:v>
                 </c:pt>
@@ -2337,6 +2350,9 @@
                 <c:pt idx="34">
                   <c:v>3.4735300292968749</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.8110336914062501</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2366,11 +2382,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="324213376"/>
-        <c:axId val="324215168"/>
+        <c:axId val="439132544"/>
+        <c:axId val="439134080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="324213376"/>
+        <c:axId val="439132544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2413,7 +2429,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324215168"/>
+        <c:crossAx val="439134080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2421,7 +2437,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324215168"/>
+        <c:axId val="439134080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2472,7 +2488,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324213376"/>
+        <c:crossAx val="439132544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2486,6 +2502,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16358,6 +16375,326 @@
           </cell>
           <cell r="F689">
             <v>3.4735300292968749</v>
+          </cell>
+        </row>
+        <row r="690">
+          <cell r="A690">
+            <v>44929</v>
+          </cell>
+          <cell r="B690">
+            <v>3469.269287109375</v>
+          </cell>
+          <cell r="C690">
+            <v>3516.888427734375</v>
+          </cell>
+          <cell r="D690">
+            <v>3441.99169921875</v>
+          </cell>
+          <cell r="E690">
+            <v>3508.3173828125</v>
+          </cell>
+          <cell r="F690">
+            <v>3.5083173828124998</v>
+          </cell>
+        </row>
+        <row r="691">
+          <cell r="A691">
+            <v>44930</v>
+          </cell>
+          <cell r="B691">
+            <v>3500.761474609375</v>
+          </cell>
+          <cell r="C691">
+            <v>3509.062744140625</v>
+          </cell>
+          <cell r="D691">
+            <v>3469.442138671875</v>
+          </cell>
+          <cell r="E691">
+            <v>3489.908447265625</v>
+          </cell>
+          <cell r="F691">
+            <v>3.4899084472656252</v>
+          </cell>
+        </row>
+        <row r="692">
+          <cell r="A692">
+            <v>44931</v>
+          </cell>
+          <cell r="B692">
+            <v>3506.47021484375</v>
+          </cell>
+          <cell r="C692">
+            <v>3584.12353515625</v>
+          </cell>
+          <cell r="D692">
+            <v>3505.536376953125</v>
+          </cell>
+          <cell r="E692">
+            <v>3577.919921875</v>
+          </cell>
+          <cell r="F692">
+            <v>3.577919921875</v>
+          </cell>
+        </row>
+        <row r="693">
+          <cell r="A693">
+            <v>44932</v>
+          </cell>
+          <cell r="B693">
+            <v>3573.02392578125</v>
+          </cell>
+          <cell r="C693">
+            <v>3624.267333984375</v>
+          </cell>
+          <cell r="D693">
+            <v>3572.197998046875</v>
+          </cell>
+          <cell r="E693">
+            <v>3590.678955078125</v>
+          </cell>
+          <cell r="F693">
+            <v>3.5906789550781251</v>
+          </cell>
+        </row>
+        <row r="694">
+          <cell r="A694">
+            <v>44935</v>
+          </cell>
+          <cell r="B694">
+            <v>3601.79736328125</v>
+          </cell>
+          <cell r="C694">
+            <v>3624.94677734375</v>
+          </cell>
+          <cell r="D694">
+            <v>3596.2919921875</v>
+          </cell>
+          <cell r="E694">
+            <v>3604.57666015625</v>
+          </cell>
+          <cell r="F694">
+            <v>3.6045766601562499</v>
+          </cell>
+        </row>
+        <row r="695">
+          <cell r="A695">
+            <v>44936</v>
+          </cell>
+          <cell r="B695">
+            <v>3607.819580078125</v>
+          </cell>
+          <cell r="C695">
+            <v>3646.35693359375</v>
+          </cell>
+          <cell r="D695">
+            <v>3592.638671875</v>
+          </cell>
+          <cell r="E695">
+            <v>3638.47021484375</v>
+          </cell>
+          <cell r="F695">
+            <v>3.6384702148437502</v>
+          </cell>
+        </row>
+        <row r="696">
+          <cell r="A696">
+            <v>44937</v>
+          </cell>
+          <cell r="B696">
+            <v>3633.132568359375</v>
+          </cell>
+          <cell r="C696">
+            <v>3653.69287109375</v>
+          </cell>
+          <cell r="D696">
+            <v>3606.408203125</v>
+          </cell>
+          <cell r="E696">
+            <v>3610.81103515625</v>
+          </cell>
+          <cell r="F696">
+            <v>3.6108110351562499</v>
+          </cell>
+        </row>
+        <row r="697">
+          <cell r="A697">
+            <v>44938</v>
+          </cell>
+          <cell r="B697">
+            <v>3624.650634765625</v>
+          </cell>
+          <cell r="C697">
+            <v>3652.45654296875</v>
+          </cell>
+          <cell r="D697">
+            <v>3616.583251953125</v>
+          </cell>
+          <cell r="E697">
+            <v>3631.021240234375</v>
+          </cell>
+          <cell r="F697">
+            <v>3.6310212402343751</v>
+          </cell>
+        </row>
+        <row r="698">
+          <cell r="A698">
+            <v>44939</v>
+          </cell>
+          <cell r="B698">
+            <v>3653.294921875</v>
+          </cell>
+          <cell r="C698">
+            <v>3673.21337890625</v>
+          </cell>
+          <cell r="D698">
+            <v>3633.6328125</v>
+          </cell>
+          <cell r="E698">
+            <v>3673.21337890625</v>
+          </cell>
+          <cell r="F698">
+            <v>3.67321337890625</v>
+          </cell>
+        </row>
+        <row r="699">
+          <cell r="A699">
+            <v>44942</v>
+          </cell>
+          <cell r="B699">
+            <v>3671.072509765625</v>
+          </cell>
+          <cell r="C699">
+            <v>3762.3359375</v>
+          </cell>
+          <cell r="D699">
+            <v>3671.072509765625</v>
+          </cell>
+          <cell r="E699">
+            <v>3731.450927734375</v>
+          </cell>
+          <cell r="F699">
+            <v>3.7314509277343748</v>
+          </cell>
+        </row>
+        <row r="700">
+          <cell r="A700">
+            <v>44943</v>
+          </cell>
+          <cell r="B700">
+            <v>3735.49560546875</v>
+          </cell>
+          <cell r="C700">
+            <v>3756.7470703125</v>
+          </cell>
+          <cell r="D700">
+            <v>3730.148193359375</v>
+          </cell>
+          <cell r="E700">
+            <v>3745.24853515625</v>
+          </cell>
+          <cell r="F700">
+            <v>3.7452485351562501</v>
+          </cell>
+        </row>
+        <row r="701">
+          <cell r="A701">
+            <v>44944</v>
+          </cell>
+          <cell r="B701">
+            <v>3750.16259765625</v>
+          </cell>
+          <cell r="C701">
+            <v>3760.9462890625</v>
+          </cell>
+          <cell r="D701">
+            <v>3739.308349609375</v>
+          </cell>
+          <cell r="E701">
+            <v>3748.58447265625</v>
+          </cell>
+          <cell r="F701">
+            <v>3.7485844726562498</v>
+          </cell>
+        </row>
+        <row r="702">
+          <cell r="A702">
+            <v>44945</v>
+          </cell>
+          <cell r="B702">
+            <v>3743.17724609375</v>
+          </cell>
+          <cell r="C702">
+            <v>3780.742431640625</v>
+          </cell>
+          <cell r="D702">
+            <v>3733.563720703125</v>
+          </cell>
+          <cell r="E702">
+            <v>3780.742431640625</v>
+          </cell>
+          <cell r="F702">
+            <v>3.7807424316406251</v>
+          </cell>
+        </row>
+        <row r="703">
+          <cell r="A703">
+            <v>44946</v>
+          </cell>
+          <cell r="B703">
+            <v>3790.78759765625</v>
+          </cell>
+          <cell r="C703">
+            <v>3804.211181640625</v>
+          </cell>
+          <cell r="D703">
+            <v>3779.6181640625</v>
+          </cell>
+          <cell r="E703">
+            <v>3797.16845703125</v>
+          </cell>
+          <cell r="F703">
+            <v>3.7971684570312498</v>
+          </cell>
+        </row>
+        <row r="704">
+          <cell r="A704">
+            <v>44956</v>
+          </cell>
+          <cell r="B704">
+            <v>3897.607421875</v>
+          </cell>
+          <cell r="C704">
+            <v>3912.39501953125</v>
+          </cell>
+          <cell r="D704">
+            <v>3848.337158203125</v>
+          </cell>
+          <cell r="E704">
+            <v>3853.490234375</v>
+          </cell>
+          <cell r="F704">
+            <v>3.8534902343750002</v>
+          </cell>
+        </row>
+        <row r="705">
+          <cell r="A705">
+            <v>44957</v>
+          </cell>
+          <cell r="B705">
+            <v>3849.224609375</v>
+          </cell>
+          <cell r="C705">
+            <v>3857.215087890625</v>
+          </cell>
+          <cell r="D705">
+            <v>3805.035888671875</v>
+          </cell>
+          <cell r="E705">
+            <v>3811.03369140625</v>
+          </cell>
+          <cell r="F705">
+            <v>3.8110336914062501</v>
           </cell>
         </row>
       </sheetData>
@@ -16655,10 +16992,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -17302,7 +17639,7 @@
         <v>2000</v>
       </c>
       <c r="D15" s="17">
-        <f t="shared" ref="D15:D37" si="9">C15/B15</f>
+        <f t="shared" ref="D15:D38" si="9">C15/B15</f>
         <v>423.43635539860185</v>
       </c>
       <c r="E15" s="17">
@@ -17310,7 +17647,7 @@
         <v>6766.6987073504279</v>
       </c>
       <c r="F15" s="17">
-        <f t="shared" ref="F15:F37" si="10">E15*B15</f>
+        <f t="shared" ref="F15:F38" si="10">E15*B15</f>
         <v>31960.877336479982</v>
       </c>
       <c r="G15" s="17">
@@ -17318,11 +17655,11 @@
         <v>26000</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" ref="H15:H37" si="11">F15</f>
+        <f t="shared" ref="H15:H38" si="11">F15</f>
         <v>31960.877336479982</v>
       </c>
       <c r="I15" s="17">
-        <f t="shared" ref="I15:I37" si="12">H15-G15</f>
+        <f t="shared" ref="I15:I38" si="12">H15-G15</f>
         <v>5960.8773364799818</v>
       </c>
       <c r="J15" s="6"/>
@@ -17336,7 +17673,7 @@
         <v>4.4379900000000001</v>
       </c>
       <c r="C16" s="16">
-        <f t="shared" ref="C16:C37" si="13">C15</f>
+        <f t="shared" ref="C16:C38" si="13">C15</f>
         <v>2000</v>
       </c>
       <c r="D16" s="17">
@@ -17344,7 +17681,7 @@
         <v>450.65446294381013</v>
       </c>
       <c r="E16" s="17">
-        <f t="shared" ref="E16:E37" si="14">E15+D16</f>
+        <f t="shared" ref="E16:E38" si="14">E15+D16</f>
         <v>7217.3531702942382</v>
       </c>
       <c r="F16" s="17">
@@ -17352,7 +17689,7 @@
         <v>32030.541196234128</v>
       </c>
       <c r="G16" s="17">
-        <f t="shared" ref="G16:G37" si="15">G15+C16</f>
+        <f t="shared" ref="G16:G38" si="15">G15+C16</f>
         <v>28000</v>
       </c>
       <c r="H16" s="17">
@@ -18159,6 +18496,43 @@
       <c r="I37" s="17">
         <f t="shared" si="12"/>
         <v>-9706.5932891467164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="12.75">
+      <c r="A38" s="14">
+        <v>44957</v>
+      </c>
+      <c r="B38" s="15">
+        <f>VLOOKUP(A38,[1]szse_innovation_100!$A:$F,6)</f>
+        <v>3.8110336914062501</v>
+      </c>
+      <c r="C38" s="16">
+        <f t="shared" si="13"/>
+        <v>2000</v>
+      </c>
+      <c r="D38" s="17">
+        <f t="shared" si="9"/>
+        <v>524.79200184189688</v>
+      </c>
+      <c r="E38" s="17">
+        <f t="shared" si="14"/>
+        <v>17882.755284818926</v>
+      </c>
+      <c r="F38" s="17">
+        <f t="shared" si="10"/>
+        <v>68151.7828856181</v>
+      </c>
+      <c r="G38" s="17">
+        <f t="shared" si="15"/>
+        <v>72000</v>
+      </c>
+      <c r="H38" s="17">
+        <f t="shared" si="11"/>
+        <v>68151.7828856181</v>
+      </c>
+      <c r="I38" s="17">
+        <f t="shared" si="12"/>
+        <v>-3848.2171143818996</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="302">
   <si>
     <t>PE</t>
   </si>
@@ -1146,6 +1146,78 @@
   </si>
   <si>
     <t xml:space="preserve">2023/1/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/24
 </t>
   </si>
 </sst>
@@ -1516,7 +1588,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1575,6 +1647,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1710,7 +1783,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>3.25108</c:v>
                 </c:pt>
@@ -1819,6 +1892,9 @@
                 <c:pt idx="35">
                   <c:v>3.8110336914062501</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6777292480468748</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1827,7 +1903,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2000.0000000000002</c:v>
                 </c:pt>
@@ -1936,6 +2012,9 @@
                 <c:pt idx="35">
                   <c:v>68151.7828856181</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>67767.93214664339</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1977,7 +2056,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>3.25108</c:v>
                 </c:pt>
@@ -2086,6 +2165,9 @@
                 <c:pt idx="35">
                   <c:v>3.8110336914062501</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6777292480468748</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2094,7 +2176,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2203,6 +2285,9 @@
                 <c:pt idx="35">
                   <c:v>-3848.2171143818996</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6232.0678533566097</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2244,7 +2329,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>3.25108</c:v>
                 </c:pt>
@@ -2353,6 +2438,9 @@
                 <c:pt idx="35">
                   <c:v>3.8110336914062501</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6777292480468748</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2382,11 +2470,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439132544"/>
-        <c:axId val="439134080"/>
+        <c:axId val="87354752"/>
+        <c:axId val="328168960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="439132544"/>
+        <c:axId val="87354752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2429,7 +2517,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439134080"/>
+        <c:crossAx val="328168960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2437,7 +2525,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="439134080"/>
+        <c:axId val="328168960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2576,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439132544"/>
+        <c:crossAx val="87354752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16695,6 +16783,406 @@
           </cell>
           <cell r="F705">
             <v>3.8110336914062501</v>
+          </cell>
+        </row>
+        <row r="706">
+          <cell r="A706">
+            <v>44958</v>
+          </cell>
+          <cell r="B706">
+            <v>3826.91259765625</v>
+          </cell>
+          <cell r="C706">
+            <v>3861.890380859375</v>
+          </cell>
+          <cell r="D706">
+            <v>3809.948486328125</v>
+          </cell>
+          <cell r="E706">
+            <v>3861.890380859375</v>
+          </cell>
+          <cell r="F706">
+            <v>3.861890380859375</v>
+          </cell>
+        </row>
+        <row r="707">
+          <cell r="A707">
+            <v>44959</v>
+          </cell>
+          <cell r="B707">
+            <v>3870.02783203125</v>
+          </cell>
+          <cell r="C707">
+            <v>3875.9189453125</v>
+          </cell>
+          <cell r="D707">
+            <v>3834.403564453125</v>
+          </cell>
+          <cell r="E707">
+            <v>3841.62939453125</v>
+          </cell>
+          <cell r="F707">
+            <v>3.8416293945312501</v>
+          </cell>
+        </row>
+        <row r="708">
+          <cell r="A708">
+            <v>44960</v>
+          </cell>
+          <cell r="B708">
+            <v>3827.781982421875</v>
+          </cell>
+          <cell r="C708">
+            <v>3834.679931640625</v>
+          </cell>
+          <cell r="D708">
+            <v>3764.18212890625</v>
+          </cell>
+          <cell r="E708">
+            <v>3814.672607421875</v>
+          </cell>
+          <cell r="F708">
+            <v>3.8146726074218749</v>
+          </cell>
+        </row>
+        <row r="709">
+          <cell r="A709">
+            <v>44963</v>
+          </cell>
+          <cell r="B709">
+            <v>3787.275390625</v>
+          </cell>
+          <cell r="C709">
+            <v>3792.05712890625</v>
+          </cell>
+          <cell r="D709">
+            <v>3741.56640625</v>
+          </cell>
+          <cell r="E709">
+            <v>3767.203125</v>
+          </cell>
+          <cell r="F709">
+            <v>3.767203125</v>
+          </cell>
+        </row>
+        <row r="710">
+          <cell r="A710">
+            <v>44964</v>
+          </cell>
+          <cell r="B710">
+            <v>3776.9912109375</v>
+          </cell>
+          <cell r="C710">
+            <v>3785.594482421875</v>
+          </cell>
+          <cell r="D710">
+            <v>3749.65185546875</v>
+          </cell>
+          <cell r="E710">
+            <v>3765.985595703125</v>
+          </cell>
+          <cell r="F710">
+            <v>3.7659855957031252</v>
+          </cell>
+        </row>
+        <row r="711">
+          <cell r="A711">
+            <v>44965</v>
+          </cell>
+          <cell r="B711">
+            <v>3771.941650390625</v>
+          </cell>
+          <cell r="C711">
+            <v>3779.919189453125</v>
+          </cell>
+          <cell r="D711">
+            <v>3744.5322265625</v>
+          </cell>
+          <cell r="E711">
+            <v>3748.6572265625</v>
+          </cell>
+          <cell r="F711">
+            <v>3.7486572265625</v>
+          </cell>
+        </row>
+        <row r="712">
+          <cell r="A712">
+            <v>44966</v>
+          </cell>
+          <cell r="B712">
+            <v>3737.456787109375</v>
+          </cell>
+          <cell r="C712">
+            <v>3805.634033203125</v>
+          </cell>
+          <cell r="D712">
+            <v>3728.27880859375</v>
+          </cell>
+          <cell r="E712">
+            <v>3805.634033203125</v>
+          </cell>
+          <cell r="F712">
+            <v>3.8056340332031251</v>
+          </cell>
+        </row>
+        <row r="713">
+          <cell r="A713">
+            <v>44967</v>
+          </cell>
+          <cell r="B713">
+            <v>3799.178466796875</v>
+          </cell>
+          <cell r="C713">
+            <v>3808.2763671875</v>
+          </cell>
+          <cell r="D713">
+            <v>3756.863037109375</v>
+          </cell>
+          <cell r="E713">
+            <v>3773.57568359375</v>
+          </cell>
+          <cell r="F713">
+            <v>3.7735756835937502</v>
+          </cell>
+        </row>
+        <row r="714">
+          <cell r="A714">
+            <v>44970</v>
+          </cell>
+          <cell r="B714">
+            <v>3769.485595703125</v>
+          </cell>
+          <cell r="C714">
+            <v>3811.090576171875</v>
+          </cell>
+          <cell r="D714">
+            <v>3759.244384765625</v>
+          </cell>
+          <cell r="E714">
+            <v>3810.79931640625</v>
+          </cell>
+          <cell r="F714">
+            <v>3.8107993164062499</v>
+          </cell>
+        </row>
+        <row r="715">
+          <cell r="A715">
+            <v>44971</v>
+          </cell>
+          <cell r="B715">
+            <v>3824.993896484375</v>
+          </cell>
+          <cell r="C715">
+            <v>3825.396728515625</v>
+          </cell>
+          <cell r="D715">
+            <v>3778.573974609375</v>
+          </cell>
+          <cell r="E715">
+            <v>3799.543212890625</v>
+          </cell>
+          <cell r="F715">
+            <v>3.799543212890625</v>
+          </cell>
+        </row>
+        <row r="716">
+          <cell r="A716">
+            <v>44972</v>
+          </cell>
+          <cell r="B716">
+            <v>3803.33544921875</v>
+          </cell>
+          <cell r="C716">
+            <v>3819.007080078125</v>
+          </cell>
+          <cell r="D716">
+            <v>3780.156005859375</v>
+          </cell>
+          <cell r="E716">
+            <v>3792.92822265625</v>
+          </cell>
+          <cell r="F716">
+            <v>3.7929282226562502</v>
+          </cell>
+        </row>
+        <row r="717">
+          <cell r="A717">
+            <v>44973</v>
+          </cell>
+          <cell r="B717">
+            <v>3795.4775390625</v>
+          </cell>
+          <cell r="C717">
+            <v>3828.3017578125</v>
+          </cell>
+          <cell r="D717">
+            <v>3725.235595703125</v>
+          </cell>
+          <cell r="E717">
+            <v>3750.837646484375</v>
+          </cell>
+          <cell r="F717">
+            <v>3.7508376464843751</v>
+          </cell>
+        </row>
+        <row r="718">
+          <cell r="A718">
+            <v>44974</v>
+          </cell>
+          <cell r="B718">
+            <v>3745.79541015625</v>
+          </cell>
+          <cell r="C718">
+            <v>3750.267578125</v>
+          </cell>
+          <cell r="D718">
+            <v>3665.463134765625</v>
+          </cell>
+          <cell r="E718">
+            <v>3666.324462890625</v>
+          </cell>
+          <cell r="F718">
+            <v>3.6663244628906249</v>
+          </cell>
+        </row>
+        <row r="719">
+          <cell r="A719">
+            <v>44977</v>
+          </cell>
+          <cell r="B719">
+            <v>3659.568603515625</v>
+          </cell>
+          <cell r="C719">
+            <v>3738.56591796875</v>
+          </cell>
+          <cell r="D719">
+            <v>3645.048095703125</v>
+          </cell>
+          <cell r="E719">
+            <v>3738.56591796875</v>
+          </cell>
+          <cell r="F719">
+            <v>3.7385659179687498</v>
+          </cell>
+        </row>
+        <row r="720">
+          <cell r="A720">
+            <v>44978</v>
+          </cell>
+          <cell r="B720">
+            <v>3732.120849609375</v>
+          </cell>
+          <cell r="C720">
+            <v>3753.77587890625</v>
+          </cell>
+          <cell r="D720">
+            <v>3713.380126953125</v>
+          </cell>
+          <cell r="E720">
+            <v>3739.5302734375</v>
+          </cell>
+          <cell r="F720">
+            <v>3.7395302734375</v>
+          </cell>
+        </row>
+        <row r="721">
+          <cell r="A721">
+            <v>44979</v>
+          </cell>
+          <cell r="B721">
+            <v>3712.302490234375</v>
+          </cell>
+          <cell r="C721">
+            <v>3730.087646484375</v>
+          </cell>
+          <cell r="D721">
+            <v>3697.661376953125</v>
+          </cell>
+          <cell r="E721">
+            <v>3709.724609375</v>
+          </cell>
+          <cell r="F721">
+            <v>3.7097246093749998</v>
+          </cell>
+        </row>
+        <row r="722">
+          <cell r="A722">
+            <v>44980</v>
+          </cell>
+          <cell r="B722">
+            <v>3706.565185546875</v>
+          </cell>
+          <cell r="C722">
+            <v>3733.9375</v>
+          </cell>
+          <cell r="D722">
+            <v>3697.26171875</v>
+          </cell>
+          <cell r="E722">
+            <v>3713.523193359375</v>
+          </cell>
+          <cell r="F722">
+            <v>3.7135231933593751</v>
+          </cell>
+        </row>
+        <row r="723">
+          <cell r="A723">
+            <v>44981</v>
+          </cell>
+          <cell r="B723">
+            <v>3713.09033203125</v>
+          </cell>
+          <cell r="C723">
+            <v>3714.319580078125</v>
+          </cell>
+          <cell r="D723">
+            <v>3672.4208984375</v>
+          </cell>
+          <cell r="E723">
+            <v>3683.28759765625</v>
+          </cell>
+          <cell r="F723">
+            <v>3.6832875976562498</v>
+          </cell>
+        </row>
+        <row r="724">
+          <cell r="A724">
+            <v>44984</v>
+          </cell>
+          <cell r="B724">
+            <v>3660.90966796875</v>
+          </cell>
+          <cell r="C724">
+            <v>3677.21533203125</v>
+          </cell>
+          <cell r="D724">
+            <v>3640.158203125</v>
+          </cell>
+          <cell r="E724">
+            <v>3645.96533203125</v>
+          </cell>
+          <cell r="F724">
+            <v>3.64596533203125</v>
+          </cell>
+        </row>
+        <row r="725">
+          <cell r="A725">
+            <v>44985</v>
+          </cell>
+          <cell r="B725">
+            <v>3662.222900390625</v>
+          </cell>
+          <cell r="C725">
+            <v>3683.2353515625</v>
+          </cell>
+          <cell r="D725">
+            <v>3641.981689453125</v>
+          </cell>
+          <cell r="E725">
+            <v>3677.729248046875</v>
+          </cell>
+          <cell r="F725">
+            <v>3.6777292480468748</v>
           </cell>
         </row>
       </sheetData>
@@ -16992,10 +17480,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:Y40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -17020,7 +17508,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>180</v>
       </c>
@@ -17050,7 +17538,7 @@
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:22" ht="14.1" customHeight="1">
+    <row r="2" spans="1:25" ht="14.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -17066,7 +17554,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="14.1" customHeight="1">
+    <row r="3" spans="1:25" ht="14.1" customHeight="1">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -17134,8 +17622,18 @@
         <f>-U3</f>
         <v>-22000</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="14.1" customHeight="1">
+      <c r="W3" s="23">
+        <v>44196</v>
+      </c>
+      <c r="X3" s="1">
+        <v>22000</v>
+      </c>
+      <c r="Y3" s="1">
+        <f>-X3</f>
+        <v>-22000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="14.1" customHeight="1">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -17209,8 +17707,18 @@
         <f>-U4</f>
         <v>-24000</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="14.1" customHeight="1">
+      <c r="W4" s="23">
+        <v>44561</v>
+      </c>
+      <c r="X4" s="1">
+        <v>24000</v>
+      </c>
+      <c r="Y4" s="1">
+        <f>-X4</f>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="14.1" customHeight="1">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -17267,7 +17775,7 @@
         <v>7008.069006718506</v>
       </c>
       <c r="Q5" s="8">
-        <f t="shared" ref="Q5" si="8">(O5-N5)/N5</f>
+        <f t="shared" ref="Q5:Q6" si="8">(O5-N5)/N5</f>
         <v>0.15234932623301101</v>
       </c>
       <c r="R5" s="8">
@@ -17279,8 +17787,18 @@
       <c r="V5" s="1">
         <v>53008.069006718506</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" ht="14.1" customHeight="1">
+      <c r="W5" s="23">
+        <v>44925</v>
+      </c>
+      <c r="X5" s="1">
+        <v>24000</v>
+      </c>
+      <c r="Y5" s="1">
+        <f>-X5</f>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="14.1" customHeight="1">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -17317,12 +17835,44 @@
         <v>173.75808106826935</v>
       </c>
       <c r="J6" s="6"/>
+      <c r="L6" s="23">
+        <v>44925</v>
+      </c>
+      <c r="M6" s="9">
+        <f>N6-N5</f>
+        <v>24000</v>
+      </c>
+      <c r="N6" s="4">
+        <f>VLOOKUP(L6,A:G,7,)</f>
+        <v>70000</v>
+      </c>
+      <c r="O6" s="4">
+        <f>VLOOKUP(L6,A:H,8,)</f>
+        <v>60293.406710853284</v>
+      </c>
+      <c r="P6" s="4">
+        <f>VLOOKUP(L6,A:I,9,)</f>
+        <v>-9706.5932891467164</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="8"/>
+        <v>-0.13866561841638167</v>
+      </c>
+      <c r="R6" s="8">
+        <v>-7.3828223896210132E-2</v>
+      </c>
       <c r="V6" s="2">
         <f>IRR(V3:V5)</f>
         <v>9.9835199022272558E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" ht="14.1" customHeight="1">
+      <c r="W6" s="23">
+        <v>44925</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>60293.406710853284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="14.1" customHeight="1">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -17359,8 +17909,12 @@
         <v>1353.8111490644224</v>
       </c>
       <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:22" ht="14.1" customHeight="1">
+      <c r="Y7" s="2">
+        <f>IRR(Y3:Y6)</f>
+        <v>-7.3828223896210132E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="14.1" customHeight="1">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -17398,7 +17952,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="14.1" customHeight="1">
+    <row r="9" spans="1:25" ht="14.1" customHeight="1">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -17436,7 +17990,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="14.1" customHeight="1">
+    <row r="10" spans="1:25" ht="14.1" customHeight="1">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -17474,7 +18028,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="14.1" customHeight="1">
+    <row r="11" spans="1:25" ht="14.1" customHeight="1">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -17512,7 +18066,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="14.1" customHeight="1">
+    <row r="12" spans="1:25" ht="14.1" customHeight="1">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -17550,7 +18104,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:22" ht="14.1" customHeight="1">
+    <row r="13" spans="1:25" ht="14.1" customHeight="1">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -17588,7 +18142,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:22" ht="14.1" customHeight="1">
+    <row r="14" spans="1:25" ht="14.1" customHeight="1">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -17626,7 +18180,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:22" ht="14.1" customHeight="1">
+    <row r="15" spans="1:25" ht="14.1" customHeight="1">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -17639,7 +18193,7 @@
         <v>2000</v>
       </c>
       <c r="D15" s="17">
-        <f t="shared" ref="D15:D38" si="9">C15/B15</f>
+        <f t="shared" ref="D15:D39" si="9">C15/B15</f>
         <v>423.43635539860185</v>
       </c>
       <c r="E15" s="17">
@@ -17647,7 +18201,7 @@
         <v>6766.6987073504279</v>
       </c>
       <c r="F15" s="17">
-        <f t="shared" ref="F15:F38" si="10">E15*B15</f>
+        <f t="shared" ref="F15:F39" si="10">E15*B15</f>
         <v>31960.877336479982</v>
       </c>
       <c r="G15" s="17">
@@ -17655,16 +18209,16 @@
         <v>26000</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" ref="H15:H38" si="11">F15</f>
+        <f t="shared" ref="H15:H39" si="11">F15</f>
         <v>31960.877336479982</v>
       </c>
       <c r="I15" s="17">
-        <f t="shared" ref="I15:I38" si="12">H15-G15</f>
+        <f t="shared" ref="I15:I39" si="12">H15-G15</f>
         <v>5960.8773364799818</v>
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:22" ht="14.1" customHeight="1">
+    <row r="16" spans="1:25" ht="14.1" customHeight="1">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -17673,7 +18227,7 @@
         <v>4.4379900000000001</v>
       </c>
       <c r="C16" s="16">
-        <f t="shared" ref="C16:C38" si="13">C15</f>
+        <f t="shared" ref="C16:C39" si="13">C15</f>
         <v>2000</v>
       </c>
       <c r="D16" s="17">
@@ -17681,7 +18235,7 @@
         <v>450.65446294381013</v>
       </c>
       <c r="E16" s="17">
-        <f t="shared" ref="E16:E38" si="14">E15+D16</f>
+        <f t="shared" ref="E16:E39" si="14">E15+D16</f>
         <v>7217.3531702942382</v>
       </c>
       <c r="F16" s="17">
@@ -17689,7 +18243,7 @@
         <v>32030.541196234128</v>
       </c>
       <c r="G16" s="17">
-        <f t="shared" ref="G16:G38" si="15">G15+C16</f>
+        <f t="shared" ref="G16:G39" si="15">G15+C16</f>
         <v>28000</v>
       </c>
       <c r="H16" s="17">
@@ -18534,6 +19088,46 @@
         <f t="shared" si="12"/>
         <v>-3848.2171143818996</v>
       </c>
+    </row>
+    <row r="39" spans="1:12" ht="12.75">
+      <c r="A39" s="14">
+        <v>44985</v>
+      </c>
+      <c r="B39" s="15">
+        <f>VLOOKUP(A39,[1]szse_innovation_100!$A:$F,6)</f>
+        <v>3.6777292480468748</v>
+      </c>
+      <c r="C39" s="16">
+        <f t="shared" si="13"/>
+        <v>2000</v>
+      </c>
+      <c r="D39" s="17">
+        <f t="shared" si="9"/>
+        <v>543.81382236393188</v>
+      </c>
+      <c r="E39" s="17">
+        <f t="shared" si="14"/>
+        <v>18426.569107182859</v>
+      </c>
+      <c r="F39" s="17">
+        <f t="shared" si="10"/>
+        <v>67767.93214664339</v>
+      </c>
+      <c r="G39" s="17">
+        <f t="shared" si="15"/>
+        <v>74000</v>
+      </c>
+      <c r="H39" s="17">
+        <f t="shared" si="11"/>
+        <v>67767.93214664339</v>
+      </c>
+      <c r="I39" s="17">
+        <f t="shared" si="12"/>
+        <v>-6232.0678533566097</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -18548,7 +19142,7 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D443"/>
+  <dimension ref="A1:D463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -18563,7 +19157,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>194</v>
       </c>
       <c r="C1" s="22">
@@ -18571,7 +19165,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B2" s="30"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
       </c>
@@ -24228,7 +24822,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A443" si="3">A355+1</f>
+        <f t="shared" ref="A356:A463" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -25632,6 +26226,326 @@
       <c r="D443" s="18">
         <f>SUM(C$3:C443)/A443</f>
         <v>31.014726063038534</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="18">
+        <f t="shared" si="3"/>
+        <v>442</v>
+      </c>
+      <c r="B444" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="C444" s="20">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D444" s="18">
+        <f>SUM(C$3:C444)/A444</f>
+        <v>31.001661071425325</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="18">
+        <f t="shared" si="3"/>
+        <v>443</v>
+      </c>
+      <c r="B445" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C445" s="20">
+        <v>25.129999160000001</v>
+      </c>
+      <c r="D445" s="18">
+        <f>SUM(C$3:C445)/A445</f>
+        <v>30.988406755598181</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="18">
+        <f t="shared" si="3"/>
+        <v>444</v>
+      </c>
+      <c r="B446" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C446" s="20">
+        <v>24.93000031</v>
+      </c>
+      <c r="D446" s="18">
+        <f>SUM(C$3:C446)/A446</f>
+        <v>30.974761696036023</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="18">
+        <f t="shared" si="3"/>
+        <v>445</v>
+      </c>
+      <c r="B447" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C447" s="20">
+        <v>24.600000380000001</v>
+      </c>
+      <c r="D447" s="18">
+        <f>SUM(C$3:C447)/A447</f>
+        <v>30.960436389707851</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="18">
+        <f t="shared" si="3"/>
+        <v>446</v>
+      </c>
+      <c r="B448" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C448" s="20">
+        <v>24.61000061</v>
+      </c>
+      <c r="D448" s="18">
+        <f>SUM(C$3:C448)/A448</f>
+        <v>30.94619774446187</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="18">
+        <f t="shared" si="3"/>
+        <v>447</v>
+      </c>
+      <c r="B449" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C449" s="20">
+        <v>24.5</v>
+      </c>
+      <c r="D449" s="18">
+        <f>SUM(C$3:C449)/A449</f>
+        <v>30.931776720425042</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="18">
+        <f t="shared" si="3"/>
+        <v>448</v>
+      </c>
+      <c r="B450" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C450" s="20">
+        <v>24.870000839999999</v>
+      </c>
+      <c r="D450" s="18">
+        <f>SUM(C$3:C450)/A450</f>
+        <v>30.918245970691949</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="18">
+        <f t="shared" si="3"/>
+        <v>449</v>
+      </c>
+      <c r="B451" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C451" s="20">
+        <v>24.63999939</v>
+      </c>
+      <c r="D451" s="18">
+        <f>SUM(C$3:C451)/A451</f>
+        <v>30.904263238886397</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="18">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="B452" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C452" s="20">
+        <v>24.879999160000001</v>
+      </c>
+      <c r="D452" s="18">
+        <f>SUM(C$3:C452)/A452</f>
+        <v>30.890875985377765</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="18">
+        <f t="shared" si="3"/>
+        <v>451</v>
+      </c>
+      <c r="B453" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C453" s="20">
+        <v>24.809999470000001</v>
+      </c>
+      <c r="D453" s="18">
+        <f>SUM(C$3:C453)/A453</f>
+        <v>30.87739288889134</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="18">
+        <f t="shared" si="3"/>
+        <v>452</v>
+      </c>
+      <c r="B454" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C454" s="20">
+        <v>24.739999770000001</v>
+      </c>
+      <c r="D454" s="18">
+        <f>SUM(C$3:C454)/A454</f>
+        <v>30.86381458553096</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="18">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="B455" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="C455" s="20">
+        <v>24.489999770000001</v>
+      </c>
+      <c r="D455" s="18">
+        <f>SUM(C$3:C455)/A455</f>
+        <v>30.849744354150097</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="18">
+        <f t="shared" si="3"/>
+        <v>454</v>
+      </c>
+      <c r="B456" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="C456" s="20">
+        <v>23.950000760000002</v>
+      </c>
+      <c r="D456" s="18">
+        <f>SUM(C$3:C456)/A456</f>
+        <v>30.834546681035228</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="18">
+        <f t="shared" si="3"/>
+        <v>455</v>
+      </c>
+      <c r="B457" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="C457" s="20">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D457" s="18">
+        <f>SUM(C$3:C457)/A457</f>
+        <v>30.820426797890097</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="18">
+        <f t="shared" si="3"/>
+        <v>456</v>
+      </c>
+      <c r="B458" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="C458" s="20">
+        <v>24.399999619999999</v>
+      </c>
+      <c r="D458" s="18">
+        <f>SUM(C$3:C458)/A458</f>
+        <v>30.806346913728056</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="18">
+        <f t="shared" si="3"/>
+        <v>457</v>
+      </c>
+      <c r="B459" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C459" s="20">
+        <v>24.200000760000002</v>
+      </c>
+      <c r="D459" s="18">
+        <f>SUM(C$3:C459)/A459</f>
+        <v>30.791891014048126</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="18">
+        <f t="shared" si="3"/>
+        <v>458</v>
+      </c>
+      <c r="B460" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="C460" s="20">
+        <v>24.229999540000001</v>
+      </c>
+      <c r="D460" s="18">
+        <f>SUM(C$3:C460)/A460</f>
+        <v>30.777563740087324</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="18">
+        <f t="shared" si="3"/>
+        <v>459</v>
+      </c>
+      <c r="B461" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="C461" s="20">
+        <v>24.020000459999999</v>
+      </c>
+      <c r="D461" s="18">
+        <f>SUM(C$3:C461)/A461</f>
+        <v>30.762841379999987</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="18">
+        <f t="shared" si="3"/>
+        <v>460</v>
+      </c>
+      <c r="B462" s="19">
+        <v>44984</v>
+      </c>
+      <c r="C462" s="20">
+        <v>23.780000690000001</v>
+      </c>
+      <c r="D462" s="18">
+        <f>SUM(C$3:C462)/A462</f>
+        <v>30.747661291543466</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="18">
+        <f t="shared" si="3"/>
+        <v>461</v>
+      </c>
+      <c r="B463" s="19">
+        <v>44985</v>
+      </c>
+      <c r="C463" s="20">
+        <v>23.979999540000001</v>
+      </c>
+      <c r="D463" s="18">
+        <f>SUM(C$3:C463)/A463</f>
+        <v>30.732980897288492</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -1782,118 +1782,115 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1903,7 +1900,274 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>72000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>model1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total assets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>model1!时间</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44253</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44286</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44347</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44530</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>model1!资产</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2000.0000000000002</c:v>
                 </c:pt>
@@ -2012,29 +2276,26 @@
                 <c:pt idx="35">
                   <c:v>68151.7828856181</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>67767.93214664339</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
+              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>model1!$H$1</c:f>
+              <c:f>model1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>total assets</c:v>
+                  <c:v>profit amount</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2042,7 +2303,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2055,128 +2316,125 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>model1!资产</c:f>
+              <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2285,171 +2543,6 @@
                 <c:pt idx="35">
                   <c:v>-3848.2171143818996</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>-6232.0678533566097</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>model1!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>profit amount</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>model1!时间</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>3.25108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.17509</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.27712</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>model1!金额</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2470,17 +2563,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87354752"/>
+        <c:axId val="87756160"/>
         <c:axId val="328168960"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="87354752"/>
+      <c:dateAx>
+        <c:axId val="87756160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2520,10 +2613,9 @@
         <c:crossAx val="328168960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="328168960"/>
         <c:scaling>
@@ -2576,7 +2668,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87354752"/>
+        <c:crossAx val="87756160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17480,9 +17572,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y40"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -18193,7 +18285,7 @@
         <v>2000</v>
       </c>
       <c r="D15" s="17">
-        <f t="shared" ref="D15:D39" si="9">C15/B15</f>
+        <f t="shared" ref="D15:D38" si="9">C15/B15</f>
         <v>423.43635539860185</v>
       </c>
       <c r="E15" s="17">
@@ -18201,7 +18293,7 @@
         <v>6766.6987073504279</v>
       </c>
       <c r="F15" s="17">
-        <f t="shared" ref="F15:F39" si="10">E15*B15</f>
+        <f t="shared" ref="F15:F38" si="10">E15*B15</f>
         <v>31960.877336479982</v>
       </c>
       <c r="G15" s="17">
@@ -18209,11 +18301,11 @@
         <v>26000</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" ref="H15:H39" si="11">F15</f>
+        <f t="shared" ref="H15:H38" si="11">F15</f>
         <v>31960.877336479982</v>
       </c>
       <c r="I15" s="17">
-        <f t="shared" ref="I15:I39" si="12">H15-G15</f>
+        <f t="shared" ref="I15:I38" si="12">H15-G15</f>
         <v>5960.8773364799818</v>
       </c>
       <c r="J15" s="6"/>
@@ -18227,7 +18319,7 @@
         <v>4.4379900000000001</v>
       </c>
       <c r="C16" s="16">
-        <f t="shared" ref="C16:C39" si="13">C15</f>
+        <f t="shared" ref="C16:C38" si="13">C15</f>
         <v>2000</v>
       </c>
       <c r="D16" s="17">
@@ -18235,7 +18327,7 @@
         <v>450.65446294381013</v>
       </c>
       <c r="E16" s="17">
-        <f t="shared" ref="E16:E39" si="14">E15+D16</f>
+        <f t="shared" ref="E16:E38" si="14">E15+D16</f>
         <v>7217.3531702942382</v>
       </c>
       <c r="F16" s="17">
@@ -18243,7 +18335,7 @@
         <v>32030.541196234128</v>
       </c>
       <c r="G16" s="17">
-        <f t="shared" ref="G16:G39" si="15">G15+C16</f>
+        <f t="shared" ref="G16:G38" si="15">G15+C16</f>
         <v>28000</v>
       </c>
       <c r="H16" s="17">
@@ -19089,45 +19181,8 @@
         <v>-3848.2171143818996</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="12.75">
-      <c r="A39" s="14">
-        <v>44985</v>
-      </c>
-      <c r="B39" s="15">
-        <f>VLOOKUP(A39,[1]szse_innovation_100!$A:$F,6)</f>
-        <v>3.6777292480468748</v>
-      </c>
-      <c r="C39" s="16">
-        <f t="shared" si="13"/>
-        <v>2000</v>
-      </c>
-      <c r="D39" s="17">
-        <f t="shared" si="9"/>
-        <v>543.81382236393188</v>
-      </c>
-      <c r="E39" s="17">
-        <f t="shared" si="14"/>
-        <v>18426.569107182859</v>
-      </c>
-      <c r="F39" s="17">
-        <f t="shared" si="10"/>
-        <v>67767.93214664339</v>
-      </c>
-      <c r="G39" s="17">
-        <f t="shared" si="15"/>
-        <v>74000</v>
-      </c>
-      <c r="H39" s="17">
-        <f t="shared" si="11"/>
-        <v>67767.93214664339</v>
-      </c>
-      <c r="I39" s="17">
-        <f t="shared" si="12"/>
-        <v>-6232.0678533566097</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="30"/>
+    <row r="39" spans="1:12">
+      <c r="A39" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -19144,7 +19199,7 @@
   </sheetPr>
   <dimension ref="A1:D463"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
@@ -1232,7 +1232,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1588,7 +1588,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1647,7 +1647,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2563,11 +2562,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87756160"/>
-        <c:axId val="328168960"/>
+        <c:axId val="170912768"/>
+        <c:axId val="176212224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="87756160"/>
+        <c:axId val="170912768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2610,14 +2609,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328168960"/>
+        <c:crossAx val="176212224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="328168960"/>
+        <c:axId val="176212224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2668,7 +2667,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87756160"/>
+        <c:crossAx val="170912768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17572,14 +17571,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y39"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -17600,7 +17599,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>180</v>
       </c>
@@ -17630,7 +17629,7 @@
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:25" ht="14.1" customHeight="1">
+    <row r="2" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -17646,7 +17645,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:25" ht="14.1" customHeight="1">
+    <row r="3" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -17725,7 +17724,7 @@
         <v>-22000</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14.1" customHeight="1">
+    <row r="4" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -17810,7 +17809,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.1" customHeight="1">
+    <row r="5" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -17890,7 +17889,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="14.1" customHeight="1">
+    <row r="6" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -17964,7 +17963,7 @@
         <v>60293.406710853284</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14.1" customHeight="1">
+    <row r="7" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -18006,7 +18005,7 @@
         <v>-7.3828223896210132E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="14.1" customHeight="1">
+    <row r="8" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -18044,7 +18043,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:25" ht="14.1" customHeight="1">
+    <row r="9" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -18082,7 +18081,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:25" ht="14.1" customHeight="1">
+    <row r="10" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -18120,7 +18119,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:25" ht="14.1" customHeight="1">
+    <row r="11" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -18158,7 +18157,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:25" ht="14.1" customHeight="1">
+    <row r="12" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -18196,7 +18195,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:25" ht="14.1" customHeight="1">
+    <row r="13" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -18234,7 +18233,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:25" ht="14.1" customHeight="1">
+    <row r="14" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -18272,7 +18271,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:25" ht="14.1" customHeight="1">
+    <row r="15" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -18310,7 +18309,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:25" ht="14.1" customHeight="1">
+    <row r="16" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -18348,7 +18347,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>44316</v>
       </c>
@@ -18386,7 +18385,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>44347</v>
       </c>
@@ -18424,7 +18423,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>44377</v>
       </c>
@@ -18462,7 +18461,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>44407</v>
       </c>
@@ -18500,7 +18499,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>44439</v>
       </c>
@@ -18539,7 +18538,7 @@
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>44469</v>
       </c>
@@ -18577,7 +18576,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>44498</v>
       </c>
@@ -18615,7 +18614,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>44530</v>
       </c>
@@ -18653,7 +18652,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>44561</v>
       </c>
@@ -18691,7 +18690,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>44589</v>
       </c>
@@ -18729,7 +18728,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>44620</v>
       </c>
@@ -18767,7 +18766,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>44651</v>
       </c>
@@ -18805,7 +18804,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>44680</v>
       </c>
@@ -18843,7 +18842,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>44712</v>
       </c>
@@ -18881,7 +18880,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>44742</v>
       </c>
@@ -18919,7 +18918,7 @@
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>44771</v>
       </c>
@@ -18957,7 +18956,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>44804</v>
       </c>
@@ -18996,7 +18995,7 @@
       <c r="J33" s="6"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75">
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>44834</v>
       </c>
@@ -19033,7 +19032,7 @@
         <v>-11770.911062729705</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75">
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>44865</v>
       </c>
@@ -19070,7 +19069,7 @@
         <v>-12524.925264431353</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.75">
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>44895</v>
       </c>
@@ -19107,7 +19106,7 @@
         <v>-9593.1455874388703</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.75">
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>44925</v>
       </c>
@@ -19144,7 +19143,7 @@
         <v>-9706.5932891467164</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="12.75">
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>44957</v>
       </c>
@@ -19180,9 +19179,6 @@
         <f t="shared" si="12"/>
         <v>-3848.2171143818996</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -19203,7 +19199,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
@@ -19211,16 +19207,16 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="30" t="s">
         <v>194</v>
       </c>
       <c r="C1" s="22">
         <v>399088</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B2" s="31"/>
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="30"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
       </c>
@@ -19228,7 +19224,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -19243,7 +19239,7 @@
         <v>45.12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>2</v>
@@ -19259,7 +19255,7 @@
         <v>44.965000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -19275,7 +19271,7 @@
         <v>44.99666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -19291,7 +19287,7 @@
         <v>44.792500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -19307,7 +19303,7 @@
         <v>44.440000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -19323,7 +19319,7 @@
         <v>44.256666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -19339,7 +19335,7 @@
         <v>44.252857142857145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -19355,7 +19351,7 @@
         <v>44.220000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -19371,7 +19367,7 @@
         <v>44.181111111111115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -19387,7 +19383,7 @@
         <v>44.341000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -19403,7 +19399,7 @@
         <v>44.458181818181828</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -19419,7 +19415,7 @@
         <v>44.577500000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -19435,7 +19431,7 @@
         <v>44.703076923076928</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -19451,7 +19447,7 @@
         <v>44.860000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -19467,7 +19463,7 @@
         <v>44.968000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -19483,7 +19479,7 @@
         <v>45.078750000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -19499,7 +19495,7 @@
         <v>45.214117647058828</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -19515,7 +19511,7 @@
         <v>45.345555555555563</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -19531,7 +19527,7 @@
         <v>45.46631578947369</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -19547,7 +19543,7 @@
         <v>45.062500000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -19563,7 +19559,7 @@
         <v>44.643333333333338</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -19579,7 +19575,7 @@
         <v>44.269090909090913</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -19595,7 +19591,7 @@
         <v>43.928695652173921</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -19611,7 +19607,7 @@
         <v>43.627500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -19627,7 +19623,7 @@
         <v>43.332400000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -19643,7 +19639,7 @@
         <v>43.088461538461544</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -19659,7 +19655,7 @@
         <v>42.901851851851859</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -19675,7 +19671,7 @@
         <v>42.726071428571437</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -19691,7 +19687,7 @@
         <v>42.570000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -19707,7 +19703,7 @@
         <v>42.435000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -19723,7 +19719,7 @@
         <v>42.298387096774199</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -19739,7 +19735,7 @@
         <v>42.179062500000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -19755,7 +19751,7 @@
         <v>42.093333333333341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -19771,7 +19767,7 @@
         <v>42.005000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
         <f t="shared" ref="A37:A100" si="1">A36+1</f>
         <v>35</v>
@@ -19787,7 +19783,7 @@
         <v>41.929428571428573</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -19803,7 +19799,7 @@
         <v>41.856666666666662</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -19819,7 +19815,7 @@
         <v>41.802432432432425</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -19835,7 +19831,7 @@
         <v>41.751315789473679</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -19851,7 +19847,7 @@
         <v>41.689999999999991</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -19867,7 +19863,7 @@
         <v>41.621999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -19883,7 +19879,7 @@
         <v>41.5680487804878</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -19899,7 +19895,7 @@
         <v>41.512380952380944</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -19915,7 +19911,7 @@
         <v>41.454186046511623</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -19931,7 +19927,7 @@
         <v>41.399318181818174</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -19947,7 +19943,7 @@
         <v>41.36044444444444</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -19963,7 +19959,7 @@
         <v>41.322391304347818</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -19979,7 +19975,7 @@
         <v>41.285319148936161</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -19995,7 +19991,7 @@
         <v>41.222499999999989</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -20011,7 +20007,7 @@
         <v>41.174693877551015</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -20027,7 +20023,7 @@
         <v>41.139199999999988</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="18">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -20043,7 +20039,7 @@
         <v>41.106862745098027</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="18">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -20059,7 +20055,7 @@
         <v>41.078653846153834</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="18">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -20075,7 +20071,7 @@
         <v>41.062452830188661</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="18">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -20091,7 +20087,7 @@
         <v>41.045555555555538</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="18">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -20107,7 +20103,7 @@
         <v>41.038181818181798</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -20123,7 +20119,7 @@
         <v>41.038928571428549</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="18">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -20139,7 +20135,7 @@
         <v>41.034736842105247</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="18">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -20155,7 +20151,7 @@
         <v>41.041896551724122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="18">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -20171,7 +20167,7 @@
         <v>41.046101694915237</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -20187,7 +20183,7 @@
         <v>41.029166666666654</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="18">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -20203,7 +20199,7 @@
         <v>41.015737704918017</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="18">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -20219,7 +20215,7 @@
         <v>40.997580645161271</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="18">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -20235,7 +20231,7 @@
         <v>40.997301587301571</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="18">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -20251,7 +20247,7 @@
         <v>40.998281249999984</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="18">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -20267,7 +20263,7 @@
         <v>40.994153846153829</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="18">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -20283,7 +20279,7 @@
         <v>41.006060606060593</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="18">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -20299,7 +20295,7 @@
         <v>41.01641791044775</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="18">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -20315,7 +20311,7 @@
         <v>41.020294117647047</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="18">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -20331,7 +20327,7 @@
         <v>41.027826086956509</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -20347,7 +20343,7 @@
         <v>41.021428571428558</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="18">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -20363,7 +20359,7 @@
         <v>41.019295774647873</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="18">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -20379,7 +20375,7 @@
         <v>41.017499999999984</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="18">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -20395,7 +20391,7 @@
         <v>41.027123287671216</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="18">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -20411,7 +20407,7 @@
         <v>41.036081081081065</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="18">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -20427,7 +20423,7 @@
         <v>41.035466666666643</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="18">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -20443,7 +20439,7 @@
         <v>41.020526335866805</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="18">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -20459,7 +20455,7 @@
         <v>40.984025981952598</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="18">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -20475,7 +20471,7 @@
         <v>40.953717942849167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="18">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -20491,7 +20487,7 @@
         <v>40.943164537647085</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="18">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -20507,7 +20503,7 @@
         <v>40.930499984741189</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="18">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -20523,7 +20519,7 @@
         <v>40.927160476872935</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="18">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -20539,7 +20535,7 @@
         <v>40.921951202764724</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="18">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -20555,7 +20551,7 @@
         <v>40.929036107810127</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="18">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -20571,7 +20567,7 @@
         <v>40.931428547813759</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="18">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -20587,7 +20583,7 @@
         <v>40.92988232062843</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="18">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -20603,7 +20599,7 @@
         <v>40.928372052214847</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="18">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -20619,7 +20615,7 @@
         <v>40.927701096808754</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="18">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -20635,7 +20631,7 @@
         <v>40.924090864008107</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="18">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -20651,7 +20647,7 @@
         <v>40.917528047025854</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="18">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -20667,7 +20663,7 @@
         <v>40.904444420708536</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="18">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -20683,7 +20679,7 @@
         <v>40.886703283288959</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="18">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -20699,7 +20695,7 @@
         <v>40.859891271176529</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="18">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -20715,7 +20711,7 @@
         <v>40.836344033518131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="18">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -20731,7 +20727,7 @@
         <v>40.815851010261682</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="18">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -20747,7 +20743,7 @@
         <v>40.787684151097331</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="18">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -20763,7 +20759,7 @@
         <v>40.770416618982935</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="18">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -20779,7 +20775,7 @@
         <v>40.756804084384548</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -20795,7 +20791,7 @@
         <v>40.744489749207773</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="18">
         <f t="shared" ref="A101:A355" si="2">A100+1</f>
         <v>99</v>
@@ -20811,7 +20807,7 @@
         <v>40.723232270828383</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="18">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -20827,7 +20823,7 @@
         <v>40.702299958801255</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="18">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -20843,7 +20839,7 @@
         <v>40.680296984379815</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="18">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -20859,7 +20855,7 @@
         <v>40.654705834482208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -20875,7 +20871,7 @@
         <v>40.599999957038342</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="18">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -20891,7 +20887,7 @@
         <v>40.542692259274979</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="18">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -20907,7 +20903,7 @@
         <v>40.482476154145722</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="18">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -20923,7 +20919,7 @@
         <v>40.435849029253099</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="18">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -20939,7 +20935,7 @@
         <v>40.391775685247957</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="18">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -20955,7 +20951,7 @@
         <v>40.346574042991335</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="18">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -20971,7 +20967,7 @@
         <v>40.302110060945544</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="18">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -20987,7 +20983,7 @@
         <v>40.260272703690944</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="18">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -21003,7 +20999,7 @@
         <v>40.215585555342926</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="18">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -21019,7 +21015,7 @@
         <v>40.173214266640784</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="18">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -21035,7 +21031,7 @@
         <v>40.128584061344093</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="18">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -21051,7 +21047,7 @@
         <v>40.078245599311678</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="18">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -21067,7 +21063,7 @@
         <v>40.032521721881352</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="18">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -21083,7 +21079,7 @@
         <v>39.985344822324535</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="18">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -21099,7 +21095,7 @@
         <v>39.940427341298147</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="18">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -21115,7 +21111,7 @@
         <v>39.89703388666701</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="18">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -21131,7 +21127,7 @@
         <v>39.856638645204157</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="18">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -21147,7 +21143,7 @@
         <v>39.814833324432357</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="18">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -21163,7 +21159,7 @@
         <v>39.769752062332515</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="18">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -21179,7 +21175,7 @@
         <v>39.730819672131133</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="18">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -21195,7 +21191,7 @@
         <v>39.694634136422749</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="18">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -21211,7 +21207,7 @@
         <v>39.656854815322561</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="18">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -21227,7 +21223,7 @@
         <v>39.615839967039982</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="18">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -21243,7 +21239,7 @@
         <v>39.58039680484125</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="18">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -21259,7 +21255,7 @@
         <v>39.545433045669277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="18">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -21275,7 +21271,7 @@
         <v>39.514765591640611</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="18">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -21291,7 +21287,7 @@
         <v>39.483953462403086</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="18">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -21307,7 +21303,7 @@
         <v>39.455384593153838</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="18">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -21323,7 +21319,7 @@
         <v>39.425419815954186</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="18">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -21339,7 +21335,7 @@
         <v>39.396590869848474</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="18">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -21355,7 +21351,7 @@
         <v>39.371127767969917</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="18">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -21371,7 +21367,7 @@
         <v>39.348358155447755</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="18">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -21387,7 +21383,7 @@
         <v>39.325777719037028</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="18">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -21403,7 +21399,7 @@
         <v>39.30124995404411</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="18">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -21419,7 +21415,7 @@
         <v>39.275182432773718</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="18">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -21435,7 +21431,7 @@
         <v>39.253623134275358</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="18">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -21451,7 +21447,7 @@
         <v>39.222517934100708</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="18">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -21467,7 +21463,7 @@
         <v>39.191714233499987</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="18">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -21483,7 +21479,7 @@
         <v>39.159361657872324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="18">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -21499,7 +21495,7 @@
         <v>39.130704182464775</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="18">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -21515,7 +21511,7 @@
         <v>39.101118849230758</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="18">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -21531,7 +21527,7 @@
         <v>39.072916641388879</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="18">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -21547,7 +21543,7 @@
         <v>39.046344810896542</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="18">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -21563,7 +21559,7 @@
         <v>39.018561638767117</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="18">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -21579,7 +21575,7 @@
         <v>38.994013599387742</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="18">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -21595,7 +21591,7 @@
         <v>38.968783766418909</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="18">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -21611,7 +21607,7 @@
         <v>38.941812068389247</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="18">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -21627,7 +21623,7 @@
         <v>38.915199992999987</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="18">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -21643,7 +21639,7 @@
         <v>38.890794691986741</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="18">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -21659,7 +21655,7 @@
         <v>38.864144727894725</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="18">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -21675,7 +21671,7 @@
         <v>38.840653588888877</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="18">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -21691,7 +21687,7 @@
         <v>38.822142862207784</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="18">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -21707,7 +21703,7 @@
         <v>38.801870974774182</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="18">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -21723,7 +21719,7 @@
         <v>38.781025643141014</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="18">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -21739,7 +21735,7 @@
         <v>38.75942674980891</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="18">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -21755,7 +21751,7 @@
         <v>38.73683543259493</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="18">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -21771,7 +21767,7 @@
         <v>38.715911938364776</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="18">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -21787,7 +21783,7 @@
         <v>38.695499988749994</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="18">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -21803,7 +21799,7 @@
         <v>38.674285695527942</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="18">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -21819,7 +21815,7 @@
         <v>38.652962951851848</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="18">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -21835,7 +21831,7 @@
         <v>38.632515324478518</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="18">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -21851,7 +21847,7 @@
         <v>38.609999978780486</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="18">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -21867,7 +21863,7 @@
         <v>38.586363609696967</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="18">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -21883,7 +21879,7 @@
         <v>38.566746972469872</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="18">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -21899,7 +21895,7 @@
         <v>38.550598780598797</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="18">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -21915,7 +21911,7 @@
         <v>38.53458331529761</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="18">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -21931,7 +21927,7 @@
         <v>38.518757382130168</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="18">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -21947,7 +21943,7 @@
         <v>38.501588212058813</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="18">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -21963,7 +21959,7 @@
         <v>38.482806999824554</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="18">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -21979,7 +21975,7 @@
         <v>38.465581380406974</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="18">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -21995,7 +21991,7 @@
         <v>38.445202289364161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="18">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -22011,7 +22007,7 @@
         <v>38.42022985362069</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="18">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -22027,7 +22023,7 @@
         <v>38.397485675200002</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="18">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -22043,7 +22039,7 @@
         <v>38.376420407897733</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="18">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -22059,7 +22055,7 @@
         <v>38.356271147796612</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="18">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -22075,7 +22071,7 @@
         <v>38.333426933033707</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="18">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -22091,7 +22087,7 @@
         <v>38.311229020614526</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="18">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -22107,7 +22103,7 @@
         <v>38.290888867888889</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="18">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -22123,7 +22119,7 @@
         <v>38.268618754364638</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="18">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -22139,7 +22135,7 @@
         <v>38.248351618351641</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="18">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -22155,7 +22151,7 @@
         <v>38.228579205136612</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="18">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -22171,7 +22167,7 @@
         <v>38.206847793913042</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="18">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -22187,7 +22183,7 @@
         <v>38.181189152216213</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="18">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -22203,7 +22199,7 @@
         <v>38.15387092274193</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="18">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -22219,7 +22215,7 @@
         <v>38.12657749128342</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="18">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -22235,7 +22231,7 @@
         <v>38.100053139680853</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="18">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -22251,7 +22247,7 @@
         <v>38.071216879682538</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="18">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -22267,7 +22263,7 @@
         <v>38.0456315228421</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="18">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -22283,7 +22279,7 @@
         <v>38.017120363036646</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="18">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -22299,7 +22295,7 @@
         <v>37.989791613541662</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="18">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -22315,7 +22311,7 @@
         <v>37.965699429792743</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="18">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -22331,7 +22327,7 @@
         <v>37.941855619072165</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="18">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -22347,7 +22343,7 @@
         <v>37.915128152000001</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="18">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -22363,7 +22359,7 @@
         <v>37.889132598622453</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="18">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -22379,7 +22375,7 @@
         <v>37.861268989137059</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="18">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -22395,7 +22391,7 @@
         <v>37.834646419242425</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="18">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -22411,7 +22407,7 @@
         <v>37.804422063819104</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="18">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -22427,7 +22423,7 @@
         <v>37.775999948150009</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="18">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -22443,7 +22439,7 @@
         <v>37.743084524776123</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="18">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -22459,7 +22455,7 @@
         <v>37.710494996683174</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="18">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -22475,7 +22471,7 @@
         <v>37.678472849310346</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="18">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -22491,7 +22487,7 @@
         <v>37.643872496323532</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="18">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -22507,7 +22503,7 @@
         <v>37.61151214380488</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="18">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -22523,7 +22519,7 @@
         <v>37.577281499757277</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="18">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -22539,7 +22535,7 @@
         <v>37.540193181497585</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="18">
         <f t="shared" si="2"/>
         <v>208</v>
@@ -22555,7 +22551,7 @@
         <v>37.503221100721149</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="18">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -22571,7 +22567,7 @@
         <v>37.469999944593297</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="18">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -22587,7 +22583,7 @@
         <v>37.437380901238093</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="18">
         <f t="shared" si="2"/>
         <v>211</v>
@@ -22603,7 +22599,7 @@
         <v>37.405781941800946</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="18">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -22619,7 +22615,7 @@
         <v>37.374245231273584</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="18">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -22635,7 +22631,7 @@
         <v>37.342629053615028</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="18">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -22651,7 +22647,7 @@
         <v>37.309205555841125</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="18">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -22667,7 +22663,7 @@
         <v>37.27981390102326</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="18">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -22683,7 +22679,7 @@
         <v>37.247685133657413</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="18">
         <f t="shared" si="2"/>
         <v>217</v>
@@ -22699,7 +22695,7 @@
         <v>37.218433126682037</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="18">
         <f t="shared" si="2"/>
         <v>218</v>
@@ -22715,7 +22711,7 @@
         <v>37.189770586238538</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="18">
         <f t="shared" si="2"/>
         <v>219</v>
@@ -22731,7 +22727,7 @@
         <v>37.161232823424669</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="18">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -22747,7 +22743,7 @@
         <v>37.130772670045459</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="18">
         <f t="shared" si="2"/>
         <v>221</v>
@@ -22763,7 +22759,7 @@
         <v>37.098913970859734</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="18">
         <f t="shared" si="2"/>
         <v>222</v>
@@ -22779,7 +22775,7 @@
         <v>37.065180126891896</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="18">
         <f t="shared" si="2"/>
         <v>223</v>
@@ -22795,7 +22791,7 @@
         <v>37.026053759282519</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="18">
         <f t="shared" si="2"/>
         <v>224</v>
@@ -22811,7 +22807,7 @@
         <v>36.984464229464287</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="18">
         <f t="shared" si="2"/>
         <v>225</v>
@@ -22827,7 +22823,7 @@
         <v>36.94248883697778</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="18">
         <f t="shared" si="2"/>
         <v>226</v>
@@ -22843,7 +22839,7 @@
         <v>36.903849501769912</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="18">
         <f t="shared" si="2"/>
         <v>227</v>
@@ -22859,7 +22855,7 @@
         <v>36.866607877356834</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="18">
         <f t="shared" si="2"/>
         <v>228</v>
@@ -22875,7 +22871,7 @@
         <v>36.825438542543864</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="18">
         <f t="shared" si="2"/>
         <v>229</v>
@@ -22891,7 +22887,7 @@
         <v>36.780523967772936</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="18">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -22907,7 +22903,7 @@
         <v>36.740956473608705</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="18">
         <f t="shared" si="2"/>
         <v>231</v>
@@ -22923,7 +22919,7 @@
         <v>36.704978308398275</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="18">
         <f t="shared" si="2"/>
         <v>232</v>
@@ -22939,7 +22935,7 @@
         <v>36.66892236806035</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="18">
         <f t="shared" si="2"/>
         <v>233</v>
@@ -22955,7 +22951,7 @@
         <v>36.633948454291847</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="18">
         <f t="shared" si="2"/>
         <v>234</v>
@@ -22971,7 +22967,7 @@
         <v>36.598119614743588</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="18">
         <f t="shared" si="2"/>
         <v>235</v>
@@ -22987,7 +22983,7 @@
         <v>36.563361660255318</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="18">
         <f t="shared" si="2"/>
         <v>236</v>
@@ -23003,7 +22999,7 @@
         <v>36.528262673093217</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="18">
         <f t="shared" si="2"/>
         <v>237</v>
@@ -23019,7 +23015,7 @@
         <v>36.490632875358649</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="18">
         <f t="shared" si="2"/>
         <v>238</v>
@@ -23035,7 +23031,7 @@
         <v>36.451512570462185</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="18">
         <f t="shared" si="2"/>
         <v>239</v>
@@ -23051,7 +23047,7 @@
         <v>36.412008334728036</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="18">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -23067,7 +23063,7 @@
         <v>36.376874964750002</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="18">
         <f t="shared" si="2"/>
         <v>241</v>
@@ -23083,7 +23079,7 @@
         <v>36.340622369004151</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="18">
         <f t="shared" si="2"/>
         <v>242</v>
@@ -23099,7 +23095,7 @@
         <v>36.305495830909088</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="18">
         <f t="shared" si="2"/>
         <v>243</v>
@@ -23115,7 +23111,7 @@
         <v>36.269876504938274</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="18">
         <f t="shared" si="2"/>
         <v>244</v>
@@ -23131,7 +23127,7 @@
         <v>36.232704883032788</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="18">
         <f t="shared" si="2"/>
         <v>245</v>
@@ -23147,7 +23143,7 @@
         <v>36.195714251183674</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="18">
         <f t="shared" si="2"/>
         <v>246</v>
@@ -23163,7 +23159,7 @@
         <v>36.154715415243899</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="18">
         <f t="shared" si="2"/>
         <v>247</v>
@@ -23179,7 +23175,7 @@
         <v>36.116113331943318</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="18">
         <f t="shared" si="2"/>
         <v>248</v>
@@ -23195,7 +23191,7 @@
         <v>36.076048360080641</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="18">
         <f t="shared" si="2"/>
         <v>249</v>
@@ -23211,7 +23207,7 @@
         <v>36.036947764859427</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="18">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -23227,7 +23223,7 @@
         <v>35.997639970119991</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="18">
         <f t="shared" si="2"/>
         <v>251</v>
@@ -23243,7 +23239,7 @@
         <v>35.959402359163342</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="18">
         <f t="shared" si="2"/>
         <v>252</v>
@@ -23259,7 +23255,7 @@
         <v>35.920357115039671</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="18">
         <f t="shared" si="2"/>
         <v>253</v>
@@ -23275,7 +23271,7 @@
         <v>35.879051352964417</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="18">
         <f t="shared" si="2"/>
         <v>254</v>
@@ -23291,7 +23287,7 @@
         <v>35.835787368858256</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="18">
         <f t="shared" si="2"/>
         <v>255</v>
@@ -23307,7 +23303,7 @@
         <v>35.792862710117632</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="18">
         <f t="shared" si="2"/>
         <v>256</v>
@@ -23323,7 +23319,7 @@
         <v>35.744648405624986</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="18">
         <f t="shared" si="2"/>
         <v>257</v>
@@ -23339,7 +23335,7 @@
         <v>35.69571981291827</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="18">
         <f t="shared" si="2"/>
         <v>258</v>
@@ -23355,7 +23351,7 @@
         <v>35.651472839573628</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="18">
         <f t="shared" si="2"/>
         <v>259</v>
@@ -23371,7 +23367,7 @@
         <v>35.606949781660212</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="18">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -23387,7 +23383,7 @@
         <v>35.566653817730753</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="18">
         <f t="shared" si="2"/>
         <v>261</v>
@@ -23403,7 +23399,7 @@
         <v>35.519386943103434</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="18">
         <f t="shared" si="2"/>
         <v>262</v>
@@ -23419,7 +23415,7 @@
         <v>35.470534318549603</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="18">
         <f t="shared" si="2"/>
         <v>263</v>
@@ -23435,7 +23431,7 @@
         <v>35.421064602813672</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="18">
         <f t="shared" si="2"/>
         <v>264</v>
@@ -23451,7 +23447,7 @@
         <v>35.373181784962107</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="18">
         <f t="shared" si="2"/>
         <v>265</v>
@@ -23467,7 +23463,7 @@
         <v>35.328188649018855</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="18">
         <f t="shared" si="2"/>
         <v>266</v>
@@ -23483,7 +23479,7 @@
         <v>35.283233055751865</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="18">
         <f t="shared" si="2"/>
         <v>267</v>
@@ -23499,7 +23495,7 @@
         <v>35.239288359812718</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="18">
         <f t="shared" si="2"/>
         <v>268</v>
@@ -23515,7 +23511,7 @@
         <v>35.194701466380579</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="18">
         <f t="shared" si="2"/>
         <v>269</v>
@@ -23531,7 +23527,7 @@
         <v>35.152081756617086</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="18">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -23547,7 +23543,7 @@
         <v>35.109703672629614</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="18">
         <f t="shared" si="2"/>
         <v>271</v>
@@ -23563,7 +23559,7 @@
         <v>35.067933551771205</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="18">
         <f t="shared" si="2"/>
         <v>272</v>
@@ -23579,7 +23575,7 @@
         <v>35.027867619595575</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="18">
         <f t="shared" si="2"/>
         <v>273</v>
@@ -23595,7 +23591,7 @@
         <v>34.987655647509143</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="18">
         <f t="shared" si="2"/>
         <v>274</v>
@@ -23611,7 +23607,7 @@
         <v>34.944671499452539</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="18">
         <f t="shared" si="2"/>
         <v>275</v>
@@ -23627,7 +23623,7 @@
         <v>34.902363601163621</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="18">
         <f t="shared" si="2"/>
         <v>276</v>
@@ -23643,7 +23639,7 @@
         <v>34.860434747246366</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="18">
         <f t="shared" si="2"/>
         <v>277</v>
@@ -23659,7 +23655,7 @@
         <v>34.818953036389878</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="18">
         <f t="shared" si="2"/>
         <v>278</v>
@@ -23675,7 +23671,7 @@
         <v>34.778740972913653</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="18">
         <f t="shared" si="2"/>
         <v>279</v>
@@ -23691,7 +23687,7 @@
         <v>34.740573439534039</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="18">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -23707,7 +23703,7 @@
         <v>34.703321389642845</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="18">
         <f t="shared" si="2"/>
         <v>281</v>
@@ -23723,7 +23719,7 @@
         <v>34.66704622537366</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="18">
         <f t="shared" si="2"/>
         <v>282</v>
@@ -23739,7 +23735,7 @@
         <v>34.633936132092195</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="18">
         <f t="shared" si="2"/>
         <v>283</v>
@@ -23755,7 +23751,7 @@
         <v>34.60084802017667</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="18">
         <f t="shared" si="2"/>
         <v>284</v>
@@ -23771,7 +23767,7 @@
         <v>34.568661932359149</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="18">
         <f t="shared" si="2"/>
         <v>285</v>
@@ -23787,7 +23783,7 @@
         <v>34.534210486982445</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="18">
         <f t="shared" si="2"/>
         <v>286</v>
@@ -23803,7 +23799,7 @@
         <v>34.502202755069924</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="18">
         <f t="shared" si="2"/>
         <v>287</v>
@@ -23819,7 +23815,7 @@
         <v>34.441742116968634</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="18">
         <f t="shared" si="2"/>
         <v>288</v>
@@ -23835,7 +23831,7 @@
         <v>34.411076347847221</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="18">
         <f t="shared" si="2"/>
         <v>289</v>
@@ -23851,7 +23847,7 @@
         <v>34.381903071695504</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="18">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -23867,7 +23863,7 @@
         <v>34.352999957655172</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="18">
         <f t="shared" si="2"/>
         <v>291</v>
@@ -23883,7 +23879,7 @@
         <v>34.326013703505154</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="18">
         <f t="shared" si="2"/>
         <v>292</v>
@@ -23899,7 +23895,7 @@
         <v>34.300958862842464</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="18">
         <f t="shared" si="2"/>
         <v>293</v>
@@ -23915,7 +23911,7 @@
         <v>34.276006784027302</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="18">
         <f t="shared" si="2"/>
         <v>294</v>
@@ -23931,7 +23927,7 @@
         <v>34.249897918707482</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="18">
         <f t="shared" si="2"/>
         <v>295</v>
@@ -23947,7 +23943,7 @@
         <v>34.226135552101695</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="18">
         <f t="shared" si="2"/>
         <v>296</v>
@@ -23963,7 +23959,7 @@
         <v>34.204222931216215</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="18">
         <f t="shared" si="2"/>
         <v>297</v>
@@ -23979,7 +23975,7 @@
         <v>34.18289558410774</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="18">
         <f t="shared" si="2"/>
         <v>298</v>
@@ -23995,7 +23991,7 @@
         <v>34.162718082416099</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="18">
         <f t="shared" si="2"/>
         <v>299</v>
@@ -24011,7 +24007,7 @@
         <v>34.140468189933102</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="18">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -24027,7 +24023,7 @@
         <v>34.119366627533324</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="18">
         <f t="shared" si="2"/>
         <v>301</v>
@@ -24043,7 +24039,7 @@
         <v>34.097840490531553</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="18">
         <f t="shared" si="2"/>
         <v>302</v>
@@ -24059,7 +24055,7 @@
         <v>34.077913866125826</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="18">
         <f t="shared" si="2"/>
         <v>303</v>
@@ -24075,7 +24071,7 @@
         <v>34.057623722376235</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="18">
         <f t="shared" si="2"/>
         <v>304</v>
@@ -24091,7 +24087,7 @@
         <v>34.036743378157887</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="18">
         <f t="shared" si="2"/>
         <v>305</v>
@@ -24107,7 +24103,7 @@
         <v>34.0172130717377</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="18">
         <f t="shared" si="2"/>
         <v>306</v>
@@ -24123,7 +24119,7 @@
         <v>33.997091462385619</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="18">
         <f t="shared" si="2"/>
         <v>307</v>
@@ -24139,7 +24135,7 @@
         <v>33.975211687882734</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="18">
         <f t="shared" si="2"/>
         <v>308</v>
@@ -24155,7 +24151,7 @@
         <v>33.951818144935061</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="18">
         <f t="shared" si="2"/>
         <v>309</v>
@@ -24171,7 +24167,7 @@
         <v>33.929385077993516</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="18">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -24187,7 +24183,7 @@
         <v>33.90851609090322</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="18">
         <f t="shared" si="2"/>
         <v>311</v>
@@ -24203,7 +24199,7 @@
         <v>33.886495137138255</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="18">
         <f t="shared" si="2"/>
         <v>312</v>
@@ -24219,7 +24215,7 @@
         <v>33.865480729391024</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="18">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -24235,7 +24231,7 @@
         <v>33.843706028146961</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="18">
         <f t="shared" si="2"/>
         <v>314</v>
@@ -24251,7 +24247,7 @@
         <v>33.822292954299357</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="18">
         <f t="shared" si="2"/>
         <v>315</v>
@@ -24267,7 +24263,7 @@
         <v>33.800285673142845</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="18">
         <f t="shared" si="2"/>
         <v>316</v>
@@ -24283,7 +24279,7 @@
         <v>33.778132867974676</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="18">
         <f t="shared" si="2"/>
         <v>317</v>
@@ -24299,7 +24295,7 @@
         <v>33.755394277507875</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="18">
         <f t="shared" si="2"/>
         <v>318</v>
@@ -24315,7 +24311,7 @@
         <v>33.733238946698101</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="18">
         <f t="shared" si="2"/>
         <v>319</v>
@@ -24331,7 +24327,7 @@
         <v>33.710940394639486</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="18">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -24347,7 +24343,7 @@
         <v>33.689062453031241</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="18">
         <f t="shared" si="2"/>
         <v>321</v>
@@ -24363,7 +24359,7 @@
         <v>33.666137024579427</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="18">
         <f t="shared" si="2"/>
         <v>322</v>
@@ -24379,7 +24375,7 @@
         <v>33.645031011583839</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="18">
         <f t="shared" si="2"/>
         <v>323</v>
@@ -24395,7 +24391,7 @@
         <v>33.622414816501539</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="18">
         <f t="shared" si="2"/>
         <v>324</v>
@@ -24411,7 +24407,7 @@
         <v>33.59876538805554</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="18">
         <f t="shared" si="2"/>
         <v>325</v>
@@ -24427,7 +24423,7 @@
         <v>33.575630725323066</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="18">
         <f t="shared" si="2"/>
         <v>326</v>
@@ -24443,7 +24439,7 @@
         <v>33.55380363438649</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="18">
         <f t="shared" si="2"/>
         <v>327</v>
@@ -24459,7 +24455,7 @@
         <v>33.532079466574906</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="18">
         <f t="shared" si="2"/>
         <v>328</v>
@@ -24475,7 +24471,7 @@
         <v>33.510823125121938</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="18">
         <f t="shared" si="2"/>
         <v>329</v>
@@ -24491,7 +24487,7 @@
         <v>33.4886017805471</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="18">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -24507,7 +24503,7 @@
         <v>33.468363593333315</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="18">
         <f t="shared" si="2"/>
         <v>331</v>
@@ -24523,7 +24519,7 @@
         <v>33.447673675649533</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="18">
         <f t="shared" si="2"/>
         <v>332</v>
@@ -24539,7 +24535,7 @@
         <v>33.427379475060221</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="18">
         <f t="shared" si="2"/>
         <v>333</v>
@@ -24555,7 +24551,7 @@
         <v>33.407237192282267</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="18">
         <f t="shared" si="2"/>
         <v>334</v>
@@ -24571,7 +24567,7 @@
         <v>33.388532888862258</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="18">
         <f t="shared" si="2"/>
         <v>335</v>
@@ -24587,7 +24583,7 @@
         <v>33.36955219573133</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="18">
         <f t="shared" si="2"/>
         <v>336</v>
@@ -24603,7 +24599,7 @@
         <v>33.34928566976189</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="18">
         <f t="shared" si="2"/>
         <v>337</v>
@@ -24619,7 +24615,7 @@
         <v>33.330356036646869</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="18">
         <f t="shared" si="2"/>
         <v>338</v>
@@ -24635,7 +24631,7 @@
         <v>33.311212973254428</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="18">
         <f t="shared" si="2"/>
         <v>339</v>
@@ -24651,7 +24647,7 @@
         <v>33.289498482949838</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="18">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -24667,7 +24663,7 @@
         <v>33.267764662764691</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="18">
         <f t="shared" si="2"/>
         <v>341</v>
@@ -24683,7 +24679,7 @@
         <v>33.245806410645152</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="18">
         <f t="shared" si="2"/>
         <v>342</v>
@@ -24699,7 +24695,7 @@
         <v>33.223508733537997</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="18">
         <f t="shared" si="2"/>
         <v>343</v>
@@ -24715,7 +24711,7 @@
         <v>33.200932904985407</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="18">
         <f t="shared" si="2"/>
         <v>344</v>
@@ -24731,7 +24727,7 @@
         <v>33.177616240465106</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="18">
         <f t="shared" si="2"/>
         <v>345</v>
@@ -24747,7 +24743,7 @@
         <v>33.152985469652158</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="18">
         <f t="shared" si="2"/>
         <v>346</v>
@@ -24763,7 +24759,7 @@
         <v>33.128364413381483</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="18">
         <f t="shared" si="2"/>
         <v>347</v>
@@ -24779,7 +24775,7 @@
         <v>33.103412352564824</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="18">
         <f t="shared" si="2"/>
         <v>348</v>
@@ -24795,7 +24791,7 @@
         <v>33.078804848448264</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="18">
         <f t="shared" si="2"/>
         <v>349</v>
@@ -24811,7 +24807,7 @@
         <v>33.055026039971331</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="18">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -24827,7 +24823,7 @@
         <v>33.030411681371412</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="18">
         <f t="shared" si="2"/>
         <v>351</v>
@@ -24843,7 +24839,7 @@
         <v>33.006878029857532</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="18">
         <f t="shared" si="2"/>
         <v>352</v>
@@ -24859,7 +24855,7 @@
         <v>32.983932353636348</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="18">
         <f t="shared" si="2"/>
         <v>353</v>
@@ -24875,7 +24871,7 @@
         <v>32.959955208158625</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="18">
         <f t="shared" ref="A356:A463" si="3">A355+1</f>
         <v>354</v>
@@ -24891,7 +24887,7 @@
         <v>32.934475108700553</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="18">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -24907,7 +24903,7 @@
         <v>32.90789912247886</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="18">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -24923,7 +24919,7 @@
         <v>32.881472439550549</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="18">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -24939,7 +24935,7 @@
         <v>32.85519380526609</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="18">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -24955,7 +24951,7 @@
         <v>32.8285871186592</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="18">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -24971,7 +24967,7 @@
         <v>32.801348714428954</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="18">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -24987,7 +24983,7 @@
         <v>32.773872745777759</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="18">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -25003,7 +24999,7 @@
         <v>32.746798306038762</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="18">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -25019,7 +25015,7 @@
         <v>32.721144167071806</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="18">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -25035,7 +25031,7 @@
         <v>32.694171318126706</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="18">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -25051,7 +25047,7 @@
         <v>32.66762139881866</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="18">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -25067,7 +25063,7 @@
         <v>32.640066271698615</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="18">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -25083,7 +25079,7 @@
         <v>32.611104344508178</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="18">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -25099,7 +25095,7 @@
         <v>32.582845203978181</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="18">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -25115,7 +25111,7 @@
         <v>32.556587472663026</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="18">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -25131,7 +25127,7 @@
         <v>32.530282358590767</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="18">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -25147,7 +25143,7 @@
         <v>32.506281594432416</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="18">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -25163,7 +25159,7 @@
         <v>32.482598892857126</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="18">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -25179,7 +25175,7 @@
         <v>32.459392982876324</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="18">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -25195,7 +25191,7 @@
         <v>32.435614449812313</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="18">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -25211,7 +25207,7 @@
         <v>32.411455051871634</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="18">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -25227,7 +25223,7 @@
         <v>32.387264505466646</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="18">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -25243,7 +25239,7 @@
         <v>32.361846248590403</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="18">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -25259,7 +25255,7 @@
         <v>32.336324109389899</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="18">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -25275,7 +25271,7 @@
         <v>32.312101030555532</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="18">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -25291,7 +25287,7 @@
         <v>32.287425299815283</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="18">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -25307,7 +25303,7 @@
         <v>32.260721547421028</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="18">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -25323,7 +25319,7 @@
         <v>32.234420440393677</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="18">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -25339,7 +25335,7 @@
         <v>32.208335571335049</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="18">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -25355,7 +25351,7 @@
         <v>32.183248534281958</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="18">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -25371,7 +25367,7 @@
         <v>32.157979656692682</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="18">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -25387,7 +25383,7 @@
         <v>32.134712179038935</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="18">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -25403,7 +25399,7 @@
         <v>32.111539350932617</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="18">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -25419,7 +25415,7 @@
         <v>32.088072842764831</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="18">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -25435,7 +25431,7 @@
         <v>32.064031418505131</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="18">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -25451,7 +25447,7 @@
         <v>32.038982493753188</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="18">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -25467,7 +25463,7 @@
         <v>32.015472284384586</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="18">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -25483,7 +25479,7 @@
         <v>31.992133479028105</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="18">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -25499,7 +25495,7 @@
         <v>31.970342324132627</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="18">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -25515,7 +25511,7 @@
         <v>31.947847812264605</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="18">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -25531,7 +25527,7 @@
         <v>31.925162919923835</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="18">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -25547,7 +25543,7 @@
         <v>31.902643521873394</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="18">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -25563,7 +25559,7 @@
         <v>31.880162098838358</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="18">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -25579,7 +25575,7 @@
         <v>31.856912319294686</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="18">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -25595,7 +25591,7 @@
         <v>31.833502994170832</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="18">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -25611,7 +25607,7 @@
         <v>31.810135819323285</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="18">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -25627,7 +25623,7 @@
         <v>31.786510481299977</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="18">
         <f t="shared" si="3"/>
         <v>401</v>
@@ -25643,7 +25639,7 @@
         <v>31.762603973266813</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="18">
         <f t="shared" si="3"/>
         <v>402</v>
@@ -25659,7 +25655,7 @@
         <v>31.740060184179082</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="18">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -25675,7 +25671,7 @@
         <v>31.717901224590552</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="18">
         <f t="shared" si="3"/>
         <v>404</v>
@@ -25691,7 +25687,7 @@
         <v>31.696743053440571</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="18">
         <f t="shared" si="3"/>
         <v>405</v>
@@ -25707,7 +25703,7 @@
         <v>31.675343689580224</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="18">
         <f t="shared" si="3"/>
         <v>406</v>
@@ -25723,7 +25719,7 @@
         <v>31.654517718201948</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="18">
         <f t="shared" si="3"/>
         <v>407</v>
@@ -25739,7 +25735,7 @@
         <v>31.634383765773933</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="18">
         <f t="shared" si="3"/>
         <v>408</v>
@@ -25755,7 +25751,7 @@
         <v>31.614814196789194</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="18">
         <f t="shared" si="3"/>
         <v>409</v>
@@ -25771,7 +25767,7 @@
         <v>31.595291421638123</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="18">
         <f t="shared" si="3"/>
         <v>410</v>
@@ -25787,7 +25783,7 @@
         <v>31.576376077073149</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="18">
         <f t="shared" si="3"/>
         <v>411</v>
@@ -25803,7 +25799,7 @@
         <v>31.556968836934285</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="18">
         <f t="shared" si="3"/>
         <v>412</v>
@@ -25819,7 +25815,7 @@
         <v>31.537000465776678</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="18">
         <f t="shared" si="3"/>
         <v>413</v>
@@ -25835,7 +25831,7 @@
         <v>31.51698351661015</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="18">
         <f t="shared" si="3"/>
         <v>414</v>
@@ -25851,7 +25847,7 @@
         <v>31.497618822125581</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="18">
         <f t="shared" si="3"/>
         <v>415</v>
@@ -25867,7 +25863,7 @@
         <v>31.477986006602389</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="18">
         <f t="shared" si="3"/>
         <v>416</v>
@@ -25883,7 +25879,7 @@
         <v>31.457798540048056</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="18">
         <f t="shared" si="3"/>
         <v>417</v>
@@ -25899,7 +25895,7 @@
         <v>31.436820603693025</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="18">
         <f t="shared" si="3"/>
         <v>418</v>
@@ -25915,7 +25911,7 @@
         <v>31.415703809449742</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="18">
         <f t="shared" si="3"/>
         <v>419</v>
@@ -25931,7 +25927,7 @@
         <v>31.394544609999983</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="18">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -25947,7 +25943,7 @@
         <v>31.373248077023792</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="18">
         <f t="shared" si="3"/>
         <v>421</v>
@@ -25963,7 +25959,7 @@
         <v>31.352860316555802</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="18">
         <f t="shared" si="3"/>
         <v>422</v>
@@ -25979,7 +25975,7 @@
         <v>31.333066808696664</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="18">
         <f t="shared" si="3"/>
         <v>423</v>
@@ -25995,7 +25991,7 @@
         <v>31.312728588203292</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="18">
         <f t="shared" si="3"/>
         <v>424</v>
@@ -26011,7 +26007,7 @@
         <v>31.292557059056588</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="18">
         <f t="shared" si="3"/>
         <v>425</v>
@@ -26027,7 +26023,7 @@
         <v>31.272433394847042</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="18">
         <f t="shared" si="3"/>
         <v>426</v>
@@ -26043,7 +26039,7 @@
         <v>31.252615475892004</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="18">
         <f t="shared" si="3"/>
         <v>427</v>
@@ -26059,7 +26055,7 @@
         <v>31.234248694566734</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="18">
         <f t="shared" si="3"/>
         <v>428</v>
@@ -26075,7 +26071,7 @@
         <v>31.216178020046716</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="18">
         <f t="shared" si="3"/>
         <v>429</v>
@@ -26091,7 +26087,7 @@
         <v>31.198378071095561</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="18">
         <f t="shared" si="3"/>
         <v>430</v>
@@ -26107,7 +26103,7 @@
         <v>31.181219051604643</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="18">
         <f t="shared" si="3"/>
         <v>431</v>
@@ -26123,7 +26119,7 @@
         <v>31.163745224617159</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="18">
         <f t="shared" si="3"/>
         <v>432</v>
@@ -26139,7 +26135,7 @@
         <v>31.146653223379619</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="18">
         <f t="shared" si="3"/>
         <v>433</v>
@@ -26155,7 +26151,7 @@
         <v>31.13037919833717</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="18">
         <f t="shared" si="3"/>
         <v>434</v>
@@ -26171,7 +26167,7 @@
         <v>31.114986621290313</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="18">
         <f t="shared" si="3"/>
         <v>435</v>
@@ -26187,7 +26183,7 @@
         <v>31.099825733563208</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="18">
         <f t="shared" si="3"/>
         <v>436</v>
@@ -26203,7 +26199,7 @@
         <v>31.084757327499986</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="18">
         <f t="shared" si="3"/>
         <v>437</v>
@@ -26219,7 +26215,7 @@
         <v>31.0702384314874</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="18">
         <f t="shared" si="3"/>
         <v>438</v>
@@ -26235,7 +26231,7 @@
         <v>31.055991311598159</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="18">
         <f t="shared" si="3"/>
         <v>439</v>
@@ -26251,7 +26247,7 @@
         <v>31.042583586697024</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="18">
         <f t="shared" si="3"/>
         <v>440</v>
@@ -26267,7 +26263,7 @@
         <v>31.028623168590894</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="18">
         <f t="shared" si="3"/>
         <v>441</v>
@@ -26283,7 +26279,7 @@
         <v>31.014726063038534</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="18">
         <f t="shared" si="3"/>
         <v>442</v>
@@ -26299,7 +26295,7 @@
         <v>31.001661071425325</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="18">
         <f t="shared" si="3"/>
         <v>443</v>
@@ -26315,7 +26311,7 @@
         <v>30.988406755598181</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="18">
         <f t="shared" si="3"/>
         <v>444</v>
@@ -26331,7 +26327,7 @@
         <v>30.974761696036023</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="18">
         <f t="shared" si="3"/>
         <v>445</v>
@@ -26347,7 +26343,7 @@
         <v>30.960436389707851</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="18">
         <f t="shared" si="3"/>
         <v>446</v>
@@ -26363,7 +26359,7 @@
         <v>30.94619774446187</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="18">
         <f t="shared" si="3"/>
         <v>447</v>
@@ -26379,7 +26375,7 @@
         <v>30.931776720425042</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="18">
         <f t="shared" si="3"/>
         <v>448</v>
@@ -26395,7 +26391,7 @@
         <v>30.918245970691949</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="18">
         <f t="shared" si="3"/>
         <v>449</v>
@@ -26411,7 +26407,7 @@
         <v>30.904263238886397</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="18">
         <f t="shared" si="3"/>
         <v>450</v>
@@ -26427,7 +26423,7 @@
         <v>30.890875985377765</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="18">
         <f t="shared" si="3"/>
         <v>451</v>
@@ -26443,7 +26439,7 @@
         <v>30.87739288889134</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="18">
         <f t="shared" si="3"/>
         <v>452</v>
@@ -26459,7 +26455,7 @@
         <v>30.86381458553096</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="18">
         <f t="shared" si="3"/>
         <v>453</v>
@@ -26475,7 +26471,7 @@
         <v>30.849744354150097</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="18">
         <f t="shared" si="3"/>
         <v>454</v>
@@ -26491,7 +26487,7 @@
         <v>30.834546681035228</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="18">
         <f t="shared" si="3"/>
         <v>455</v>
@@ -26507,7 +26503,7 @@
         <v>30.820426797890097</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="18">
         <f t="shared" si="3"/>
         <v>456</v>
@@ -26523,7 +26519,7 @@
         <v>30.806346913728056</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="18">
         <f t="shared" si="3"/>
         <v>457</v>
@@ -26539,7 +26535,7 @@
         <v>30.791891014048126</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="18">
         <f t="shared" si="3"/>
         <v>458</v>
@@ -26555,7 +26551,7 @@
         <v>30.777563740087324</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="18">
         <f t="shared" si="3"/>
         <v>459</v>
@@ -26571,7 +26567,7 @@
         <v>30.762841379999987</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="18">
         <f t="shared" si="3"/>
         <v>460</v>
@@ -26587,7 +26583,7 @@
         <v>30.747661291543466</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="18">
         <f t="shared" si="3"/>
         <v>461</v>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="284">
   <si>
     <t>PE</t>
   </si>
@@ -1146,78 +1146,6 @@
   </si>
   <si>
     <t xml:space="preserve">2023/1/20
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/2
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/3
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/7
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/9
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/10
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/13
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/14
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/15
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/16
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/17
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/20
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/21
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/22
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/23
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/24
 </t>
   </si>
 </sst>
@@ -1781,115 +1709,115 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1897,273 +1825,6 @@
           <c:val>
             <c:numRef>
               <c:f>model1!资金</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>38000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>46000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>48000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>52000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>54000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>56000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>58000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>62000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>66000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>68000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>72000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>model1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>total assets</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>model1!时间</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>43889</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43921</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43951</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43980</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44012</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44043</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44074</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44104</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44134</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44165</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44196</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44225</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44253</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44286</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44316</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44347</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44377</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44407</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44439</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44469</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44498</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44530</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44589</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44620</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44651</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44680</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44712</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44771</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44804</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44834</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44865</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44895</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44925</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44957</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="36"/>
@@ -2281,20 +1942,20 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
+              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>model1!$I$1</c:f>
+              <c:f>model1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>profit amount</c:v>
+                  <c:v>total assets</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2302,7 +1963,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2315,122 +1976,122 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>model1!金额</c:f>
+              <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="36"/>
@@ -2548,6 +2209,165 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>model1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>profit amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>model1!时间</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>3.25108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8991500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.17509</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1906699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6513100000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1706000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1298999999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9869400000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2014499999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.27712</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7245600000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9833500000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7232599999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4379900000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7860299999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.9806599999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.1114799999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9776999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7613100000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7106400000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8678999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.9547099609374996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8630097656249998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3440297851562502</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3355400390624999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8658500976562502</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5012099609375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6361599121093748</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1096201171875002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.8724699707031252</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7022099609375001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3477299804687499</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2993999023437501</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.4802900390625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4735300292968749</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.8110336914062501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>model1!金额</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
@@ -2562,17 +2382,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="170912768"/>
+        <c:axId val="176209920"/>
         <c:axId val="176212224"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="170912768"/>
+      <c:catAx>
+        <c:axId val="176209920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2612,9 +2432,10 @@
         <c:crossAx val="176212224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="176212224"/>
         <c:scaling>
@@ -2667,7 +2488,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170912768"/>
+        <c:crossAx val="176209920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17573,7 +17394,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -19193,9 +19014,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D463"/>
+  <dimension ref="A1:D443"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -24873,7 +24694,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A463" si="3">A355+1</f>
+        <f t="shared" ref="A356:A443" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -26277,326 +26098,6 @@
       <c r="D443" s="18">
         <f>SUM(C$3:C443)/A443</f>
         <v>31.014726063038534</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A444" s="18">
-        <f t="shared" si="3"/>
-        <v>442</v>
-      </c>
-      <c r="B444" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="C444" s="20">
-        <v>25.239999770000001</v>
-      </c>
-      <c r="D444" s="18">
-        <f>SUM(C$3:C444)/A444</f>
-        <v>31.001661071425325</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A445" s="18">
-        <f t="shared" si="3"/>
-        <v>443</v>
-      </c>
-      <c r="B445" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="C445" s="20">
-        <v>25.129999160000001</v>
-      </c>
-      <c r="D445" s="18">
-        <f>SUM(C$3:C445)/A445</f>
-        <v>30.988406755598181</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A446" s="18">
-        <f t="shared" si="3"/>
-        <v>444</v>
-      </c>
-      <c r="B446" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="C446" s="20">
-        <v>24.93000031</v>
-      </c>
-      <c r="D446" s="18">
-        <f>SUM(C$3:C446)/A446</f>
-        <v>30.974761696036023</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A447" s="18">
-        <f t="shared" si="3"/>
-        <v>445</v>
-      </c>
-      <c r="B447" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="C447" s="20">
-        <v>24.600000380000001</v>
-      </c>
-      <c r="D447" s="18">
-        <f>SUM(C$3:C447)/A447</f>
-        <v>30.960436389707851</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A448" s="18">
-        <f t="shared" si="3"/>
-        <v>446</v>
-      </c>
-      <c r="B448" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="C448" s="20">
-        <v>24.61000061</v>
-      </c>
-      <c r="D448" s="18">
-        <f>SUM(C$3:C448)/A448</f>
-        <v>30.94619774446187</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A449" s="18">
-        <f t="shared" si="3"/>
-        <v>447</v>
-      </c>
-      <c r="B449" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="C449" s="20">
-        <v>24.5</v>
-      </c>
-      <c r="D449" s="18">
-        <f>SUM(C$3:C449)/A449</f>
-        <v>30.931776720425042</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A450" s="18">
-        <f t="shared" si="3"/>
-        <v>448</v>
-      </c>
-      <c r="B450" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="C450" s="20">
-        <v>24.870000839999999</v>
-      </c>
-      <c r="D450" s="18">
-        <f>SUM(C$3:C450)/A450</f>
-        <v>30.918245970691949</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A451" s="18">
-        <f t="shared" si="3"/>
-        <v>449</v>
-      </c>
-      <c r="B451" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="C451" s="20">
-        <v>24.63999939</v>
-      </c>
-      <c r="D451" s="18">
-        <f>SUM(C$3:C451)/A451</f>
-        <v>30.904263238886397</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A452" s="18">
-        <f t="shared" si="3"/>
-        <v>450</v>
-      </c>
-      <c r="B452" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="C452" s="20">
-        <v>24.879999160000001</v>
-      </c>
-      <c r="D452" s="18">
-        <f>SUM(C$3:C452)/A452</f>
-        <v>30.890875985377765</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A453" s="18">
-        <f t="shared" si="3"/>
-        <v>451</v>
-      </c>
-      <c r="B453" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="C453" s="20">
-        <v>24.809999470000001</v>
-      </c>
-      <c r="D453" s="18">
-        <f>SUM(C$3:C453)/A453</f>
-        <v>30.87739288889134</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A454" s="18">
-        <f t="shared" si="3"/>
-        <v>452</v>
-      </c>
-      <c r="B454" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="C454" s="20">
-        <v>24.739999770000001</v>
-      </c>
-      <c r="D454" s="18">
-        <f>SUM(C$3:C454)/A454</f>
-        <v>30.86381458553096</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A455" s="18">
-        <f t="shared" si="3"/>
-        <v>453</v>
-      </c>
-      <c r="B455" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="C455" s="20">
-        <v>24.489999770000001</v>
-      </c>
-      <c r="D455" s="18">
-        <f>SUM(C$3:C455)/A455</f>
-        <v>30.849744354150097</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A456" s="18">
-        <f t="shared" si="3"/>
-        <v>454</v>
-      </c>
-      <c r="B456" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="C456" s="20">
-        <v>23.950000760000002</v>
-      </c>
-      <c r="D456" s="18">
-        <f>SUM(C$3:C456)/A456</f>
-        <v>30.834546681035228</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A457" s="18">
-        <f t="shared" si="3"/>
-        <v>455</v>
-      </c>
-      <c r="B457" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C457" s="20">
-        <v>24.409999849999998</v>
-      </c>
-      <c r="D457" s="18">
-        <f>SUM(C$3:C457)/A457</f>
-        <v>30.820426797890097</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A458" s="18">
-        <f t="shared" si="3"/>
-        <v>456</v>
-      </c>
-      <c r="B458" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="C458" s="20">
-        <v>24.399999619999999</v>
-      </c>
-      <c r="D458" s="18">
-        <f>SUM(C$3:C458)/A458</f>
-        <v>30.806346913728056</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A459" s="18">
-        <f t="shared" si="3"/>
-        <v>457</v>
-      </c>
-      <c r="B459" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="C459" s="20">
-        <v>24.200000760000002</v>
-      </c>
-      <c r="D459" s="18">
-        <f>SUM(C$3:C459)/A459</f>
-        <v>30.791891014048126</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A460" s="18">
-        <f t="shared" si="3"/>
-        <v>458</v>
-      </c>
-      <c r="B460" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="C460" s="20">
-        <v>24.229999540000001</v>
-      </c>
-      <c r="D460" s="18">
-        <f>SUM(C$3:C460)/A460</f>
-        <v>30.777563740087324</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A461" s="18">
-        <f t="shared" si="3"/>
-        <v>459</v>
-      </c>
-      <c r="B461" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="C461" s="20">
-        <v>24.020000459999999</v>
-      </c>
-      <c r="D461" s="18">
-        <f>SUM(C$3:C461)/A461</f>
-        <v>30.762841379999987</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A462" s="18">
-        <f t="shared" si="3"/>
-        <v>460</v>
-      </c>
-      <c r="B462" s="19">
-        <v>44984</v>
-      </c>
-      <c r="C462" s="20">
-        <v>23.780000690000001</v>
-      </c>
-      <c r="D462" s="18">
-        <f>SUM(C$3:C462)/A462</f>
-        <v>30.747661291543466</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A463" s="18">
-        <f t="shared" si="3"/>
-        <v>461</v>
-      </c>
-      <c r="B463" s="19">
-        <v>44985</v>
-      </c>
-      <c r="C463" s="20">
-        <v>23.979999540000001</v>
-      </c>
-      <c r="D463" s="18">
-        <f>SUM(C$3:C463)/A463</f>
-        <v>30.732980897288492</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
@@ -2382,11 +2382,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="176209920"/>
-        <c:axId val="176212224"/>
+        <c:axId val="176212992"/>
+        <c:axId val="224826496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="176209920"/>
+        <c:axId val="176212992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2429,7 +2429,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176212224"/>
+        <c:crossAx val="224826496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2437,7 +2437,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176212224"/>
+        <c:axId val="224826496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2488,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176209920"/>
+        <c:crossAx val="176212992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19016,7 +19016,7 @@
   </sheetPr>
   <dimension ref="A1:D443"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
@@ -1663,7 +1663,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2382,11 +2381,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="176212992"/>
-        <c:axId val="224826496"/>
+        <c:axId val="270940416"/>
+        <c:axId val="8339456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="176212992"/>
+        <c:axId val="270940416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2429,7 +2428,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224826496"/>
+        <c:crossAx val="8339456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2437,7 +2436,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="224826496"/>
+        <c:axId val="8339456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2487,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176212992"/>
+        <c:crossAx val="270940416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2502,7 +2501,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19016,7 +19014,7 @@
   </sheetPr>
   <dimension ref="A1:D443"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="302">
   <si>
     <t>PE</t>
   </si>
@@ -1146,6 +1146,78 @@
   </si>
   <si>
     <t xml:space="preserve">2023/1/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/24
 </t>
   </si>
 </sst>
@@ -1516,7 +1588,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1575,6 +1647,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1663,6 +1736,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1708,115 +1782,115 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1824,6 +1898,273 @@
           <c:val>
             <c:numRef>
               <c:f>model1!资金</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>72000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>model1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total assets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>model1!时间</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44253</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44286</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44347</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44530</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="36"/>
@@ -1941,20 +2282,20 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
+              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>model1!$H$1</c:f>
+              <c:f>model1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>total assets</c:v>
+                  <c:v>profit amount</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1962,7 +2303,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1975,122 +2316,122 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>model1!资产</c:f>
+              <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="36"/>
@@ -2208,165 +2549,6 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>model1!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>profit amount</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>model1!时间</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>3.25108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.17509</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.27712</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>model1!金额</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
@@ -2381,17 +2563,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="270940416"/>
-        <c:axId val="8339456"/>
+        <c:axId val="242301568"/>
+        <c:axId val="246245632"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="270940416"/>
+      <c:dateAx>
+        <c:axId val="242301568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2428,15 +2610,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8339456"/>
+        <c:crossAx val="246245632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="8339456"/>
+        <c:axId val="246245632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2487,7 +2668,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270940416"/>
+        <c:crossAx val="242301568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2501,6 +2682,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17390,9 +17572,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -18999,6 +19181,9 @@
         <v>-3848.2171143818996</v>
       </c>
     </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39" s="30"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19012,9 +19197,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D443"/>
+  <dimension ref="A1:D463"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -19027,7 +19212,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>194</v>
       </c>
       <c r="C1" s="22">
@@ -19035,7 +19220,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="30"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
       </c>
@@ -24692,7 +24877,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A443" si="3">A355+1</f>
+        <f t="shared" ref="A356:A463" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -26096,6 +26281,326 @@
       <c r="D443" s="18">
         <f>SUM(C$3:C443)/A443</f>
         <v>31.014726063038534</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A444" s="18">
+        <f t="shared" si="3"/>
+        <v>442</v>
+      </c>
+      <c r="B444" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="C444" s="20">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D444" s="18">
+        <f>SUM(C$3:C444)/A444</f>
+        <v>31.001661071425325</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A445" s="18">
+        <f t="shared" si="3"/>
+        <v>443</v>
+      </c>
+      <c r="B445" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C445" s="20">
+        <v>25.129999160000001</v>
+      </c>
+      <c r="D445" s="18">
+        <f>SUM(C$3:C445)/A445</f>
+        <v>30.988406755598181</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A446" s="18">
+        <f t="shared" si="3"/>
+        <v>444</v>
+      </c>
+      <c r="B446" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C446" s="20">
+        <v>24.93000031</v>
+      </c>
+      <c r="D446" s="18">
+        <f>SUM(C$3:C446)/A446</f>
+        <v>30.974761696036023</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A447" s="18">
+        <f t="shared" si="3"/>
+        <v>445</v>
+      </c>
+      <c r="B447" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C447" s="20">
+        <v>24.600000380000001</v>
+      </c>
+      <c r="D447" s="18">
+        <f>SUM(C$3:C447)/A447</f>
+        <v>30.960436389707851</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A448" s="18">
+        <f t="shared" si="3"/>
+        <v>446</v>
+      </c>
+      <c r="B448" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C448" s="20">
+        <v>24.61000061</v>
+      </c>
+      <c r="D448" s="18">
+        <f>SUM(C$3:C448)/A448</f>
+        <v>30.94619774446187</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A449" s="18">
+        <f t="shared" si="3"/>
+        <v>447</v>
+      </c>
+      <c r="B449" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C449" s="20">
+        <v>24.5</v>
+      </c>
+      <c r="D449" s="18">
+        <f>SUM(C$3:C449)/A449</f>
+        <v>30.931776720425042</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="18">
+        <f t="shared" si="3"/>
+        <v>448</v>
+      </c>
+      <c r="B450" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C450" s="20">
+        <v>24.870000839999999</v>
+      </c>
+      <c r="D450" s="18">
+        <f>SUM(C$3:C450)/A450</f>
+        <v>30.918245970691949</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="18">
+        <f t="shared" si="3"/>
+        <v>449</v>
+      </c>
+      <c r="B451" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C451" s="20">
+        <v>24.63999939</v>
+      </c>
+      <c r="D451" s="18">
+        <f>SUM(C$3:C451)/A451</f>
+        <v>30.904263238886397</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="18">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="B452" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C452" s="20">
+        <v>24.879999160000001</v>
+      </c>
+      <c r="D452" s="18">
+        <f>SUM(C$3:C452)/A452</f>
+        <v>30.890875985377765</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="18">
+        <f t="shared" si="3"/>
+        <v>451</v>
+      </c>
+      <c r="B453" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C453" s="20">
+        <v>24.809999470000001</v>
+      </c>
+      <c r="D453" s="18">
+        <f>SUM(C$3:C453)/A453</f>
+        <v>30.87739288889134</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" s="18">
+        <f t="shared" si="3"/>
+        <v>452</v>
+      </c>
+      <c r="B454" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C454" s="20">
+        <v>24.739999770000001</v>
+      </c>
+      <c r="D454" s="18">
+        <f>SUM(C$3:C454)/A454</f>
+        <v>30.86381458553096</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="18">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="B455" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="C455" s="20">
+        <v>24.489999770000001</v>
+      </c>
+      <c r="D455" s="18">
+        <f>SUM(C$3:C455)/A455</f>
+        <v>30.849744354150097</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" s="18">
+        <f t="shared" si="3"/>
+        <v>454</v>
+      </c>
+      <c r="B456" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="C456" s="20">
+        <v>23.950000760000002</v>
+      </c>
+      <c r="D456" s="18">
+        <f>SUM(C$3:C456)/A456</f>
+        <v>30.834546681035228</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" s="18">
+        <f t="shared" si="3"/>
+        <v>455</v>
+      </c>
+      <c r="B457" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="C457" s="20">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D457" s="18">
+        <f>SUM(C$3:C457)/A457</f>
+        <v>30.820426797890097</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" s="18">
+        <f t="shared" si="3"/>
+        <v>456</v>
+      </c>
+      <c r="B458" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="C458" s="20">
+        <v>24.399999619999999</v>
+      </c>
+      <c r="D458" s="18">
+        <f>SUM(C$3:C458)/A458</f>
+        <v>30.806346913728056</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459" s="18">
+        <f t="shared" si="3"/>
+        <v>457</v>
+      </c>
+      <c r="B459" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C459" s="20">
+        <v>24.200000760000002</v>
+      </c>
+      <c r="D459" s="18">
+        <f>SUM(C$3:C459)/A459</f>
+        <v>30.791891014048126</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" s="18">
+        <f t="shared" si="3"/>
+        <v>458</v>
+      </c>
+      <c r="B460" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="C460" s="20">
+        <v>24.229999540000001</v>
+      </c>
+      <c r="D460" s="18">
+        <f>SUM(C$3:C460)/A460</f>
+        <v>30.777563740087324</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" s="18">
+        <f t="shared" si="3"/>
+        <v>459</v>
+      </c>
+      <c r="B461" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="C461" s="20">
+        <v>24.020000459999999</v>
+      </c>
+      <c r="D461" s="18">
+        <f>SUM(C$3:C461)/A461</f>
+        <v>30.762841379999987</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" s="18">
+        <f t="shared" si="3"/>
+        <v>460</v>
+      </c>
+      <c r="B462" s="19">
+        <v>44984</v>
+      </c>
+      <c r="C462" s="20">
+        <v>23.780000690000001</v>
+      </c>
+      <c r="D462" s="18">
+        <f>SUM(C$3:C462)/A462</f>
+        <v>30.747661291543466</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" s="18">
+        <f t="shared" si="3"/>
+        <v>461</v>
+      </c>
+      <c r="B463" s="19">
+        <v>44985</v>
+      </c>
+      <c r="C463" s="20">
+        <v>23.979999540000001</v>
+      </c>
+      <c r="D463" s="18">
+        <f>SUM(C$3:C463)/A463</f>
+        <v>30.732980897288492</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
@@ -1588,7 +1588,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1647,7 +1647,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2563,11 +2562,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="242301568"/>
-        <c:axId val="246245632"/>
+        <c:axId val="176212608"/>
+        <c:axId val="224826112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="242301568"/>
+        <c:axId val="176212608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2610,14 +2609,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246245632"/>
+        <c:crossAx val="224826112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="246245632"/>
+        <c:axId val="224826112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2668,7 +2667,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242301568"/>
+        <c:crossAx val="176212608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17572,7 +17571,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y39"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19181,9 +19180,6 @@
         <v>-3848.2171143818996</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="30"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19199,7 +19195,7 @@
   </sheetPr>
   <dimension ref="A1:D463"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -19212,7 +19208,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>194</v>
       </c>
       <c r="C1" s="22">
@@ -19220,7 +19216,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="31"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
       </c>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="284">
   <si>
     <t>PE</t>
   </si>
@@ -1146,78 +1146,6 @@
   </si>
   <si>
     <t xml:space="preserve">2023/1/20
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/2
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/3
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/7
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/9
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/10
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/13
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/14
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/15
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/16
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/17
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/20
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/21
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/22
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/23
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/2/24
 </t>
   </si>
 </sst>
@@ -1781,115 +1709,115 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1897,273 +1825,6 @@
           <c:val>
             <c:numRef>
               <c:f>model1!资金</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>38000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>46000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>48000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>52000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>54000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>56000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>58000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>62000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>66000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>68000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>72000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>model1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>total assets</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>model1!时间</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>43889</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43921</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43951</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43980</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44012</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44043</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44074</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44104</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44134</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44165</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44196</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44225</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44253</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44286</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44316</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44347</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44377</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44407</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44439</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44469</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44498</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44530</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44589</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44620</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44651</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44680</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44712</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44771</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44804</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44834</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44865</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44895</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44925</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44957</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="36"/>
@@ -2281,20 +1942,20 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
+              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>model1!$I$1</c:f>
+              <c:f>model1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>profit amount</c:v>
+                  <c:v>total assets</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2302,7 +1963,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2315,122 +1976,122 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>model1!金额</c:f>
+              <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="36"/>
@@ -2548,6 +2209,165 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>model1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>profit amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>model1!时间</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>3.25108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8991500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.17509</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1906699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6513100000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1706000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1298999999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9869400000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2014499999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.27712</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7245600000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9833500000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7232599999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4379900000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7860299999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.9806599999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.1114799999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9776999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7613100000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7106400000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8678999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.9547099609374996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8630097656249998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3440297851562502</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3355400390624999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8658500976562502</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5012099609375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6361599121093748</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1096201171875002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.8724699707031252</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7022099609375001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3477299804687499</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2993999023437501</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.4802900390625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4735300292968749</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.8110336914062501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>model1!金额</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
@@ -2562,17 +2382,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="176212608"/>
-        <c:axId val="224826112"/>
+        <c:axId val="252032128"/>
+        <c:axId val="252033664"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="176212608"/>
+      <c:catAx>
+        <c:axId val="252032128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2609,14 +2429,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224826112"/>
+        <c:crossAx val="252033664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="224826112"/>
+        <c:axId val="252033664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2667,7 +2488,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176212608"/>
+        <c:crossAx val="252032128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17573,7 +17394,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -19193,9 +19014,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D463"/>
+  <dimension ref="A1:D443"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -24873,7 +24694,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A463" si="3">A355+1</f>
+        <f t="shared" ref="A356:A443" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -26277,326 +26098,6 @@
       <c r="D443" s="18">
         <f>SUM(C$3:C443)/A443</f>
         <v>31.014726063038534</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A444" s="18">
-        <f t="shared" si="3"/>
-        <v>442</v>
-      </c>
-      <c r="B444" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="C444" s="20">
-        <v>25.239999770000001</v>
-      </c>
-      <c r="D444" s="18">
-        <f>SUM(C$3:C444)/A444</f>
-        <v>31.001661071425325</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A445" s="18">
-        <f t="shared" si="3"/>
-        <v>443</v>
-      </c>
-      <c r="B445" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="C445" s="20">
-        <v>25.129999160000001</v>
-      </c>
-      <c r="D445" s="18">
-        <f>SUM(C$3:C445)/A445</f>
-        <v>30.988406755598181</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A446" s="18">
-        <f t="shared" si="3"/>
-        <v>444</v>
-      </c>
-      <c r="B446" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="C446" s="20">
-        <v>24.93000031</v>
-      </c>
-      <c r="D446" s="18">
-        <f>SUM(C$3:C446)/A446</f>
-        <v>30.974761696036023</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A447" s="18">
-        <f t="shared" si="3"/>
-        <v>445</v>
-      </c>
-      <c r="B447" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="C447" s="20">
-        <v>24.600000380000001</v>
-      </c>
-      <c r="D447" s="18">
-        <f>SUM(C$3:C447)/A447</f>
-        <v>30.960436389707851</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A448" s="18">
-        <f t="shared" si="3"/>
-        <v>446</v>
-      </c>
-      <c r="B448" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="C448" s="20">
-        <v>24.61000061</v>
-      </c>
-      <c r="D448" s="18">
-        <f>SUM(C$3:C448)/A448</f>
-        <v>30.94619774446187</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A449" s="18">
-        <f t="shared" si="3"/>
-        <v>447</v>
-      </c>
-      <c r="B449" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="C449" s="20">
-        <v>24.5</v>
-      </c>
-      <c r="D449" s="18">
-        <f>SUM(C$3:C449)/A449</f>
-        <v>30.931776720425042</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A450" s="18">
-        <f t="shared" si="3"/>
-        <v>448</v>
-      </c>
-      <c r="B450" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="C450" s="20">
-        <v>24.870000839999999</v>
-      </c>
-      <c r="D450" s="18">
-        <f>SUM(C$3:C450)/A450</f>
-        <v>30.918245970691949</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A451" s="18">
-        <f t="shared" si="3"/>
-        <v>449</v>
-      </c>
-      <c r="B451" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="C451" s="20">
-        <v>24.63999939</v>
-      </c>
-      <c r="D451" s="18">
-        <f>SUM(C$3:C451)/A451</f>
-        <v>30.904263238886397</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A452" s="18">
-        <f t="shared" si="3"/>
-        <v>450</v>
-      </c>
-      <c r="B452" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="C452" s="20">
-        <v>24.879999160000001</v>
-      </c>
-      <c r="D452" s="18">
-        <f>SUM(C$3:C452)/A452</f>
-        <v>30.890875985377765</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A453" s="18">
-        <f t="shared" si="3"/>
-        <v>451</v>
-      </c>
-      <c r="B453" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="C453" s="20">
-        <v>24.809999470000001</v>
-      </c>
-      <c r="D453" s="18">
-        <f>SUM(C$3:C453)/A453</f>
-        <v>30.87739288889134</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A454" s="18">
-        <f t="shared" si="3"/>
-        <v>452</v>
-      </c>
-      <c r="B454" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="C454" s="20">
-        <v>24.739999770000001</v>
-      </c>
-      <c r="D454" s="18">
-        <f>SUM(C$3:C454)/A454</f>
-        <v>30.86381458553096</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A455" s="18">
-        <f t="shared" si="3"/>
-        <v>453</v>
-      </c>
-      <c r="B455" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="C455" s="20">
-        <v>24.489999770000001</v>
-      </c>
-      <c r="D455" s="18">
-        <f>SUM(C$3:C455)/A455</f>
-        <v>30.849744354150097</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A456" s="18">
-        <f t="shared" si="3"/>
-        <v>454</v>
-      </c>
-      <c r="B456" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="C456" s="20">
-        <v>23.950000760000002</v>
-      </c>
-      <c r="D456" s="18">
-        <f>SUM(C$3:C456)/A456</f>
-        <v>30.834546681035228</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A457" s="18">
-        <f t="shared" si="3"/>
-        <v>455</v>
-      </c>
-      <c r="B457" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C457" s="20">
-        <v>24.409999849999998</v>
-      </c>
-      <c r="D457" s="18">
-        <f>SUM(C$3:C457)/A457</f>
-        <v>30.820426797890097</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A458" s="18">
-        <f t="shared" si="3"/>
-        <v>456</v>
-      </c>
-      <c r="B458" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="C458" s="20">
-        <v>24.399999619999999</v>
-      </c>
-      <c r="D458" s="18">
-        <f>SUM(C$3:C458)/A458</f>
-        <v>30.806346913728056</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A459" s="18">
-        <f t="shared" si="3"/>
-        <v>457</v>
-      </c>
-      <c r="B459" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="C459" s="20">
-        <v>24.200000760000002</v>
-      </c>
-      <c r="D459" s="18">
-        <f>SUM(C$3:C459)/A459</f>
-        <v>30.791891014048126</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A460" s="18">
-        <f t="shared" si="3"/>
-        <v>458</v>
-      </c>
-      <c r="B460" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="C460" s="20">
-        <v>24.229999540000001</v>
-      </c>
-      <c r="D460" s="18">
-        <f>SUM(C$3:C460)/A460</f>
-        <v>30.777563740087324</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A461" s="18">
-        <f t="shared" si="3"/>
-        <v>459</v>
-      </c>
-      <c r="B461" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="C461" s="20">
-        <v>24.020000459999999</v>
-      </c>
-      <c r="D461" s="18">
-        <f>SUM(C$3:C461)/A461</f>
-        <v>30.762841379999987</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A462" s="18">
-        <f t="shared" si="3"/>
-        <v>460</v>
-      </c>
-      <c r="B462" s="19">
-        <v>44984</v>
-      </c>
-      <c r="C462" s="20">
-        <v>23.780000690000001</v>
-      </c>
-      <c r="D462" s="18">
-        <f>SUM(C$3:C462)/A462</f>
-        <v>30.747661291543466</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A463" s="18">
-        <f t="shared" si="3"/>
-        <v>461</v>
-      </c>
-      <c r="B463" s="19">
-        <v>44985</v>
-      </c>
-      <c r="C463" s="20">
-        <v>23.979999540000001</v>
-      </c>
-      <c r="D463" s="18">
-        <f>SUM(C$3:C463)/A463</f>
-        <v>30.732980897288492</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="302">
   <si>
     <t>PE</t>
   </si>
@@ -1146,6 +1146,78 @@
   </si>
   <si>
     <t xml:space="preserve">2023/1/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/2/24
 </t>
   </si>
 </sst>
@@ -1709,115 +1781,115 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1825,6 +1897,273 @@
           <c:val>
             <c:numRef>
               <c:f>model1!资金</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>72000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>model1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total assets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>model1!时间</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44253</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44286</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44347</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44530</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="36"/>
@@ -1942,20 +2281,20 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
+              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>model1!$H$1</c:f>
+              <c:f>model1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>total assets</c:v>
+                  <c:v>profit amount</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1963,7 +2302,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1976,122 +2315,122 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>model1!资产</c:f>
+              <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="36"/>
@@ -2209,165 +2548,6 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>model1!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>profit amount</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>model1!时间</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>3.25108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.17509</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.27712</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>model1!金额</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
@@ -2382,17 +2562,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="252032128"/>
-        <c:axId val="252033664"/>
+        <c:axId val="176212608"/>
+        <c:axId val="224826112"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="252032128"/>
+      <c:dateAx>
+        <c:axId val="176212608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2429,15 +2609,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252033664"/>
+        <c:crossAx val="224826112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="252033664"/>
+        <c:axId val="224826112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2667,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252032128"/>
+        <c:crossAx val="176212608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17394,7 +17573,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -19014,9 +19193,9 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D443"/>
+  <dimension ref="A1:D463"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -24694,7 +24873,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A443" si="3">A355+1</f>
+        <f t="shared" ref="A356:A463" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -26098,6 +26277,326 @@
       <c r="D443" s="18">
         <f>SUM(C$3:C443)/A443</f>
         <v>31.014726063038534</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A444" s="18">
+        <f t="shared" si="3"/>
+        <v>442</v>
+      </c>
+      <c r="B444" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="C444" s="20">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D444" s="18">
+        <f>SUM(C$3:C444)/A444</f>
+        <v>31.001661071425325</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A445" s="18">
+        <f t="shared" si="3"/>
+        <v>443</v>
+      </c>
+      <c r="B445" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C445" s="20">
+        <v>25.129999160000001</v>
+      </c>
+      <c r="D445" s="18">
+        <f>SUM(C$3:C445)/A445</f>
+        <v>30.988406755598181</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A446" s="18">
+        <f t="shared" si="3"/>
+        <v>444</v>
+      </c>
+      <c r="B446" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C446" s="20">
+        <v>24.93000031</v>
+      </c>
+      <c r="D446" s="18">
+        <f>SUM(C$3:C446)/A446</f>
+        <v>30.974761696036023</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A447" s="18">
+        <f t="shared" si="3"/>
+        <v>445</v>
+      </c>
+      <c r="B447" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C447" s="20">
+        <v>24.600000380000001</v>
+      </c>
+      <c r="D447" s="18">
+        <f>SUM(C$3:C447)/A447</f>
+        <v>30.960436389707851</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A448" s="18">
+        <f t="shared" si="3"/>
+        <v>446</v>
+      </c>
+      <c r="B448" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C448" s="20">
+        <v>24.61000061</v>
+      </c>
+      <c r="D448" s="18">
+        <f>SUM(C$3:C448)/A448</f>
+        <v>30.94619774446187</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A449" s="18">
+        <f t="shared" si="3"/>
+        <v>447</v>
+      </c>
+      <c r="B449" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C449" s="20">
+        <v>24.5</v>
+      </c>
+      <c r="D449" s="18">
+        <f>SUM(C$3:C449)/A449</f>
+        <v>30.931776720425042</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="18">
+        <f t="shared" si="3"/>
+        <v>448</v>
+      </c>
+      <c r="B450" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C450" s="20">
+        <v>24.870000839999999</v>
+      </c>
+      <c r="D450" s="18">
+        <f>SUM(C$3:C450)/A450</f>
+        <v>30.918245970691949</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="18">
+        <f t="shared" si="3"/>
+        <v>449</v>
+      </c>
+      <c r="B451" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C451" s="20">
+        <v>24.63999939</v>
+      </c>
+      <c r="D451" s="18">
+        <f>SUM(C$3:C451)/A451</f>
+        <v>30.904263238886397</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="18">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="B452" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C452" s="20">
+        <v>24.879999160000001</v>
+      </c>
+      <c r="D452" s="18">
+        <f>SUM(C$3:C452)/A452</f>
+        <v>30.890875985377765</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="18">
+        <f t="shared" si="3"/>
+        <v>451</v>
+      </c>
+      <c r="B453" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C453" s="20">
+        <v>24.809999470000001</v>
+      </c>
+      <c r="D453" s="18">
+        <f>SUM(C$3:C453)/A453</f>
+        <v>30.87739288889134</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" s="18">
+        <f t="shared" si="3"/>
+        <v>452</v>
+      </c>
+      <c r="B454" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C454" s="20">
+        <v>24.739999770000001</v>
+      </c>
+      <c r="D454" s="18">
+        <f>SUM(C$3:C454)/A454</f>
+        <v>30.86381458553096</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="18">
+        <f t="shared" si="3"/>
+        <v>453</v>
+      </c>
+      <c r="B455" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="C455" s="20">
+        <v>24.489999770000001</v>
+      </c>
+      <c r="D455" s="18">
+        <f>SUM(C$3:C455)/A455</f>
+        <v>30.849744354150097</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" s="18">
+        <f t="shared" si="3"/>
+        <v>454</v>
+      </c>
+      <c r="B456" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="C456" s="20">
+        <v>23.950000760000002</v>
+      </c>
+      <c r="D456" s="18">
+        <f>SUM(C$3:C456)/A456</f>
+        <v>30.834546681035228</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" s="18">
+        <f t="shared" si="3"/>
+        <v>455</v>
+      </c>
+      <c r="B457" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="C457" s="20">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D457" s="18">
+        <f>SUM(C$3:C457)/A457</f>
+        <v>30.820426797890097</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" s="18">
+        <f t="shared" si="3"/>
+        <v>456</v>
+      </c>
+      <c r="B458" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="C458" s="20">
+        <v>24.399999619999999</v>
+      </c>
+      <c r="D458" s="18">
+        <f>SUM(C$3:C458)/A458</f>
+        <v>30.806346913728056</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459" s="18">
+        <f t="shared" si="3"/>
+        <v>457</v>
+      </c>
+      <c r="B459" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C459" s="20">
+        <v>24.200000760000002</v>
+      </c>
+      <c r="D459" s="18">
+        <f>SUM(C$3:C459)/A459</f>
+        <v>30.791891014048126</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" s="18">
+        <f t="shared" si="3"/>
+        <v>458</v>
+      </c>
+      <c r="B460" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="C460" s="20">
+        <v>24.229999540000001</v>
+      </c>
+      <c r="D460" s="18">
+        <f>SUM(C$3:C460)/A460</f>
+        <v>30.777563740087324</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" s="18">
+        <f t="shared" si="3"/>
+        <v>459</v>
+      </c>
+      <c r="B461" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="C461" s="20">
+        <v>24.020000459999999</v>
+      </c>
+      <c r="D461" s="18">
+        <f>SUM(C$3:C461)/A461</f>
+        <v>30.762841379999987</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" s="18">
+        <f t="shared" si="3"/>
+        <v>460</v>
+      </c>
+      <c r="B462" s="19">
+        <v>44984</v>
+      </c>
+      <c r="C462" s="20">
+        <v>23.780000690000001</v>
+      </c>
+      <c r="D462" s="18">
+        <f>SUM(C$3:C462)/A462</f>
+        <v>30.747661291543466</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" s="18">
+        <f t="shared" si="3"/>
+        <v>461</v>
+      </c>
+      <c r="B463" s="19">
+        <v>44985</v>
+      </c>
+      <c r="C463" s="20">
+        <v>23.979999540000001</v>
+      </c>
+      <c r="D463" s="18">
+        <f>SUM(C$3:C463)/A463</f>
+        <v>30.732980897288492</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -1232,7 +1232,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1588,7 +1588,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1647,6 +1647,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1735,7 +1736,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1781,115 +1781,118 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1899,274 +1902,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>38000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>46000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>48000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>52000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>54000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>56000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>58000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>62000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>66000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>68000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>72000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>model1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>total assets</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>model1!时间</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>43889</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43921</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43951</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43980</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44012</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44043</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44074</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44104</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44134</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44165</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44196</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44225</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44253</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44286</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44316</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44347</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44377</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44407</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44439</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44469</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44498</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44530</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44589</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44620</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44651</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44680</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44712</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44771</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44804</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44834</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44865</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44895</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44925</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44957</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>model1!资产</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2000.0000000000002</c:v>
                 </c:pt>
@@ -2275,26 +2011,29 @@
                 <c:pt idx="35">
                   <c:v>68151.7828856181</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>67767.93214664339</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
+              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>model1!$I$1</c:f>
+              <c:f>model1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>profit amount</c:v>
+                  <c:v>total assets</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2302,7 +2041,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2315,125 +2054,128 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>model1!金额</c:f>
+              <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2542,6 +2284,171 @@
                 <c:pt idx="35">
                   <c:v>-3848.2171143818996</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6232.0678533566097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>model1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>profit amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>model1!时间</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>3.25108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8991500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.17509</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1906699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6513100000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1706000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1298999999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9869400000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2014499999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.27712</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7245600000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9833500000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7232599999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4379900000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7860299999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.9806599999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.1114799999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9776999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7613100000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7106400000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8678999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.9547099609374996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8630097656249998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3440297851562502</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3355400390624999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8658500976562502</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5012099609375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6361599121093748</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1096201171875002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.8724699707031252</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7022099609375001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3477299804687499</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2993999023437501</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.4802900390625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4735300292968749</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.8110336914062501</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6777292480468748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>model1!金额</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2562,17 +2469,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="176212608"/>
-        <c:axId val="224826112"/>
+        <c:axId val="50120576"/>
+        <c:axId val="76939264"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="176212608"/>
+      <c:catAx>
+        <c:axId val="50120576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2609,14 +2516,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224826112"/>
+        <c:crossAx val="76939264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="224826112"/>
+        <c:axId val="76939264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2667,7 +2575,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176212608"/>
+        <c:crossAx val="50120576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2681,7 +2589,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17571,14 +17478,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -17599,7 +17506,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>180</v>
       </c>
@@ -17629,7 +17536,7 @@
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="14.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -17645,7 +17552,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="14.1" customHeight="1">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -17724,7 +17631,7 @@
         <v>-22000</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="14.1" customHeight="1">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -17809,7 +17716,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="14.1" customHeight="1">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -17889,7 +17796,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="14.1" customHeight="1">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -17963,7 +17870,7 @@
         <v>60293.406710853284</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="14.1" customHeight="1">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -18005,7 +17912,7 @@
         <v>-7.3828223896210132E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="14.1" customHeight="1">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -18043,7 +17950,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="14.1" customHeight="1">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -18081,7 +17988,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="14.1" customHeight="1">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -18119,7 +18026,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="14.1" customHeight="1">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -18157,7 +18064,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="14.1" customHeight="1">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -18195,7 +18102,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="14.1" customHeight="1">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -18233,7 +18140,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="14.1" customHeight="1">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -18271,7 +18178,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="14.1" customHeight="1">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -18284,7 +18191,7 @@
         <v>2000</v>
       </c>
       <c r="D15" s="17">
-        <f t="shared" ref="D15:D38" si="9">C15/B15</f>
+        <f t="shared" ref="D15:D39" si="9">C15/B15</f>
         <v>423.43635539860185</v>
       </c>
       <c r="E15" s="17">
@@ -18292,7 +18199,7 @@
         <v>6766.6987073504279</v>
       </c>
       <c r="F15" s="17">
-        <f t="shared" ref="F15:F38" si="10">E15*B15</f>
+        <f t="shared" ref="F15:F39" si="10">E15*B15</f>
         <v>31960.877336479982</v>
       </c>
       <c r="G15" s="17">
@@ -18300,16 +18207,16 @@
         <v>26000</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" ref="H15:H38" si="11">F15</f>
+        <f t="shared" ref="H15:H39" si="11">F15</f>
         <v>31960.877336479982</v>
       </c>
       <c r="I15" s="17">
-        <f t="shared" ref="I15:I38" si="12">H15-G15</f>
+        <f t="shared" ref="I15:I39" si="12">H15-G15</f>
         <v>5960.8773364799818</v>
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="14.1" customHeight="1">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -18318,7 +18225,7 @@
         <v>4.4379900000000001</v>
       </c>
       <c r="C16" s="16">
-        <f t="shared" ref="C16:C38" si="13">C15</f>
+        <f t="shared" ref="C16:C39" si="13">C15</f>
         <v>2000</v>
       </c>
       <c r="D16" s="17">
@@ -18326,7 +18233,7 @@
         <v>450.65446294381013</v>
       </c>
       <c r="E16" s="17">
-        <f t="shared" ref="E16:E38" si="14">E15+D16</f>
+        <f t="shared" ref="E16:E39" si="14">E15+D16</f>
         <v>7217.3531702942382</v>
       </c>
       <c r="F16" s="17">
@@ -18334,7 +18241,7 @@
         <v>32030.541196234128</v>
       </c>
       <c r="G16" s="17">
-        <f t="shared" ref="G16:G38" si="15">G15+C16</f>
+        <f t="shared" ref="G16:G39" si="15">G15+C16</f>
         <v>28000</v>
       </c>
       <c r="H16" s="17">
@@ -18347,7 +18254,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1">
       <c r="A17" s="14">
         <v>44316</v>
       </c>
@@ -18385,7 +18292,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1">
       <c r="A18" s="14">
         <v>44347</v>
       </c>
@@ -18423,7 +18330,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1">
       <c r="A19" s="14">
         <v>44377</v>
       </c>
@@ -18461,7 +18368,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1">
       <c r="A20" s="14">
         <v>44407</v>
       </c>
@@ -18499,7 +18406,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1">
       <c r="A21" s="14">
         <v>44439</v>
       </c>
@@ -18538,7 +18445,7 @@
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1">
       <c r="A22" s="14">
         <v>44469</v>
       </c>
@@ -18576,7 +18483,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1">
       <c r="A23" s="14">
         <v>44498</v>
       </c>
@@ -18614,7 +18521,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1">
       <c r="A24" s="14">
         <v>44530</v>
       </c>
@@ -18652,7 +18559,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1">
       <c r="A25" s="14">
         <v>44561</v>
       </c>
@@ -18690,7 +18597,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1">
       <c r="A26" s="14">
         <v>44589</v>
       </c>
@@ -18728,7 +18635,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1">
       <c r="A27" s="14">
         <v>44620</v>
       </c>
@@ -18766,7 +18673,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1">
       <c r="A28" s="14">
         <v>44651</v>
       </c>
@@ -18804,7 +18711,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1">
       <c r="A29" s="14">
         <v>44680</v>
       </c>
@@ -18842,7 +18749,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1">
       <c r="A30" s="14">
         <v>44712</v>
       </c>
@@ -18880,7 +18787,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1">
       <c r="A31" s="14">
         <v>44742</v>
       </c>
@@ -18918,7 +18825,7 @@
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1">
       <c r="A32" s="14">
         <v>44771</v>
       </c>
@@ -18956,7 +18863,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1">
       <c r="A33" s="14">
         <v>44804</v>
       </c>
@@ -18995,7 +18902,7 @@
       <c r="J33" s="6"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="12.75">
       <c r="A34" s="14">
         <v>44834</v>
       </c>
@@ -19032,7 +18939,7 @@
         <v>-11770.911062729705</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="12.75">
       <c r="A35" s="14">
         <v>44865</v>
       </c>
@@ -19069,7 +18976,7 @@
         <v>-12524.925264431353</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="12.75">
       <c r="A36" s="14">
         <v>44895</v>
       </c>
@@ -19106,7 +19013,7 @@
         <v>-9593.1455874388703</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="12.75">
       <c r="A37" s="14">
         <v>44925</v>
       </c>
@@ -19143,7 +19050,7 @@
         <v>-9706.5932891467164</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="12.75">
       <c r="A38" s="14">
         <v>44957</v>
       </c>
@@ -19179,6 +19086,46 @@
         <f t="shared" si="12"/>
         <v>-3848.2171143818996</v>
       </c>
+    </row>
+    <row r="39" spans="1:12" ht="12.75">
+      <c r="A39" s="14">
+        <v>44985</v>
+      </c>
+      <c r="B39" s="15">
+        <f>VLOOKUP(A39,[1]szse_innovation_100!$A:$F,6)</f>
+        <v>3.6777292480468748</v>
+      </c>
+      <c r="C39" s="16">
+        <f t="shared" si="13"/>
+        <v>2000</v>
+      </c>
+      <c r="D39" s="17">
+        <f t="shared" si="9"/>
+        <v>543.81382236393188</v>
+      </c>
+      <c r="E39" s="17">
+        <f t="shared" si="14"/>
+        <v>18426.569107182859</v>
+      </c>
+      <c r="F39" s="17">
+        <f t="shared" si="10"/>
+        <v>67767.93214664339</v>
+      </c>
+      <c r="G39" s="17">
+        <f t="shared" si="15"/>
+        <v>74000</v>
+      </c>
+      <c r="H39" s="17">
+        <f t="shared" si="11"/>
+        <v>67767.93214664339</v>
+      </c>
+      <c r="I39" s="17">
+        <f t="shared" si="12"/>
+        <v>-6232.0678533566097</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -19195,11 +19142,11 @@
   </sheetPr>
   <dimension ref="A1:D463"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
@@ -19207,16 +19154,16 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1">
+      <c r="B1" s="31" t="s">
         <v>194</v>
       </c>
       <c r="C1" s="22">
         <v>399088</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="30"/>
+    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+      <c r="B2" s="31"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
       </c>
@@ -19224,7 +19171,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -19239,7 +19186,7 @@
         <v>45.12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>2</v>
@@ -19255,7 +19202,7 @@
         <v>44.965000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1">
       <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -19271,7 +19218,7 @@
         <v>44.99666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -19287,7 +19234,7 @@
         <v>44.792500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1">
       <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -19303,7 +19250,7 @@
         <v>44.440000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -19319,7 +19266,7 @@
         <v>44.256666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -19335,7 +19282,7 @@
         <v>44.252857142857145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -19351,7 +19298,7 @@
         <v>44.220000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -19367,7 +19314,7 @@
         <v>44.181111111111115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -19383,7 +19330,7 @@
         <v>44.341000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -19399,7 +19346,7 @@
         <v>44.458181818181828</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -19415,7 +19362,7 @@
         <v>44.577500000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -19431,7 +19378,7 @@
         <v>44.703076923076928</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -19447,7 +19394,7 @@
         <v>44.860000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -19463,7 +19410,7 @@
         <v>44.968000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -19479,7 +19426,7 @@
         <v>45.078750000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -19495,7 +19442,7 @@
         <v>45.214117647058828</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -19511,7 +19458,7 @@
         <v>45.345555555555563</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -19527,7 +19474,7 @@
         <v>45.46631578947369</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -19543,7 +19490,7 @@
         <v>45.062500000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1">
       <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -19559,7 +19506,7 @@
         <v>44.643333333333338</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1">
       <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -19575,7 +19522,7 @@
         <v>44.269090909090913</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1">
       <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -19591,7 +19538,7 @@
         <v>43.928695652173921</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1">
       <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -19607,7 +19554,7 @@
         <v>43.627500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1">
       <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -19623,7 +19570,7 @@
         <v>43.332400000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1">
       <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -19639,7 +19586,7 @@
         <v>43.088461538461544</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -19655,7 +19602,7 @@
         <v>42.901851851851859</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -19671,7 +19618,7 @@
         <v>42.726071428571437</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1">
       <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -19687,7 +19634,7 @@
         <v>42.570000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1">
       <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -19703,7 +19650,7 @@
         <v>42.435000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -19719,7 +19666,7 @@
         <v>42.298387096774199</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1">
       <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -19735,7 +19682,7 @@
         <v>42.179062500000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -19751,7 +19698,7 @@
         <v>42.093333333333341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -19767,7 +19714,7 @@
         <v>42.005000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1">
       <c r="A37" s="18">
         <f t="shared" ref="A37:A100" si="1">A36+1</f>
         <v>35</v>
@@ -19783,7 +19730,7 @@
         <v>41.929428571428573</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1">
       <c r="A38" s="18">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -19799,7 +19746,7 @@
         <v>41.856666666666662</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1">
       <c r="A39" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -19815,7 +19762,7 @@
         <v>41.802432432432425</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1">
       <c r="A40" s="18">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -19831,7 +19778,7 @@
         <v>41.751315789473679</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1">
       <c r="A41" s="18">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -19847,7 +19794,7 @@
         <v>41.689999999999991</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1">
       <c r="A42" s="18">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -19863,7 +19810,7 @@
         <v>41.621999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1">
       <c r="A43" s="18">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -19879,7 +19826,7 @@
         <v>41.5680487804878</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1">
       <c r="A44" s="18">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -19895,7 +19842,7 @@
         <v>41.512380952380944</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1">
       <c r="A45" s="18">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -19911,7 +19858,7 @@
         <v>41.454186046511623</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1">
       <c r="A46" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -19927,7 +19874,7 @@
         <v>41.399318181818174</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1">
       <c r="A47" s="18">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -19943,7 +19890,7 @@
         <v>41.36044444444444</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1">
       <c r="A48" s="18">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -19959,7 +19906,7 @@
         <v>41.322391304347818</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1">
       <c r="A49" s="18">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -19975,7 +19922,7 @@
         <v>41.285319148936161</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1">
       <c r="A50" s="18">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -19991,7 +19938,7 @@
         <v>41.222499999999989</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1">
       <c r="A51" s="18">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -20007,7 +19954,7 @@
         <v>41.174693877551015</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1">
       <c r="A52" s="18">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -20023,7 +19970,7 @@
         <v>41.139199999999988</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1">
       <c r="A53" s="18">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -20039,7 +19986,7 @@
         <v>41.106862745098027</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1">
       <c r="A54" s="18">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -20055,7 +20002,7 @@
         <v>41.078653846153834</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1">
       <c r="A55" s="18">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -20071,7 +20018,7 @@
         <v>41.062452830188661</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1">
       <c r="A56" s="18">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -20087,7 +20034,7 @@
         <v>41.045555555555538</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1">
       <c r="A57" s="18">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -20103,7 +20050,7 @@
         <v>41.038181818181798</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1">
       <c r="A58" s="18">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -20119,7 +20066,7 @@
         <v>41.038928571428549</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1">
       <c r="A59" s="18">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -20135,7 +20082,7 @@
         <v>41.034736842105247</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1">
       <c r="A60" s="18">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -20151,7 +20098,7 @@
         <v>41.041896551724122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1">
       <c r="A61" s="18">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -20167,7 +20114,7 @@
         <v>41.046101694915237</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1">
       <c r="A62" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -20183,7 +20130,7 @@
         <v>41.029166666666654</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1">
       <c r="A63" s="18">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -20199,7 +20146,7 @@
         <v>41.015737704918017</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1">
       <c r="A64" s="18">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -20215,7 +20162,7 @@
         <v>40.997580645161271</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1">
       <c r="A65" s="18">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -20231,7 +20178,7 @@
         <v>40.997301587301571</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1">
       <c r="A66" s="18">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -20247,7 +20194,7 @@
         <v>40.998281249999984</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1">
       <c r="A67" s="18">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -20263,7 +20210,7 @@
         <v>40.994153846153829</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1">
       <c r="A68" s="18">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -20279,7 +20226,7 @@
         <v>41.006060606060593</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1">
       <c r="A69" s="18">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -20295,7 +20242,7 @@
         <v>41.01641791044775</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1">
       <c r="A70" s="18">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -20311,7 +20258,7 @@
         <v>41.020294117647047</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1">
       <c r="A71" s="18">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -20327,7 +20274,7 @@
         <v>41.027826086956509</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1">
       <c r="A72" s="18">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -20343,7 +20290,7 @@
         <v>41.021428571428558</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1">
       <c r="A73" s="18">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -20359,7 +20306,7 @@
         <v>41.019295774647873</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1">
       <c r="A74" s="18">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -20375,7 +20322,7 @@
         <v>41.017499999999984</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1">
       <c r="A75" s="18">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -20391,7 +20338,7 @@
         <v>41.027123287671216</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1">
       <c r="A76" s="18">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -20407,7 +20354,7 @@
         <v>41.036081081081065</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1">
       <c r="A77" s="18">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -20423,7 +20370,7 @@
         <v>41.035466666666643</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1">
       <c r="A78" s="18">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -20439,7 +20386,7 @@
         <v>41.020526335866805</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1">
       <c r="A79" s="18">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -20455,7 +20402,7 @@
         <v>40.984025981952598</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1">
       <c r="A80" s="18">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -20471,7 +20418,7 @@
         <v>40.953717942849167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1">
       <c r="A81" s="18">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -20487,7 +20434,7 @@
         <v>40.943164537647085</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1">
       <c r="A82" s="18">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -20503,7 +20450,7 @@
         <v>40.930499984741189</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1">
       <c r="A83" s="18">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -20519,7 +20466,7 @@
         <v>40.927160476872935</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1">
       <c r="A84" s="18">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -20535,7 +20482,7 @@
         <v>40.921951202764724</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1">
       <c r="A85" s="18">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -20551,7 +20498,7 @@
         <v>40.929036107810127</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1">
       <c r="A86" s="18">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -20567,7 +20514,7 @@
         <v>40.931428547813759</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1">
       <c r="A87" s="18">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -20583,7 +20530,7 @@
         <v>40.92988232062843</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1">
       <c r="A88" s="18">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -20599,7 +20546,7 @@
         <v>40.928372052214847</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1">
       <c r="A89" s="18">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -20615,7 +20562,7 @@
         <v>40.927701096808754</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1">
       <c r="A90" s="18">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -20631,7 +20578,7 @@
         <v>40.924090864008107</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1">
       <c r="A91" s="18">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -20647,7 +20594,7 @@
         <v>40.917528047025854</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1">
       <c r="A92" s="18">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -20663,7 +20610,7 @@
         <v>40.904444420708536</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1">
       <c r="A93" s="18">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -20679,7 +20626,7 @@
         <v>40.886703283288959</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1">
       <c r="A94" s="18">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -20695,7 +20642,7 @@
         <v>40.859891271176529</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1">
       <c r="A95" s="18">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -20711,7 +20658,7 @@
         <v>40.836344033518131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1">
       <c r="A96" s="18">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -20727,7 +20674,7 @@
         <v>40.815851010261682</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1">
       <c r="A97" s="18">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -20743,7 +20690,7 @@
         <v>40.787684151097331</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1">
       <c r="A98" s="18">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -20759,7 +20706,7 @@
         <v>40.770416618982935</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1">
       <c r="A99" s="18">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -20775,7 +20722,7 @@
         <v>40.756804084384548</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1">
       <c r="A100" s="18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -20791,7 +20738,7 @@
         <v>40.744489749207773</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1">
       <c r="A101" s="18">
         <f t="shared" ref="A101:A355" si="2">A100+1</f>
         <v>99</v>
@@ -20807,7 +20754,7 @@
         <v>40.723232270828383</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1">
       <c r="A102" s="18">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -20823,7 +20770,7 @@
         <v>40.702299958801255</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1">
       <c r="A103" s="18">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -20839,7 +20786,7 @@
         <v>40.680296984379815</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1">
       <c r="A104" s="18">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -20855,7 +20802,7 @@
         <v>40.654705834482208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1">
       <c r="A105" s="18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -20871,7 +20818,7 @@
         <v>40.599999957038342</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1">
       <c r="A106" s="18">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -20887,7 +20834,7 @@
         <v>40.542692259274979</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1">
       <c r="A107" s="18">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -20903,7 +20850,7 @@
         <v>40.482476154145722</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1">
       <c r="A108" s="18">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -20919,7 +20866,7 @@
         <v>40.435849029253099</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1">
       <c r="A109" s="18">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -20935,7 +20882,7 @@
         <v>40.391775685247957</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1">
       <c r="A110" s="18">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -20951,7 +20898,7 @@
         <v>40.346574042991335</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1">
       <c r="A111" s="18">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -20967,7 +20914,7 @@
         <v>40.302110060945544</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1">
       <c r="A112" s="18">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -20983,7 +20930,7 @@
         <v>40.260272703690944</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1">
       <c r="A113" s="18">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -20999,7 +20946,7 @@
         <v>40.215585555342926</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1">
       <c r="A114" s="18">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -21015,7 +20962,7 @@
         <v>40.173214266640784</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1">
       <c r="A115" s="18">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -21031,7 +20978,7 @@
         <v>40.128584061344093</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1">
       <c r="A116" s="18">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -21047,7 +20994,7 @@
         <v>40.078245599311678</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1">
       <c r="A117" s="18">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -21063,7 +21010,7 @@
         <v>40.032521721881352</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1">
       <c r="A118" s="18">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -21079,7 +21026,7 @@
         <v>39.985344822324535</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1">
       <c r="A119" s="18">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -21095,7 +21042,7 @@
         <v>39.940427341298147</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1">
       <c r="A120" s="18">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -21111,7 +21058,7 @@
         <v>39.89703388666701</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1">
       <c r="A121" s="18">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -21127,7 +21074,7 @@
         <v>39.856638645204157</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1">
       <c r="A122" s="18">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -21143,7 +21090,7 @@
         <v>39.814833324432357</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1">
       <c r="A123" s="18">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -21159,7 +21106,7 @@
         <v>39.769752062332515</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1">
       <c r="A124" s="18">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -21175,7 +21122,7 @@
         <v>39.730819672131133</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1">
       <c r="A125" s="18">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -21191,7 +21138,7 @@
         <v>39.694634136422749</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1">
       <c r="A126" s="18">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -21207,7 +21154,7 @@
         <v>39.656854815322561</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1">
       <c r="A127" s="18">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -21223,7 +21170,7 @@
         <v>39.615839967039982</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1">
       <c r="A128" s="18">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -21239,7 +21186,7 @@
         <v>39.58039680484125</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1">
       <c r="A129" s="18">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -21255,7 +21202,7 @@
         <v>39.545433045669277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1">
       <c r="A130" s="18">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -21271,7 +21218,7 @@
         <v>39.514765591640611</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1">
       <c r="A131" s="18">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -21287,7 +21234,7 @@
         <v>39.483953462403086</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1">
       <c r="A132" s="18">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -21303,7 +21250,7 @@
         <v>39.455384593153838</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1">
       <c r="A133" s="18">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -21319,7 +21266,7 @@
         <v>39.425419815954186</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1">
       <c r="A134" s="18">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -21335,7 +21282,7 @@
         <v>39.396590869848474</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1">
       <c r="A135" s="18">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -21351,7 +21298,7 @@
         <v>39.371127767969917</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1">
       <c r="A136" s="18">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -21367,7 +21314,7 @@
         <v>39.348358155447755</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1">
       <c r="A137" s="18">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -21383,7 +21330,7 @@
         <v>39.325777719037028</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1">
       <c r="A138" s="18">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -21399,7 +21346,7 @@
         <v>39.30124995404411</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1">
       <c r="A139" s="18">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -21415,7 +21362,7 @@
         <v>39.275182432773718</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1">
       <c r="A140" s="18">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -21431,7 +21378,7 @@
         <v>39.253623134275358</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1">
       <c r="A141" s="18">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -21447,7 +21394,7 @@
         <v>39.222517934100708</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1">
       <c r="A142" s="18">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -21463,7 +21410,7 @@
         <v>39.191714233499987</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1">
       <c r="A143" s="18">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -21479,7 +21426,7 @@
         <v>39.159361657872324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1">
       <c r="A144" s="18">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -21495,7 +21442,7 @@
         <v>39.130704182464775</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1">
       <c r="A145" s="18">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -21511,7 +21458,7 @@
         <v>39.101118849230758</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1">
       <c r="A146" s="18">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -21527,7 +21474,7 @@
         <v>39.072916641388879</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1">
       <c r="A147" s="18">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -21543,7 +21490,7 @@
         <v>39.046344810896542</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1">
       <c r="A148" s="18">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -21559,7 +21506,7 @@
         <v>39.018561638767117</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1">
       <c r="A149" s="18">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -21575,7 +21522,7 @@
         <v>38.994013599387742</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1">
       <c r="A150" s="18">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -21591,7 +21538,7 @@
         <v>38.968783766418909</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1">
       <c r="A151" s="18">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -21607,7 +21554,7 @@
         <v>38.941812068389247</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1">
       <c r="A152" s="18">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -21623,7 +21570,7 @@
         <v>38.915199992999987</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1">
       <c r="A153" s="18">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -21639,7 +21586,7 @@
         <v>38.890794691986741</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1">
       <c r="A154" s="18">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -21655,7 +21602,7 @@
         <v>38.864144727894725</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1">
       <c r="A155" s="18">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -21671,7 +21618,7 @@
         <v>38.840653588888877</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1">
       <c r="A156" s="18">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -21687,7 +21634,7 @@
         <v>38.822142862207784</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1">
       <c r="A157" s="18">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -21703,7 +21650,7 @@
         <v>38.801870974774182</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1">
       <c r="A158" s="18">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -21719,7 +21666,7 @@
         <v>38.781025643141014</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1">
       <c r="A159" s="18">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -21735,7 +21682,7 @@
         <v>38.75942674980891</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1">
       <c r="A160" s="18">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -21751,7 +21698,7 @@
         <v>38.73683543259493</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1">
       <c r="A161" s="18">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -21767,7 +21714,7 @@
         <v>38.715911938364776</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1">
       <c r="A162" s="18">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -21783,7 +21730,7 @@
         <v>38.695499988749994</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1">
       <c r="A163" s="18">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -21799,7 +21746,7 @@
         <v>38.674285695527942</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1">
       <c r="A164" s="18">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -21815,7 +21762,7 @@
         <v>38.652962951851848</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1">
       <c r="A165" s="18">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -21831,7 +21778,7 @@
         <v>38.632515324478518</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1">
       <c r="A166" s="18">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -21847,7 +21794,7 @@
         <v>38.609999978780486</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1">
       <c r="A167" s="18">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -21863,7 +21810,7 @@
         <v>38.586363609696967</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1">
       <c r="A168" s="18">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -21879,7 +21826,7 @@
         <v>38.566746972469872</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1">
       <c r="A169" s="18">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -21895,7 +21842,7 @@
         <v>38.550598780598797</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1">
       <c r="A170" s="18">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -21911,7 +21858,7 @@
         <v>38.53458331529761</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1">
       <c r="A171" s="18">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -21927,7 +21874,7 @@
         <v>38.518757382130168</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1">
       <c r="A172" s="18">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -21943,7 +21890,7 @@
         <v>38.501588212058813</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1">
       <c r="A173" s="18">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -21959,7 +21906,7 @@
         <v>38.482806999824554</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1">
       <c r="A174" s="18">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -21975,7 +21922,7 @@
         <v>38.465581380406974</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1">
       <c r="A175" s="18">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -21991,7 +21938,7 @@
         <v>38.445202289364161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1">
       <c r="A176" s="18">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -22007,7 +21954,7 @@
         <v>38.42022985362069</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1">
       <c r="A177" s="18">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -22023,7 +21970,7 @@
         <v>38.397485675200002</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1">
       <c r="A178" s="18">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -22039,7 +21986,7 @@
         <v>38.376420407897733</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1">
       <c r="A179" s="18">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -22055,7 +22002,7 @@
         <v>38.356271147796612</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1">
       <c r="A180" s="18">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -22071,7 +22018,7 @@
         <v>38.333426933033707</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1">
       <c r="A181" s="18">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -22087,7 +22034,7 @@
         <v>38.311229020614526</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1">
       <c r="A182" s="18">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -22103,7 +22050,7 @@
         <v>38.290888867888889</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1">
       <c r="A183" s="18">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -22119,7 +22066,7 @@
         <v>38.268618754364638</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1">
       <c r="A184" s="18">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -22135,7 +22082,7 @@
         <v>38.248351618351641</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1">
       <c r="A185" s="18">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -22151,7 +22098,7 @@
         <v>38.228579205136612</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1">
       <c r="A186" s="18">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -22167,7 +22114,7 @@
         <v>38.206847793913042</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1">
       <c r="A187" s="18">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -22183,7 +22130,7 @@
         <v>38.181189152216213</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1">
       <c r="A188" s="18">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -22199,7 +22146,7 @@
         <v>38.15387092274193</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1">
       <c r="A189" s="18">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -22215,7 +22162,7 @@
         <v>38.12657749128342</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1">
       <c r="A190" s="18">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -22231,7 +22178,7 @@
         <v>38.100053139680853</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1">
       <c r="A191" s="18">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -22247,7 +22194,7 @@
         <v>38.071216879682538</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1">
       <c r="A192" s="18">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -22263,7 +22210,7 @@
         <v>38.0456315228421</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1">
       <c r="A193" s="18">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -22279,7 +22226,7 @@
         <v>38.017120363036646</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1">
       <c r="A194" s="18">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -22295,7 +22242,7 @@
         <v>37.989791613541662</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1">
       <c r="A195" s="18">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -22311,7 +22258,7 @@
         <v>37.965699429792743</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1">
       <c r="A196" s="18">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -22327,7 +22274,7 @@
         <v>37.941855619072165</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1">
       <c r="A197" s="18">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -22343,7 +22290,7 @@
         <v>37.915128152000001</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1">
       <c r="A198" s="18">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -22359,7 +22306,7 @@
         <v>37.889132598622453</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1">
       <c r="A199" s="18">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -22375,7 +22322,7 @@
         <v>37.861268989137059</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1">
       <c r="A200" s="18">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -22391,7 +22338,7 @@
         <v>37.834646419242425</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1">
       <c r="A201" s="18">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -22407,7 +22354,7 @@
         <v>37.804422063819104</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1">
       <c r="A202" s="18">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -22423,7 +22370,7 @@
         <v>37.775999948150009</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1">
       <c r="A203" s="18">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -22439,7 +22386,7 @@
         <v>37.743084524776123</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1">
       <c r="A204" s="18">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -22455,7 +22402,7 @@
         <v>37.710494996683174</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1">
       <c r="A205" s="18">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -22471,7 +22418,7 @@
         <v>37.678472849310346</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1">
       <c r="A206" s="18">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -22487,7 +22434,7 @@
         <v>37.643872496323532</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1">
       <c r="A207" s="18">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -22503,7 +22450,7 @@
         <v>37.61151214380488</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1">
       <c r="A208" s="18">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -22519,7 +22466,7 @@
         <v>37.577281499757277</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1">
       <c r="A209" s="18">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -22535,7 +22482,7 @@
         <v>37.540193181497585</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1">
       <c r="A210" s="18">
         <f t="shared" si="2"/>
         <v>208</v>
@@ -22551,7 +22498,7 @@
         <v>37.503221100721149</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1">
       <c r="A211" s="18">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -22567,7 +22514,7 @@
         <v>37.469999944593297</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1">
       <c r="A212" s="18">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -22583,7 +22530,7 @@
         <v>37.437380901238093</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1">
       <c r="A213" s="18">
         <f t="shared" si="2"/>
         <v>211</v>
@@ -22599,7 +22546,7 @@
         <v>37.405781941800946</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1">
       <c r="A214" s="18">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -22615,7 +22562,7 @@
         <v>37.374245231273584</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1">
       <c r="A215" s="18">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -22631,7 +22578,7 @@
         <v>37.342629053615028</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1">
       <c r="A216" s="18">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -22647,7 +22594,7 @@
         <v>37.309205555841125</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1">
       <c r="A217" s="18">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -22663,7 +22610,7 @@
         <v>37.27981390102326</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1">
       <c r="A218" s="18">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -22679,7 +22626,7 @@
         <v>37.247685133657413</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1">
       <c r="A219" s="18">
         <f t="shared" si="2"/>
         <v>217</v>
@@ -22695,7 +22642,7 @@
         <v>37.218433126682037</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1">
       <c r="A220" s="18">
         <f t="shared" si="2"/>
         <v>218</v>
@@ -22711,7 +22658,7 @@
         <v>37.189770586238538</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1">
       <c r="A221" s="18">
         <f t="shared" si="2"/>
         <v>219</v>
@@ -22727,7 +22674,7 @@
         <v>37.161232823424669</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1">
       <c r="A222" s="18">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -22743,7 +22690,7 @@
         <v>37.130772670045459</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1">
       <c r="A223" s="18">
         <f t="shared" si="2"/>
         <v>221</v>
@@ -22759,7 +22706,7 @@
         <v>37.098913970859734</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1">
       <c r="A224" s="18">
         <f t="shared" si="2"/>
         <v>222</v>
@@ -22775,7 +22722,7 @@
         <v>37.065180126891896</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1">
       <c r="A225" s="18">
         <f t="shared" si="2"/>
         <v>223</v>
@@ -22791,7 +22738,7 @@
         <v>37.026053759282519</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1">
       <c r="A226" s="18">
         <f t="shared" si="2"/>
         <v>224</v>
@@ -22807,7 +22754,7 @@
         <v>36.984464229464287</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1">
       <c r="A227" s="18">
         <f t="shared" si="2"/>
         <v>225</v>
@@ -22823,7 +22770,7 @@
         <v>36.94248883697778</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1">
       <c r="A228" s="18">
         <f t="shared" si="2"/>
         <v>226</v>
@@ -22839,7 +22786,7 @@
         <v>36.903849501769912</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1">
       <c r="A229" s="18">
         <f t="shared" si="2"/>
         <v>227</v>
@@ -22855,7 +22802,7 @@
         <v>36.866607877356834</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1">
       <c r="A230" s="18">
         <f t="shared" si="2"/>
         <v>228</v>
@@ -22871,7 +22818,7 @@
         <v>36.825438542543864</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1">
       <c r="A231" s="18">
         <f t="shared" si="2"/>
         <v>229</v>
@@ -22887,7 +22834,7 @@
         <v>36.780523967772936</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1">
       <c r="A232" s="18">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -22903,7 +22850,7 @@
         <v>36.740956473608705</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1">
       <c r="A233" s="18">
         <f t="shared" si="2"/>
         <v>231</v>
@@ -22919,7 +22866,7 @@
         <v>36.704978308398275</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1">
       <c r="A234" s="18">
         <f t="shared" si="2"/>
         <v>232</v>
@@ -22935,7 +22882,7 @@
         <v>36.66892236806035</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1">
       <c r="A235" s="18">
         <f t="shared" si="2"/>
         <v>233</v>
@@ -22951,7 +22898,7 @@
         <v>36.633948454291847</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1">
       <c r="A236" s="18">
         <f t="shared" si="2"/>
         <v>234</v>
@@ -22967,7 +22914,7 @@
         <v>36.598119614743588</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1">
       <c r="A237" s="18">
         <f t="shared" si="2"/>
         <v>235</v>
@@ -22983,7 +22930,7 @@
         <v>36.563361660255318</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1">
       <c r="A238" s="18">
         <f t="shared" si="2"/>
         <v>236</v>
@@ -22999,7 +22946,7 @@
         <v>36.528262673093217</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1">
       <c r="A239" s="18">
         <f t="shared" si="2"/>
         <v>237</v>
@@ -23015,7 +22962,7 @@
         <v>36.490632875358649</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1">
       <c r="A240" s="18">
         <f t="shared" si="2"/>
         <v>238</v>
@@ -23031,7 +22978,7 @@
         <v>36.451512570462185</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1">
       <c r="A241" s="18">
         <f t="shared" si="2"/>
         <v>239</v>
@@ -23047,7 +22994,7 @@
         <v>36.412008334728036</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1">
       <c r="A242" s="18">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -23063,7 +23010,7 @@
         <v>36.376874964750002</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1">
       <c r="A243" s="18">
         <f t="shared" si="2"/>
         <v>241</v>
@@ -23079,7 +23026,7 @@
         <v>36.340622369004151</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1">
       <c r="A244" s="18">
         <f t="shared" si="2"/>
         <v>242</v>
@@ -23095,7 +23042,7 @@
         <v>36.305495830909088</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1">
       <c r="A245" s="18">
         <f t="shared" si="2"/>
         <v>243</v>
@@ -23111,7 +23058,7 @@
         <v>36.269876504938274</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1">
       <c r="A246" s="18">
         <f t="shared" si="2"/>
         <v>244</v>
@@ -23127,7 +23074,7 @@
         <v>36.232704883032788</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1">
       <c r="A247" s="18">
         <f t="shared" si="2"/>
         <v>245</v>
@@ -23143,7 +23090,7 @@
         <v>36.195714251183674</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1">
       <c r="A248" s="18">
         <f t="shared" si="2"/>
         <v>246</v>
@@ -23159,7 +23106,7 @@
         <v>36.154715415243899</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1">
       <c r="A249" s="18">
         <f t="shared" si="2"/>
         <v>247</v>
@@ -23175,7 +23122,7 @@
         <v>36.116113331943318</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1">
       <c r="A250" s="18">
         <f t="shared" si="2"/>
         <v>248</v>
@@ -23191,7 +23138,7 @@
         <v>36.076048360080641</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1">
       <c r="A251" s="18">
         <f t="shared" si="2"/>
         <v>249</v>
@@ -23207,7 +23154,7 @@
         <v>36.036947764859427</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1">
       <c r="A252" s="18">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -23223,7 +23170,7 @@
         <v>35.997639970119991</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1">
       <c r="A253" s="18">
         <f t="shared" si="2"/>
         <v>251</v>
@@ -23239,7 +23186,7 @@
         <v>35.959402359163342</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1">
       <c r="A254" s="18">
         <f t="shared" si="2"/>
         <v>252</v>
@@ -23255,7 +23202,7 @@
         <v>35.920357115039671</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1">
       <c r="A255" s="18">
         <f t="shared" si="2"/>
         <v>253</v>
@@ -23271,7 +23218,7 @@
         <v>35.879051352964417</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1">
       <c r="A256" s="18">
         <f t="shared" si="2"/>
         <v>254</v>
@@ -23287,7 +23234,7 @@
         <v>35.835787368858256</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1">
       <c r="A257" s="18">
         <f t="shared" si="2"/>
         <v>255</v>
@@ -23303,7 +23250,7 @@
         <v>35.792862710117632</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1">
       <c r="A258" s="18">
         <f t="shared" si="2"/>
         <v>256</v>
@@ -23319,7 +23266,7 @@
         <v>35.744648405624986</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1">
       <c r="A259" s="18">
         <f t="shared" si="2"/>
         <v>257</v>
@@ -23335,7 +23282,7 @@
         <v>35.69571981291827</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1">
       <c r="A260" s="18">
         <f t="shared" si="2"/>
         <v>258</v>
@@ -23351,7 +23298,7 @@
         <v>35.651472839573628</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1">
       <c r="A261" s="18">
         <f t="shared" si="2"/>
         <v>259</v>
@@ -23367,7 +23314,7 @@
         <v>35.606949781660212</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1">
       <c r="A262" s="18">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -23383,7 +23330,7 @@
         <v>35.566653817730753</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1">
       <c r="A263" s="18">
         <f t="shared" si="2"/>
         <v>261</v>
@@ -23399,7 +23346,7 @@
         <v>35.519386943103434</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1">
       <c r="A264" s="18">
         <f t="shared" si="2"/>
         <v>262</v>
@@ -23415,7 +23362,7 @@
         <v>35.470534318549603</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1">
       <c r="A265" s="18">
         <f t="shared" si="2"/>
         <v>263</v>
@@ -23431,7 +23378,7 @@
         <v>35.421064602813672</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1">
       <c r="A266" s="18">
         <f t="shared" si="2"/>
         <v>264</v>
@@ -23447,7 +23394,7 @@
         <v>35.373181784962107</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1">
       <c r="A267" s="18">
         <f t="shared" si="2"/>
         <v>265</v>
@@ -23463,7 +23410,7 @@
         <v>35.328188649018855</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1">
       <c r="A268" s="18">
         <f t="shared" si="2"/>
         <v>266</v>
@@ -23479,7 +23426,7 @@
         <v>35.283233055751865</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1">
       <c r="A269" s="18">
         <f t="shared" si="2"/>
         <v>267</v>
@@ -23495,7 +23442,7 @@
         <v>35.239288359812718</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1">
       <c r="A270" s="18">
         <f t="shared" si="2"/>
         <v>268</v>
@@ -23511,7 +23458,7 @@
         <v>35.194701466380579</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1">
       <c r="A271" s="18">
         <f t="shared" si="2"/>
         <v>269</v>
@@ -23527,7 +23474,7 @@
         <v>35.152081756617086</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1">
       <c r="A272" s="18">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -23543,7 +23490,7 @@
         <v>35.109703672629614</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1">
       <c r="A273" s="18">
         <f t="shared" si="2"/>
         <v>271</v>
@@ -23559,7 +23506,7 @@
         <v>35.067933551771205</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1">
       <c r="A274" s="18">
         <f t="shared" si="2"/>
         <v>272</v>
@@ -23575,7 +23522,7 @@
         <v>35.027867619595575</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1">
       <c r="A275" s="18">
         <f t="shared" si="2"/>
         <v>273</v>
@@ -23591,7 +23538,7 @@
         <v>34.987655647509143</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1">
       <c r="A276" s="18">
         <f t="shared" si="2"/>
         <v>274</v>
@@ -23607,7 +23554,7 @@
         <v>34.944671499452539</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1">
       <c r="A277" s="18">
         <f t="shared" si="2"/>
         <v>275</v>
@@ -23623,7 +23570,7 @@
         <v>34.902363601163621</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1">
       <c r="A278" s="18">
         <f t="shared" si="2"/>
         <v>276</v>
@@ -23639,7 +23586,7 @@
         <v>34.860434747246366</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1">
       <c r="A279" s="18">
         <f t="shared" si="2"/>
         <v>277</v>
@@ -23655,7 +23602,7 @@
         <v>34.818953036389878</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1">
       <c r="A280" s="18">
         <f t="shared" si="2"/>
         <v>278</v>
@@ -23671,7 +23618,7 @@
         <v>34.778740972913653</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1">
       <c r="A281" s="18">
         <f t="shared" si="2"/>
         <v>279</v>
@@ -23687,7 +23634,7 @@
         <v>34.740573439534039</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1">
       <c r="A282" s="18">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -23703,7 +23650,7 @@
         <v>34.703321389642845</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1">
       <c r="A283" s="18">
         <f t="shared" si="2"/>
         <v>281</v>
@@ -23719,7 +23666,7 @@
         <v>34.66704622537366</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1">
       <c r="A284" s="18">
         <f t="shared" si="2"/>
         <v>282</v>
@@ -23735,7 +23682,7 @@
         <v>34.633936132092195</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1">
       <c r="A285" s="18">
         <f t="shared" si="2"/>
         <v>283</v>
@@ -23751,7 +23698,7 @@
         <v>34.60084802017667</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1">
       <c r="A286" s="18">
         <f t="shared" si="2"/>
         <v>284</v>
@@ -23767,7 +23714,7 @@
         <v>34.568661932359149</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1">
       <c r="A287" s="18">
         <f t="shared" si="2"/>
         <v>285</v>
@@ -23783,7 +23730,7 @@
         <v>34.534210486982445</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1">
       <c r="A288" s="18">
         <f t="shared" si="2"/>
         <v>286</v>
@@ -23799,7 +23746,7 @@
         <v>34.502202755069924</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1">
       <c r="A289" s="18">
         <f t="shared" si="2"/>
         <v>287</v>
@@ -23815,7 +23762,7 @@
         <v>34.441742116968634</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1">
       <c r="A290" s="18">
         <f t="shared" si="2"/>
         <v>288</v>
@@ -23831,7 +23778,7 @@
         <v>34.411076347847221</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1">
       <c r="A291" s="18">
         <f t="shared" si="2"/>
         <v>289</v>
@@ -23847,7 +23794,7 @@
         <v>34.381903071695504</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1">
       <c r="A292" s="18">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -23863,7 +23810,7 @@
         <v>34.352999957655172</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1">
       <c r="A293" s="18">
         <f t="shared" si="2"/>
         <v>291</v>
@@ -23879,7 +23826,7 @@
         <v>34.326013703505154</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1">
       <c r="A294" s="18">
         <f t="shared" si="2"/>
         <v>292</v>
@@ -23895,7 +23842,7 @@
         <v>34.300958862842464</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1">
       <c r="A295" s="18">
         <f t="shared" si="2"/>
         <v>293</v>
@@ -23911,7 +23858,7 @@
         <v>34.276006784027302</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1">
       <c r="A296" s="18">
         <f t="shared" si="2"/>
         <v>294</v>
@@ -23927,7 +23874,7 @@
         <v>34.249897918707482</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1">
       <c r="A297" s="18">
         <f t="shared" si="2"/>
         <v>295</v>
@@ -23943,7 +23890,7 @@
         <v>34.226135552101695</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1">
       <c r="A298" s="18">
         <f t="shared" si="2"/>
         <v>296</v>
@@ -23959,7 +23906,7 @@
         <v>34.204222931216215</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1">
       <c r="A299" s="18">
         <f t="shared" si="2"/>
         <v>297</v>
@@ -23975,7 +23922,7 @@
         <v>34.18289558410774</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1">
       <c r="A300" s="18">
         <f t="shared" si="2"/>
         <v>298</v>
@@ -23991,7 +23938,7 @@
         <v>34.162718082416099</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1">
       <c r="A301" s="18">
         <f t="shared" si="2"/>
         <v>299</v>
@@ -24007,7 +23954,7 @@
         <v>34.140468189933102</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1">
       <c r="A302" s="18">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -24023,7 +23970,7 @@
         <v>34.119366627533324</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1">
       <c r="A303" s="18">
         <f t="shared" si="2"/>
         <v>301</v>
@@ -24039,7 +23986,7 @@
         <v>34.097840490531553</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1">
       <c r="A304" s="18">
         <f t="shared" si="2"/>
         <v>302</v>
@@ -24055,7 +24002,7 @@
         <v>34.077913866125826</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1">
       <c r="A305" s="18">
         <f t="shared" si="2"/>
         <v>303</v>
@@ -24071,7 +24018,7 @@
         <v>34.057623722376235</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1">
       <c r="A306" s="18">
         <f t="shared" si="2"/>
         <v>304</v>
@@ -24087,7 +24034,7 @@
         <v>34.036743378157887</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1">
       <c r="A307" s="18">
         <f t="shared" si="2"/>
         <v>305</v>
@@ -24103,7 +24050,7 @@
         <v>34.0172130717377</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1">
       <c r="A308" s="18">
         <f t="shared" si="2"/>
         <v>306</v>
@@ -24119,7 +24066,7 @@
         <v>33.997091462385619</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1">
       <c r="A309" s="18">
         <f t="shared" si="2"/>
         <v>307</v>
@@ -24135,7 +24082,7 @@
         <v>33.975211687882734</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1">
       <c r="A310" s="18">
         <f t="shared" si="2"/>
         <v>308</v>
@@ -24151,7 +24098,7 @@
         <v>33.951818144935061</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1">
       <c r="A311" s="18">
         <f t="shared" si="2"/>
         <v>309</v>
@@ -24167,7 +24114,7 @@
         <v>33.929385077993516</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1">
       <c r="A312" s="18">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -24183,7 +24130,7 @@
         <v>33.90851609090322</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1">
       <c r="A313" s="18">
         <f t="shared" si="2"/>
         <v>311</v>
@@ -24199,7 +24146,7 @@
         <v>33.886495137138255</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1">
       <c r="A314" s="18">
         <f t="shared" si="2"/>
         <v>312</v>
@@ -24215,7 +24162,7 @@
         <v>33.865480729391024</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1">
       <c r="A315" s="18">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -24231,7 +24178,7 @@
         <v>33.843706028146961</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1">
       <c r="A316" s="18">
         <f t="shared" si="2"/>
         <v>314</v>
@@ -24247,7 +24194,7 @@
         <v>33.822292954299357</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1">
       <c r="A317" s="18">
         <f t="shared" si="2"/>
         <v>315</v>
@@ -24263,7 +24210,7 @@
         <v>33.800285673142845</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1">
       <c r="A318" s="18">
         <f t="shared" si="2"/>
         <v>316</v>
@@ -24279,7 +24226,7 @@
         <v>33.778132867974676</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1">
       <c r="A319" s="18">
         <f t="shared" si="2"/>
         <v>317</v>
@@ -24295,7 +24242,7 @@
         <v>33.755394277507875</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1">
       <c r="A320" s="18">
         <f t="shared" si="2"/>
         <v>318</v>
@@ -24311,7 +24258,7 @@
         <v>33.733238946698101</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1">
       <c r="A321" s="18">
         <f t="shared" si="2"/>
         <v>319</v>
@@ -24327,7 +24274,7 @@
         <v>33.710940394639486</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1">
       <c r="A322" s="18">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -24343,7 +24290,7 @@
         <v>33.689062453031241</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1">
       <c r="A323" s="18">
         <f t="shared" si="2"/>
         <v>321</v>
@@ -24359,7 +24306,7 @@
         <v>33.666137024579427</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1">
       <c r="A324" s="18">
         <f t="shared" si="2"/>
         <v>322</v>
@@ -24375,7 +24322,7 @@
         <v>33.645031011583839</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1">
       <c r="A325" s="18">
         <f t="shared" si="2"/>
         <v>323</v>
@@ -24391,7 +24338,7 @@
         <v>33.622414816501539</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1">
       <c r="A326" s="18">
         <f t="shared" si="2"/>
         <v>324</v>
@@ -24407,7 +24354,7 @@
         <v>33.59876538805554</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1">
       <c r="A327" s="18">
         <f t="shared" si="2"/>
         <v>325</v>
@@ -24423,7 +24370,7 @@
         <v>33.575630725323066</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1">
       <c r="A328" s="18">
         <f t="shared" si="2"/>
         <v>326</v>
@@ -24439,7 +24386,7 @@
         <v>33.55380363438649</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1">
       <c r="A329" s="18">
         <f t="shared" si="2"/>
         <v>327</v>
@@ -24455,7 +24402,7 @@
         <v>33.532079466574906</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1">
       <c r="A330" s="18">
         <f t="shared" si="2"/>
         <v>328</v>
@@ -24471,7 +24418,7 @@
         <v>33.510823125121938</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1">
       <c r="A331" s="18">
         <f t="shared" si="2"/>
         <v>329</v>
@@ -24487,7 +24434,7 @@
         <v>33.4886017805471</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1">
       <c r="A332" s="18">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -24503,7 +24450,7 @@
         <v>33.468363593333315</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1">
       <c r="A333" s="18">
         <f t="shared" si="2"/>
         <v>331</v>
@@ -24519,7 +24466,7 @@
         <v>33.447673675649533</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1">
       <c r="A334" s="18">
         <f t="shared" si="2"/>
         <v>332</v>
@@ -24535,7 +24482,7 @@
         <v>33.427379475060221</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1">
       <c r="A335" s="18">
         <f t="shared" si="2"/>
         <v>333</v>
@@ -24551,7 +24498,7 @@
         <v>33.407237192282267</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1">
       <c r="A336" s="18">
         <f t="shared" si="2"/>
         <v>334</v>
@@ -24567,7 +24514,7 @@
         <v>33.388532888862258</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1">
       <c r="A337" s="18">
         <f t="shared" si="2"/>
         <v>335</v>
@@ -24583,7 +24530,7 @@
         <v>33.36955219573133</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1">
       <c r="A338" s="18">
         <f t="shared" si="2"/>
         <v>336</v>
@@ -24599,7 +24546,7 @@
         <v>33.34928566976189</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1">
       <c r="A339" s="18">
         <f t="shared" si="2"/>
         <v>337</v>
@@ -24615,7 +24562,7 @@
         <v>33.330356036646869</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1">
       <c r="A340" s="18">
         <f t="shared" si="2"/>
         <v>338</v>
@@ -24631,7 +24578,7 @@
         <v>33.311212973254428</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1">
       <c r="A341" s="18">
         <f t="shared" si="2"/>
         <v>339</v>
@@ -24647,7 +24594,7 @@
         <v>33.289498482949838</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1">
       <c r="A342" s="18">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -24663,7 +24610,7 @@
         <v>33.267764662764691</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1">
       <c r="A343" s="18">
         <f t="shared" si="2"/>
         <v>341</v>
@@ -24679,7 +24626,7 @@
         <v>33.245806410645152</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1">
       <c r="A344" s="18">
         <f t="shared" si="2"/>
         <v>342</v>
@@ -24695,7 +24642,7 @@
         <v>33.223508733537997</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1">
       <c r="A345" s="18">
         <f t="shared" si="2"/>
         <v>343</v>
@@ -24711,7 +24658,7 @@
         <v>33.200932904985407</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1">
       <c r="A346" s="18">
         <f t="shared" si="2"/>
         <v>344</v>
@@ -24727,7 +24674,7 @@
         <v>33.177616240465106</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4">
       <c r="A347" s="18">
         <f t="shared" si="2"/>
         <v>345</v>
@@ -24743,7 +24690,7 @@
         <v>33.152985469652158</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4">
       <c r="A348" s="18">
         <f t="shared" si="2"/>
         <v>346</v>
@@ -24759,7 +24706,7 @@
         <v>33.128364413381483</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4">
       <c r="A349" s="18">
         <f t="shared" si="2"/>
         <v>347</v>
@@ -24775,7 +24722,7 @@
         <v>33.103412352564824</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4">
       <c r="A350" s="18">
         <f t="shared" si="2"/>
         <v>348</v>
@@ -24791,7 +24738,7 @@
         <v>33.078804848448264</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4">
       <c r="A351" s="18">
         <f t="shared" si="2"/>
         <v>349</v>
@@ -24807,7 +24754,7 @@
         <v>33.055026039971331</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4">
       <c r="A352" s="18">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -24823,7 +24770,7 @@
         <v>33.030411681371412</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4">
       <c r="A353" s="18">
         <f t="shared" si="2"/>
         <v>351</v>
@@ -24839,7 +24786,7 @@
         <v>33.006878029857532</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4">
       <c r="A354" s="18">
         <f t="shared" si="2"/>
         <v>352</v>
@@ -24855,7 +24802,7 @@
         <v>32.983932353636348</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4">
       <c r="A355" s="18">
         <f t="shared" si="2"/>
         <v>353</v>
@@ -24871,7 +24818,7 @@
         <v>32.959955208158625</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4">
       <c r="A356" s="18">
         <f t="shared" ref="A356:A463" si="3">A355+1</f>
         <v>354</v>
@@ -24887,7 +24834,7 @@
         <v>32.934475108700553</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4">
       <c r="A357" s="18">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -24903,7 +24850,7 @@
         <v>32.90789912247886</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4">
       <c r="A358" s="18">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -24919,7 +24866,7 @@
         <v>32.881472439550549</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4">
       <c r="A359" s="18">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -24935,7 +24882,7 @@
         <v>32.85519380526609</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4">
       <c r="A360" s="18">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -24951,7 +24898,7 @@
         <v>32.8285871186592</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4">
       <c r="A361" s="18">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -24967,7 +24914,7 @@
         <v>32.801348714428954</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4">
       <c r="A362" s="18">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -24983,7 +24930,7 @@
         <v>32.773872745777759</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4">
       <c r="A363" s="18">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -24999,7 +24946,7 @@
         <v>32.746798306038762</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4">
       <c r="A364" s="18">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -25015,7 +24962,7 @@
         <v>32.721144167071806</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4">
       <c r="A365" s="18">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -25031,7 +24978,7 @@
         <v>32.694171318126706</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4">
       <c r="A366" s="18">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -25047,7 +24994,7 @@
         <v>32.66762139881866</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4">
       <c r="A367" s="18">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -25063,7 +25010,7 @@
         <v>32.640066271698615</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4">
       <c r="A368" s="18">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -25079,7 +25026,7 @@
         <v>32.611104344508178</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4">
       <c r="A369" s="18">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -25095,7 +25042,7 @@
         <v>32.582845203978181</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4">
       <c r="A370" s="18">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -25111,7 +25058,7 @@
         <v>32.556587472663026</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4">
       <c r="A371" s="18">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -25127,7 +25074,7 @@
         <v>32.530282358590767</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4">
       <c r="A372" s="18">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -25143,7 +25090,7 @@
         <v>32.506281594432416</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4">
       <c r="A373" s="18">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -25159,7 +25106,7 @@
         <v>32.482598892857126</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4">
       <c r="A374" s="18">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -25175,7 +25122,7 @@
         <v>32.459392982876324</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4">
       <c r="A375" s="18">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -25191,7 +25138,7 @@
         <v>32.435614449812313</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4">
       <c r="A376" s="18">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -25207,7 +25154,7 @@
         <v>32.411455051871634</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4">
       <c r="A377" s="18">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -25223,7 +25170,7 @@
         <v>32.387264505466646</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4">
       <c r="A378" s="18">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -25239,7 +25186,7 @@
         <v>32.361846248590403</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4">
       <c r="A379" s="18">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -25255,7 +25202,7 @@
         <v>32.336324109389899</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4">
       <c r="A380" s="18">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -25271,7 +25218,7 @@
         <v>32.312101030555532</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4">
       <c r="A381" s="18">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -25287,7 +25234,7 @@
         <v>32.287425299815283</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4">
       <c r="A382" s="18">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -25303,7 +25250,7 @@
         <v>32.260721547421028</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4">
       <c r="A383" s="18">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -25319,7 +25266,7 @@
         <v>32.234420440393677</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4">
       <c r="A384" s="18">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -25335,7 +25282,7 @@
         <v>32.208335571335049</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4">
       <c r="A385" s="18">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -25351,7 +25298,7 @@
         <v>32.183248534281958</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4">
       <c r="A386" s="18">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -25367,7 +25314,7 @@
         <v>32.157979656692682</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4">
       <c r="A387" s="18">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -25383,7 +25330,7 @@
         <v>32.134712179038935</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4">
       <c r="A388" s="18">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -25399,7 +25346,7 @@
         <v>32.111539350932617</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4">
       <c r="A389" s="18">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -25415,7 +25362,7 @@
         <v>32.088072842764831</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4">
       <c r="A390" s="18">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -25431,7 +25378,7 @@
         <v>32.064031418505131</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4">
       <c r="A391" s="18">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -25447,7 +25394,7 @@
         <v>32.038982493753188</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4">
       <c r="A392" s="18">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -25463,7 +25410,7 @@
         <v>32.015472284384586</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4">
       <c r="A393" s="18">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -25479,7 +25426,7 @@
         <v>31.992133479028105</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4">
       <c r="A394" s="18">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -25495,7 +25442,7 @@
         <v>31.970342324132627</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4">
       <c r="A395" s="18">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -25511,7 +25458,7 @@
         <v>31.947847812264605</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4">
       <c r="A396" s="18">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -25527,7 +25474,7 @@
         <v>31.925162919923835</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4">
       <c r="A397" s="18">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -25543,7 +25490,7 @@
         <v>31.902643521873394</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4">
       <c r="A398" s="18">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -25559,7 +25506,7 @@
         <v>31.880162098838358</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4">
       <c r="A399" s="18">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -25575,7 +25522,7 @@
         <v>31.856912319294686</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4">
       <c r="A400" s="18">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -25591,7 +25538,7 @@
         <v>31.833502994170832</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4">
       <c r="A401" s="18">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -25607,7 +25554,7 @@
         <v>31.810135819323285</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4">
       <c r="A402" s="18">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -25623,7 +25570,7 @@
         <v>31.786510481299977</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4">
       <c r="A403" s="18">
         <f t="shared" si="3"/>
         <v>401</v>
@@ -25639,7 +25586,7 @@
         <v>31.762603973266813</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4">
       <c r="A404" s="18">
         <f t="shared" si="3"/>
         <v>402</v>
@@ -25655,7 +25602,7 @@
         <v>31.740060184179082</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4">
       <c r="A405" s="18">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -25671,7 +25618,7 @@
         <v>31.717901224590552</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4">
       <c r="A406" s="18">
         <f t="shared" si="3"/>
         <v>404</v>
@@ -25687,7 +25634,7 @@
         <v>31.696743053440571</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4">
       <c r="A407" s="18">
         <f t="shared" si="3"/>
         <v>405</v>
@@ -25703,7 +25650,7 @@
         <v>31.675343689580224</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4">
       <c r="A408" s="18">
         <f t="shared" si="3"/>
         <v>406</v>
@@ -25719,7 +25666,7 @@
         <v>31.654517718201948</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4">
       <c r="A409" s="18">
         <f t="shared" si="3"/>
         <v>407</v>
@@ -25735,7 +25682,7 @@
         <v>31.634383765773933</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4">
       <c r="A410" s="18">
         <f t="shared" si="3"/>
         <v>408</v>
@@ -25751,7 +25698,7 @@
         <v>31.614814196789194</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4">
       <c r="A411" s="18">
         <f t="shared" si="3"/>
         <v>409</v>
@@ -25767,7 +25714,7 @@
         <v>31.595291421638123</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4">
       <c r="A412" s="18">
         <f t="shared" si="3"/>
         <v>410</v>
@@ -25783,7 +25730,7 @@
         <v>31.576376077073149</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4">
       <c r="A413" s="18">
         <f t="shared" si="3"/>
         <v>411</v>
@@ -25799,7 +25746,7 @@
         <v>31.556968836934285</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4">
       <c r="A414" s="18">
         <f t="shared" si="3"/>
         <v>412</v>
@@ -25815,7 +25762,7 @@
         <v>31.537000465776678</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4">
       <c r="A415" s="18">
         <f t="shared" si="3"/>
         <v>413</v>
@@ -25831,7 +25778,7 @@
         <v>31.51698351661015</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4">
       <c r="A416" s="18">
         <f t="shared" si="3"/>
         <v>414</v>
@@ -25847,7 +25794,7 @@
         <v>31.497618822125581</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4">
       <c r="A417" s="18">
         <f t="shared" si="3"/>
         <v>415</v>
@@ -25863,7 +25810,7 @@
         <v>31.477986006602389</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4">
       <c r="A418" s="18">
         <f t="shared" si="3"/>
         <v>416</v>
@@ -25879,7 +25826,7 @@
         <v>31.457798540048056</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4">
       <c r="A419" s="18">
         <f t="shared" si="3"/>
         <v>417</v>
@@ -25895,7 +25842,7 @@
         <v>31.436820603693025</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4">
       <c r="A420" s="18">
         <f t="shared" si="3"/>
         <v>418</v>
@@ -25911,7 +25858,7 @@
         <v>31.415703809449742</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4">
       <c r="A421" s="18">
         <f t="shared" si="3"/>
         <v>419</v>
@@ -25927,7 +25874,7 @@
         <v>31.394544609999983</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4">
       <c r="A422" s="18">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -25943,7 +25890,7 @@
         <v>31.373248077023792</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4">
       <c r="A423" s="18">
         <f t="shared" si="3"/>
         <v>421</v>
@@ -25959,7 +25906,7 @@
         <v>31.352860316555802</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4">
       <c r="A424" s="18">
         <f t="shared" si="3"/>
         <v>422</v>
@@ -25975,7 +25922,7 @@
         <v>31.333066808696664</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4">
       <c r="A425" s="18">
         <f t="shared" si="3"/>
         <v>423</v>
@@ -25991,7 +25938,7 @@
         <v>31.312728588203292</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4">
       <c r="A426" s="18">
         <f t="shared" si="3"/>
         <v>424</v>
@@ -26007,7 +25954,7 @@
         <v>31.292557059056588</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4">
       <c r="A427" s="18">
         <f t="shared" si="3"/>
         <v>425</v>
@@ -26023,7 +25970,7 @@
         <v>31.272433394847042</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4">
       <c r="A428" s="18">
         <f t="shared" si="3"/>
         <v>426</v>
@@ -26039,7 +25986,7 @@
         <v>31.252615475892004</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4">
       <c r="A429" s="18">
         <f t="shared" si="3"/>
         <v>427</v>
@@ -26055,7 +26002,7 @@
         <v>31.234248694566734</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4">
       <c r="A430" s="18">
         <f t="shared" si="3"/>
         <v>428</v>
@@ -26071,7 +26018,7 @@
         <v>31.216178020046716</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4">
       <c r="A431" s="18">
         <f t="shared" si="3"/>
         <v>429</v>
@@ -26087,7 +26034,7 @@
         <v>31.198378071095561</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4">
       <c r="A432" s="18">
         <f t="shared" si="3"/>
         <v>430</v>
@@ -26103,7 +26050,7 @@
         <v>31.181219051604643</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4">
       <c r="A433" s="18">
         <f t="shared" si="3"/>
         <v>431</v>
@@ -26119,7 +26066,7 @@
         <v>31.163745224617159</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4">
       <c r="A434" s="18">
         <f t="shared" si="3"/>
         <v>432</v>
@@ -26135,7 +26082,7 @@
         <v>31.146653223379619</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4">
       <c r="A435" s="18">
         <f t="shared" si="3"/>
         <v>433</v>
@@ -26151,7 +26098,7 @@
         <v>31.13037919833717</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4">
       <c r="A436" s="18">
         <f t="shared" si="3"/>
         <v>434</v>
@@ -26167,7 +26114,7 @@
         <v>31.114986621290313</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4">
       <c r="A437" s="18">
         <f t="shared" si="3"/>
         <v>435</v>
@@ -26183,7 +26130,7 @@
         <v>31.099825733563208</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4">
       <c r="A438" s="18">
         <f t="shared" si="3"/>
         <v>436</v>
@@ -26199,7 +26146,7 @@
         <v>31.084757327499986</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4">
       <c r="A439" s="18">
         <f t="shared" si="3"/>
         <v>437</v>
@@ -26215,7 +26162,7 @@
         <v>31.0702384314874</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4">
       <c r="A440" s="18">
         <f t="shared" si="3"/>
         <v>438</v>
@@ -26231,7 +26178,7 @@
         <v>31.055991311598159</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4">
       <c r="A441" s="18">
         <f t="shared" si="3"/>
         <v>439</v>
@@ -26247,7 +26194,7 @@
         <v>31.042583586697024</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4">
       <c r="A442" s="18">
         <f t="shared" si="3"/>
         <v>440</v>
@@ -26263,7 +26210,7 @@
         <v>31.028623168590894</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4">
       <c r="A443" s="18">
         <f t="shared" si="3"/>
         <v>441</v>
@@ -26279,7 +26226,7 @@
         <v>31.014726063038534</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4">
       <c r="A444" s="18">
         <f t="shared" si="3"/>
         <v>442</v>
@@ -26295,7 +26242,7 @@
         <v>31.001661071425325</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4">
       <c r="A445" s="18">
         <f t="shared" si="3"/>
         <v>443</v>
@@ -26311,7 +26258,7 @@
         <v>30.988406755598181</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4">
       <c r="A446" s="18">
         <f t="shared" si="3"/>
         <v>444</v>
@@ -26327,7 +26274,7 @@
         <v>30.974761696036023</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4">
       <c r="A447" s="18">
         <f t="shared" si="3"/>
         <v>445</v>
@@ -26343,7 +26290,7 @@
         <v>30.960436389707851</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4">
       <c r="A448" s="18">
         <f t="shared" si="3"/>
         <v>446</v>
@@ -26359,7 +26306,7 @@
         <v>30.94619774446187</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4">
       <c r="A449" s="18">
         <f t="shared" si="3"/>
         <v>447</v>
@@ -26375,7 +26322,7 @@
         <v>30.931776720425042</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4">
       <c r="A450" s="18">
         <f t="shared" si="3"/>
         <v>448</v>
@@ -26391,7 +26338,7 @@
         <v>30.918245970691949</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:4">
       <c r="A451" s="18">
         <f t="shared" si="3"/>
         <v>449</v>
@@ -26407,7 +26354,7 @@
         <v>30.904263238886397</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:4">
       <c r="A452" s="18">
         <f t="shared" si="3"/>
         <v>450</v>
@@ -26423,7 +26370,7 @@
         <v>30.890875985377765</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4">
       <c r="A453" s="18">
         <f t="shared" si="3"/>
         <v>451</v>
@@ -26439,7 +26386,7 @@
         <v>30.87739288889134</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4">
       <c r="A454" s="18">
         <f t="shared" si="3"/>
         <v>452</v>
@@ -26455,7 +26402,7 @@
         <v>30.86381458553096</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:4">
       <c r="A455" s="18">
         <f t="shared" si="3"/>
         <v>453</v>
@@ -26471,7 +26418,7 @@
         <v>30.849744354150097</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4">
       <c r="A456" s="18">
         <f t="shared" si="3"/>
         <v>454</v>
@@ -26487,7 +26434,7 @@
         <v>30.834546681035228</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:4">
       <c r="A457" s="18">
         <f t="shared" si="3"/>
         <v>455</v>
@@ -26503,7 +26450,7 @@
         <v>30.820426797890097</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:4">
       <c r="A458" s="18">
         <f t="shared" si="3"/>
         <v>456</v>
@@ -26519,7 +26466,7 @@
         <v>30.806346913728056</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:4">
       <c r="A459" s="18">
         <f t="shared" si="3"/>
         <v>457</v>
@@ -26535,7 +26482,7 @@
         <v>30.791891014048126</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:4">
       <c r="A460" s="18">
         <f t="shared" si="3"/>
         <v>458</v>
@@ -26551,7 +26498,7 @@
         <v>30.777563740087324</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4">
       <c r="A461" s="18">
         <f t="shared" si="3"/>
         <v>459</v>
@@ -26567,7 +26514,7 @@
         <v>30.762841379999987</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4">
       <c r="A462" s="18">
         <f t="shared" si="3"/>
         <v>460</v>
@@ -26583,7 +26530,7 @@
         <v>30.747661291543466</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4">
       <c r="A463" s="18">
         <f t="shared" si="3"/>
         <v>461</v>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -1232,7 +1232,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1588,7 +1588,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1647,7 +1647,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1736,6 +1735,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1781,118 +1781,118 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1900,6 +1900,279 @@
           <c:val>
             <c:numRef>
               <c:f>model1!资金</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>74000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>model1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total assets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>model1!时间</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44253</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44286</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44347</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44530</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="37"/>
@@ -2020,20 +2293,20 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
+              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>model1!$H$1</c:f>
+              <c:f>model1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>total assets</c:v>
+                  <c:v>profit amount</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2041,7 +2314,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2054,125 +2327,125 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>model1!资产</c:f>
+              <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="37"/>
@@ -2293,168 +2566,6 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>model1!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>profit amount</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>model1!时间</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>3.25108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.17509</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.27712</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>model1!金额</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
@@ -2469,17 +2580,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="50120576"/>
-        <c:axId val="76939264"/>
+        <c:axId val="268669696"/>
+        <c:axId val="269069312"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="50120576"/>
+      <c:dateAx>
+        <c:axId val="268669696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2516,15 +2627,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76939264"/>
+        <c:crossAx val="269069312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="76939264"/>
+        <c:axId val="269069312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2575,7 +2685,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50120576"/>
+        <c:crossAx val="268669696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2589,6 +2699,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17478,14 +17589,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y40"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -17506,7 +17617,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>180</v>
       </c>
@@ -17536,7 +17647,7 @@
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:25" ht="14.1" customHeight="1">
+    <row r="2" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -17552,7 +17663,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:25" ht="14.1" customHeight="1">
+    <row r="3" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -17631,7 +17742,7 @@
         <v>-22000</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14.1" customHeight="1">
+    <row r="4" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -17716,7 +17827,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.1" customHeight="1">
+    <row r="5" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -17796,7 +17907,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="14.1" customHeight="1">
+    <row r="6" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -17870,7 +17981,7 @@
         <v>60293.406710853284</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14.1" customHeight="1">
+    <row r="7" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -17912,7 +18023,7 @@
         <v>-7.3828223896210132E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="14.1" customHeight="1">
+    <row r="8" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -17950,7 +18061,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:25" ht="14.1" customHeight="1">
+    <row r="9" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -17988,7 +18099,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:25" ht="14.1" customHeight="1">
+    <row r="10" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -18026,7 +18137,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:25" ht="14.1" customHeight="1">
+    <row r="11" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -18064,7 +18175,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:25" ht="14.1" customHeight="1">
+    <row r="12" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -18102,7 +18213,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:25" ht="14.1" customHeight="1">
+    <row r="13" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -18140,7 +18251,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:25" ht="14.1" customHeight="1">
+    <row r="14" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -18178,7 +18289,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:25" ht="14.1" customHeight="1">
+    <row r="15" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -18216,7 +18327,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:25" ht="14.1" customHeight="1">
+    <row r="16" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -18254,7 +18365,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>44316</v>
       </c>
@@ -18292,7 +18403,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>44347</v>
       </c>
@@ -18330,7 +18441,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>44377</v>
       </c>
@@ -18368,7 +18479,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>44407</v>
       </c>
@@ -18406,7 +18517,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>44439</v>
       </c>
@@ -18445,7 +18556,7 @@
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>44469</v>
       </c>
@@ -18483,7 +18594,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>44498</v>
       </c>
@@ -18521,7 +18632,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>44530</v>
       </c>
@@ -18559,7 +18670,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>44561</v>
       </c>
@@ -18597,7 +18708,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>44589</v>
       </c>
@@ -18635,7 +18746,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>44620</v>
       </c>
@@ -18673,7 +18784,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>44651</v>
       </c>
@@ -18711,7 +18822,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>44680</v>
       </c>
@@ -18749,7 +18860,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>44712</v>
       </c>
@@ -18787,7 +18898,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>44742</v>
       </c>
@@ -18825,7 +18936,7 @@
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>44771</v>
       </c>
@@ -18863,7 +18974,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>44804</v>
       </c>
@@ -18902,7 +19013,7 @@
       <c r="J33" s="6"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75">
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>44834</v>
       </c>
@@ -18939,7 +19050,7 @@
         <v>-11770.911062729705</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75">
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>44865</v>
       </c>
@@ -18976,7 +19087,7 @@
         <v>-12524.925264431353</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.75">
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>44895</v>
       </c>
@@ -19013,7 +19124,7 @@
         <v>-9593.1455874388703</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.75">
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>44925</v>
       </c>
@@ -19050,7 +19161,7 @@
         <v>-9706.5932891467164</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="12.75">
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>44957</v>
       </c>
@@ -19087,7 +19198,7 @@
         <v>-3848.2171143818996</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="12.75">
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>44985</v>
       </c>
@@ -19123,9 +19234,6 @@
         <f t="shared" si="12"/>
         <v>-6232.0678533566097</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -19142,11 +19250,11 @@
   </sheetPr>
   <dimension ref="A1:D463"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
@@ -19154,16 +19262,16 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="30" t="s">
         <v>194</v>
       </c>
       <c r="C1" s="22">
         <v>399088</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B2" s="31"/>
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="30"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
       </c>
@@ -19171,7 +19279,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -19186,7 +19294,7 @@
         <v>45.12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>2</v>
@@ -19202,7 +19310,7 @@
         <v>44.965000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -19218,7 +19326,7 @@
         <v>44.99666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -19234,7 +19342,7 @@
         <v>44.792500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -19250,7 +19358,7 @@
         <v>44.440000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -19266,7 +19374,7 @@
         <v>44.256666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -19282,7 +19390,7 @@
         <v>44.252857142857145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -19298,7 +19406,7 @@
         <v>44.220000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -19314,7 +19422,7 @@
         <v>44.181111111111115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -19330,7 +19438,7 @@
         <v>44.341000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -19346,7 +19454,7 @@
         <v>44.458181818181828</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -19362,7 +19470,7 @@
         <v>44.577500000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -19378,7 +19486,7 @@
         <v>44.703076923076928</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -19394,7 +19502,7 @@
         <v>44.860000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -19410,7 +19518,7 @@
         <v>44.968000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -19426,7 +19534,7 @@
         <v>45.078750000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -19442,7 +19550,7 @@
         <v>45.214117647058828</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -19458,7 +19566,7 @@
         <v>45.345555555555563</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -19474,7 +19582,7 @@
         <v>45.46631578947369</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -19490,7 +19598,7 @@
         <v>45.062500000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -19506,7 +19614,7 @@
         <v>44.643333333333338</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -19522,7 +19630,7 @@
         <v>44.269090909090913</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -19538,7 +19646,7 @@
         <v>43.928695652173921</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -19554,7 +19662,7 @@
         <v>43.627500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -19570,7 +19678,7 @@
         <v>43.332400000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -19586,7 +19694,7 @@
         <v>43.088461538461544</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -19602,7 +19710,7 @@
         <v>42.901851851851859</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -19618,7 +19726,7 @@
         <v>42.726071428571437</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -19634,7 +19742,7 @@
         <v>42.570000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -19650,7 +19758,7 @@
         <v>42.435000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -19666,7 +19774,7 @@
         <v>42.298387096774199</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -19682,7 +19790,7 @@
         <v>42.179062500000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -19698,7 +19806,7 @@
         <v>42.093333333333341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -19714,7 +19822,7 @@
         <v>42.005000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
         <f t="shared" ref="A37:A100" si="1">A36+1</f>
         <v>35</v>
@@ -19730,7 +19838,7 @@
         <v>41.929428571428573</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -19746,7 +19854,7 @@
         <v>41.856666666666662</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -19762,7 +19870,7 @@
         <v>41.802432432432425</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -19778,7 +19886,7 @@
         <v>41.751315789473679</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -19794,7 +19902,7 @@
         <v>41.689999999999991</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -19810,7 +19918,7 @@
         <v>41.621999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -19826,7 +19934,7 @@
         <v>41.5680487804878</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -19842,7 +19950,7 @@
         <v>41.512380952380944</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -19858,7 +19966,7 @@
         <v>41.454186046511623</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -19874,7 +19982,7 @@
         <v>41.399318181818174</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -19890,7 +19998,7 @@
         <v>41.36044444444444</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -19906,7 +20014,7 @@
         <v>41.322391304347818</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -19922,7 +20030,7 @@
         <v>41.285319148936161</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -19938,7 +20046,7 @@
         <v>41.222499999999989</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -19954,7 +20062,7 @@
         <v>41.174693877551015</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -19970,7 +20078,7 @@
         <v>41.139199999999988</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="18">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -19986,7 +20094,7 @@
         <v>41.106862745098027</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="18">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -20002,7 +20110,7 @@
         <v>41.078653846153834</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="18">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -20018,7 +20126,7 @@
         <v>41.062452830188661</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="18">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -20034,7 +20142,7 @@
         <v>41.045555555555538</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="18">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -20050,7 +20158,7 @@
         <v>41.038181818181798</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -20066,7 +20174,7 @@
         <v>41.038928571428549</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="18">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -20082,7 +20190,7 @@
         <v>41.034736842105247</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="18">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -20098,7 +20206,7 @@
         <v>41.041896551724122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="18">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -20114,7 +20222,7 @@
         <v>41.046101694915237</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -20130,7 +20238,7 @@
         <v>41.029166666666654</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="18">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -20146,7 +20254,7 @@
         <v>41.015737704918017</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="18">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -20162,7 +20270,7 @@
         <v>40.997580645161271</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="18">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -20178,7 +20286,7 @@
         <v>40.997301587301571</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="18">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -20194,7 +20302,7 @@
         <v>40.998281249999984</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="18">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -20210,7 +20318,7 @@
         <v>40.994153846153829</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="18">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -20226,7 +20334,7 @@
         <v>41.006060606060593</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="18">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -20242,7 +20350,7 @@
         <v>41.01641791044775</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="18">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -20258,7 +20366,7 @@
         <v>41.020294117647047</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="18">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -20274,7 +20382,7 @@
         <v>41.027826086956509</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -20290,7 +20398,7 @@
         <v>41.021428571428558</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="18">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -20306,7 +20414,7 @@
         <v>41.019295774647873</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="18">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -20322,7 +20430,7 @@
         <v>41.017499999999984</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="18">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -20338,7 +20446,7 @@
         <v>41.027123287671216</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="18">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -20354,7 +20462,7 @@
         <v>41.036081081081065</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="18">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -20370,7 +20478,7 @@
         <v>41.035466666666643</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="18">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -20386,7 +20494,7 @@
         <v>41.020526335866805</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="18">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -20402,7 +20510,7 @@
         <v>40.984025981952598</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="18">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -20418,7 +20526,7 @@
         <v>40.953717942849167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="18">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -20434,7 +20542,7 @@
         <v>40.943164537647085</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="18">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -20450,7 +20558,7 @@
         <v>40.930499984741189</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="18">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -20466,7 +20574,7 @@
         <v>40.927160476872935</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="18">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -20482,7 +20590,7 @@
         <v>40.921951202764724</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="18">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -20498,7 +20606,7 @@
         <v>40.929036107810127</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="18">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -20514,7 +20622,7 @@
         <v>40.931428547813759</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="18">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -20530,7 +20638,7 @@
         <v>40.92988232062843</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="18">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -20546,7 +20654,7 @@
         <v>40.928372052214847</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="18">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -20562,7 +20670,7 @@
         <v>40.927701096808754</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="18">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -20578,7 +20686,7 @@
         <v>40.924090864008107</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="18">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -20594,7 +20702,7 @@
         <v>40.917528047025854</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="18">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -20610,7 +20718,7 @@
         <v>40.904444420708536</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="18">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -20626,7 +20734,7 @@
         <v>40.886703283288959</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="18">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -20642,7 +20750,7 @@
         <v>40.859891271176529</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="18">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -20658,7 +20766,7 @@
         <v>40.836344033518131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="18">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -20674,7 +20782,7 @@
         <v>40.815851010261682</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="18">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -20690,7 +20798,7 @@
         <v>40.787684151097331</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="18">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -20706,7 +20814,7 @@
         <v>40.770416618982935</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="18">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -20722,7 +20830,7 @@
         <v>40.756804084384548</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -20738,7 +20846,7 @@
         <v>40.744489749207773</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="18">
         <f t="shared" ref="A101:A355" si="2">A100+1</f>
         <v>99</v>
@@ -20754,7 +20862,7 @@
         <v>40.723232270828383</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="18">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -20770,7 +20878,7 @@
         <v>40.702299958801255</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="18">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -20786,7 +20894,7 @@
         <v>40.680296984379815</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="18">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -20802,7 +20910,7 @@
         <v>40.654705834482208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -20818,7 +20926,7 @@
         <v>40.599999957038342</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="18">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -20834,7 +20942,7 @@
         <v>40.542692259274979</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="18">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -20850,7 +20958,7 @@
         <v>40.482476154145722</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="18">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -20866,7 +20974,7 @@
         <v>40.435849029253099</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="18">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -20882,7 +20990,7 @@
         <v>40.391775685247957</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="18">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -20898,7 +21006,7 @@
         <v>40.346574042991335</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="18">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -20914,7 +21022,7 @@
         <v>40.302110060945544</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="18">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -20930,7 +21038,7 @@
         <v>40.260272703690944</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="18">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -20946,7 +21054,7 @@
         <v>40.215585555342926</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="18">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -20962,7 +21070,7 @@
         <v>40.173214266640784</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="18">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -20978,7 +21086,7 @@
         <v>40.128584061344093</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="18">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -20994,7 +21102,7 @@
         <v>40.078245599311678</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="18">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -21010,7 +21118,7 @@
         <v>40.032521721881352</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="18">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -21026,7 +21134,7 @@
         <v>39.985344822324535</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="18">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -21042,7 +21150,7 @@
         <v>39.940427341298147</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="18">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -21058,7 +21166,7 @@
         <v>39.89703388666701</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="18">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -21074,7 +21182,7 @@
         <v>39.856638645204157</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="18">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -21090,7 +21198,7 @@
         <v>39.814833324432357</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="18">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -21106,7 +21214,7 @@
         <v>39.769752062332515</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="18">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -21122,7 +21230,7 @@
         <v>39.730819672131133</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="18">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -21138,7 +21246,7 @@
         <v>39.694634136422749</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="18">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -21154,7 +21262,7 @@
         <v>39.656854815322561</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="18">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -21170,7 +21278,7 @@
         <v>39.615839967039982</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="18">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -21186,7 +21294,7 @@
         <v>39.58039680484125</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="18">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -21202,7 +21310,7 @@
         <v>39.545433045669277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="18">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -21218,7 +21326,7 @@
         <v>39.514765591640611</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="18">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -21234,7 +21342,7 @@
         <v>39.483953462403086</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="18">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -21250,7 +21358,7 @@
         <v>39.455384593153838</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="18">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -21266,7 +21374,7 @@
         <v>39.425419815954186</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="18">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -21282,7 +21390,7 @@
         <v>39.396590869848474</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="18">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -21298,7 +21406,7 @@
         <v>39.371127767969917</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="18">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -21314,7 +21422,7 @@
         <v>39.348358155447755</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="18">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -21330,7 +21438,7 @@
         <v>39.325777719037028</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="18">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -21346,7 +21454,7 @@
         <v>39.30124995404411</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="18">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -21362,7 +21470,7 @@
         <v>39.275182432773718</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="18">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -21378,7 +21486,7 @@
         <v>39.253623134275358</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="18">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -21394,7 +21502,7 @@
         <v>39.222517934100708</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="18">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -21410,7 +21518,7 @@
         <v>39.191714233499987</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="18">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -21426,7 +21534,7 @@
         <v>39.159361657872324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="18">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -21442,7 +21550,7 @@
         <v>39.130704182464775</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="18">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -21458,7 +21566,7 @@
         <v>39.101118849230758</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="18">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -21474,7 +21582,7 @@
         <v>39.072916641388879</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="18">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -21490,7 +21598,7 @@
         <v>39.046344810896542</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="18">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -21506,7 +21614,7 @@
         <v>39.018561638767117</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="18">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -21522,7 +21630,7 @@
         <v>38.994013599387742</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="18">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -21538,7 +21646,7 @@
         <v>38.968783766418909</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="18">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -21554,7 +21662,7 @@
         <v>38.941812068389247</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="18">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -21570,7 +21678,7 @@
         <v>38.915199992999987</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="18">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -21586,7 +21694,7 @@
         <v>38.890794691986741</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="18">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -21602,7 +21710,7 @@
         <v>38.864144727894725</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="18">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -21618,7 +21726,7 @@
         <v>38.840653588888877</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="18">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -21634,7 +21742,7 @@
         <v>38.822142862207784</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="18">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -21650,7 +21758,7 @@
         <v>38.801870974774182</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="18">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -21666,7 +21774,7 @@
         <v>38.781025643141014</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="18">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -21682,7 +21790,7 @@
         <v>38.75942674980891</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="18">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -21698,7 +21806,7 @@
         <v>38.73683543259493</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="18">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -21714,7 +21822,7 @@
         <v>38.715911938364776</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="18">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -21730,7 +21838,7 @@
         <v>38.695499988749994</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="18">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -21746,7 +21854,7 @@
         <v>38.674285695527942</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="18">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -21762,7 +21870,7 @@
         <v>38.652962951851848</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="18">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -21778,7 +21886,7 @@
         <v>38.632515324478518</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="18">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -21794,7 +21902,7 @@
         <v>38.609999978780486</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="18">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -21810,7 +21918,7 @@
         <v>38.586363609696967</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="18">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -21826,7 +21934,7 @@
         <v>38.566746972469872</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="18">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -21842,7 +21950,7 @@
         <v>38.550598780598797</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="18">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -21858,7 +21966,7 @@
         <v>38.53458331529761</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="18">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -21874,7 +21982,7 @@
         <v>38.518757382130168</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="18">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -21890,7 +21998,7 @@
         <v>38.501588212058813</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="18">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -21906,7 +22014,7 @@
         <v>38.482806999824554</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="18">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -21922,7 +22030,7 @@
         <v>38.465581380406974</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="18">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -21938,7 +22046,7 @@
         <v>38.445202289364161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="18">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -21954,7 +22062,7 @@
         <v>38.42022985362069</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="18">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -21970,7 +22078,7 @@
         <v>38.397485675200002</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="18">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -21986,7 +22094,7 @@
         <v>38.376420407897733</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="18">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -22002,7 +22110,7 @@
         <v>38.356271147796612</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="18">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -22018,7 +22126,7 @@
         <v>38.333426933033707</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="18">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -22034,7 +22142,7 @@
         <v>38.311229020614526</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="18">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -22050,7 +22158,7 @@
         <v>38.290888867888889</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="18">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -22066,7 +22174,7 @@
         <v>38.268618754364638</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="18">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -22082,7 +22190,7 @@
         <v>38.248351618351641</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="18">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -22098,7 +22206,7 @@
         <v>38.228579205136612</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="18">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -22114,7 +22222,7 @@
         <v>38.206847793913042</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="18">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -22130,7 +22238,7 @@
         <v>38.181189152216213</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="18">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -22146,7 +22254,7 @@
         <v>38.15387092274193</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="18">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -22162,7 +22270,7 @@
         <v>38.12657749128342</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="18">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -22178,7 +22286,7 @@
         <v>38.100053139680853</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="18">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -22194,7 +22302,7 @@
         <v>38.071216879682538</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="18">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -22210,7 +22318,7 @@
         <v>38.0456315228421</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="18">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -22226,7 +22334,7 @@
         <v>38.017120363036646</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="18">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -22242,7 +22350,7 @@
         <v>37.989791613541662</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="18">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -22258,7 +22366,7 @@
         <v>37.965699429792743</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="18">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -22274,7 +22382,7 @@
         <v>37.941855619072165</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="18">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -22290,7 +22398,7 @@
         <v>37.915128152000001</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="18">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -22306,7 +22414,7 @@
         <v>37.889132598622453</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="18">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -22322,7 +22430,7 @@
         <v>37.861268989137059</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="18">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -22338,7 +22446,7 @@
         <v>37.834646419242425</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="18">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -22354,7 +22462,7 @@
         <v>37.804422063819104</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="18">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -22370,7 +22478,7 @@
         <v>37.775999948150009</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="18">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -22386,7 +22494,7 @@
         <v>37.743084524776123</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="18">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -22402,7 +22510,7 @@
         <v>37.710494996683174</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="18">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -22418,7 +22526,7 @@
         <v>37.678472849310346</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="18">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -22434,7 +22542,7 @@
         <v>37.643872496323532</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="18">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -22450,7 +22558,7 @@
         <v>37.61151214380488</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="18">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -22466,7 +22574,7 @@
         <v>37.577281499757277</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="18">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -22482,7 +22590,7 @@
         <v>37.540193181497585</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="18">
         <f t="shared" si="2"/>
         <v>208</v>
@@ -22498,7 +22606,7 @@
         <v>37.503221100721149</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="18">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -22514,7 +22622,7 @@
         <v>37.469999944593297</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="18">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -22530,7 +22638,7 @@
         <v>37.437380901238093</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="18">
         <f t="shared" si="2"/>
         <v>211</v>
@@ -22546,7 +22654,7 @@
         <v>37.405781941800946</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="18">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -22562,7 +22670,7 @@
         <v>37.374245231273584</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="18">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -22578,7 +22686,7 @@
         <v>37.342629053615028</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="18">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -22594,7 +22702,7 @@
         <v>37.309205555841125</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="18">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -22610,7 +22718,7 @@
         <v>37.27981390102326</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="18">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -22626,7 +22734,7 @@
         <v>37.247685133657413</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="18">
         <f t="shared" si="2"/>
         <v>217</v>
@@ -22642,7 +22750,7 @@
         <v>37.218433126682037</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="18">
         <f t="shared" si="2"/>
         <v>218</v>
@@ -22658,7 +22766,7 @@
         <v>37.189770586238538</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="18">
         <f t="shared" si="2"/>
         <v>219</v>
@@ -22674,7 +22782,7 @@
         <v>37.161232823424669</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="18">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -22690,7 +22798,7 @@
         <v>37.130772670045459</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="18">
         <f t="shared" si="2"/>
         <v>221</v>
@@ -22706,7 +22814,7 @@
         <v>37.098913970859734</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="18">
         <f t="shared" si="2"/>
         <v>222</v>
@@ -22722,7 +22830,7 @@
         <v>37.065180126891896</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="18">
         <f t="shared" si="2"/>
         <v>223</v>
@@ -22738,7 +22846,7 @@
         <v>37.026053759282519</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="18">
         <f t="shared" si="2"/>
         <v>224</v>
@@ -22754,7 +22862,7 @@
         <v>36.984464229464287</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="18">
         <f t="shared" si="2"/>
         <v>225</v>
@@ -22770,7 +22878,7 @@
         <v>36.94248883697778</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="18">
         <f t="shared" si="2"/>
         <v>226</v>
@@ -22786,7 +22894,7 @@
         <v>36.903849501769912</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="18">
         <f t="shared" si="2"/>
         <v>227</v>
@@ -22802,7 +22910,7 @@
         <v>36.866607877356834</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="18">
         <f t="shared" si="2"/>
         <v>228</v>
@@ -22818,7 +22926,7 @@
         <v>36.825438542543864</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="18">
         <f t="shared" si="2"/>
         <v>229</v>
@@ -22834,7 +22942,7 @@
         <v>36.780523967772936</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="18">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -22850,7 +22958,7 @@
         <v>36.740956473608705</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="18">
         <f t="shared" si="2"/>
         <v>231</v>
@@ -22866,7 +22974,7 @@
         <v>36.704978308398275</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="18">
         <f t="shared" si="2"/>
         <v>232</v>
@@ -22882,7 +22990,7 @@
         <v>36.66892236806035</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="18">
         <f t="shared" si="2"/>
         <v>233</v>
@@ -22898,7 +23006,7 @@
         <v>36.633948454291847</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="18">
         <f t="shared" si="2"/>
         <v>234</v>
@@ -22914,7 +23022,7 @@
         <v>36.598119614743588</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="18">
         <f t="shared" si="2"/>
         <v>235</v>
@@ -22930,7 +23038,7 @@
         <v>36.563361660255318</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="18">
         <f t="shared" si="2"/>
         <v>236</v>
@@ -22946,7 +23054,7 @@
         <v>36.528262673093217</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="18">
         <f t="shared" si="2"/>
         <v>237</v>
@@ -22962,7 +23070,7 @@
         <v>36.490632875358649</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="18">
         <f t="shared" si="2"/>
         <v>238</v>
@@ -22978,7 +23086,7 @@
         <v>36.451512570462185</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="18">
         <f t="shared" si="2"/>
         <v>239</v>
@@ -22994,7 +23102,7 @@
         <v>36.412008334728036</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="18">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -23010,7 +23118,7 @@
         <v>36.376874964750002</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="18">
         <f t="shared" si="2"/>
         <v>241</v>
@@ -23026,7 +23134,7 @@
         <v>36.340622369004151</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="18">
         <f t="shared" si="2"/>
         <v>242</v>
@@ -23042,7 +23150,7 @@
         <v>36.305495830909088</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="18">
         <f t="shared" si="2"/>
         <v>243</v>
@@ -23058,7 +23166,7 @@
         <v>36.269876504938274</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="18">
         <f t="shared" si="2"/>
         <v>244</v>
@@ -23074,7 +23182,7 @@
         <v>36.232704883032788</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="18">
         <f t="shared" si="2"/>
         <v>245</v>
@@ -23090,7 +23198,7 @@
         <v>36.195714251183674</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="18">
         <f t="shared" si="2"/>
         <v>246</v>
@@ -23106,7 +23214,7 @@
         <v>36.154715415243899</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="18">
         <f t="shared" si="2"/>
         <v>247</v>
@@ -23122,7 +23230,7 @@
         <v>36.116113331943318</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="18">
         <f t="shared" si="2"/>
         <v>248</v>
@@ -23138,7 +23246,7 @@
         <v>36.076048360080641</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="18">
         <f t="shared" si="2"/>
         <v>249</v>
@@ -23154,7 +23262,7 @@
         <v>36.036947764859427</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="18">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -23170,7 +23278,7 @@
         <v>35.997639970119991</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="18">
         <f t="shared" si="2"/>
         <v>251</v>
@@ -23186,7 +23294,7 @@
         <v>35.959402359163342</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="18">
         <f t="shared" si="2"/>
         <v>252</v>
@@ -23202,7 +23310,7 @@
         <v>35.920357115039671</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="18">
         <f t="shared" si="2"/>
         <v>253</v>
@@ -23218,7 +23326,7 @@
         <v>35.879051352964417</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="18">
         <f t="shared" si="2"/>
         <v>254</v>
@@ -23234,7 +23342,7 @@
         <v>35.835787368858256</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="18">
         <f t="shared" si="2"/>
         <v>255</v>
@@ -23250,7 +23358,7 @@
         <v>35.792862710117632</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="18">
         <f t="shared" si="2"/>
         <v>256</v>
@@ -23266,7 +23374,7 @@
         <v>35.744648405624986</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="18">
         <f t="shared" si="2"/>
         <v>257</v>
@@ -23282,7 +23390,7 @@
         <v>35.69571981291827</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="18">
         <f t="shared" si="2"/>
         <v>258</v>
@@ -23298,7 +23406,7 @@
         <v>35.651472839573628</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="18">
         <f t="shared" si="2"/>
         <v>259</v>
@@ -23314,7 +23422,7 @@
         <v>35.606949781660212</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="18">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -23330,7 +23438,7 @@
         <v>35.566653817730753</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="18">
         <f t="shared" si="2"/>
         <v>261</v>
@@ -23346,7 +23454,7 @@
         <v>35.519386943103434</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="18">
         <f t="shared" si="2"/>
         <v>262</v>
@@ -23362,7 +23470,7 @@
         <v>35.470534318549603</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="18">
         <f t="shared" si="2"/>
         <v>263</v>
@@ -23378,7 +23486,7 @@
         <v>35.421064602813672</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="18">
         <f t="shared" si="2"/>
         <v>264</v>
@@ -23394,7 +23502,7 @@
         <v>35.373181784962107</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="18">
         <f t="shared" si="2"/>
         <v>265</v>
@@ -23410,7 +23518,7 @@
         <v>35.328188649018855</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="18">
         <f t="shared" si="2"/>
         <v>266</v>
@@ -23426,7 +23534,7 @@
         <v>35.283233055751865</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="18">
         <f t="shared" si="2"/>
         <v>267</v>
@@ -23442,7 +23550,7 @@
         <v>35.239288359812718</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="18">
         <f t="shared" si="2"/>
         <v>268</v>
@@ -23458,7 +23566,7 @@
         <v>35.194701466380579</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="18">
         <f t="shared" si="2"/>
         <v>269</v>
@@ -23474,7 +23582,7 @@
         <v>35.152081756617086</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="18">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -23490,7 +23598,7 @@
         <v>35.109703672629614</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="18">
         <f t="shared" si="2"/>
         <v>271</v>
@@ -23506,7 +23614,7 @@
         <v>35.067933551771205</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="18">
         <f t="shared" si="2"/>
         <v>272</v>
@@ -23522,7 +23630,7 @@
         <v>35.027867619595575</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="18">
         <f t="shared" si="2"/>
         <v>273</v>
@@ -23538,7 +23646,7 @@
         <v>34.987655647509143</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="18">
         <f t="shared" si="2"/>
         <v>274</v>
@@ -23554,7 +23662,7 @@
         <v>34.944671499452539</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="18">
         <f t="shared" si="2"/>
         <v>275</v>
@@ -23570,7 +23678,7 @@
         <v>34.902363601163621</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="18">
         <f t="shared" si="2"/>
         <v>276</v>
@@ -23586,7 +23694,7 @@
         <v>34.860434747246366</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="18">
         <f t="shared" si="2"/>
         <v>277</v>
@@ -23602,7 +23710,7 @@
         <v>34.818953036389878</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="18">
         <f t="shared" si="2"/>
         <v>278</v>
@@ -23618,7 +23726,7 @@
         <v>34.778740972913653</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="18">
         <f t="shared" si="2"/>
         <v>279</v>
@@ -23634,7 +23742,7 @@
         <v>34.740573439534039</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="18">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -23650,7 +23758,7 @@
         <v>34.703321389642845</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="18">
         <f t="shared" si="2"/>
         <v>281</v>
@@ -23666,7 +23774,7 @@
         <v>34.66704622537366</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="18">
         <f t="shared" si="2"/>
         <v>282</v>
@@ -23682,7 +23790,7 @@
         <v>34.633936132092195</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="18">
         <f t="shared" si="2"/>
         <v>283</v>
@@ -23698,7 +23806,7 @@
         <v>34.60084802017667</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="18">
         <f t="shared" si="2"/>
         <v>284</v>
@@ -23714,7 +23822,7 @@
         <v>34.568661932359149</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="18">
         <f t="shared" si="2"/>
         <v>285</v>
@@ -23730,7 +23838,7 @@
         <v>34.534210486982445</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="18">
         <f t="shared" si="2"/>
         <v>286</v>
@@ -23746,7 +23854,7 @@
         <v>34.502202755069924</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="18">
         <f t="shared" si="2"/>
         <v>287</v>
@@ -23762,7 +23870,7 @@
         <v>34.441742116968634</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="18">
         <f t="shared" si="2"/>
         <v>288</v>
@@ -23778,7 +23886,7 @@
         <v>34.411076347847221</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="18">
         <f t="shared" si="2"/>
         <v>289</v>
@@ -23794,7 +23902,7 @@
         <v>34.381903071695504</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="18">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -23810,7 +23918,7 @@
         <v>34.352999957655172</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="18">
         <f t="shared" si="2"/>
         <v>291</v>
@@ -23826,7 +23934,7 @@
         <v>34.326013703505154</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="18">
         <f t="shared" si="2"/>
         <v>292</v>
@@ -23842,7 +23950,7 @@
         <v>34.300958862842464</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="18">
         <f t="shared" si="2"/>
         <v>293</v>
@@ -23858,7 +23966,7 @@
         <v>34.276006784027302</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="18">
         <f t="shared" si="2"/>
         <v>294</v>
@@ -23874,7 +23982,7 @@
         <v>34.249897918707482</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="18">
         <f t="shared" si="2"/>
         <v>295</v>
@@ -23890,7 +23998,7 @@
         <v>34.226135552101695</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="18">
         <f t="shared" si="2"/>
         <v>296</v>
@@ -23906,7 +24014,7 @@
         <v>34.204222931216215</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="18">
         <f t="shared" si="2"/>
         <v>297</v>
@@ -23922,7 +24030,7 @@
         <v>34.18289558410774</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="18">
         <f t="shared" si="2"/>
         <v>298</v>
@@ -23938,7 +24046,7 @@
         <v>34.162718082416099</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="18">
         <f t="shared" si="2"/>
         <v>299</v>
@@ -23954,7 +24062,7 @@
         <v>34.140468189933102</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="18">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -23970,7 +24078,7 @@
         <v>34.119366627533324</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="18">
         <f t="shared" si="2"/>
         <v>301</v>
@@ -23986,7 +24094,7 @@
         <v>34.097840490531553</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="18">
         <f t="shared" si="2"/>
         <v>302</v>
@@ -24002,7 +24110,7 @@
         <v>34.077913866125826</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="18">
         <f t="shared" si="2"/>
         <v>303</v>
@@ -24018,7 +24126,7 @@
         <v>34.057623722376235</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="18">
         <f t="shared" si="2"/>
         <v>304</v>
@@ -24034,7 +24142,7 @@
         <v>34.036743378157887</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="18">
         <f t="shared" si="2"/>
         <v>305</v>
@@ -24050,7 +24158,7 @@
         <v>34.0172130717377</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="18">
         <f t="shared" si="2"/>
         <v>306</v>
@@ -24066,7 +24174,7 @@
         <v>33.997091462385619</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="18">
         <f t="shared" si="2"/>
         <v>307</v>
@@ -24082,7 +24190,7 @@
         <v>33.975211687882734</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="18">
         <f t="shared" si="2"/>
         <v>308</v>
@@ -24098,7 +24206,7 @@
         <v>33.951818144935061</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="18">
         <f t="shared" si="2"/>
         <v>309</v>
@@ -24114,7 +24222,7 @@
         <v>33.929385077993516</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="18">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -24130,7 +24238,7 @@
         <v>33.90851609090322</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="18">
         <f t="shared" si="2"/>
         <v>311</v>
@@ -24146,7 +24254,7 @@
         <v>33.886495137138255</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="18">
         <f t="shared" si="2"/>
         <v>312</v>
@@ -24162,7 +24270,7 @@
         <v>33.865480729391024</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="18">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -24178,7 +24286,7 @@
         <v>33.843706028146961</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="18">
         <f t="shared" si="2"/>
         <v>314</v>
@@ -24194,7 +24302,7 @@
         <v>33.822292954299357</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="18">
         <f t="shared" si="2"/>
         <v>315</v>
@@ -24210,7 +24318,7 @@
         <v>33.800285673142845</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="18">
         <f t="shared" si="2"/>
         <v>316</v>
@@ -24226,7 +24334,7 @@
         <v>33.778132867974676</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="18">
         <f t="shared" si="2"/>
         <v>317</v>
@@ -24242,7 +24350,7 @@
         <v>33.755394277507875</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="18">
         <f t="shared" si="2"/>
         <v>318</v>
@@ -24258,7 +24366,7 @@
         <v>33.733238946698101</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="18">
         <f t="shared" si="2"/>
         <v>319</v>
@@ -24274,7 +24382,7 @@
         <v>33.710940394639486</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="18">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -24290,7 +24398,7 @@
         <v>33.689062453031241</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="18">
         <f t="shared" si="2"/>
         <v>321</v>
@@ -24306,7 +24414,7 @@
         <v>33.666137024579427</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="18">
         <f t="shared" si="2"/>
         <v>322</v>
@@ -24322,7 +24430,7 @@
         <v>33.645031011583839</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="18">
         <f t="shared" si="2"/>
         <v>323</v>
@@ -24338,7 +24446,7 @@
         <v>33.622414816501539</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="18">
         <f t="shared" si="2"/>
         <v>324</v>
@@ -24354,7 +24462,7 @@
         <v>33.59876538805554</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="18">
         <f t="shared" si="2"/>
         <v>325</v>
@@ -24370,7 +24478,7 @@
         <v>33.575630725323066</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="18">
         <f t="shared" si="2"/>
         <v>326</v>
@@ -24386,7 +24494,7 @@
         <v>33.55380363438649</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="18">
         <f t="shared" si="2"/>
         <v>327</v>
@@ -24402,7 +24510,7 @@
         <v>33.532079466574906</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="18">
         <f t="shared" si="2"/>
         <v>328</v>
@@ -24418,7 +24526,7 @@
         <v>33.510823125121938</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="18">
         <f t="shared" si="2"/>
         <v>329</v>
@@ -24434,7 +24542,7 @@
         <v>33.4886017805471</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="18">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -24450,7 +24558,7 @@
         <v>33.468363593333315</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="18">
         <f t="shared" si="2"/>
         <v>331</v>
@@ -24466,7 +24574,7 @@
         <v>33.447673675649533</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="18">
         <f t="shared" si="2"/>
         <v>332</v>
@@ -24482,7 +24590,7 @@
         <v>33.427379475060221</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="18">
         <f t="shared" si="2"/>
         <v>333</v>
@@ -24498,7 +24606,7 @@
         <v>33.407237192282267</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="18">
         <f t="shared" si="2"/>
         <v>334</v>
@@ -24514,7 +24622,7 @@
         <v>33.388532888862258</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="18">
         <f t="shared" si="2"/>
         <v>335</v>
@@ -24530,7 +24638,7 @@
         <v>33.36955219573133</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="18">
         <f t="shared" si="2"/>
         <v>336</v>
@@ -24546,7 +24654,7 @@
         <v>33.34928566976189</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="18">
         <f t="shared" si="2"/>
         <v>337</v>
@@ -24562,7 +24670,7 @@
         <v>33.330356036646869</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="18">
         <f t="shared" si="2"/>
         <v>338</v>
@@ -24578,7 +24686,7 @@
         <v>33.311212973254428</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="18">
         <f t="shared" si="2"/>
         <v>339</v>
@@ -24594,7 +24702,7 @@
         <v>33.289498482949838</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="18">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -24610,7 +24718,7 @@
         <v>33.267764662764691</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="18">
         <f t="shared" si="2"/>
         <v>341</v>
@@ -24626,7 +24734,7 @@
         <v>33.245806410645152</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="18">
         <f t="shared" si="2"/>
         <v>342</v>
@@ -24642,7 +24750,7 @@
         <v>33.223508733537997</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="18">
         <f t="shared" si="2"/>
         <v>343</v>
@@ -24658,7 +24766,7 @@
         <v>33.200932904985407</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="18">
         <f t="shared" si="2"/>
         <v>344</v>
@@ -24674,7 +24782,7 @@
         <v>33.177616240465106</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="18">
         <f t="shared" si="2"/>
         <v>345</v>
@@ -24690,7 +24798,7 @@
         <v>33.152985469652158</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="18">
         <f t="shared" si="2"/>
         <v>346</v>
@@ -24706,7 +24814,7 @@
         <v>33.128364413381483</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="18">
         <f t="shared" si="2"/>
         <v>347</v>
@@ -24722,7 +24830,7 @@
         <v>33.103412352564824</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="18">
         <f t="shared" si="2"/>
         <v>348</v>
@@ -24738,7 +24846,7 @@
         <v>33.078804848448264</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="18">
         <f t="shared" si="2"/>
         <v>349</v>
@@ -24754,7 +24862,7 @@
         <v>33.055026039971331</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="18">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -24770,7 +24878,7 @@
         <v>33.030411681371412</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="18">
         <f t="shared" si="2"/>
         <v>351</v>
@@ -24786,7 +24894,7 @@
         <v>33.006878029857532</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="18">
         <f t="shared" si="2"/>
         <v>352</v>
@@ -24802,7 +24910,7 @@
         <v>32.983932353636348</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="18">
         <f t="shared" si="2"/>
         <v>353</v>
@@ -24818,7 +24926,7 @@
         <v>32.959955208158625</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="18">
         <f t="shared" ref="A356:A463" si="3">A355+1</f>
         <v>354</v>
@@ -24834,7 +24942,7 @@
         <v>32.934475108700553</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="18">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -24850,7 +24958,7 @@
         <v>32.90789912247886</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="18">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -24866,7 +24974,7 @@
         <v>32.881472439550549</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="18">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -24882,7 +24990,7 @@
         <v>32.85519380526609</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="18">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -24898,7 +25006,7 @@
         <v>32.8285871186592</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="18">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -24914,7 +25022,7 @@
         <v>32.801348714428954</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="18">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -24930,7 +25038,7 @@
         <v>32.773872745777759</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="18">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -24946,7 +25054,7 @@
         <v>32.746798306038762</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="18">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -24962,7 +25070,7 @@
         <v>32.721144167071806</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="18">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -24978,7 +25086,7 @@
         <v>32.694171318126706</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="18">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -24994,7 +25102,7 @@
         <v>32.66762139881866</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="18">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -25010,7 +25118,7 @@
         <v>32.640066271698615</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="18">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -25026,7 +25134,7 @@
         <v>32.611104344508178</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="18">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -25042,7 +25150,7 @@
         <v>32.582845203978181</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="18">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -25058,7 +25166,7 @@
         <v>32.556587472663026</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="18">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -25074,7 +25182,7 @@
         <v>32.530282358590767</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="18">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -25090,7 +25198,7 @@
         <v>32.506281594432416</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="18">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -25106,7 +25214,7 @@
         <v>32.482598892857126</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="18">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -25122,7 +25230,7 @@
         <v>32.459392982876324</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="18">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -25138,7 +25246,7 @@
         <v>32.435614449812313</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="18">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -25154,7 +25262,7 @@
         <v>32.411455051871634</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="18">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -25170,7 +25278,7 @@
         <v>32.387264505466646</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="18">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -25186,7 +25294,7 @@
         <v>32.361846248590403</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="18">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -25202,7 +25310,7 @@
         <v>32.336324109389899</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="18">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -25218,7 +25326,7 @@
         <v>32.312101030555532</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="18">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -25234,7 +25342,7 @@
         <v>32.287425299815283</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="18">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -25250,7 +25358,7 @@
         <v>32.260721547421028</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="18">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -25266,7 +25374,7 @@
         <v>32.234420440393677</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="18">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -25282,7 +25390,7 @@
         <v>32.208335571335049</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="18">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -25298,7 +25406,7 @@
         <v>32.183248534281958</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="18">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -25314,7 +25422,7 @@
         <v>32.157979656692682</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="18">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -25330,7 +25438,7 @@
         <v>32.134712179038935</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="18">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -25346,7 +25454,7 @@
         <v>32.111539350932617</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="18">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -25362,7 +25470,7 @@
         <v>32.088072842764831</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="18">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -25378,7 +25486,7 @@
         <v>32.064031418505131</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="18">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -25394,7 +25502,7 @@
         <v>32.038982493753188</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="18">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -25410,7 +25518,7 @@
         <v>32.015472284384586</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="18">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -25426,7 +25534,7 @@
         <v>31.992133479028105</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="18">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -25442,7 +25550,7 @@
         <v>31.970342324132627</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="18">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -25458,7 +25566,7 @@
         <v>31.947847812264605</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="18">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -25474,7 +25582,7 @@
         <v>31.925162919923835</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="18">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -25490,7 +25598,7 @@
         <v>31.902643521873394</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="18">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -25506,7 +25614,7 @@
         <v>31.880162098838358</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="18">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -25522,7 +25630,7 @@
         <v>31.856912319294686</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="18">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -25538,7 +25646,7 @@
         <v>31.833502994170832</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="18">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -25554,7 +25662,7 @@
         <v>31.810135819323285</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="18">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -25570,7 +25678,7 @@
         <v>31.786510481299977</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="18">
         <f t="shared" si="3"/>
         <v>401</v>
@@ -25586,7 +25694,7 @@
         <v>31.762603973266813</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="18">
         <f t="shared" si="3"/>
         <v>402</v>
@@ -25602,7 +25710,7 @@
         <v>31.740060184179082</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="18">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -25618,7 +25726,7 @@
         <v>31.717901224590552</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="18">
         <f t="shared" si="3"/>
         <v>404</v>
@@ -25634,7 +25742,7 @@
         <v>31.696743053440571</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="18">
         <f t="shared" si="3"/>
         <v>405</v>
@@ -25650,7 +25758,7 @@
         <v>31.675343689580224</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="18">
         <f t="shared" si="3"/>
         <v>406</v>
@@ -25666,7 +25774,7 @@
         <v>31.654517718201948</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="18">
         <f t="shared" si="3"/>
         <v>407</v>
@@ -25682,7 +25790,7 @@
         <v>31.634383765773933</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="18">
         <f t="shared" si="3"/>
         <v>408</v>
@@ -25698,7 +25806,7 @@
         <v>31.614814196789194</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="18">
         <f t="shared" si="3"/>
         <v>409</v>
@@ -25714,7 +25822,7 @@
         <v>31.595291421638123</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="18">
         <f t="shared" si="3"/>
         <v>410</v>
@@ -25730,7 +25838,7 @@
         <v>31.576376077073149</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="18">
         <f t="shared" si="3"/>
         <v>411</v>
@@ -25746,7 +25854,7 @@
         <v>31.556968836934285</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="18">
         <f t="shared" si="3"/>
         <v>412</v>
@@ -25762,7 +25870,7 @@
         <v>31.537000465776678</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="18">
         <f t="shared" si="3"/>
         <v>413</v>
@@ -25778,7 +25886,7 @@
         <v>31.51698351661015</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="18">
         <f t="shared" si="3"/>
         <v>414</v>
@@ -25794,7 +25902,7 @@
         <v>31.497618822125581</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="18">
         <f t="shared" si="3"/>
         <v>415</v>
@@ -25810,7 +25918,7 @@
         <v>31.477986006602389</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="18">
         <f t="shared" si="3"/>
         <v>416</v>
@@ -25826,7 +25934,7 @@
         <v>31.457798540048056</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="18">
         <f t="shared" si="3"/>
         <v>417</v>
@@ -25842,7 +25950,7 @@
         <v>31.436820603693025</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="18">
         <f t="shared" si="3"/>
         <v>418</v>
@@ -25858,7 +25966,7 @@
         <v>31.415703809449742</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="18">
         <f t="shared" si="3"/>
         <v>419</v>
@@ -25874,7 +25982,7 @@
         <v>31.394544609999983</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="18">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -25890,7 +25998,7 @@
         <v>31.373248077023792</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="18">
         <f t="shared" si="3"/>
         <v>421</v>
@@ -25906,7 +26014,7 @@
         <v>31.352860316555802</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="18">
         <f t="shared" si="3"/>
         <v>422</v>
@@ -25922,7 +26030,7 @@
         <v>31.333066808696664</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="18">
         <f t="shared" si="3"/>
         <v>423</v>
@@ -25938,7 +26046,7 @@
         <v>31.312728588203292</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="18">
         <f t="shared" si="3"/>
         <v>424</v>
@@ -25954,7 +26062,7 @@
         <v>31.292557059056588</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="18">
         <f t="shared" si="3"/>
         <v>425</v>
@@ -25970,7 +26078,7 @@
         <v>31.272433394847042</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="18">
         <f t="shared" si="3"/>
         <v>426</v>
@@ -25986,7 +26094,7 @@
         <v>31.252615475892004</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="18">
         <f t="shared" si="3"/>
         <v>427</v>
@@ -26002,7 +26110,7 @@
         <v>31.234248694566734</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="18">
         <f t="shared" si="3"/>
         <v>428</v>
@@ -26018,7 +26126,7 @@
         <v>31.216178020046716</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="18">
         <f t="shared" si="3"/>
         <v>429</v>
@@ -26034,7 +26142,7 @@
         <v>31.198378071095561</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="18">
         <f t="shared" si="3"/>
         <v>430</v>
@@ -26050,7 +26158,7 @@
         <v>31.181219051604643</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="18">
         <f t="shared" si="3"/>
         <v>431</v>
@@ -26066,7 +26174,7 @@
         <v>31.163745224617159</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="18">
         <f t="shared" si="3"/>
         <v>432</v>
@@ -26082,7 +26190,7 @@
         <v>31.146653223379619</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="18">
         <f t="shared" si="3"/>
         <v>433</v>
@@ -26098,7 +26206,7 @@
         <v>31.13037919833717</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="18">
         <f t="shared" si="3"/>
         <v>434</v>
@@ -26114,7 +26222,7 @@
         <v>31.114986621290313</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="18">
         <f t="shared" si="3"/>
         <v>435</v>
@@ -26130,7 +26238,7 @@
         <v>31.099825733563208</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="18">
         <f t="shared" si="3"/>
         <v>436</v>
@@ -26146,7 +26254,7 @@
         <v>31.084757327499986</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="18">
         <f t="shared" si="3"/>
         <v>437</v>
@@ -26162,7 +26270,7 @@
         <v>31.0702384314874</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="18">
         <f t="shared" si="3"/>
         <v>438</v>
@@ -26178,7 +26286,7 @@
         <v>31.055991311598159</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="18">
         <f t="shared" si="3"/>
         <v>439</v>
@@ -26194,7 +26302,7 @@
         <v>31.042583586697024</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="18">
         <f t="shared" si="3"/>
         <v>440</v>
@@ -26210,7 +26318,7 @@
         <v>31.028623168590894</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="18">
         <f t="shared" si="3"/>
         <v>441</v>
@@ -26226,7 +26334,7 @@
         <v>31.014726063038534</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="18">
         <f t="shared" si="3"/>
         <v>442</v>
@@ -26242,7 +26350,7 @@
         <v>31.001661071425325</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="18">
         <f t="shared" si="3"/>
         <v>443</v>
@@ -26258,7 +26366,7 @@
         <v>30.988406755598181</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="18">
         <f t="shared" si="3"/>
         <v>444</v>
@@ -26274,7 +26382,7 @@
         <v>30.974761696036023</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="18">
         <f t="shared" si="3"/>
         <v>445</v>
@@ -26290,7 +26398,7 @@
         <v>30.960436389707851</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="18">
         <f t="shared" si="3"/>
         <v>446</v>
@@ -26306,7 +26414,7 @@
         <v>30.94619774446187</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="18">
         <f t="shared" si="3"/>
         <v>447</v>
@@ -26322,7 +26430,7 @@
         <v>30.931776720425042</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="18">
         <f t="shared" si="3"/>
         <v>448</v>
@@ -26338,7 +26446,7 @@
         <v>30.918245970691949</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="18">
         <f t="shared" si="3"/>
         <v>449</v>
@@ -26354,7 +26462,7 @@
         <v>30.904263238886397</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="18">
         <f t="shared" si="3"/>
         <v>450</v>
@@ -26370,7 +26478,7 @@
         <v>30.890875985377765</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="18">
         <f t="shared" si="3"/>
         <v>451</v>
@@ -26386,7 +26494,7 @@
         <v>30.87739288889134</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="18">
         <f t="shared" si="3"/>
         <v>452</v>
@@ -26402,7 +26510,7 @@
         <v>30.86381458553096</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="18">
         <f t="shared" si="3"/>
         <v>453</v>
@@ -26418,7 +26526,7 @@
         <v>30.849744354150097</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="18">
         <f t="shared" si="3"/>
         <v>454</v>
@@ -26434,7 +26542,7 @@
         <v>30.834546681035228</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="18">
         <f t="shared" si="3"/>
         <v>455</v>
@@ -26450,7 +26558,7 @@
         <v>30.820426797890097</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="18">
         <f t="shared" si="3"/>
         <v>456</v>
@@ -26466,7 +26574,7 @@
         <v>30.806346913728056</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="18">
         <f t="shared" si="3"/>
         <v>457</v>
@@ -26482,7 +26590,7 @@
         <v>30.791891014048126</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="18">
         <f t="shared" si="3"/>
         <v>458</v>
@@ -26498,7 +26606,7 @@
         <v>30.777563740087324</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="18">
         <f t="shared" si="3"/>
         <v>459</v>
@@ -26514,7 +26622,7 @@
         <v>30.762841379999987</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="18">
         <f t="shared" si="3"/>
         <v>460</v>
@@ -26530,7 +26638,7 @@
         <v>30.747661291543466</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="18">
         <f t="shared" si="3"/>
         <v>461</v>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="323">
   <si>
     <t>PE</t>
   </si>
@@ -1218,6 +1218,90 @@
   </si>
   <si>
     <t xml:space="preserve">2023/2/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/8
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/13
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/16
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/24
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/27
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/3/29
 </t>
   </si>
 </sst>
@@ -1232,7 +1316,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1588,7 +1672,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1647,6 +1731,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1735,7 +1820,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1781,118 +1865,118 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44985</c:v>
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1900,279 +1984,6 @@
           <c:val>
             <c:numRef>
               <c:f>model1!资金</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>38000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>46000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>48000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>52000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>54000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>56000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>58000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>62000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>66000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>68000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>72000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>74000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>model1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>total assets</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>model1!时间</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>43889</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43921</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43951</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43980</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44012</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44043</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44074</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44104</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44134</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44165</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44196</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44225</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44253</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44286</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44316</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44347</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44377</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44407</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44439</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44469</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44498</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44530</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44561</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44589</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44620</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44651</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44680</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44712</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44742</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44771</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44804</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44834</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44865</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44895</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44925</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44957</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44985</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="37"/>
@@ -2293,20 +2104,20 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
+              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>model1!$I$1</c:f>
+              <c:f>model1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>profit amount</c:v>
+                  <c:v>total assets</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2314,7 +2125,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2327,125 +2138,125 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44985</c:v>
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>model1!金额</c:f>
+              <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="37"/>
@@ -2566,6 +2377,168 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>model1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>profit amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>model1!时间</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>3.25108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8991500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.17509</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1906699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6513100000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1706000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1298999999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9869400000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2014499999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.27712</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7245600000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9833500000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7232599999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4379900000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7860299999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.9806599999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.1114799999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9776999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7613100000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7106400000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8678999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.9547099609374996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8630097656249998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3440297851562502</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3355400390624999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8658500976562502</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5012099609375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6361599121093748</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1096201171875002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.8724699707031252</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7022099609375001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3477299804687499</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2993999023437501</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.4802900390625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4735300292968749</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.8110336914062501</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6777292480468748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>model1!金额</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
@@ -2580,17 +2553,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="268669696"/>
-        <c:axId val="269069312"/>
+        <c:axId val="393145344"/>
+        <c:axId val="507660544"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="268669696"/>
+      <c:catAx>
+        <c:axId val="393145344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2627,14 +2600,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269069312"/>
+        <c:crossAx val="507660544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="269069312"/>
+        <c:axId val="507660544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2685,7 +2659,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268669696"/>
+        <c:crossAx val="393145344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2699,7 +2673,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17589,14 +17562,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y39"/>
+  <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -17617,7 +17590,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>180</v>
       </c>
@@ -17647,7 +17620,7 @@
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="14.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -17663,7 +17636,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="14.1" customHeight="1">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -17742,7 +17715,7 @@
         <v>-22000</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="14.1" customHeight="1">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -17827,7 +17800,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="14.1" customHeight="1">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -17907,7 +17880,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="14.1" customHeight="1">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -17981,7 +17954,7 @@
         <v>60293.406710853284</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="14.1" customHeight="1">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -18023,7 +17996,7 @@
         <v>-7.3828223896210132E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="14.1" customHeight="1">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -18061,7 +18034,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="14.1" customHeight="1">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -18099,7 +18072,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="14.1" customHeight="1">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -18137,7 +18110,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="14.1" customHeight="1">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -18175,7 +18148,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="14.1" customHeight="1">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -18213,7 +18186,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="14.1" customHeight="1">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -18251,7 +18224,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="14.1" customHeight="1">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -18289,7 +18262,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="14.1" customHeight="1">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -18327,7 +18300,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="14.1" customHeight="1">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -18365,7 +18338,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1">
       <c r="A17" s="14">
         <v>44316</v>
       </c>
@@ -18403,7 +18376,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1">
       <c r="A18" s="14">
         <v>44347</v>
       </c>
@@ -18441,7 +18414,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1">
       <c r="A19" s="14">
         <v>44377</v>
       </c>
@@ -18479,7 +18452,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1">
       <c r="A20" s="14">
         <v>44407</v>
       </c>
@@ -18517,7 +18490,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1">
       <c r="A21" s="14">
         <v>44439</v>
       </c>
@@ -18556,7 +18529,7 @@
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1">
       <c r="A22" s="14">
         <v>44469</v>
       </c>
@@ -18594,7 +18567,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1">
       <c r="A23" s="14">
         <v>44498</v>
       </c>
@@ -18632,7 +18605,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1">
       <c r="A24" s="14">
         <v>44530</v>
       </c>
@@ -18670,7 +18643,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1">
       <c r="A25" s="14">
         <v>44561</v>
       </c>
@@ -18708,7 +18681,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1">
       <c r="A26" s="14">
         <v>44589</v>
       </c>
@@ -18746,7 +18719,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1">
       <c r="A27" s="14">
         <v>44620</v>
       </c>
@@ -18784,7 +18757,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1">
       <c r="A28" s="14">
         <v>44651</v>
       </c>
@@ -18822,7 +18795,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1">
       <c r="A29" s="14">
         <v>44680</v>
       </c>
@@ -18860,7 +18833,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1">
       <c r="A30" s="14">
         <v>44712</v>
       </c>
@@ -18898,7 +18871,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1">
       <c r="A31" s="14">
         <v>44742</v>
       </c>
@@ -18936,7 +18909,7 @@
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1">
       <c r="A32" s="14">
         <v>44771</v>
       </c>
@@ -18974,7 +18947,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1">
       <c r="A33" s="14">
         <v>44804</v>
       </c>
@@ -19013,7 +18986,7 @@
       <c r="J33" s="6"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="12.75">
       <c r="A34" s="14">
         <v>44834</v>
       </c>
@@ -19050,7 +19023,7 @@
         <v>-11770.911062729705</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="12.75">
       <c r="A35" s="14">
         <v>44865</v>
       </c>
@@ -19087,7 +19060,7 @@
         <v>-12524.925264431353</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="12.75">
       <c r="A36" s="14">
         <v>44895</v>
       </c>
@@ -19124,7 +19097,7 @@
         <v>-9593.1455874388703</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="12.75">
       <c r="A37" s="14">
         <v>44925</v>
       </c>
@@ -19161,7 +19134,7 @@
         <v>-9706.5932891467164</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="12.75">
       <c r="A38" s="14">
         <v>44957</v>
       </c>
@@ -19198,7 +19171,7 @@
         <v>-3848.2171143818996</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="12.75">
       <c r="A39" s="14">
         <v>44985</v>
       </c>
@@ -19234,6 +19207,9 @@
         <f t="shared" si="12"/>
         <v>-6232.0678533566097</v>
       </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -19248,13 +19224,13 @@
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D463"/>
+  <dimension ref="A1:D486"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
@@ -19262,16 +19238,16 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1">
+      <c r="B1" s="31" t="s">
         <v>194</v>
       </c>
       <c r="C1" s="22">
         <v>399088</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="30"/>
+    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+      <c r="B2" s="31"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
       </c>
@@ -19279,7 +19255,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -19294,7 +19270,7 @@
         <v>45.12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>2</v>
@@ -19310,7 +19286,7 @@
         <v>44.965000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1">
       <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -19326,7 +19302,7 @@
         <v>44.99666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -19342,7 +19318,7 @@
         <v>44.792500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1">
       <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -19358,7 +19334,7 @@
         <v>44.440000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -19374,7 +19350,7 @@
         <v>44.256666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -19390,7 +19366,7 @@
         <v>44.252857142857145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -19406,7 +19382,7 @@
         <v>44.220000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -19422,7 +19398,7 @@
         <v>44.181111111111115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -19438,7 +19414,7 @@
         <v>44.341000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -19454,7 +19430,7 @@
         <v>44.458181818181828</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -19470,7 +19446,7 @@
         <v>44.577500000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -19486,7 +19462,7 @@
         <v>44.703076923076928</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -19502,7 +19478,7 @@
         <v>44.860000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -19518,7 +19494,7 @@
         <v>44.968000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -19534,7 +19510,7 @@
         <v>45.078750000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -19550,7 +19526,7 @@
         <v>45.214117647058828</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -19566,7 +19542,7 @@
         <v>45.345555555555563</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -19582,7 +19558,7 @@
         <v>45.46631578947369</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -19598,7 +19574,7 @@
         <v>45.062500000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1">
       <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -19614,7 +19590,7 @@
         <v>44.643333333333338</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1">
       <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -19630,7 +19606,7 @@
         <v>44.269090909090913</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1">
       <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -19646,7 +19622,7 @@
         <v>43.928695652173921</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1">
       <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -19662,7 +19638,7 @@
         <v>43.627500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1">
       <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -19678,7 +19654,7 @@
         <v>43.332400000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1">
       <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -19694,7 +19670,7 @@
         <v>43.088461538461544</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -19710,7 +19686,7 @@
         <v>42.901851851851859</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -19726,7 +19702,7 @@
         <v>42.726071428571437</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1">
       <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -19742,7 +19718,7 @@
         <v>42.570000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1">
       <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -19758,7 +19734,7 @@
         <v>42.435000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -19774,7 +19750,7 @@
         <v>42.298387096774199</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1">
       <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -19790,7 +19766,7 @@
         <v>42.179062500000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -19806,7 +19782,7 @@
         <v>42.093333333333341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -19822,7 +19798,7 @@
         <v>42.005000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1">
       <c r="A37" s="18">
         <f t="shared" ref="A37:A100" si="1">A36+1</f>
         <v>35</v>
@@ -19838,7 +19814,7 @@
         <v>41.929428571428573</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1">
       <c r="A38" s="18">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -19854,7 +19830,7 @@
         <v>41.856666666666662</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1">
       <c r="A39" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -19870,7 +19846,7 @@
         <v>41.802432432432425</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1">
       <c r="A40" s="18">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -19886,7 +19862,7 @@
         <v>41.751315789473679</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1">
       <c r="A41" s="18">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -19902,7 +19878,7 @@
         <v>41.689999999999991</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1">
       <c r="A42" s="18">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -19918,7 +19894,7 @@
         <v>41.621999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1">
       <c r="A43" s="18">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -19934,7 +19910,7 @@
         <v>41.5680487804878</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1">
       <c r="A44" s="18">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -19950,7 +19926,7 @@
         <v>41.512380952380944</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1">
       <c r="A45" s="18">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -19966,7 +19942,7 @@
         <v>41.454186046511623</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1">
       <c r="A46" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -19982,7 +19958,7 @@
         <v>41.399318181818174</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1">
       <c r="A47" s="18">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -19998,7 +19974,7 @@
         <v>41.36044444444444</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1">
       <c r="A48" s="18">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -20014,7 +19990,7 @@
         <v>41.322391304347818</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1">
       <c r="A49" s="18">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -20030,7 +20006,7 @@
         <v>41.285319148936161</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1">
       <c r="A50" s="18">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -20046,7 +20022,7 @@
         <v>41.222499999999989</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1">
       <c r="A51" s="18">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -20062,7 +20038,7 @@
         <v>41.174693877551015</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1">
       <c r="A52" s="18">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -20078,7 +20054,7 @@
         <v>41.139199999999988</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1">
       <c r="A53" s="18">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -20094,7 +20070,7 @@
         <v>41.106862745098027</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1">
       <c r="A54" s="18">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -20110,7 +20086,7 @@
         <v>41.078653846153834</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1">
       <c r="A55" s="18">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -20126,7 +20102,7 @@
         <v>41.062452830188661</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1">
       <c r="A56" s="18">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -20142,7 +20118,7 @@
         <v>41.045555555555538</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1">
       <c r="A57" s="18">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -20158,7 +20134,7 @@
         <v>41.038181818181798</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1">
       <c r="A58" s="18">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -20174,7 +20150,7 @@
         <v>41.038928571428549</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1">
       <c r="A59" s="18">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -20190,7 +20166,7 @@
         <v>41.034736842105247</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1">
       <c r="A60" s="18">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -20206,7 +20182,7 @@
         <v>41.041896551724122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1">
       <c r="A61" s="18">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -20222,7 +20198,7 @@
         <v>41.046101694915237</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1">
       <c r="A62" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -20238,7 +20214,7 @@
         <v>41.029166666666654</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1">
       <c r="A63" s="18">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -20254,7 +20230,7 @@
         <v>41.015737704918017</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1">
       <c r="A64" s="18">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -20270,7 +20246,7 @@
         <v>40.997580645161271</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1">
       <c r="A65" s="18">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -20286,7 +20262,7 @@
         <v>40.997301587301571</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1">
       <c r="A66" s="18">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -20302,7 +20278,7 @@
         <v>40.998281249999984</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1">
       <c r="A67" s="18">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -20318,7 +20294,7 @@
         <v>40.994153846153829</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1">
       <c r="A68" s="18">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -20334,7 +20310,7 @@
         <v>41.006060606060593</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1">
       <c r="A69" s="18">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -20350,7 +20326,7 @@
         <v>41.01641791044775</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1">
       <c r="A70" s="18">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -20366,7 +20342,7 @@
         <v>41.020294117647047</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1">
       <c r="A71" s="18">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -20382,7 +20358,7 @@
         <v>41.027826086956509</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1">
       <c r="A72" s="18">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -20398,7 +20374,7 @@
         <v>41.021428571428558</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1">
       <c r="A73" s="18">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -20414,7 +20390,7 @@
         <v>41.019295774647873</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1">
       <c r="A74" s="18">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -20430,7 +20406,7 @@
         <v>41.017499999999984</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1">
       <c r="A75" s="18">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -20446,7 +20422,7 @@
         <v>41.027123287671216</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1">
       <c r="A76" s="18">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -20462,7 +20438,7 @@
         <v>41.036081081081065</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1">
       <c r="A77" s="18">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -20478,7 +20454,7 @@
         <v>41.035466666666643</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1">
       <c r="A78" s="18">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -20494,7 +20470,7 @@
         <v>41.020526335866805</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1">
       <c r="A79" s="18">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -20510,7 +20486,7 @@
         <v>40.984025981952598</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1">
       <c r="A80" s="18">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -20526,7 +20502,7 @@
         <v>40.953717942849167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1">
       <c r="A81" s="18">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -20542,7 +20518,7 @@
         <v>40.943164537647085</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1">
       <c r="A82" s="18">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -20558,7 +20534,7 @@
         <v>40.930499984741189</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1">
       <c r="A83" s="18">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -20574,7 +20550,7 @@
         <v>40.927160476872935</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1">
       <c r="A84" s="18">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -20590,7 +20566,7 @@
         <v>40.921951202764724</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1">
       <c r="A85" s="18">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -20606,7 +20582,7 @@
         <v>40.929036107810127</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1">
       <c r="A86" s="18">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -20622,7 +20598,7 @@
         <v>40.931428547813759</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1">
       <c r="A87" s="18">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -20638,7 +20614,7 @@
         <v>40.92988232062843</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1">
       <c r="A88" s="18">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -20654,7 +20630,7 @@
         <v>40.928372052214847</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1">
       <c r="A89" s="18">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -20670,7 +20646,7 @@
         <v>40.927701096808754</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1">
       <c r="A90" s="18">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -20686,7 +20662,7 @@
         <v>40.924090864008107</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1">
       <c r="A91" s="18">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -20702,7 +20678,7 @@
         <v>40.917528047025854</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1">
       <c r="A92" s="18">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -20718,7 +20694,7 @@
         <v>40.904444420708536</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1">
       <c r="A93" s="18">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -20734,7 +20710,7 @@
         <v>40.886703283288959</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1">
       <c r="A94" s="18">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -20750,7 +20726,7 @@
         <v>40.859891271176529</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1">
       <c r="A95" s="18">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -20766,7 +20742,7 @@
         <v>40.836344033518131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1">
       <c r="A96" s="18">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -20782,7 +20758,7 @@
         <v>40.815851010261682</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1">
       <c r="A97" s="18">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -20798,7 +20774,7 @@
         <v>40.787684151097331</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1">
       <c r="A98" s="18">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -20814,7 +20790,7 @@
         <v>40.770416618982935</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1">
       <c r="A99" s="18">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -20830,7 +20806,7 @@
         <v>40.756804084384548</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1">
       <c r="A100" s="18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -20846,7 +20822,7 @@
         <v>40.744489749207773</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1">
       <c r="A101" s="18">
         <f t="shared" ref="A101:A355" si="2">A100+1</f>
         <v>99</v>
@@ -20862,7 +20838,7 @@
         <v>40.723232270828383</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1">
       <c r="A102" s="18">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -20878,7 +20854,7 @@
         <v>40.702299958801255</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1">
       <c r="A103" s="18">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -20894,7 +20870,7 @@
         <v>40.680296984379815</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1">
       <c r="A104" s="18">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -20910,7 +20886,7 @@
         <v>40.654705834482208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1">
       <c r="A105" s="18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -20926,7 +20902,7 @@
         <v>40.599999957038342</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1">
       <c r="A106" s="18">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -20942,7 +20918,7 @@
         <v>40.542692259274979</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1">
       <c r="A107" s="18">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -20958,7 +20934,7 @@
         <v>40.482476154145722</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1">
       <c r="A108" s="18">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -20974,7 +20950,7 @@
         <v>40.435849029253099</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1">
       <c r="A109" s="18">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -20990,7 +20966,7 @@
         <v>40.391775685247957</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1">
       <c r="A110" s="18">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -21006,7 +20982,7 @@
         <v>40.346574042991335</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1">
       <c r="A111" s="18">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -21022,7 +20998,7 @@
         <v>40.302110060945544</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1">
       <c r="A112" s="18">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -21038,7 +21014,7 @@
         <v>40.260272703690944</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1">
       <c r="A113" s="18">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -21054,7 +21030,7 @@
         <v>40.215585555342926</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1">
       <c r="A114" s="18">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -21070,7 +21046,7 @@
         <v>40.173214266640784</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1">
       <c r="A115" s="18">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -21086,7 +21062,7 @@
         <v>40.128584061344093</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1">
       <c r="A116" s="18">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -21102,7 +21078,7 @@
         <v>40.078245599311678</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1">
       <c r="A117" s="18">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -21118,7 +21094,7 @@
         <v>40.032521721881352</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1">
       <c r="A118" s="18">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -21134,7 +21110,7 @@
         <v>39.985344822324535</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1">
       <c r="A119" s="18">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -21150,7 +21126,7 @@
         <v>39.940427341298147</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1">
       <c r="A120" s="18">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -21166,7 +21142,7 @@
         <v>39.89703388666701</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1">
       <c r="A121" s="18">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -21182,7 +21158,7 @@
         <v>39.856638645204157</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1">
       <c r="A122" s="18">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -21198,7 +21174,7 @@
         <v>39.814833324432357</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1">
       <c r="A123" s="18">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -21214,7 +21190,7 @@
         <v>39.769752062332515</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1">
       <c r="A124" s="18">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -21230,7 +21206,7 @@
         <v>39.730819672131133</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1">
       <c r="A125" s="18">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -21246,7 +21222,7 @@
         <v>39.694634136422749</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1">
       <c r="A126" s="18">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -21262,7 +21238,7 @@
         <v>39.656854815322561</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1">
       <c r="A127" s="18">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -21278,7 +21254,7 @@
         <v>39.615839967039982</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1">
       <c r="A128" s="18">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -21294,7 +21270,7 @@
         <v>39.58039680484125</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1">
       <c r="A129" s="18">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -21310,7 +21286,7 @@
         <v>39.545433045669277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1">
       <c r="A130" s="18">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -21326,7 +21302,7 @@
         <v>39.514765591640611</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1">
       <c r="A131" s="18">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -21342,7 +21318,7 @@
         <v>39.483953462403086</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1">
       <c r="A132" s="18">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -21358,7 +21334,7 @@
         <v>39.455384593153838</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1">
       <c r="A133" s="18">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -21374,7 +21350,7 @@
         <v>39.425419815954186</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1">
       <c r="A134" s="18">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -21390,7 +21366,7 @@
         <v>39.396590869848474</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1">
       <c r="A135" s="18">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -21406,7 +21382,7 @@
         <v>39.371127767969917</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1">
       <c r="A136" s="18">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -21422,7 +21398,7 @@
         <v>39.348358155447755</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1">
       <c r="A137" s="18">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -21438,7 +21414,7 @@
         <v>39.325777719037028</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1">
       <c r="A138" s="18">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -21454,7 +21430,7 @@
         <v>39.30124995404411</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1">
       <c r="A139" s="18">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -21470,7 +21446,7 @@
         <v>39.275182432773718</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1">
       <c r="A140" s="18">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -21486,7 +21462,7 @@
         <v>39.253623134275358</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1">
       <c r="A141" s="18">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -21502,7 +21478,7 @@
         <v>39.222517934100708</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1">
       <c r="A142" s="18">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -21518,7 +21494,7 @@
         <v>39.191714233499987</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1">
       <c r="A143" s="18">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -21534,7 +21510,7 @@
         <v>39.159361657872324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1">
       <c r="A144" s="18">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -21550,7 +21526,7 @@
         <v>39.130704182464775</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1">
       <c r="A145" s="18">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -21566,7 +21542,7 @@
         <v>39.101118849230758</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1">
       <c r="A146" s="18">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -21582,7 +21558,7 @@
         <v>39.072916641388879</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1">
       <c r="A147" s="18">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -21598,7 +21574,7 @@
         <v>39.046344810896542</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1">
       <c r="A148" s="18">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -21614,7 +21590,7 @@
         <v>39.018561638767117</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1">
       <c r="A149" s="18">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -21630,7 +21606,7 @@
         <v>38.994013599387742</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1">
       <c r="A150" s="18">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -21646,7 +21622,7 @@
         <v>38.968783766418909</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1">
       <c r="A151" s="18">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -21662,7 +21638,7 @@
         <v>38.941812068389247</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1">
       <c r="A152" s="18">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -21678,7 +21654,7 @@
         <v>38.915199992999987</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1">
       <c r="A153" s="18">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -21694,7 +21670,7 @@
         <v>38.890794691986741</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1">
       <c r="A154" s="18">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -21710,7 +21686,7 @@
         <v>38.864144727894725</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1">
       <c r="A155" s="18">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -21726,7 +21702,7 @@
         <v>38.840653588888877</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1">
       <c r="A156" s="18">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -21742,7 +21718,7 @@
         <v>38.822142862207784</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1">
       <c r="A157" s="18">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -21758,7 +21734,7 @@
         <v>38.801870974774182</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1">
       <c r="A158" s="18">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -21774,7 +21750,7 @@
         <v>38.781025643141014</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1">
       <c r="A159" s="18">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -21790,7 +21766,7 @@
         <v>38.75942674980891</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1">
       <c r="A160" s="18">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -21806,7 +21782,7 @@
         <v>38.73683543259493</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1">
       <c r="A161" s="18">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -21822,7 +21798,7 @@
         <v>38.715911938364776</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1">
       <c r="A162" s="18">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -21838,7 +21814,7 @@
         <v>38.695499988749994</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1">
       <c r="A163" s="18">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -21854,7 +21830,7 @@
         <v>38.674285695527942</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1">
       <c r="A164" s="18">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -21870,7 +21846,7 @@
         <v>38.652962951851848</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1">
       <c r="A165" s="18">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -21886,7 +21862,7 @@
         <v>38.632515324478518</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1">
       <c r="A166" s="18">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -21902,7 +21878,7 @@
         <v>38.609999978780486</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1">
       <c r="A167" s="18">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -21918,7 +21894,7 @@
         <v>38.586363609696967</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1">
       <c r="A168" s="18">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -21934,7 +21910,7 @@
         <v>38.566746972469872</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1">
       <c r="A169" s="18">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -21950,7 +21926,7 @@
         <v>38.550598780598797</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1">
       <c r="A170" s="18">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -21966,7 +21942,7 @@
         <v>38.53458331529761</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1">
       <c r="A171" s="18">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -21982,7 +21958,7 @@
         <v>38.518757382130168</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1">
       <c r="A172" s="18">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -21998,7 +21974,7 @@
         <v>38.501588212058813</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1">
       <c r="A173" s="18">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -22014,7 +21990,7 @@
         <v>38.482806999824554</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1">
       <c r="A174" s="18">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -22030,7 +22006,7 @@
         <v>38.465581380406974</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1">
       <c r="A175" s="18">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -22046,7 +22022,7 @@
         <v>38.445202289364161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1">
       <c r="A176" s="18">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -22062,7 +22038,7 @@
         <v>38.42022985362069</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1">
       <c r="A177" s="18">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -22078,7 +22054,7 @@
         <v>38.397485675200002</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1">
       <c r="A178" s="18">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -22094,7 +22070,7 @@
         <v>38.376420407897733</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1">
       <c r="A179" s="18">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -22110,7 +22086,7 @@
         <v>38.356271147796612</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1">
       <c r="A180" s="18">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -22126,7 +22102,7 @@
         <v>38.333426933033707</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1">
       <c r="A181" s="18">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -22142,7 +22118,7 @@
         <v>38.311229020614526</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1">
       <c r="A182" s="18">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -22158,7 +22134,7 @@
         <v>38.290888867888889</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1">
       <c r="A183" s="18">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -22174,7 +22150,7 @@
         <v>38.268618754364638</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1">
       <c r="A184" s="18">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -22190,7 +22166,7 @@
         <v>38.248351618351641</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1">
       <c r="A185" s="18">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -22206,7 +22182,7 @@
         <v>38.228579205136612</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1">
       <c r="A186" s="18">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -22222,7 +22198,7 @@
         <v>38.206847793913042</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1">
       <c r="A187" s="18">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -22238,7 +22214,7 @@
         <v>38.181189152216213</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1">
       <c r="A188" s="18">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -22254,7 +22230,7 @@
         <v>38.15387092274193</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1">
       <c r="A189" s="18">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -22270,7 +22246,7 @@
         <v>38.12657749128342</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1">
       <c r="A190" s="18">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -22286,7 +22262,7 @@
         <v>38.100053139680853</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1">
       <c r="A191" s="18">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -22302,7 +22278,7 @@
         <v>38.071216879682538</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1">
       <c r="A192" s="18">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -22318,7 +22294,7 @@
         <v>38.0456315228421</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1">
       <c r="A193" s="18">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -22334,7 +22310,7 @@
         <v>38.017120363036646</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1">
       <c r="A194" s="18">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -22350,7 +22326,7 @@
         <v>37.989791613541662</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1">
       <c r="A195" s="18">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -22366,7 +22342,7 @@
         <v>37.965699429792743</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1">
       <c r="A196" s="18">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -22382,7 +22358,7 @@
         <v>37.941855619072165</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1">
       <c r="A197" s="18">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -22398,7 +22374,7 @@
         <v>37.915128152000001</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1">
       <c r="A198" s="18">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -22414,7 +22390,7 @@
         <v>37.889132598622453</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1">
       <c r="A199" s="18">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -22430,7 +22406,7 @@
         <v>37.861268989137059</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1">
       <c r="A200" s="18">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -22446,7 +22422,7 @@
         <v>37.834646419242425</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1">
       <c r="A201" s="18">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -22462,7 +22438,7 @@
         <v>37.804422063819104</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1">
       <c r="A202" s="18">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -22478,7 +22454,7 @@
         <v>37.775999948150009</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1">
       <c r="A203" s="18">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -22494,7 +22470,7 @@
         <v>37.743084524776123</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1">
       <c r="A204" s="18">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -22510,7 +22486,7 @@
         <v>37.710494996683174</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1">
       <c r="A205" s="18">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -22526,7 +22502,7 @@
         <v>37.678472849310346</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1">
       <c r="A206" s="18">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -22542,7 +22518,7 @@
         <v>37.643872496323532</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1">
       <c r="A207" s="18">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -22558,7 +22534,7 @@
         <v>37.61151214380488</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1">
       <c r="A208" s="18">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -22574,7 +22550,7 @@
         <v>37.577281499757277</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1">
       <c r="A209" s="18">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -22590,7 +22566,7 @@
         <v>37.540193181497585</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1">
       <c r="A210" s="18">
         <f t="shared" si="2"/>
         <v>208</v>
@@ -22606,7 +22582,7 @@
         <v>37.503221100721149</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1">
       <c r="A211" s="18">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -22622,7 +22598,7 @@
         <v>37.469999944593297</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1">
       <c r="A212" s="18">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -22638,7 +22614,7 @@
         <v>37.437380901238093</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1">
       <c r="A213" s="18">
         <f t="shared" si="2"/>
         <v>211</v>
@@ -22654,7 +22630,7 @@
         <v>37.405781941800946</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1">
       <c r="A214" s="18">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -22670,7 +22646,7 @@
         <v>37.374245231273584</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1">
       <c r="A215" s="18">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -22686,7 +22662,7 @@
         <v>37.342629053615028</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1">
       <c r="A216" s="18">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -22702,7 +22678,7 @@
         <v>37.309205555841125</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1">
       <c r="A217" s="18">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -22718,7 +22694,7 @@
         <v>37.27981390102326</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1">
       <c r="A218" s="18">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -22734,7 +22710,7 @@
         <v>37.247685133657413</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1">
       <c r="A219" s="18">
         <f t="shared" si="2"/>
         <v>217</v>
@@ -22750,7 +22726,7 @@
         <v>37.218433126682037</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1">
       <c r="A220" s="18">
         <f t="shared" si="2"/>
         <v>218</v>
@@ -22766,7 +22742,7 @@
         <v>37.189770586238538</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1">
       <c r="A221" s="18">
         <f t="shared" si="2"/>
         <v>219</v>
@@ -22782,7 +22758,7 @@
         <v>37.161232823424669</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1">
       <c r="A222" s="18">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -22798,7 +22774,7 @@
         <v>37.130772670045459</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1">
       <c r="A223" s="18">
         <f t="shared" si="2"/>
         <v>221</v>
@@ -22814,7 +22790,7 @@
         <v>37.098913970859734</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1">
       <c r="A224" s="18">
         <f t="shared" si="2"/>
         <v>222</v>
@@ -22830,7 +22806,7 @@
         <v>37.065180126891896</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1">
       <c r="A225" s="18">
         <f t="shared" si="2"/>
         <v>223</v>
@@ -22846,7 +22822,7 @@
         <v>37.026053759282519</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1">
       <c r="A226" s="18">
         <f t="shared" si="2"/>
         <v>224</v>
@@ -22862,7 +22838,7 @@
         <v>36.984464229464287</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1">
       <c r="A227" s="18">
         <f t="shared" si="2"/>
         <v>225</v>
@@ -22878,7 +22854,7 @@
         <v>36.94248883697778</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1">
       <c r="A228" s="18">
         <f t="shared" si="2"/>
         <v>226</v>
@@ -22894,7 +22870,7 @@
         <v>36.903849501769912</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1">
       <c r="A229" s="18">
         <f t="shared" si="2"/>
         <v>227</v>
@@ -22910,7 +22886,7 @@
         <v>36.866607877356834</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1">
       <c r="A230" s="18">
         <f t="shared" si="2"/>
         <v>228</v>
@@ -22926,7 +22902,7 @@
         <v>36.825438542543864</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1">
       <c r="A231" s="18">
         <f t="shared" si="2"/>
         <v>229</v>
@@ -22942,7 +22918,7 @@
         <v>36.780523967772936</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1">
       <c r="A232" s="18">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -22958,7 +22934,7 @@
         <v>36.740956473608705</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1">
       <c r="A233" s="18">
         <f t="shared" si="2"/>
         <v>231</v>
@@ -22974,7 +22950,7 @@
         <v>36.704978308398275</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1">
       <c r="A234" s="18">
         <f t="shared" si="2"/>
         <v>232</v>
@@ -22990,7 +22966,7 @@
         <v>36.66892236806035</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1">
       <c r="A235" s="18">
         <f t="shared" si="2"/>
         <v>233</v>
@@ -23006,7 +22982,7 @@
         <v>36.633948454291847</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1">
       <c r="A236" s="18">
         <f t="shared" si="2"/>
         <v>234</v>
@@ -23022,7 +22998,7 @@
         <v>36.598119614743588</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1">
       <c r="A237" s="18">
         <f t="shared" si="2"/>
         <v>235</v>
@@ -23038,7 +23014,7 @@
         <v>36.563361660255318</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1">
       <c r="A238" s="18">
         <f t="shared" si="2"/>
         <v>236</v>
@@ -23054,7 +23030,7 @@
         <v>36.528262673093217</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1">
       <c r="A239" s="18">
         <f t="shared" si="2"/>
         <v>237</v>
@@ -23070,7 +23046,7 @@
         <v>36.490632875358649</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1">
       <c r="A240" s="18">
         <f t="shared" si="2"/>
         <v>238</v>
@@ -23086,7 +23062,7 @@
         <v>36.451512570462185</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1">
       <c r="A241" s="18">
         <f t="shared" si="2"/>
         <v>239</v>
@@ -23102,7 +23078,7 @@
         <v>36.412008334728036</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1">
       <c r="A242" s="18">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -23118,7 +23094,7 @@
         <v>36.376874964750002</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1">
       <c r="A243" s="18">
         <f t="shared" si="2"/>
         <v>241</v>
@@ -23134,7 +23110,7 @@
         <v>36.340622369004151</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1">
       <c r="A244" s="18">
         <f t="shared" si="2"/>
         <v>242</v>
@@ -23150,7 +23126,7 @@
         <v>36.305495830909088</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1">
       <c r="A245" s="18">
         <f t="shared" si="2"/>
         <v>243</v>
@@ -23166,7 +23142,7 @@
         <v>36.269876504938274</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1">
       <c r="A246" s="18">
         <f t="shared" si="2"/>
         <v>244</v>
@@ -23182,7 +23158,7 @@
         <v>36.232704883032788</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1">
       <c r="A247" s="18">
         <f t="shared" si="2"/>
         <v>245</v>
@@ -23198,7 +23174,7 @@
         <v>36.195714251183674</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1">
       <c r="A248" s="18">
         <f t="shared" si="2"/>
         <v>246</v>
@@ -23214,7 +23190,7 @@
         <v>36.154715415243899</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1">
       <c r="A249" s="18">
         <f t="shared" si="2"/>
         <v>247</v>
@@ -23230,7 +23206,7 @@
         <v>36.116113331943318</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1">
       <c r="A250" s="18">
         <f t="shared" si="2"/>
         <v>248</v>
@@ -23246,7 +23222,7 @@
         <v>36.076048360080641</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1">
       <c r="A251" s="18">
         <f t="shared" si="2"/>
         <v>249</v>
@@ -23262,7 +23238,7 @@
         <v>36.036947764859427</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1">
       <c r="A252" s="18">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -23278,7 +23254,7 @@
         <v>35.997639970119991</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1">
       <c r="A253" s="18">
         <f t="shared" si="2"/>
         <v>251</v>
@@ -23294,7 +23270,7 @@
         <v>35.959402359163342</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1">
       <c r="A254" s="18">
         <f t="shared" si="2"/>
         <v>252</v>
@@ -23310,7 +23286,7 @@
         <v>35.920357115039671</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1">
       <c r="A255" s="18">
         <f t="shared" si="2"/>
         <v>253</v>
@@ -23326,7 +23302,7 @@
         <v>35.879051352964417</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1">
       <c r="A256" s="18">
         <f t="shared" si="2"/>
         <v>254</v>
@@ -23342,7 +23318,7 @@
         <v>35.835787368858256</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1">
       <c r="A257" s="18">
         <f t="shared" si="2"/>
         <v>255</v>
@@ -23358,7 +23334,7 @@
         <v>35.792862710117632</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1">
       <c r="A258" s="18">
         <f t="shared" si="2"/>
         <v>256</v>
@@ -23374,7 +23350,7 @@
         <v>35.744648405624986</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1">
       <c r="A259" s="18">
         <f t="shared" si="2"/>
         <v>257</v>
@@ -23390,7 +23366,7 @@
         <v>35.69571981291827</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1">
       <c r="A260" s="18">
         <f t="shared" si="2"/>
         <v>258</v>
@@ -23406,7 +23382,7 @@
         <v>35.651472839573628</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1">
       <c r="A261" s="18">
         <f t="shared" si="2"/>
         <v>259</v>
@@ -23422,7 +23398,7 @@
         <v>35.606949781660212</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1">
       <c r="A262" s="18">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -23438,7 +23414,7 @@
         <v>35.566653817730753</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1">
       <c r="A263" s="18">
         <f t="shared" si="2"/>
         <v>261</v>
@@ -23454,7 +23430,7 @@
         <v>35.519386943103434</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1">
       <c r="A264" s="18">
         <f t="shared" si="2"/>
         <v>262</v>
@@ -23470,7 +23446,7 @@
         <v>35.470534318549603</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1">
       <c r="A265" s="18">
         <f t="shared" si="2"/>
         <v>263</v>
@@ -23486,7 +23462,7 @@
         <v>35.421064602813672</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1">
       <c r="A266" s="18">
         <f t="shared" si="2"/>
         <v>264</v>
@@ -23502,7 +23478,7 @@
         <v>35.373181784962107</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1">
       <c r="A267" s="18">
         <f t="shared" si="2"/>
         <v>265</v>
@@ -23518,7 +23494,7 @@
         <v>35.328188649018855</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1">
       <c r="A268" s="18">
         <f t="shared" si="2"/>
         <v>266</v>
@@ -23534,7 +23510,7 @@
         <v>35.283233055751865</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1">
       <c r="A269" s="18">
         <f t="shared" si="2"/>
         <v>267</v>
@@ -23550,7 +23526,7 @@
         <v>35.239288359812718</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1">
       <c r="A270" s="18">
         <f t="shared" si="2"/>
         <v>268</v>
@@ -23566,7 +23542,7 @@
         <v>35.194701466380579</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1">
       <c r="A271" s="18">
         <f t="shared" si="2"/>
         <v>269</v>
@@ -23582,7 +23558,7 @@
         <v>35.152081756617086</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1">
       <c r="A272" s="18">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -23598,7 +23574,7 @@
         <v>35.109703672629614</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1">
       <c r="A273" s="18">
         <f t="shared" si="2"/>
         <v>271</v>
@@ -23614,7 +23590,7 @@
         <v>35.067933551771205</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1">
       <c r="A274" s="18">
         <f t="shared" si="2"/>
         <v>272</v>
@@ -23630,7 +23606,7 @@
         <v>35.027867619595575</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1">
       <c r="A275" s="18">
         <f t="shared" si="2"/>
         <v>273</v>
@@ -23646,7 +23622,7 @@
         <v>34.987655647509143</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1">
       <c r="A276" s="18">
         <f t="shared" si="2"/>
         <v>274</v>
@@ -23662,7 +23638,7 @@
         <v>34.944671499452539</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1">
       <c r="A277" s="18">
         <f t="shared" si="2"/>
         <v>275</v>
@@ -23678,7 +23654,7 @@
         <v>34.902363601163621</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1">
       <c r="A278" s="18">
         <f t="shared" si="2"/>
         <v>276</v>
@@ -23694,7 +23670,7 @@
         <v>34.860434747246366</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1">
       <c r="A279" s="18">
         <f t="shared" si="2"/>
         <v>277</v>
@@ -23710,7 +23686,7 @@
         <v>34.818953036389878</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1">
       <c r="A280" s="18">
         <f t="shared" si="2"/>
         <v>278</v>
@@ -23726,7 +23702,7 @@
         <v>34.778740972913653</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1">
       <c r="A281" s="18">
         <f t="shared" si="2"/>
         <v>279</v>
@@ -23742,7 +23718,7 @@
         <v>34.740573439534039</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1">
       <c r="A282" s="18">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -23758,7 +23734,7 @@
         <v>34.703321389642845</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1">
       <c r="A283" s="18">
         <f t="shared" si="2"/>
         <v>281</v>
@@ -23774,7 +23750,7 @@
         <v>34.66704622537366</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1">
       <c r="A284" s="18">
         <f t="shared" si="2"/>
         <v>282</v>
@@ -23790,7 +23766,7 @@
         <v>34.633936132092195</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1">
       <c r="A285" s="18">
         <f t="shared" si="2"/>
         <v>283</v>
@@ -23806,7 +23782,7 @@
         <v>34.60084802017667</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1">
       <c r="A286" s="18">
         <f t="shared" si="2"/>
         <v>284</v>
@@ -23822,7 +23798,7 @@
         <v>34.568661932359149</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1">
       <c r="A287" s="18">
         <f t="shared" si="2"/>
         <v>285</v>
@@ -23838,7 +23814,7 @@
         <v>34.534210486982445</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1">
       <c r="A288" s="18">
         <f t="shared" si="2"/>
         <v>286</v>
@@ -23854,7 +23830,7 @@
         <v>34.502202755069924</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1">
       <c r="A289" s="18">
         <f t="shared" si="2"/>
         <v>287</v>
@@ -23870,7 +23846,7 @@
         <v>34.441742116968634</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1">
       <c r="A290" s="18">
         <f t="shared" si="2"/>
         <v>288</v>
@@ -23886,7 +23862,7 @@
         <v>34.411076347847221</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1">
       <c r="A291" s="18">
         <f t="shared" si="2"/>
         <v>289</v>
@@ -23902,7 +23878,7 @@
         <v>34.381903071695504</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1">
       <c r="A292" s="18">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -23918,7 +23894,7 @@
         <v>34.352999957655172</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1">
       <c r="A293" s="18">
         <f t="shared" si="2"/>
         <v>291</v>
@@ -23934,7 +23910,7 @@
         <v>34.326013703505154</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1">
       <c r="A294" s="18">
         <f t="shared" si="2"/>
         <v>292</v>
@@ -23950,7 +23926,7 @@
         <v>34.300958862842464</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1">
       <c r="A295" s="18">
         <f t="shared" si="2"/>
         <v>293</v>
@@ -23966,7 +23942,7 @@
         <v>34.276006784027302</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1">
       <c r="A296" s="18">
         <f t="shared" si="2"/>
         <v>294</v>
@@ -23982,7 +23958,7 @@
         <v>34.249897918707482</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1">
       <c r="A297" s="18">
         <f t="shared" si="2"/>
         <v>295</v>
@@ -23998,7 +23974,7 @@
         <v>34.226135552101695</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1">
       <c r="A298" s="18">
         <f t="shared" si="2"/>
         <v>296</v>
@@ -24014,7 +23990,7 @@
         <v>34.204222931216215</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1">
       <c r="A299" s="18">
         <f t="shared" si="2"/>
         <v>297</v>
@@ -24030,7 +24006,7 @@
         <v>34.18289558410774</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1">
       <c r="A300" s="18">
         <f t="shared" si="2"/>
         <v>298</v>
@@ -24046,7 +24022,7 @@
         <v>34.162718082416099</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1">
       <c r="A301" s="18">
         <f t="shared" si="2"/>
         <v>299</v>
@@ -24062,7 +24038,7 @@
         <v>34.140468189933102</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1">
       <c r="A302" s="18">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -24078,7 +24054,7 @@
         <v>34.119366627533324</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1">
       <c r="A303" s="18">
         <f t="shared" si="2"/>
         <v>301</v>
@@ -24094,7 +24070,7 @@
         <v>34.097840490531553</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1">
       <c r="A304" s="18">
         <f t="shared" si="2"/>
         <v>302</v>
@@ -24110,7 +24086,7 @@
         <v>34.077913866125826</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1">
       <c r="A305" s="18">
         <f t="shared" si="2"/>
         <v>303</v>
@@ -24126,7 +24102,7 @@
         <v>34.057623722376235</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1">
       <c r="A306" s="18">
         <f t="shared" si="2"/>
         <v>304</v>
@@ -24142,7 +24118,7 @@
         <v>34.036743378157887</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1">
       <c r="A307" s="18">
         <f t="shared" si="2"/>
         <v>305</v>
@@ -24158,7 +24134,7 @@
         <v>34.0172130717377</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1">
       <c r="A308" s="18">
         <f t="shared" si="2"/>
         <v>306</v>
@@ -24174,7 +24150,7 @@
         <v>33.997091462385619</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1">
       <c r="A309" s="18">
         <f t="shared" si="2"/>
         <v>307</v>
@@ -24190,7 +24166,7 @@
         <v>33.975211687882734</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1">
       <c r="A310" s="18">
         <f t="shared" si="2"/>
         <v>308</v>
@@ -24206,7 +24182,7 @@
         <v>33.951818144935061</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1">
       <c r="A311" s="18">
         <f t="shared" si="2"/>
         <v>309</v>
@@ -24222,7 +24198,7 @@
         <v>33.929385077993516</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1">
       <c r="A312" s="18">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -24238,7 +24214,7 @@
         <v>33.90851609090322</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1">
       <c r="A313" s="18">
         <f t="shared" si="2"/>
         <v>311</v>
@@ -24254,7 +24230,7 @@
         <v>33.886495137138255</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1">
       <c r="A314" s="18">
         <f t="shared" si="2"/>
         <v>312</v>
@@ -24270,7 +24246,7 @@
         <v>33.865480729391024</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1">
       <c r="A315" s="18">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -24286,7 +24262,7 @@
         <v>33.843706028146961</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1">
       <c r="A316" s="18">
         <f t="shared" si="2"/>
         <v>314</v>
@@ -24302,7 +24278,7 @@
         <v>33.822292954299357</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1">
       <c r="A317" s="18">
         <f t="shared" si="2"/>
         <v>315</v>
@@ -24318,7 +24294,7 @@
         <v>33.800285673142845</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1">
       <c r="A318" s="18">
         <f t="shared" si="2"/>
         <v>316</v>
@@ -24334,7 +24310,7 @@
         <v>33.778132867974676</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1">
       <c r="A319" s="18">
         <f t="shared" si="2"/>
         <v>317</v>
@@ -24350,7 +24326,7 @@
         <v>33.755394277507875</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1">
       <c r="A320" s="18">
         <f t="shared" si="2"/>
         <v>318</v>
@@ -24366,7 +24342,7 @@
         <v>33.733238946698101</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1">
       <c r="A321" s="18">
         <f t="shared" si="2"/>
         <v>319</v>
@@ -24382,7 +24358,7 @@
         <v>33.710940394639486</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1">
       <c r="A322" s="18">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -24398,7 +24374,7 @@
         <v>33.689062453031241</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1">
       <c r="A323" s="18">
         <f t="shared" si="2"/>
         <v>321</v>
@@ -24414,7 +24390,7 @@
         <v>33.666137024579427</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1">
       <c r="A324" s="18">
         <f t="shared" si="2"/>
         <v>322</v>
@@ -24430,7 +24406,7 @@
         <v>33.645031011583839</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1">
       <c r="A325" s="18">
         <f t="shared" si="2"/>
         <v>323</v>
@@ -24446,7 +24422,7 @@
         <v>33.622414816501539</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1">
       <c r="A326" s="18">
         <f t="shared" si="2"/>
         <v>324</v>
@@ -24462,7 +24438,7 @@
         <v>33.59876538805554</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1">
       <c r="A327" s="18">
         <f t="shared" si="2"/>
         <v>325</v>
@@ -24478,7 +24454,7 @@
         <v>33.575630725323066</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1">
       <c r="A328" s="18">
         <f t="shared" si="2"/>
         <v>326</v>
@@ -24494,7 +24470,7 @@
         <v>33.55380363438649</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1">
       <c r="A329" s="18">
         <f t="shared" si="2"/>
         <v>327</v>
@@ -24510,7 +24486,7 @@
         <v>33.532079466574906</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1">
       <c r="A330" s="18">
         <f t="shared" si="2"/>
         <v>328</v>
@@ -24526,7 +24502,7 @@
         <v>33.510823125121938</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1">
       <c r="A331" s="18">
         <f t="shared" si="2"/>
         <v>329</v>
@@ -24542,7 +24518,7 @@
         <v>33.4886017805471</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1">
       <c r="A332" s="18">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -24558,7 +24534,7 @@
         <v>33.468363593333315</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1">
       <c r="A333" s="18">
         <f t="shared" si="2"/>
         <v>331</v>
@@ -24574,7 +24550,7 @@
         <v>33.447673675649533</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1">
       <c r="A334" s="18">
         <f t="shared" si="2"/>
         <v>332</v>
@@ -24590,7 +24566,7 @@
         <v>33.427379475060221</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1">
       <c r="A335" s="18">
         <f t="shared" si="2"/>
         <v>333</v>
@@ -24606,7 +24582,7 @@
         <v>33.407237192282267</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1">
       <c r="A336" s="18">
         <f t="shared" si="2"/>
         <v>334</v>
@@ -24622,7 +24598,7 @@
         <v>33.388532888862258</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1">
       <c r="A337" s="18">
         <f t="shared" si="2"/>
         <v>335</v>
@@ -24638,7 +24614,7 @@
         <v>33.36955219573133</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1">
       <c r="A338" s="18">
         <f t="shared" si="2"/>
         <v>336</v>
@@ -24654,7 +24630,7 @@
         <v>33.34928566976189</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1">
       <c r="A339" s="18">
         <f t="shared" si="2"/>
         <v>337</v>
@@ -24670,7 +24646,7 @@
         <v>33.330356036646869</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1">
       <c r="A340" s="18">
         <f t="shared" si="2"/>
         <v>338</v>
@@ -24686,7 +24662,7 @@
         <v>33.311212973254428</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1">
       <c r="A341" s="18">
         <f t="shared" si="2"/>
         <v>339</v>
@@ -24702,7 +24678,7 @@
         <v>33.289498482949838</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1">
       <c r="A342" s="18">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -24718,7 +24694,7 @@
         <v>33.267764662764691</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1">
       <c r="A343" s="18">
         <f t="shared" si="2"/>
         <v>341</v>
@@ -24734,7 +24710,7 @@
         <v>33.245806410645152</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1">
       <c r="A344" s="18">
         <f t="shared" si="2"/>
         <v>342</v>
@@ -24750,7 +24726,7 @@
         <v>33.223508733537997</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1">
       <c r="A345" s="18">
         <f t="shared" si="2"/>
         <v>343</v>
@@ -24766,7 +24742,7 @@
         <v>33.200932904985407</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1">
       <c r="A346" s="18">
         <f t="shared" si="2"/>
         <v>344</v>
@@ -24782,7 +24758,7 @@
         <v>33.177616240465106</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4">
       <c r="A347" s="18">
         <f t="shared" si="2"/>
         <v>345</v>
@@ -24798,7 +24774,7 @@
         <v>33.152985469652158</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4">
       <c r="A348" s="18">
         <f t="shared" si="2"/>
         <v>346</v>
@@ -24814,7 +24790,7 @@
         <v>33.128364413381483</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4">
       <c r="A349" s="18">
         <f t="shared" si="2"/>
         <v>347</v>
@@ -24830,7 +24806,7 @@
         <v>33.103412352564824</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4">
       <c r="A350" s="18">
         <f t="shared" si="2"/>
         <v>348</v>
@@ -24846,7 +24822,7 @@
         <v>33.078804848448264</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4">
       <c r="A351" s="18">
         <f t="shared" si="2"/>
         <v>349</v>
@@ -24862,7 +24838,7 @@
         <v>33.055026039971331</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4">
       <c r="A352" s="18">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -24878,7 +24854,7 @@
         <v>33.030411681371412</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4">
       <c r="A353" s="18">
         <f t="shared" si="2"/>
         <v>351</v>
@@ -24894,7 +24870,7 @@
         <v>33.006878029857532</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4">
       <c r="A354" s="18">
         <f t="shared" si="2"/>
         <v>352</v>
@@ -24910,7 +24886,7 @@
         <v>32.983932353636348</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4">
       <c r="A355" s="18">
         <f t="shared" si="2"/>
         <v>353</v>
@@ -24926,9 +24902,9 @@
         <v>32.959955208158625</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4">
       <c r="A356" s="18">
-        <f t="shared" ref="A356:A463" si="3">A355+1</f>
+        <f t="shared" ref="A356:A486" si="3">A355+1</f>
         <v>354</v>
       </c>
       <c r="B356" s="19" t="s">
@@ -24942,7 +24918,7 @@
         <v>32.934475108700553</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4">
       <c r="A357" s="18">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -24958,7 +24934,7 @@
         <v>32.90789912247886</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4">
       <c r="A358" s="18">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -24974,7 +24950,7 @@
         <v>32.881472439550549</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4">
       <c r="A359" s="18">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -24990,7 +24966,7 @@
         <v>32.85519380526609</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4">
       <c r="A360" s="18">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -25006,7 +24982,7 @@
         <v>32.8285871186592</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4">
       <c r="A361" s="18">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -25022,7 +24998,7 @@
         <v>32.801348714428954</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4">
       <c r="A362" s="18">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -25038,7 +25014,7 @@
         <v>32.773872745777759</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4">
       <c r="A363" s="18">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -25054,7 +25030,7 @@
         <v>32.746798306038762</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4">
       <c r="A364" s="18">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -25070,7 +25046,7 @@
         <v>32.721144167071806</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4">
       <c r="A365" s="18">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -25086,7 +25062,7 @@
         <v>32.694171318126706</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4">
       <c r="A366" s="18">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -25102,7 +25078,7 @@
         <v>32.66762139881866</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4">
       <c r="A367" s="18">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -25118,7 +25094,7 @@
         <v>32.640066271698615</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4">
       <c r="A368" s="18">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -25134,7 +25110,7 @@
         <v>32.611104344508178</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4">
       <c r="A369" s="18">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -25150,7 +25126,7 @@
         <v>32.582845203978181</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4">
       <c r="A370" s="18">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -25166,7 +25142,7 @@
         <v>32.556587472663026</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4">
       <c r="A371" s="18">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -25182,7 +25158,7 @@
         <v>32.530282358590767</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4">
       <c r="A372" s="18">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -25198,7 +25174,7 @@
         <v>32.506281594432416</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4">
       <c r="A373" s="18">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -25214,7 +25190,7 @@
         <v>32.482598892857126</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4">
       <c r="A374" s="18">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -25230,7 +25206,7 @@
         <v>32.459392982876324</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4">
       <c r="A375" s="18">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -25246,7 +25222,7 @@
         <v>32.435614449812313</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4">
       <c r="A376" s="18">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -25262,7 +25238,7 @@
         <v>32.411455051871634</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4">
       <c r="A377" s="18">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -25278,7 +25254,7 @@
         <v>32.387264505466646</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4">
       <c r="A378" s="18">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -25294,7 +25270,7 @@
         <v>32.361846248590403</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4">
       <c r="A379" s="18">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -25310,7 +25286,7 @@
         <v>32.336324109389899</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4">
       <c r="A380" s="18">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -25326,7 +25302,7 @@
         <v>32.312101030555532</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4">
       <c r="A381" s="18">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -25342,7 +25318,7 @@
         <v>32.287425299815283</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4">
       <c r="A382" s="18">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -25358,7 +25334,7 @@
         <v>32.260721547421028</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4">
       <c r="A383" s="18">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -25374,7 +25350,7 @@
         <v>32.234420440393677</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4">
       <c r="A384" s="18">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -25390,7 +25366,7 @@
         <v>32.208335571335049</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4">
       <c r="A385" s="18">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -25406,7 +25382,7 @@
         <v>32.183248534281958</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4">
       <c r="A386" s="18">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -25422,7 +25398,7 @@
         <v>32.157979656692682</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4">
       <c r="A387" s="18">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -25438,7 +25414,7 @@
         <v>32.134712179038935</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4">
       <c r="A388" s="18">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -25454,7 +25430,7 @@
         <v>32.111539350932617</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4">
       <c r="A389" s="18">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -25470,7 +25446,7 @@
         <v>32.088072842764831</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4">
       <c r="A390" s="18">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -25486,7 +25462,7 @@
         <v>32.064031418505131</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4">
       <c r="A391" s="18">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -25502,7 +25478,7 @@
         <v>32.038982493753188</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4">
       <c r="A392" s="18">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -25518,7 +25494,7 @@
         <v>32.015472284384586</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4">
       <c r="A393" s="18">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -25534,7 +25510,7 @@
         <v>31.992133479028105</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4">
       <c r="A394" s="18">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -25550,7 +25526,7 @@
         <v>31.970342324132627</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4">
       <c r="A395" s="18">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -25566,7 +25542,7 @@
         <v>31.947847812264605</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4">
       <c r="A396" s="18">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -25582,7 +25558,7 @@
         <v>31.925162919923835</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4">
       <c r="A397" s="18">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -25598,7 +25574,7 @@
         <v>31.902643521873394</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4">
       <c r="A398" s="18">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -25614,7 +25590,7 @@
         <v>31.880162098838358</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4">
       <c r="A399" s="18">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -25630,7 +25606,7 @@
         <v>31.856912319294686</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4">
       <c r="A400" s="18">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -25646,7 +25622,7 @@
         <v>31.833502994170832</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4">
       <c r="A401" s="18">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -25662,7 +25638,7 @@
         <v>31.810135819323285</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4">
       <c r="A402" s="18">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -25678,7 +25654,7 @@
         <v>31.786510481299977</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4">
       <c r="A403" s="18">
         <f t="shared" si="3"/>
         <v>401</v>
@@ -25694,7 +25670,7 @@
         <v>31.762603973266813</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4">
       <c r="A404" s="18">
         <f t="shared" si="3"/>
         <v>402</v>
@@ -25710,7 +25686,7 @@
         <v>31.740060184179082</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4">
       <c r="A405" s="18">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -25726,7 +25702,7 @@
         <v>31.717901224590552</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4">
       <c r="A406" s="18">
         <f t="shared" si="3"/>
         <v>404</v>
@@ -25742,7 +25718,7 @@
         <v>31.696743053440571</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4">
       <c r="A407" s="18">
         <f t="shared" si="3"/>
         <v>405</v>
@@ -25758,7 +25734,7 @@
         <v>31.675343689580224</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4">
       <c r="A408" s="18">
         <f t="shared" si="3"/>
         <v>406</v>
@@ -25774,7 +25750,7 @@
         <v>31.654517718201948</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4">
       <c r="A409" s="18">
         <f t="shared" si="3"/>
         <v>407</v>
@@ -25790,7 +25766,7 @@
         <v>31.634383765773933</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4">
       <c r="A410" s="18">
         <f t="shared" si="3"/>
         <v>408</v>
@@ -25806,7 +25782,7 @@
         <v>31.614814196789194</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4">
       <c r="A411" s="18">
         <f t="shared" si="3"/>
         <v>409</v>
@@ -25822,7 +25798,7 @@
         <v>31.595291421638123</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4">
       <c r="A412" s="18">
         <f t="shared" si="3"/>
         <v>410</v>
@@ -25838,7 +25814,7 @@
         <v>31.576376077073149</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4">
       <c r="A413" s="18">
         <f t="shared" si="3"/>
         <v>411</v>
@@ -25854,7 +25830,7 @@
         <v>31.556968836934285</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4">
       <c r="A414" s="18">
         <f t="shared" si="3"/>
         <v>412</v>
@@ -25870,7 +25846,7 @@
         <v>31.537000465776678</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4">
       <c r="A415" s="18">
         <f t="shared" si="3"/>
         <v>413</v>
@@ -25886,7 +25862,7 @@
         <v>31.51698351661015</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4">
       <c r="A416" s="18">
         <f t="shared" si="3"/>
         <v>414</v>
@@ -25902,7 +25878,7 @@
         <v>31.497618822125581</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4">
       <c r="A417" s="18">
         <f t="shared" si="3"/>
         <v>415</v>
@@ -25918,7 +25894,7 @@
         <v>31.477986006602389</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4">
       <c r="A418" s="18">
         <f t="shared" si="3"/>
         <v>416</v>
@@ -25934,7 +25910,7 @@
         <v>31.457798540048056</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4">
       <c r="A419" s="18">
         <f t="shared" si="3"/>
         <v>417</v>
@@ -25950,7 +25926,7 @@
         <v>31.436820603693025</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4">
       <c r="A420" s="18">
         <f t="shared" si="3"/>
         <v>418</v>
@@ -25966,7 +25942,7 @@
         <v>31.415703809449742</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4">
       <c r="A421" s="18">
         <f t="shared" si="3"/>
         <v>419</v>
@@ -25982,7 +25958,7 @@
         <v>31.394544609999983</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4">
       <c r="A422" s="18">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -25998,7 +25974,7 @@
         <v>31.373248077023792</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4">
       <c r="A423" s="18">
         <f t="shared" si="3"/>
         <v>421</v>
@@ -26014,7 +25990,7 @@
         <v>31.352860316555802</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4">
       <c r="A424" s="18">
         <f t="shared" si="3"/>
         <v>422</v>
@@ -26030,7 +26006,7 @@
         <v>31.333066808696664</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4">
       <c r="A425" s="18">
         <f t="shared" si="3"/>
         <v>423</v>
@@ -26046,7 +26022,7 @@
         <v>31.312728588203292</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4">
       <c r="A426" s="18">
         <f t="shared" si="3"/>
         <v>424</v>
@@ -26062,7 +26038,7 @@
         <v>31.292557059056588</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4">
       <c r="A427" s="18">
         <f t="shared" si="3"/>
         <v>425</v>
@@ -26078,7 +26054,7 @@
         <v>31.272433394847042</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4">
       <c r="A428" s="18">
         <f t="shared" si="3"/>
         <v>426</v>
@@ -26094,7 +26070,7 @@
         <v>31.252615475892004</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4">
       <c r="A429" s="18">
         <f t="shared" si="3"/>
         <v>427</v>
@@ -26110,7 +26086,7 @@
         <v>31.234248694566734</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4">
       <c r="A430" s="18">
         <f t="shared" si="3"/>
         <v>428</v>
@@ -26126,7 +26102,7 @@
         <v>31.216178020046716</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4">
       <c r="A431" s="18">
         <f t="shared" si="3"/>
         <v>429</v>
@@ -26142,7 +26118,7 @@
         <v>31.198378071095561</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4">
       <c r="A432" s="18">
         <f t="shared" si="3"/>
         <v>430</v>
@@ -26158,7 +26134,7 @@
         <v>31.181219051604643</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4">
       <c r="A433" s="18">
         <f t="shared" si="3"/>
         <v>431</v>
@@ -26174,7 +26150,7 @@
         <v>31.163745224617159</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4">
       <c r="A434" s="18">
         <f t="shared" si="3"/>
         <v>432</v>
@@ -26190,7 +26166,7 @@
         <v>31.146653223379619</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4">
       <c r="A435" s="18">
         <f t="shared" si="3"/>
         <v>433</v>
@@ -26206,7 +26182,7 @@
         <v>31.13037919833717</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4">
       <c r="A436" s="18">
         <f t="shared" si="3"/>
         <v>434</v>
@@ -26222,7 +26198,7 @@
         <v>31.114986621290313</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4">
       <c r="A437" s="18">
         <f t="shared" si="3"/>
         <v>435</v>
@@ -26238,7 +26214,7 @@
         <v>31.099825733563208</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4">
       <c r="A438" s="18">
         <f t="shared" si="3"/>
         <v>436</v>
@@ -26254,7 +26230,7 @@
         <v>31.084757327499986</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4">
       <c r="A439" s="18">
         <f t="shared" si="3"/>
         <v>437</v>
@@ -26270,7 +26246,7 @@
         <v>31.0702384314874</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4">
       <c r="A440" s="18">
         <f t="shared" si="3"/>
         <v>438</v>
@@ -26286,7 +26262,7 @@
         <v>31.055991311598159</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4">
       <c r="A441" s="18">
         <f t="shared" si="3"/>
         <v>439</v>
@@ -26302,7 +26278,7 @@
         <v>31.042583586697024</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4">
       <c r="A442" s="18">
         <f t="shared" si="3"/>
         <v>440</v>
@@ -26318,7 +26294,7 @@
         <v>31.028623168590894</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4">
       <c r="A443" s="18">
         <f t="shared" si="3"/>
         <v>441</v>
@@ -26334,7 +26310,7 @@
         <v>31.014726063038534</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4">
       <c r="A444" s="18">
         <f t="shared" si="3"/>
         <v>442</v>
@@ -26350,7 +26326,7 @@
         <v>31.001661071425325</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4">
       <c r="A445" s="18">
         <f t="shared" si="3"/>
         <v>443</v>
@@ -26366,7 +26342,7 @@
         <v>30.988406755598181</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4">
       <c r="A446" s="18">
         <f t="shared" si="3"/>
         <v>444</v>
@@ -26382,7 +26358,7 @@
         <v>30.974761696036023</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4">
       <c r="A447" s="18">
         <f t="shared" si="3"/>
         <v>445</v>
@@ -26398,7 +26374,7 @@
         <v>30.960436389707851</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4">
       <c r="A448" s="18">
         <f t="shared" si="3"/>
         <v>446</v>
@@ -26414,7 +26390,7 @@
         <v>30.94619774446187</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4">
       <c r="A449" s="18">
         <f t="shared" si="3"/>
         <v>447</v>
@@ -26430,7 +26406,7 @@
         <v>30.931776720425042</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4">
       <c r="A450" s="18">
         <f t="shared" si="3"/>
         <v>448</v>
@@ -26446,7 +26422,7 @@
         <v>30.918245970691949</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:4">
       <c r="A451" s="18">
         <f t="shared" si="3"/>
         <v>449</v>
@@ -26462,7 +26438,7 @@
         <v>30.904263238886397</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:4">
       <c r="A452" s="18">
         <f t="shared" si="3"/>
         <v>450</v>
@@ -26478,7 +26454,7 @@
         <v>30.890875985377765</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4">
       <c r="A453" s="18">
         <f t="shared" si="3"/>
         <v>451</v>
@@ -26494,7 +26470,7 @@
         <v>30.87739288889134</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4">
       <c r="A454" s="18">
         <f t="shared" si="3"/>
         <v>452</v>
@@ -26510,7 +26486,7 @@
         <v>30.86381458553096</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:4">
       <c r="A455" s="18">
         <f t="shared" si="3"/>
         <v>453</v>
@@ -26526,7 +26502,7 @@
         <v>30.849744354150097</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4">
       <c r="A456" s="18">
         <f t="shared" si="3"/>
         <v>454</v>
@@ -26542,7 +26518,7 @@
         <v>30.834546681035228</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:4">
       <c r="A457" s="18">
         <f t="shared" si="3"/>
         <v>455</v>
@@ -26558,7 +26534,7 @@
         <v>30.820426797890097</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:4">
       <c r="A458" s="18">
         <f t="shared" si="3"/>
         <v>456</v>
@@ -26574,7 +26550,7 @@
         <v>30.806346913728056</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:4">
       <c r="A459" s="18">
         <f t="shared" si="3"/>
         <v>457</v>
@@ -26590,7 +26566,7 @@
         <v>30.791891014048126</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:4">
       <c r="A460" s="18">
         <f t="shared" si="3"/>
         <v>458</v>
@@ -26606,7 +26582,7 @@
         <v>30.777563740087324</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4">
       <c r="A461" s="18">
         <f t="shared" si="3"/>
         <v>459</v>
@@ -26622,7 +26598,7 @@
         <v>30.762841379999987</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4">
       <c r="A462" s="18">
         <f t="shared" si="3"/>
         <v>460</v>
@@ -26638,7 +26614,7 @@
         <v>30.747661291543466</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4">
       <c r="A463" s="18">
         <f t="shared" si="3"/>
         <v>461</v>
@@ -26652,6 +26628,374 @@
       <c r="D463" s="18">
         <f>SUM(C$3:C463)/A463</f>
         <v>30.732980897288492</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="18">
+        <f t="shared" si="3"/>
+        <v>462</v>
+      </c>
+      <c r="B464" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="C464" s="20">
+        <v>24.290000920000001</v>
+      </c>
+      <c r="D464" s="18">
+        <f>SUM(C$3:C464)/A464</f>
+        <v>30.719035053181805</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="18">
+        <f t="shared" si="3"/>
+        <v>463</v>
+      </c>
+      <c r="B465" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="C465" s="20">
+        <v>24.120000839999999</v>
+      </c>
+      <c r="D465" s="18">
+        <f>SUM(C$3:C465)/A465</f>
+        <v>30.704782279503227</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="18">
+        <f t="shared" si="3"/>
+        <v>464</v>
+      </c>
+      <c r="B466" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="C466" s="20">
+        <v>24.120000839999999</v>
+      </c>
+      <c r="D466" s="18">
+        <f>SUM(C$3:C466)/A466</f>
+        <v>30.69059094019395</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="18">
+        <f t="shared" si="3"/>
+        <v>465</v>
+      </c>
+      <c r="B467" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C467" s="20">
+        <v>24.190000529999999</v>
+      </c>
+      <c r="D467" s="18">
+        <f>SUM(C$3:C467)/A467</f>
+        <v>30.676611175870953</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="18">
+        <f t="shared" si="3"/>
+        <v>466</v>
+      </c>
+      <c r="B468" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="C468" s="20">
+        <v>23.739999770000001</v>
+      </c>
+      <c r="D468" s="18">
+        <f>SUM(C$3:C468)/A468</f>
+        <v>30.661725743669511</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="18">
+        <f t="shared" si="3"/>
+        <v>467</v>
+      </c>
+      <c r="B469" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="C469" s="20">
+        <v>23.659999849999998</v>
+      </c>
+      <c r="D469" s="18">
+        <f>SUM(C$3:C469)/A469</f>
+        <v>30.646732754603839</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="18">
+        <f t="shared" si="3"/>
+        <v>468</v>
+      </c>
+      <c r="B470" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="C470" s="20">
+        <v>23.670000080000001</v>
+      </c>
+      <c r="D470" s="18">
+        <f>SUM(C$3:C470)/A470</f>
+        <v>30.631825206153827</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="18">
+        <f t="shared" si="3"/>
+        <v>469</v>
+      </c>
+      <c r="B471" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C471" s="20">
+        <v>23.459999079999999</v>
+      </c>
+      <c r="D471" s="18">
+        <f>SUM(C$3:C471)/A471</f>
+        <v>30.616533466012775</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="18">
+        <f t="shared" si="3"/>
+        <v>470</v>
+      </c>
+      <c r="B472" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="C472" s="20">
+        <v>23.5</v>
+      </c>
+      <c r="D472" s="18">
+        <f>SUM(C$3:C472)/A472</f>
+        <v>30.601391905446789</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="18">
+        <f t="shared" si="3"/>
+        <v>471</v>
+      </c>
+      <c r="B473" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="C473" s="20">
+        <v>23.299999239999998</v>
+      </c>
+      <c r="D473" s="18">
+        <f>SUM(C$3:C473)/A473</f>
+        <v>30.585890010191065</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="18">
+        <f t="shared" si="3"/>
+        <v>472</v>
+      </c>
+      <c r="B474" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="C474" s="20">
+        <v>23.280000690000001</v>
+      </c>
+      <c r="D474" s="18">
+        <f>SUM(C$3:C474)/A474</f>
+        <v>30.570411431122864</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="18">
+        <f t="shared" si="3"/>
+        <v>473</v>
+      </c>
+      <c r="B475" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="C475" s="20">
+        <v>22.920000080000001</v>
+      </c>
+      <c r="D475" s="18">
+        <f>SUM(C$3:C475)/A475</f>
+        <v>30.554237199936555</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="18">
+        <f t="shared" si="3"/>
+        <v>474</v>
+      </c>
+      <c r="B476" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="C476" s="20">
+        <v>22.940000529999999</v>
+      </c>
+      <c r="D476" s="18">
+        <f>SUM(C$3:C476)/A476</f>
+        <v>30.538173409493648</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="18">
+        <f t="shared" si="3"/>
+        <v>475</v>
+      </c>
+      <c r="B477" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="C477" s="20">
+        <v>22.959999079999999</v>
+      </c>
+      <c r="D477" s="18">
+        <f>SUM(C$3:C477)/A477</f>
+        <v>30.522219358273663</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="18">
+        <f t="shared" si="3"/>
+        <v>476</v>
+      </c>
+      <c r="B478" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="C478" s="20">
+        <v>23.350000380000001</v>
+      </c>
+      <c r="D478" s="18">
+        <f>SUM(C$3:C478)/A478</f>
+        <v>30.507151671344516</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="18">
+        <f t="shared" si="3"/>
+        <v>477</v>
+      </c>
+      <c r="B479" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="C479" s="20">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D479" s="18">
+        <f>SUM(C$3:C479)/A479</f>
+        <v>30.492629340628909</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="18">
+        <f t="shared" si="3"/>
+        <v>478</v>
+      </c>
+      <c r="B480" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="C480" s="20">
+        <v>23.879999160000001</v>
+      </c>
+      <c r="D480" s="18">
+        <f>SUM(C$3:C480)/A480</f>
+        <v>30.478795386276133</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="18">
+        <f t="shared" si="3"/>
+        <v>479</v>
+      </c>
+      <c r="B481" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="C481" s="20">
+        <v>23.899999619999999</v>
+      </c>
+      <c r="D481" s="18">
+        <f>SUM(C$3:C481)/A481</f>
+        <v>30.465060948350711</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="18">
+        <f t="shared" si="3"/>
+        <v>480</v>
+      </c>
+      <c r="B482" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="C482" s="20">
+        <v>23.940000529999999</v>
+      </c>
+      <c r="D482" s="18">
+        <f>SUM(C$3:C482)/A482</f>
+        <v>30.451467072479147</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" s="18">
+        <f t="shared" si="3"/>
+        <v>481</v>
+      </c>
+      <c r="B483" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="C483" s="20">
+        <v>23.68000031</v>
+      </c>
+      <c r="D483" s="18">
+        <f>SUM(C$3:C483)/A483</f>
+        <v>30.437389179002061</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="18">
+        <f t="shared" si="3"/>
+        <v>482</v>
+      </c>
+      <c r="B484" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="C484" s="20">
+        <v>23.829999919999999</v>
+      </c>
+      <c r="D484" s="18">
+        <f>SUM(C$3:C484)/A484</f>
+        <v>30.423680902531103</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" s="18">
+        <f t="shared" si="3"/>
+        <v>483</v>
+      </c>
+      <c r="B485" s="19">
+        <v>45015</v>
+      </c>
+      <c r="C485" s="20">
+        <v>23.979999540000001</v>
+      </c>
+      <c r="D485" s="18">
+        <f>SUM(C$3:C485)/A485</f>
+        <v>30.410339947329177</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" s="18">
+        <f t="shared" si="3"/>
+        <v>484</v>
+      </c>
+      <c r="B486" s="19">
+        <v>45016</v>
+      </c>
+      <c r="C486" s="20">
+        <v>24.159999849999998</v>
+      </c>
+      <c r="D486" s="18">
+        <f>SUM(C$3:C486)/A486</f>
+        <v>30.397426021508249</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -1316,7 +1316,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1672,7 +1672,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1731,7 +1731,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1820,6 +1819,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1865,118 +1865,118 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1984,6 +1984,279 @@
           <c:val>
             <c:numRef>
               <c:f>model1!资金</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>74000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>model1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total assets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>model1!时间</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44253</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44286</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44347</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44530</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44680</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44804</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44834</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44895</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44925</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44957</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="37"/>
@@ -2104,20 +2377,20 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E69F-429A-B459-D6A53AA60C2B}"/>
+              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>model1!$H$1</c:f>
+              <c:f>model1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>total assets</c:v>
+                  <c:v>profit amount</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2125,7 +2398,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2138,125 +2411,125 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>3.25108</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17509</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
+                  <c:v>44043</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
+                  <c:v>44074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
+                  <c:v>44104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.27712</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
+                  <c:v>44196</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
+                  <c:v>44225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
+                  <c:v>44253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
+                  <c:v>44286</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
+                  <c:v>44347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
+                  <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
+                  <c:v>44407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
+                  <c:v>44439</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
+                  <c:v>44469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
+                  <c:v>44498</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
+                  <c:v>44530</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
+                  <c:v>44561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
+                  <c:v>44589</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
+                  <c:v>44620</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
+                  <c:v>44651</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
+                  <c:v>44680</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
+                  <c:v>44712</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
+                  <c:v>44771</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
+                  <c:v>44804</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
+                  <c:v>44834</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
+                  <c:v>44895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
+                  <c:v>44925</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
+                  <c:v>44957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
+                  <c:v>44985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>model1!资产</c:f>
+              <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="37"/>
@@ -2377,168 +2650,6 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E69F-429A-B459-D6A53AA60C2B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>model1!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>profit amount</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>model1!时间</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>3.25108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8991500000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.17509</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1906699999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6513100000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.1706000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1298999999999992</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9869400000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.2014499999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.27712</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.7245600000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.9833500000000006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.7232599999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.4379900000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.7860299999999993</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.9806599999999994</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.1114799999999994</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.9776999999999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7613100000000008</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.7106400000000006</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.8678999999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.9547099609374996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.8630097656249998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.3440297851562502</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.3355400390624999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.8658500976562502</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.5012099609375</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.6361599121093748</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.1096201171875002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.8724699707031252</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.7022099609375001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.3477299804687499</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.2993999023437501</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.4802900390625</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.4735300292968749</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.8110336914062501</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.6777292480468748</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>model1!金额</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E69F-429A-B459-D6A53AA60C2B}"/>
             </c:ext>
           </c:extLst>
@@ -2553,17 +2664,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="393145344"/>
-        <c:axId val="507660544"/>
+        <c:axId val="256825600"/>
+        <c:axId val="256856064"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="393145344"/>
+      <c:dateAx>
+        <c:axId val="256825600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2600,15 +2711,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507660544"/>
+        <c:crossAx val="256856064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="507660544"/>
+        <c:axId val="256856064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2659,7 +2769,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393145344"/>
+        <c:crossAx val="256825600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2673,6 +2783,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17562,14 +17673,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y40"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -17590,7 +17701,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>180</v>
       </c>
@@ -17620,7 +17731,7 @@
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:25" ht="14.1" customHeight="1">
+    <row r="2" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -17636,7 +17747,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:25" ht="14.1" customHeight="1">
+    <row r="3" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -17715,7 +17826,7 @@
         <v>-22000</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14.1" customHeight="1">
+    <row r="4" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -17800,7 +17911,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.1" customHeight="1">
+    <row r="5" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -17880,7 +17991,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="14.1" customHeight="1">
+    <row r="6" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>43980</v>
       </c>
@@ -17954,7 +18065,7 @@
         <v>60293.406710853284</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14.1" customHeight="1">
+    <row r="7" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44012</v>
       </c>
@@ -17996,7 +18107,7 @@
         <v>-7.3828223896210132E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="14.1" customHeight="1">
+    <row r="8" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44043</v>
       </c>
@@ -18034,7 +18145,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:25" ht="14.1" customHeight="1">
+    <row r="9" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44074</v>
       </c>
@@ -18072,7 +18183,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:25" ht="14.1" customHeight="1">
+    <row r="10" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44104</v>
       </c>
@@ -18110,7 +18221,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:25" ht="14.1" customHeight="1">
+    <row r="11" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>44134</v>
       </c>
@@ -18148,7 +18259,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:25" ht="14.1" customHeight="1">
+    <row r="12" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44165</v>
       </c>
@@ -18186,7 +18297,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:25" ht="14.1" customHeight="1">
+    <row r="13" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>44196</v>
       </c>
@@ -18224,7 +18335,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:25" ht="14.1" customHeight="1">
+    <row r="14" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>44225</v>
       </c>
@@ -18262,7 +18373,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:25" ht="14.1" customHeight="1">
+    <row r="15" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>44253</v>
       </c>
@@ -18300,7 +18411,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:25" ht="14.1" customHeight="1">
+    <row r="16" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>44286</v>
       </c>
@@ -18338,7 +18449,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1">
+    <row r="17" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>44316</v>
       </c>
@@ -18376,7 +18487,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1">
+    <row r="18" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>44347</v>
       </c>
@@ -18414,7 +18525,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1">
+    <row r="19" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>44377</v>
       </c>
@@ -18452,7 +18563,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1">
+    <row r="20" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>44407</v>
       </c>
@@ -18490,7 +18601,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1">
+    <row r="21" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>44439</v>
       </c>
@@ -18529,7 +18640,7 @@
       <c r="J21" s="6"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1">
+    <row r="22" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>44469</v>
       </c>
@@ -18567,7 +18678,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1">
+    <row r="23" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>44498</v>
       </c>
@@ -18605,7 +18716,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1">
+    <row r="24" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>44530</v>
       </c>
@@ -18643,7 +18754,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1">
+    <row r="25" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>44561</v>
       </c>
@@ -18681,7 +18792,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1">
+    <row r="26" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>44589</v>
       </c>
@@ -18719,7 +18830,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1">
+    <row r="27" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>44620</v>
       </c>
@@ -18757,7 +18868,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1">
+    <row r="28" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>44651</v>
       </c>
@@ -18795,7 +18906,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1">
+    <row r="29" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>44680</v>
       </c>
@@ -18833,7 +18944,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1">
+    <row r="30" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>44712</v>
       </c>
@@ -18871,7 +18982,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1">
+    <row r="31" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>44742</v>
       </c>
@@ -18909,7 +19020,7 @@
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1">
+    <row r="32" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>44771</v>
       </c>
@@ -18947,7 +19058,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="14.1" customHeight="1">
+    <row r="33" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>44804</v>
       </c>
@@ -18986,7 +19097,7 @@
       <c r="J33" s="6"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75">
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>44834</v>
       </c>
@@ -19023,7 +19134,7 @@
         <v>-11770.911062729705</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75">
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>44865</v>
       </c>
@@ -19060,7 +19171,7 @@
         <v>-12524.925264431353</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.75">
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>44895</v>
       </c>
@@ -19097,7 +19208,7 @@
         <v>-9593.1455874388703</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.75">
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>44925</v>
       </c>
@@ -19134,7 +19245,7 @@
         <v>-9706.5932891467164</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="12.75">
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>44957</v>
       </c>
@@ -19171,7 +19282,7 @@
         <v>-3848.2171143818996</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="12.75">
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>44985</v>
       </c>
@@ -19207,9 +19318,6 @@
         <f t="shared" si="12"/>
         <v>-6232.0678533566097</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -19226,11 +19334,11 @@
   </sheetPr>
   <dimension ref="A1:D486"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
@@ -19238,16 +19346,16 @@
     <col min="4" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="30" t="s">
         <v>194</v>
       </c>
       <c r="C1" s="22">
         <v>399088</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B2" s="31"/>
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="30"/>
       <c r="C2" s="28" t="s">
         <v>0</v>
       </c>
@@ -19255,7 +19363,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1">
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -19270,7 +19378,7 @@
         <v>45.12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>2</v>
@@ -19286,7 +19394,7 @@
         <v>44.965000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -19302,7 +19410,7 @@
         <v>44.99666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -19318,7 +19426,7 @@
         <v>44.792500000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -19334,7 +19442,7 @@
         <v>44.440000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -19350,7 +19458,7 @@
         <v>44.256666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -19366,7 +19474,7 @@
         <v>44.252857142857145</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -19382,7 +19490,7 @@
         <v>44.220000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -19398,7 +19506,7 @@
         <v>44.181111111111115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -19414,7 +19522,7 @@
         <v>44.341000000000008</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -19430,7 +19538,7 @@
         <v>44.458181818181828</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -19446,7 +19554,7 @@
         <v>44.577500000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -19462,7 +19570,7 @@
         <v>44.703076923076928</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -19478,7 +19586,7 @@
         <v>44.860000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -19494,7 +19602,7 @@
         <v>44.968000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -19510,7 +19618,7 @@
         <v>45.078750000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -19526,7 +19634,7 @@
         <v>45.214117647058828</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1">
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -19542,7 +19650,7 @@
         <v>45.345555555555563</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1">
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -19558,7 +19666,7 @@
         <v>45.46631578947369</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1">
+    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -19574,7 +19682,7 @@
         <v>45.062500000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1">
+    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -19590,7 +19698,7 @@
         <v>44.643333333333338</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1">
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -19606,7 +19714,7 @@
         <v>44.269090909090913</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1">
+    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -19622,7 +19730,7 @@
         <v>43.928695652173921</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1">
+    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -19638,7 +19746,7 @@
         <v>43.627500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1">
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -19654,7 +19762,7 @@
         <v>43.332400000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1">
+    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -19670,7 +19778,7 @@
         <v>43.088461538461544</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1">
+    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -19686,7 +19794,7 @@
         <v>42.901851851851859</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1">
+    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -19702,7 +19810,7 @@
         <v>42.726071428571437</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1">
+    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -19718,7 +19826,7 @@
         <v>42.570000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1">
+    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -19734,7 +19842,7 @@
         <v>42.435000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" customHeight="1">
+    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -19750,7 +19858,7 @@
         <v>42.298387096774199</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" customHeight="1">
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -19766,7 +19874,7 @@
         <v>42.179062500000008</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1">
+    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -19782,7 +19890,7 @@
         <v>42.093333333333341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -19798,7 +19906,7 @@
         <v>42.005000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1">
+    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18">
         <f t="shared" ref="A37:A100" si="1">A36+1</f>
         <v>35</v>
@@ -19814,7 +19922,7 @@
         <v>41.929428571428573</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1">
+    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -19830,7 +19938,7 @@
         <v>41.856666666666662</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1">
+    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="18">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -19846,7 +19954,7 @@
         <v>41.802432432432425</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1">
+    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -19862,7 +19970,7 @@
         <v>41.751315789473679</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1">
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -19878,7 +19986,7 @@
         <v>41.689999999999991</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1">
+    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -19894,7 +20002,7 @@
         <v>41.621999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1">
+    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -19910,7 +20018,7 @@
         <v>41.5680487804878</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1">
+    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -19926,7 +20034,7 @@
         <v>41.512380952380944</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -19942,7 +20050,7 @@
         <v>41.454186046511623</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1">
+    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -19958,7 +20066,7 @@
         <v>41.399318181818174</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1">
+    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -19974,7 +20082,7 @@
         <v>41.36044444444444</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1">
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -19990,7 +20098,7 @@
         <v>41.322391304347818</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" customHeight="1">
+    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -20006,7 +20114,7 @@
         <v>41.285319148936161</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" customHeight="1">
+    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -20022,7 +20130,7 @@
         <v>41.222499999999989</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1">
+    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -20038,7 +20146,7 @@
         <v>41.174693877551015</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -20054,7 +20162,7 @@
         <v>41.139199999999988</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1">
+    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="18">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -20070,7 +20178,7 @@
         <v>41.106862745098027</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1">
+    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="18">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -20086,7 +20194,7 @@
         <v>41.078653846153834</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" customHeight="1">
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="18">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -20102,7 +20210,7 @@
         <v>41.062452830188661</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1">
+    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="18">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -20118,7 +20226,7 @@
         <v>41.045555555555538</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1">
+    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="18">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -20134,7 +20242,7 @@
         <v>41.038181818181798</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1">
+    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -20150,7 +20258,7 @@
         <v>41.038928571428549</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1">
+    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="18">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -20166,7 +20274,7 @@
         <v>41.034736842105247</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1">
+    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="18">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -20182,7 +20290,7 @@
         <v>41.041896551724122</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1">
+    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="18">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -20198,7 +20306,7 @@
         <v>41.046101694915237</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" customHeight="1">
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -20214,7 +20322,7 @@
         <v>41.029166666666654</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" customHeight="1">
+    <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="18">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -20230,7 +20338,7 @@
         <v>41.015737704918017</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1">
+    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="18">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -20246,7 +20354,7 @@
         <v>40.997580645161271</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1">
+    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="18">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -20262,7 +20370,7 @@
         <v>40.997301587301571</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1">
+    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="18">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -20278,7 +20386,7 @@
         <v>40.998281249999984</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1">
+    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="18">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -20294,7 +20402,7 @@
         <v>40.994153846153829</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1">
+    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="18">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -20310,7 +20418,7 @@
         <v>41.006060606060593</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1">
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="18">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -20326,7 +20434,7 @@
         <v>41.01641791044775</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" customHeight="1">
+    <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="18">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -20342,7 +20450,7 @@
         <v>41.020294117647047</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1">
+    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="18">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -20358,7 +20466,7 @@
         <v>41.027826086956509</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1">
+    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -20374,7 +20482,7 @@
         <v>41.021428571428558</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1">
+    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="18">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -20390,7 +20498,7 @@
         <v>41.019295774647873</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1">
+    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="18">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -20406,7 +20514,7 @@
         <v>41.017499999999984</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1">
+    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="18">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -20422,7 +20530,7 @@
         <v>41.027123287671216</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" customHeight="1">
+    <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="18">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -20438,7 +20546,7 @@
         <v>41.036081081081065</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" customHeight="1">
+    <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="18">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -20454,7 +20562,7 @@
         <v>41.035466666666643</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" customHeight="1">
+    <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="18">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -20470,7 +20578,7 @@
         <v>41.020526335866805</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" customHeight="1">
+    <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="18">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -20486,7 +20594,7 @@
         <v>40.984025981952598</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" customHeight="1">
+    <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="18">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -20502,7 +20610,7 @@
         <v>40.953717942849167</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" customHeight="1">
+    <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="18">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -20518,7 +20626,7 @@
         <v>40.943164537647085</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" customHeight="1">
+    <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="18">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -20534,7 +20642,7 @@
         <v>40.930499984741189</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" customHeight="1">
+    <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="18">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -20550,7 +20658,7 @@
         <v>40.927160476872935</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" customHeight="1">
+    <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="18">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -20566,7 +20674,7 @@
         <v>40.921951202764724</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" customHeight="1">
+    <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="18">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -20582,7 +20690,7 @@
         <v>40.929036107810127</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" customHeight="1">
+    <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="18">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -20598,7 +20706,7 @@
         <v>40.931428547813759</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" customHeight="1">
+    <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="18">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -20614,7 +20722,7 @@
         <v>40.92988232062843</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" customHeight="1">
+    <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="18">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -20630,7 +20738,7 @@
         <v>40.928372052214847</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" customHeight="1">
+    <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="18">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -20646,7 +20754,7 @@
         <v>40.927701096808754</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1">
+    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="18">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -20662,7 +20770,7 @@
         <v>40.924090864008107</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" customHeight="1">
+    <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="18">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -20678,7 +20786,7 @@
         <v>40.917528047025854</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" customHeight="1">
+    <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="18">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -20694,7 +20802,7 @@
         <v>40.904444420708536</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" customHeight="1">
+    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="18">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -20710,7 +20818,7 @@
         <v>40.886703283288959</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1">
+    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="18">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -20726,7 +20834,7 @@
         <v>40.859891271176529</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" customHeight="1">
+    <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="18">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -20742,7 +20850,7 @@
         <v>40.836344033518131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" customHeight="1">
+    <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="18">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -20758,7 +20866,7 @@
         <v>40.815851010261682</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" customHeight="1">
+    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="18">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -20774,7 +20882,7 @@
         <v>40.787684151097331</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" customHeight="1">
+    <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="18">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -20790,7 +20898,7 @@
         <v>40.770416618982935</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" customHeight="1">
+    <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="18">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -20806,7 +20914,7 @@
         <v>40.756804084384548</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" customHeight="1">
+    <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -20822,7 +20930,7 @@
         <v>40.744489749207773</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" customHeight="1">
+    <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="18">
         <f t="shared" ref="A101:A355" si="2">A100+1</f>
         <v>99</v>
@@ -20838,7 +20946,7 @@
         <v>40.723232270828383</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" customHeight="1">
+    <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="18">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -20854,7 +20962,7 @@
         <v>40.702299958801255</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1">
+    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="18">
         <f t="shared" si="2"/>
         <v>101</v>
@@ -20870,7 +20978,7 @@
         <v>40.680296984379815</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1">
+    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="18">
         <f t="shared" si="2"/>
         <v>102</v>
@@ -20886,7 +20994,7 @@
         <v>40.654705834482208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" customHeight="1">
+    <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="18">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -20902,7 +21010,7 @@
         <v>40.599999957038342</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" customHeight="1">
+    <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="18">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -20918,7 +21026,7 @@
         <v>40.542692259274979</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" customHeight="1">
+    <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="18">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -20934,7 +21042,7 @@
         <v>40.482476154145722</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" customHeight="1">
+    <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="18">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -20950,7 +21058,7 @@
         <v>40.435849029253099</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1">
+    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="18">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -20966,7 +21074,7 @@
         <v>40.391775685247957</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" customHeight="1">
+    <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="18">
         <f t="shared" si="2"/>
         <v>108</v>
@@ -20982,7 +21090,7 @@
         <v>40.346574042991335</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" customHeight="1">
+    <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="18">
         <f t="shared" si="2"/>
         <v>109</v>
@@ -20998,7 +21106,7 @@
         <v>40.302110060945544</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" customHeight="1">
+    <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="18">
         <f t="shared" si="2"/>
         <v>110</v>
@@ -21014,7 +21122,7 @@
         <v>40.260272703690944</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" customHeight="1">
+    <row r="113" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="18">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -21030,7 +21138,7 @@
         <v>40.215585555342926</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" customHeight="1">
+    <row r="114" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="18">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -21046,7 +21154,7 @@
         <v>40.173214266640784</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" customHeight="1">
+    <row r="115" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="18">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -21062,7 +21170,7 @@
         <v>40.128584061344093</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" customHeight="1">
+    <row r="116" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="18">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -21078,7 +21186,7 @@
         <v>40.078245599311678</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" customHeight="1">
+    <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="18">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -21094,7 +21202,7 @@
         <v>40.032521721881352</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" customHeight="1">
+    <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="18">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -21110,7 +21218,7 @@
         <v>39.985344822324535</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" customHeight="1">
+    <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="18">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -21126,7 +21234,7 @@
         <v>39.940427341298147</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" customHeight="1">
+    <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="18">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -21142,7 +21250,7 @@
         <v>39.89703388666701</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" customHeight="1">
+    <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="18">
         <f t="shared" si="2"/>
         <v>119</v>
@@ -21158,7 +21266,7 @@
         <v>39.856638645204157</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" customHeight="1">
+    <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="18">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -21174,7 +21282,7 @@
         <v>39.814833324432357</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" customHeight="1">
+    <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="18">
         <f t="shared" si="2"/>
         <v>121</v>
@@ -21190,7 +21298,7 @@
         <v>39.769752062332515</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" customHeight="1">
+    <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="18">
         <f t="shared" si="2"/>
         <v>122</v>
@@ -21206,7 +21314,7 @@
         <v>39.730819672131133</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" customHeight="1">
+    <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="18">
         <f t="shared" si="2"/>
         <v>123</v>
@@ -21222,7 +21330,7 @@
         <v>39.694634136422749</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" customHeight="1">
+    <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="18">
         <f t="shared" si="2"/>
         <v>124</v>
@@ -21238,7 +21346,7 @@
         <v>39.656854815322561</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" customHeight="1">
+    <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="18">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -21254,7 +21362,7 @@
         <v>39.615839967039982</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" customHeight="1">
+    <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="18">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -21270,7 +21378,7 @@
         <v>39.58039680484125</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" customHeight="1">
+    <row r="129" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="18">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -21286,7 +21394,7 @@
         <v>39.545433045669277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" customHeight="1">
+    <row r="130" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="18">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -21302,7 +21410,7 @@
         <v>39.514765591640611</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" customHeight="1">
+    <row r="131" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="18">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -21318,7 +21426,7 @@
         <v>39.483953462403086</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" customHeight="1">
+    <row r="132" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="18">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -21334,7 +21442,7 @@
         <v>39.455384593153838</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" customHeight="1">
+    <row r="133" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="18">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -21350,7 +21458,7 @@
         <v>39.425419815954186</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" customHeight="1">
+    <row r="134" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="18">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -21366,7 +21474,7 @@
         <v>39.396590869848474</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" customHeight="1">
+    <row r="135" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="18">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -21382,7 +21490,7 @@
         <v>39.371127767969917</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" customHeight="1">
+    <row r="136" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="18">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -21398,7 +21506,7 @@
         <v>39.348358155447755</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" customHeight="1">
+    <row r="137" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="18">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -21414,7 +21522,7 @@
         <v>39.325777719037028</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" customHeight="1">
+    <row r="138" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="18">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -21430,7 +21538,7 @@
         <v>39.30124995404411</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" customHeight="1">
+    <row r="139" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="18">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -21446,7 +21554,7 @@
         <v>39.275182432773718</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" customHeight="1">
+    <row r="140" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="18">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -21462,7 +21570,7 @@
         <v>39.253623134275358</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" customHeight="1">
+    <row r="141" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="18">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -21478,7 +21586,7 @@
         <v>39.222517934100708</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" customHeight="1">
+    <row r="142" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="18">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -21494,7 +21602,7 @@
         <v>39.191714233499987</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" customHeight="1">
+    <row r="143" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="18">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -21510,7 +21618,7 @@
         <v>39.159361657872324</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" customHeight="1">
+    <row r="144" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="18">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -21526,7 +21634,7 @@
         <v>39.130704182464775</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" customHeight="1">
+    <row r="145" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="18">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -21542,7 +21650,7 @@
         <v>39.101118849230758</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" customHeight="1">
+    <row r="146" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="18">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -21558,7 +21666,7 @@
         <v>39.072916641388879</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" customHeight="1">
+    <row r="147" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="18">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -21574,7 +21682,7 @@
         <v>39.046344810896542</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" customHeight="1">
+    <row r="148" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="18">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -21590,7 +21698,7 @@
         <v>39.018561638767117</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" customHeight="1">
+    <row r="149" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="18">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -21606,7 +21714,7 @@
         <v>38.994013599387742</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" customHeight="1">
+    <row r="150" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="18">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -21622,7 +21730,7 @@
         <v>38.968783766418909</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" customHeight="1">
+    <row r="151" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="18">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -21638,7 +21746,7 @@
         <v>38.941812068389247</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" customHeight="1">
+    <row r="152" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="18">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -21654,7 +21762,7 @@
         <v>38.915199992999987</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" customHeight="1">
+    <row r="153" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="18">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -21670,7 +21778,7 @@
         <v>38.890794691986741</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" customHeight="1">
+    <row r="154" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="18">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -21686,7 +21794,7 @@
         <v>38.864144727894725</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" customHeight="1">
+    <row r="155" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="18">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -21702,7 +21810,7 @@
         <v>38.840653588888877</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" customHeight="1">
+    <row r="156" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="18">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -21718,7 +21826,7 @@
         <v>38.822142862207784</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" customHeight="1">
+    <row r="157" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="18">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -21734,7 +21842,7 @@
         <v>38.801870974774182</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" customHeight="1">
+    <row r="158" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="18">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -21750,7 +21858,7 @@
         <v>38.781025643141014</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" customHeight="1">
+    <row r="159" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="18">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -21766,7 +21874,7 @@
         <v>38.75942674980891</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" customHeight="1">
+    <row r="160" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="18">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -21782,7 +21890,7 @@
         <v>38.73683543259493</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" customHeight="1">
+    <row r="161" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="18">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -21798,7 +21906,7 @@
         <v>38.715911938364776</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" customHeight="1">
+    <row r="162" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="18">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -21814,7 +21922,7 @@
         <v>38.695499988749994</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" customHeight="1">
+    <row r="163" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="18">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -21830,7 +21938,7 @@
         <v>38.674285695527942</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" customHeight="1">
+    <row r="164" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="18">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -21846,7 +21954,7 @@
         <v>38.652962951851848</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" customHeight="1">
+    <row r="165" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="18">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -21862,7 +21970,7 @@
         <v>38.632515324478518</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" customHeight="1">
+    <row r="166" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="18">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -21878,7 +21986,7 @@
         <v>38.609999978780486</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" customHeight="1">
+    <row r="167" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="18">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -21894,7 +22002,7 @@
         <v>38.586363609696967</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" customHeight="1">
+    <row r="168" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="18">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -21910,7 +22018,7 @@
         <v>38.566746972469872</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" customHeight="1">
+    <row r="169" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="18">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -21926,7 +22034,7 @@
         <v>38.550598780598797</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" customHeight="1">
+    <row r="170" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="18">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -21942,7 +22050,7 @@
         <v>38.53458331529761</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" customHeight="1">
+    <row r="171" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="18">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -21958,7 +22066,7 @@
         <v>38.518757382130168</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" customHeight="1">
+    <row r="172" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="18">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -21974,7 +22082,7 @@
         <v>38.501588212058813</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" customHeight="1">
+    <row r="173" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="18">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -21990,7 +22098,7 @@
         <v>38.482806999824554</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" customHeight="1">
+    <row r="174" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="18">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -22006,7 +22114,7 @@
         <v>38.465581380406974</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" customHeight="1">
+    <row r="175" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="18">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -22022,7 +22130,7 @@
         <v>38.445202289364161</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" customHeight="1">
+    <row r="176" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="18">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -22038,7 +22146,7 @@
         <v>38.42022985362069</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" customHeight="1">
+    <row r="177" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="18">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -22054,7 +22162,7 @@
         <v>38.397485675200002</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" customHeight="1">
+    <row r="178" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="18">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -22070,7 +22178,7 @@
         <v>38.376420407897733</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" customHeight="1">
+    <row r="179" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="18">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -22086,7 +22194,7 @@
         <v>38.356271147796612</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" customHeight="1">
+    <row r="180" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="18">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -22102,7 +22210,7 @@
         <v>38.333426933033707</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" customHeight="1">
+    <row r="181" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="18">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -22118,7 +22226,7 @@
         <v>38.311229020614526</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" customHeight="1">
+    <row r="182" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="18">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -22134,7 +22242,7 @@
         <v>38.290888867888889</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" customHeight="1">
+    <row r="183" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="18">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -22150,7 +22258,7 @@
         <v>38.268618754364638</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" customHeight="1">
+    <row r="184" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="18">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -22166,7 +22274,7 @@
         <v>38.248351618351641</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" customHeight="1">
+    <row r="185" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="18">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -22182,7 +22290,7 @@
         <v>38.228579205136612</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" customHeight="1">
+    <row r="186" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="18">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -22198,7 +22306,7 @@
         <v>38.206847793913042</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" customHeight="1">
+    <row r="187" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="18">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -22214,7 +22322,7 @@
         <v>38.181189152216213</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" customHeight="1">
+    <row r="188" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="18">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -22230,7 +22338,7 @@
         <v>38.15387092274193</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" customHeight="1">
+    <row r="189" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="18">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -22246,7 +22354,7 @@
         <v>38.12657749128342</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" customHeight="1">
+    <row r="190" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="18">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -22262,7 +22370,7 @@
         <v>38.100053139680853</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" customHeight="1">
+    <row r="191" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="18">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -22278,7 +22386,7 @@
         <v>38.071216879682538</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" customHeight="1">
+    <row r="192" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="18">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -22294,7 +22402,7 @@
         <v>38.0456315228421</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" customHeight="1">
+    <row r="193" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="18">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -22310,7 +22418,7 @@
         <v>38.017120363036646</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" customHeight="1">
+    <row r="194" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="18">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -22326,7 +22434,7 @@
         <v>37.989791613541662</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" customHeight="1">
+    <row r="195" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="18">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -22342,7 +22450,7 @@
         <v>37.965699429792743</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" customHeight="1">
+    <row r="196" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="18">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -22358,7 +22466,7 @@
         <v>37.941855619072165</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="12.75" customHeight="1">
+    <row r="197" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="18">
         <f t="shared" si="2"/>
         <v>195</v>
@@ -22374,7 +22482,7 @@
         <v>37.915128152000001</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="12.75" customHeight="1">
+    <row r="198" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="18">
         <f t="shared" si="2"/>
         <v>196</v>
@@ -22390,7 +22498,7 @@
         <v>37.889132598622453</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="12.75" customHeight="1">
+    <row r="199" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="18">
         <f t="shared" si="2"/>
         <v>197</v>
@@ -22406,7 +22514,7 @@
         <v>37.861268989137059</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="12.75" customHeight="1">
+    <row r="200" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="18">
         <f t="shared" si="2"/>
         <v>198</v>
@@ -22422,7 +22530,7 @@
         <v>37.834646419242425</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="12.75" customHeight="1">
+    <row r="201" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="18">
         <f t="shared" si="2"/>
         <v>199</v>
@@ -22438,7 +22546,7 @@
         <v>37.804422063819104</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="12.75" customHeight="1">
+    <row r="202" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="18">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -22454,7 +22562,7 @@
         <v>37.775999948150009</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="12.75" customHeight="1">
+    <row r="203" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="18">
         <f t="shared" si="2"/>
         <v>201</v>
@@ -22470,7 +22578,7 @@
         <v>37.743084524776123</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="12.75" customHeight="1">
+    <row r="204" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="18">
         <f t="shared" si="2"/>
         <v>202</v>
@@ -22486,7 +22594,7 @@
         <v>37.710494996683174</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="12.75" customHeight="1">
+    <row r="205" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="18">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -22502,7 +22610,7 @@
         <v>37.678472849310346</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="12.75" customHeight="1">
+    <row r="206" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="18">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -22518,7 +22626,7 @@
         <v>37.643872496323532</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="12.75" customHeight="1">
+    <row r="207" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="18">
         <f t="shared" si="2"/>
         <v>205</v>
@@ -22534,7 +22642,7 @@
         <v>37.61151214380488</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="12.75" customHeight="1">
+    <row r="208" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="18">
         <f t="shared" si="2"/>
         <v>206</v>
@@ -22550,7 +22658,7 @@
         <v>37.577281499757277</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="12.75" customHeight="1">
+    <row r="209" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="18">
         <f t="shared" si="2"/>
         <v>207</v>
@@ -22566,7 +22674,7 @@
         <v>37.540193181497585</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="12.75" customHeight="1">
+    <row r="210" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="18">
         <f t="shared" si="2"/>
         <v>208</v>
@@ -22582,7 +22690,7 @@
         <v>37.503221100721149</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="12.75" customHeight="1">
+    <row r="211" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="18">
         <f t="shared" si="2"/>
         <v>209</v>
@@ -22598,7 +22706,7 @@
         <v>37.469999944593297</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="12.75" customHeight="1">
+    <row r="212" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="18">
         <f t="shared" si="2"/>
         <v>210</v>
@@ -22614,7 +22722,7 @@
         <v>37.437380901238093</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="12.75" customHeight="1">
+    <row r="213" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="18">
         <f t="shared" si="2"/>
         <v>211</v>
@@ -22630,7 +22738,7 @@
         <v>37.405781941800946</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="12.75" customHeight="1">
+    <row r="214" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="18">
         <f t="shared" si="2"/>
         <v>212</v>
@@ -22646,7 +22754,7 @@
         <v>37.374245231273584</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="12.75" customHeight="1">
+    <row r="215" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="18">
         <f t="shared" si="2"/>
         <v>213</v>
@@ -22662,7 +22770,7 @@
         <v>37.342629053615028</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="12.75" customHeight="1">
+    <row r="216" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="18">
         <f t="shared" si="2"/>
         <v>214</v>
@@ -22678,7 +22786,7 @@
         <v>37.309205555841125</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="12.75" customHeight="1">
+    <row r="217" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="18">
         <f t="shared" si="2"/>
         <v>215</v>
@@ -22694,7 +22802,7 @@
         <v>37.27981390102326</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="12.75" customHeight="1">
+    <row r="218" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="18">
         <f t="shared" si="2"/>
         <v>216</v>
@@ -22710,7 +22818,7 @@
         <v>37.247685133657413</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="12.75" customHeight="1">
+    <row r="219" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="18">
         <f t="shared" si="2"/>
         <v>217</v>
@@ -22726,7 +22834,7 @@
         <v>37.218433126682037</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="12.75" customHeight="1">
+    <row r="220" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="18">
         <f t="shared" si="2"/>
         <v>218</v>
@@ -22742,7 +22850,7 @@
         <v>37.189770586238538</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="12.75" customHeight="1">
+    <row r="221" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="18">
         <f t="shared" si="2"/>
         <v>219</v>
@@ -22758,7 +22866,7 @@
         <v>37.161232823424669</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="12.75" customHeight="1">
+    <row r="222" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="18">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -22774,7 +22882,7 @@
         <v>37.130772670045459</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="12.75" customHeight="1">
+    <row r="223" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="18">
         <f t="shared" si="2"/>
         <v>221</v>
@@ -22790,7 +22898,7 @@
         <v>37.098913970859734</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="12.75" customHeight="1">
+    <row r="224" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="18">
         <f t="shared" si="2"/>
         <v>222</v>
@@ -22806,7 +22914,7 @@
         <v>37.065180126891896</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="12.75" customHeight="1">
+    <row r="225" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="18">
         <f t="shared" si="2"/>
         <v>223</v>
@@ -22822,7 +22930,7 @@
         <v>37.026053759282519</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="12.75" customHeight="1">
+    <row r="226" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="18">
         <f t="shared" si="2"/>
         <v>224</v>
@@ -22838,7 +22946,7 @@
         <v>36.984464229464287</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="12.75" customHeight="1">
+    <row r="227" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="18">
         <f t="shared" si="2"/>
         <v>225</v>
@@ -22854,7 +22962,7 @@
         <v>36.94248883697778</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="12.75" customHeight="1">
+    <row r="228" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="18">
         <f t="shared" si="2"/>
         <v>226</v>
@@ -22870,7 +22978,7 @@
         <v>36.903849501769912</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="12.75" customHeight="1">
+    <row r="229" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="18">
         <f t="shared" si="2"/>
         <v>227</v>
@@ -22886,7 +22994,7 @@
         <v>36.866607877356834</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="12.75" customHeight="1">
+    <row r="230" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="18">
         <f t="shared" si="2"/>
         <v>228</v>
@@ -22902,7 +23010,7 @@
         <v>36.825438542543864</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="12.75" customHeight="1">
+    <row r="231" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="18">
         <f t="shared" si="2"/>
         <v>229</v>
@@ -22918,7 +23026,7 @@
         <v>36.780523967772936</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="12.75" customHeight="1">
+    <row r="232" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="18">
         <f t="shared" si="2"/>
         <v>230</v>
@@ -22934,7 +23042,7 @@
         <v>36.740956473608705</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="12.75" customHeight="1">
+    <row r="233" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="18">
         <f t="shared" si="2"/>
         <v>231</v>
@@ -22950,7 +23058,7 @@
         <v>36.704978308398275</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="12.75" customHeight="1">
+    <row r="234" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="18">
         <f t="shared" si="2"/>
         <v>232</v>
@@ -22966,7 +23074,7 @@
         <v>36.66892236806035</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="12.75" customHeight="1">
+    <row r="235" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="18">
         <f t="shared" si="2"/>
         <v>233</v>
@@ -22982,7 +23090,7 @@
         <v>36.633948454291847</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="12.75" customHeight="1">
+    <row r="236" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="18">
         <f t="shared" si="2"/>
         <v>234</v>
@@ -22998,7 +23106,7 @@
         <v>36.598119614743588</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="12.75" customHeight="1">
+    <row r="237" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="18">
         <f t="shared" si="2"/>
         <v>235</v>
@@ -23014,7 +23122,7 @@
         <v>36.563361660255318</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="12.75" customHeight="1">
+    <row r="238" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="18">
         <f t="shared" si="2"/>
         <v>236</v>
@@ -23030,7 +23138,7 @@
         <v>36.528262673093217</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="12.75" customHeight="1">
+    <row r="239" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="18">
         <f t="shared" si="2"/>
         <v>237</v>
@@ -23046,7 +23154,7 @@
         <v>36.490632875358649</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="12.75" customHeight="1">
+    <row r="240" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="18">
         <f t="shared" si="2"/>
         <v>238</v>
@@ -23062,7 +23170,7 @@
         <v>36.451512570462185</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="12.75" customHeight="1">
+    <row r="241" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="18">
         <f t="shared" si="2"/>
         <v>239</v>
@@ -23078,7 +23186,7 @@
         <v>36.412008334728036</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="12.75" customHeight="1">
+    <row r="242" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="18">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -23094,7 +23202,7 @@
         <v>36.376874964750002</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="12.75" customHeight="1">
+    <row r="243" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="18">
         <f t="shared" si="2"/>
         <v>241</v>
@@ -23110,7 +23218,7 @@
         <v>36.340622369004151</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="12.75" customHeight="1">
+    <row r="244" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="18">
         <f t="shared" si="2"/>
         <v>242</v>
@@ -23126,7 +23234,7 @@
         <v>36.305495830909088</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="12.75" customHeight="1">
+    <row r="245" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="18">
         <f t="shared" si="2"/>
         <v>243</v>
@@ -23142,7 +23250,7 @@
         <v>36.269876504938274</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="12.75" customHeight="1">
+    <row r="246" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="18">
         <f t="shared" si="2"/>
         <v>244</v>
@@ -23158,7 +23266,7 @@
         <v>36.232704883032788</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="12.75" customHeight="1">
+    <row r="247" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="18">
         <f t="shared" si="2"/>
         <v>245</v>
@@ -23174,7 +23282,7 @@
         <v>36.195714251183674</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="12.75" customHeight="1">
+    <row r="248" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="18">
         <f t="shared" si="2"/>
         <v>246</v>
@@ -23190,7 +23298,7 @@
         <v>36.154715415243899</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="12.75" customHeight="1">
+    <row r="249" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="18">
         <f t="shared" si="2"/>
         <v>247</v>
@@ -23206,7 +23314,7 @@
         <v>36.116113331943318</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="12.75" customHeight="1">
+    <row r="250" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="18">
         <f t="shared" si="2"/>
         <v>248</v>
@@ -23222,7 +23330,7 @@
         <v>36.076048360080641</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="12.75" customHeight="1">
+    <row r="251" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="18">
         <f t="shared" si="2"/>
         <v>249</v>
@@ -23238,7 +23346,7 @@
         <v>36.036947764859427</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="12.75" customHeight="1">
+    <row r="252" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="18">
         <f t="shared" si="2"/>
         <v>250</v>
@@ -23254,7 +23362,7 @@
         <v>35.997639970119991</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="12.75" customHeight="1">
+    <row r="253" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="18">
         <f t="shared" si="2"/>
         <v>251</v>
@@ -23270,7 +23378,7 @@
         <v>35.959402359163342</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="12.75" customHeight="1">
+    <row r="254" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="18">
         <f t="shared" si="2"/>
         <v>252</v>
@@ -23286,7 +23394,7 @@
         <v>35.920357115039671</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="12.75" customHeight="1">
+    <row r="255" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="18">
         <f t="shared" si="2"/>
         <v>253</v>
@@ -23302,7 +23410,7 @@
         <v>35.879051352964417</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="12.75" customHeight="1">
+    <row r="256" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="18">
         <f t="shared" si="2"/>
         <v>254</v>
@@ -23318,7 +23426,7 @@
         <v>35.835787368858256</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="12.75" customHeight="1">
+    <row r="257" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="18">
         <f t="shared" si="2"/>
         <v>255</v>
@@ -23334,7 +23442,7 @@
         <v>35.792862710117632</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="12.75" customHeight="1">
+    <row r="258" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="18">
         <f t="shared" si="2"/>
         <v>256</v>
@@ -23350,7 +23458,7 @@
         <v>35.744648405624986</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="12.75" customHeight="1">
+    <row r="259" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="18">
         <f t="shared" si="2"/>
         <v>257</v>
@@ -23366,7 +23474,7 @@
         <v>35.69571981291827</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="12.75" customHeight="1">
+    <row r="260" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="18">
         <f t="shared" si="2"/>
         <v>258</v>
@@ -23382,7 +23490,7 @@
         <v>35.651472839573628</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="12.75" customHeight="1">
+    <row r="261" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="18">
         <f t="shared" si="2"/>
         <v>259</v>
@@ -23398,7 +23506,7 @@
         <v>35.606949781660212</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="12.75" customHeight="1">
+    <row r="262" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="18">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -23414,7 +23522,7 @@
         <v>35.566653817730753</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="12.75" customHeight="1">
+    <row r="263" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="18">
         <f t="shared" si="2"/>
         <v>261</v>
@@ -23430,7 +23538,7 @@
         <v>35.519386943103434</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="12.75" customHeight="1">
+    <row r="264" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="18">
         <f t="shared" si="2"/>
         <v>262</v>
@@ -23446,7 +23554,7 @@
         <v>35.470534318549603</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="12.75" customHeight="1">
+    <row r="265" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="18">
         <f t="shared" si="2"/>
         <v>263</v>
@@ -23462,7 +23570,7 @@
         <v>35.421064602813672</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="12.75" customHeight="1">
+    <row r="266" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="18">
         <f t="shared" si="2"/>
         <v>264</v>
@@ -23478,7 +23586,7 @@
         <v>35.373181784962107</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="12.75" customHeight="1">
+    <row r="267" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="18">
         <f t="shared" si="2"/>
         <v>265</v>
@@ -23494,7 +23602,7 @@
         <v>35.328188649018855</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="12.75" customHeight="1">
+    <row r="268" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="18">
         <f t="shared" si="2"/>
         <v>266</v>
@@ -23510,7 +23618,7 @@
         <v>35.283233055751865</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="12.75" customHeight="1">
+    <row r="269" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="18">
         <f t="shared" si="2"/>
         <v>267</v>
@@ -23526,7 +23634,7 @@
         <v>35.239288359812718</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="12.75" customHeight="1">
+    <row r="270" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="18">
         <f t="shared" si="2"/>
         <v>268</v>
@@ -23542,7 +23650,7 @@
         <v>35.194701466380579</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="12.75" customHeight="1">
+    <row r="271" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="18">
         <f t="shared" si="2"/>
         <v>269</v>
@@ -23558,7 +23666,7 @@
         <v>35.152081756617086</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="12.75" customHeight="1">
+    <row r="272" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="18">
         <f t="shared" si="2"/>
         <v>270</v>
@@ -23574,7 +23682,7 @@
         <v>35.109703672629614</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="12.75" customHeight="1">
+    <row r="273" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="18">
         <f t="shared" si="2"/>
         <v>271</v>
@@ -23590,7 +23698,7 @@
         <v>35.067933551771205</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="12.75" customHeight="1">
+    <row r="274" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="18">
         <f t="shared" si="2"/>
         <v>272</v>
@@ -23606,7 +23714,7 @@
         <v>35.027867619595575</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="12.75" customHeight="1">
+    <row r="275" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="18">
         <f t="shared" si="2"/>
         <v>273</v>
@@ -23622,7 +23730,7 @@
         <v>34.987655647509143</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="12.75" customHeight="1">
+    <row r="276" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="18">
         <f t="shared" si="2"/>
         <v>274</v>
@@ -23638,7 +23746,7 @@
         <v>34.944671499452539</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="12.75" customHeight="1">
+    <row r="277" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="18">
         <f t="shared" si="2"/>
         <v>275</v>
@@ -23654,7 +23762,7 @@
         <v>34.902363601163621</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="12.75" customHeight="1">
+    <row r="278" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="18">
         <f t="shared" si="2"/>
         <v>276</v>
@@ -23670,7 +23778,7 @@
         <v>34.860434747246366</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="12.75" customHeight="1">
+    <row r="279" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="18">
         <f t="shared" si="2"/>
         <v>277</v>
@@ -23686,7 +23794,7 @@
         <v>34.818953036389878</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="12.75" customHeight="1">
+    <row r="280" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="18">
         <f t="shared" si="2"/>
         <v>278</v>
@@ -23702,7 +23810,7 @@
         <v>34.778740972913653</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="12.75" customHeight="1">
+    <row r="281" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="18">
         <f t="shared" si="2"/>
         <v>279</v>
@@ -23718,7 +23826,7 @@
         <v>34.740573439534039</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="12.75" customHeight="1">
+    <row r="282" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="18">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -23734,7 +23842,7 @@
         <v>34.703321389642845</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="12.75" customHeight="1">
+    <row r="283" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="18">
         <f t="shared" si="2"/>
         <v>281</v>
@@ -23750,7 +23858,7 @@
         <v>34.66704622537366</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="12.75" customHeight="1">
+    <row r="284" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="18">
         <f t="shared" si="2"/>
         <v>282</v>
@@ -23766,7 +23874,7 @@
         <v>34.633936132092195</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="12.75" customHeight="1">
+    <row r="285" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="18">
         <f t="shared" si="2"/>
         <v>283</v>
@@ -23782,7 +23890,7 @@
         <v>34.60084802017667</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="12.75" customHeight="1">
+    <row r="286" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="18">
         <f t="shared" si="2"/>
         <v>284</v>
@@ -23798,7 +23906,7 @@
         <v>34.568661932359149</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="12.75" customHeight="1">
+    <row r="287" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="18">
         <f t="shared" si="2"/>
         <v>285</v>
@@ -23814,7 +23922,7 @@
         <v>34.534210486982445</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="12.75" customHeight="1">
+    <row r="288" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="18">
         <f t="shared" si="2"/>
         <v>286</v>
@@ -23830,7 +23938,7 @@
         <v>34.502202755069924</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75" customHeight="1">
+    <row r="289" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="18">
         <f t="shared" si="2"/>
         <v>287</v>
@@ -23846,7 +23954,7 @@
         <v>34.441742116968634</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75" customHeight="1">
+    <row r="290" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="18">
         <f t="shared" si="2"/>
         <v>288</v>
@@ -23862,7 +23970,7 @@
         <v>34.411076347847221</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75" customHeight="1">
+    <row r="291" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="18">
         <f t="shared" si="2"/>
         <v>289</v>
@@ -23878,7 +23986,7 @@
         <v>34.381903071695504</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75" customHeight="1">
+    <row r="292" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="18">
         <f t="shared" si="2"/>
         <v>290</v>
@@ -23894,7 +24002,7 @@
         <v>34.352999957655172</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75" customHeight="1">
+    <row r="293" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="18">
         <f t="shared" si="2"/>
         <v>291</v>
@@ -23910,7 +24018,7 @@
         <v>34.326013703505154</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75" customHeight="1">
+    <row r="294" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="18">
         <f t="shared" si="2"/>
         <v>292</v>
@@ -23926,7 +24034,7 @@
         <v>34.300958862842464</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75" customHeight="1">
+    <row r="295" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="18">
         <f t="shared" si="2"/>
         <v>293</v>
@@ -23942,7 +24050,7 @@
         <v>34.276006784027302</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75" customHeight="1">
+    <row r="296" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="18">
         <f t="shared" si="2"/>
         <v>294</v>
@@ -23958,7 +24066,7 @@
         <v>34.249897918707482</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75" customHeight="1">
+    <row r="297" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="18">
         <f t="shared" si="2"/>
         <v>295</v>
@@ -23974,7 +24082,7 @@
         <v>34.226135552101695</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75" customHeight="1">
+    <row r="298" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="18">
         <f t="shared" si="2"/>
         <v>296</v>
@@ -23990,7 +24098,7 @@
         <v>34.204222931216215</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75" customHeight="1">
+    <row r="299" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="18">
         <f t="shared" si="2"/>
         <v>297</v>
@@ -24006,7 +24114,7 @@
         <v>34.18289558410774</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75" customHeight="1">
+    <row r="300" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="18">
         <f t="shared" si="2"/>
         <v>298</v>
@@ -24022,7 +24130,7 @@
         <v>34.162718082416099</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="12.75" customHeight="1">
+    <row r="301" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="18">
         <f t="shared" si="2"/>
         <v>299</v>
@@ -24038,7 +24146,7 @@
         <v>34.140468189933102</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="12.75" customHeight="1">
+    <row r="302" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="18">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -24054,7 +24162,7 @@
         <v>34.119366627533324</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="12.75" customHeight="1">
+    <row r="303" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="18">
         <f t="shared" si="2"/>
         <v>301</v>
@@ -24070,7 +24178,7 @@
         <v>34.097840490531553</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="12.75" customHeight="1">
+    <row r="304" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="18">
         <f t="shared" si="2"/>
         <v>302</v>
@@ -24086,7 +24194,7 @@
         <v>34.077913866125826</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="12.75" customHeight="1">
+    <row r="305" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="18">
         <f t="shared" si="2"/>
         <v>303</v>
@@ -24102,7 +24210,7 @@
         <v>34.057623722376235</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="12.75" customHeight="1">
+    <row r="306" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="18">
         <f t="shared" si="2"/>
         <v>304</v>
@@ -24118,7 +24226,7 @@
         <v>34.036743378157887</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="12.75" customHeight="1">
+    <row r="307" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="18">
         <f t="shared" si="2"/>
         <v>305</v>
@@ -24134,7 +24242,7 @@
         <v>34.0172130717377</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="12.75" customHeight="1">
+    <row r="308" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="18">
         <f t="shared" si="2"/>
         <v>306</v>
@@ -24150,7 +24258,7 @@
         <v>33.997091462385619</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="12.75" customHeight="1">
+    <row r="309" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="18">
         <f t="shared" si="2"/>
         <v>307</v>
@@ -24166,7 +24274,7 @@
         <v>33.975211687882734</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="12.75" customHeight="1">
+    <row r="310" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="18">
         <f t="shared" si="2"/>
         <v>308</v>
@@ -24182,7 +24290,7 @@
         <v>33.951818144935061</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="12.75" customHeight="1">
+    <row r="311" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="18">
         <f t="shared" si="2"/>
         <v>309</v>
@@ -24198,7 +24306,7 @@
         <v>33.929385077993516</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="12.75" customHeight="1">
+    <row r="312" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="18">
         <f t="shared" si="2"/>
         <v>310</v>
@@ -24214,7 +24322,7 @@
         <v>33.90851609090322</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="12.75" customHeight="1">
+    <row r="313" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="18">
         <f t="shared" si="2"/>
         <v>311</v>
@@ -24230,7 +24338,7 @@
         <v>33.886495137138255</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="12.75" customHeight="1">
+    <row r="314" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="18">
         <f t="shared" si="2"/>
         <v>312</v>
@@ -24246,7 +24354,7 @@
         <v>33.865480729391024</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="12.75" customHeight="1">
+    <row r="315" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="18">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -24262,7 +24370,7 @@
         <v>33.843706028146961</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="12.75" customHeight="1">
+    <row r="316" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="18">
         <f t="shared" si="2"/>
         <v>314</v>
@@ -24278,7 +24386,7 @@
         <v>33.822292954299357</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="12.75" customHeight="1">
+    <row r="317" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="18">
         <f t="shared" si="2"/>
         <v>315</v>
@@ -24294,7 +24402,7 @@
         <v>33.800285673142845</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="12.75" customHeight="1">
+    <row r="318" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="18">
         <f t="shared" si="2"/>
         <v>316</v>
@@ -24310,7 +24418,7 @@
         <v>33.778132867974676</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="12.75" customHeight="1">
+    <row r="319" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="18">
         <f t="shared" si="2"/>
         <v>317</v>
@@ -24326,7 +24434,7 @@
         <v>33.755394277507875</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="12.75" customHeight="1">
+    <row r="320" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="18">
         <f t="shared" si="2"/>
         <v>318</v>
@@ -24342,7 +24450,7 @@
         <v>33.733238946698101</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="12.75" customHeight="1">
+    <row r="321" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="18">
         <f t="shared" si="2"/>
         <v>319</v>
@@ -24358,7 +24466,7 @@
         <v>33.710940394639486</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="12.75" customHeight="1">
+    <row r="322" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="18">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -24374,7 +24482,7 @@
         <v>33.689062453031241</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="12.75" customHeight="1">
+    <row r="323" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="18">
         <f t="shared" si="2"/>
         <v>321</v>
@@ -24390,7 +24498,7 @@
         <v>33.666137024579427</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="12.75" customHeight="1">
+    <row r="324" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="18">
         <f t="shared" si="2"/>
         <v>322</v>
@@ -24406,7 +24514,7 @@
         <v>33.645031011583839</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="12.75" customHeight="1">
+    <row r="325" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="18">
         <f t="shared" si="2"/>
         <v>323</v>
@@ -24422,7 +24530,7 @@
         <v>33.622414816501539</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="12.75" customHeight="1">
+    <row r="326" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="18">
         <f t="shared" si="2"/>
         <v>324</v>
@@ -24438,7 +24546,7 @@
         <v>33.59876538805554</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="12.75" customHeight="1">
+    <row r="327" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="18">
         <f t="shared" si="2"/>
         <v>325</v>
@@ -24454,7 +24562,7 @@
         <v>33.575630725323066</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="12.75" customHeight="1">
+    <row r="328" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="18">
         <f t="shared" si="2"/>
         <v>326</v>
@@ -24470,7 +24578,7 @@
         <v>33.55380363438649</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="12.75" customHeight="1">
+    <row r="329" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="18">
         <f t="shared" si="2"/>
         <v>327</v>
@@ -24486,7 +24594,7 @@
         <v>33.532079466574906</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="12.75" customHeight="1">
+    <row r="330" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="18">
         <f t="shared" si="2"/>
         <v>328</v>
@@ -24502,7 +24610,7 @@
         <v>33.510823125121938</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="12.75" customHeight="1">
+    <row r="331" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="18">
         <f t="shared" si="2"/>
         <v>329</v>
@@ -24518,7 +24626,7 @@
         <v>33.4886017805471</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="12.75" customHeight="1">
+    <row r="332" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="18">
         <f t="shared" si="2"/>
         <v>330</v>
@@ -24534,7 +24642,7 @@
         <v>33.468363593333315</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="12.75" customHeight="1">
+    <row r="333" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="18">
         <f t="shared" si="2"/>
         <v>331</v>
@@ -24550,7 +24658,7 @@
         <v>33.447673675649533</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="12.75" customHeight="1">
+    <row r="334" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="18">
         <f t="shared" si="2"/>
         <v>332</v>
@@ -24566,7 +24674,7 @@
         <v>33.427379475060221</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="12.75" customHeight="1">
+    <row r="335" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="18">
         <f t="shared" si="2"/>
         <v>333</v>
@@ -24582,7 +24690,7 @@
         <v>33.407237192282267</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="12.75" customHeight="1">
+    <row r="336" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="18">
         <f t="shared" si="2"/>
         <v>334</v>
@@ -24598,7 +24706,7 @@
         <v>33.388532888862258</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="12.75" customHeight="1">
+    <row r="337" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="18">
         <f t="shared" si="2"/>
         <v>335</v>
@@ -24614,7 +24722,7 @@
         <v>33.36955219573133</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="12.75" customHeight="1">
+    <row r="338" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="18">
         <f t="shared" si="2"/>
         <v>336</v>
@@ -24630,7 +24738,7 @@
         <v>33.34928566976189</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="12.75" customHeight="1">
+    <row r="339" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="18">
         <f t="shared" si="2"/>
         <v>337</v>
@@ -24646,7 +24754,7 @@
         <v>33.330356036646869</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="12.75" customHeight="1">
+    <row r="340" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="18">
         <f t="shared" si="2"/>
         <v>338</v>
@@ -24662,7 +24770,7 @@
         <v>33.311212973254428</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="12.75" customHeight="1">
+    <row r="341" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="18">
         <f t="shared" si="2"/>
         <v>339</v>
@@ -24678,7 +24786,7 @@
         <v>33.289498482949838</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="12.75" customHeight="1">
+    <row r="342" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="18">
         <f t="shared" si="2"/>
         <v>340</v>
@@ -24694,7 +24802,7 @@
         <v>33.267764662764691</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="12.75" customHeight="1">
+    <row r="343" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="18">
         <f t="shared" si="2"/>
         <v>341</v>
@@ -24710,7 +24818,7 @@
         <v>33.245806410645152</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="12.75" customHeight="1">
+    <row r="344" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="18">
         <f t="shared" si="2"/>
         <v>342</v>
@@ -24726,7 +24834,7 @@
         <v>33.223508733537997</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="12.75" customHeight="1">
+    <row r="345" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="18">
         <f t="shared" si="2"/>
         <v>343</v>
@@ -24742,7 +24850,7 @@
         <v>33.200932904985407</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="12.75" customHeight="1">
+    <row r="346" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="18">
         <f t="shared" si="2"/>
         <v>344</v>
@@ -24758,7 +24866,7 @@
         <v>33.177616240465106</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="18">
         <f t="shared" si="2"/>
         <v>345</v>
@@ -24774,7 +24882,7 @@
         <v>33.152985469652158</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="18">
         <f t="shared" si="2"/>
         <v>346</v>
@@ -24790,7 +24898,7 @@
         <v>33.128364413381483</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="18">
         <f t="shared" si="2"/>
         <v>347</v>
@@ -24806,7 +24914,7 @@
         <v>33.103412352564824</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="18">
         <f t="shared" si="2"/>
         <v>348</v>
@@ -24822,7 +24930,7 @@
         <v>33.078804848448264</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="18">
         <f t="shared" si="2"/>
         <v>349</v>
@@ -24838,7 +24946,7 @@
         <v>33.055026039971331</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="18">
         <f t="shared" si="2"/>
         <v>350</v>
@@ -24854,7 +24962,7 @@
         <v>33.030411681371412</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="18">
         <f t="shared" si="2"/>
         <v>351</v>
@@ -24870,7 +24978,7 @@
         <v>33.006878029857532</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="18">
         <f t="shared" si="2"/>
         <v>352</v>
@@ -24886,7 +24994,7 @@
         <v>32.983932353636348</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="18">
         <f t="shared" si="2"/>
         <v>353</v>
@@ -24902,7 +25010,7 @@
         <v>32.959955208158625</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="18">
         <f t="shared" ref="A356:A486" si="3">A355+1</f>
         <v>354</v>
@@ -24918,7 +25026,7 @@
         <v>32.934475108700553</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="18">
         <f t="shared" si="3"/>
         <v>355</v>
@@ -24934,7 +25042,7 @@
         <v>32.90789912247886</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="18">
         <f t="shared" si="3"/>
         <v>356</v>
@@ -24950,7 +25058,7 @@
         <v>32.881472439550549</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="18">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -24966,7 +25074,7 @@
         <v>32.85519380526609</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="18">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -24982,7 +25090,7 @@
         <v>32.8285871186592</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="18">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -24998,7 +25106,7 @@
         <v>32.801348714428954</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="18">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -25014,7 +25122,7 @@
         <v>32.773872745777759</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="18">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -25030,7 +25138,7 @@
         <v>32.746798306038762</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="18">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -25046,7 +25154,7 @@
         <v>32.721144167071806</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="18">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -25062,7 +25170,7 @@
         <v>32.694171318126706</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="18">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -25078,7 +25186,7 @@
         <v>32.66762139881866</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="18">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -25094,7 +25202,7 @@
         <v>32.640066271698615</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="18">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -25110,7 +25218,7 @@
         <v>32.611104344508178</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="18">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -25126,7 +25234,7 @@
         <v>32.582845203978181</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="18">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -25142,7 +25250,7 @@
         <v>32.556587472663026</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="18">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -25158,7 +25266,7 @@
         <v>32.530282358590767</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="18">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -25174,7 +25282,7 @@
         <v>32.506281594432416</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="18">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -25190,7 +25298,7 @@
         <v>32.482598892857126</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="18">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -25206,7 +25314,7 @@
         <v>32.459392982876324</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="18">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -25222,7 +25330,7 @@
         <v>32.435614449812313</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="18">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -25238,7 +25346,7 @@
         <v>32.411455051871634</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="18">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -25254,7 +25362,7 @@
         <v>32.387264505466646</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="18">
         <f t="shared" si="3"/>
         <v>376</v>
@@ -25270,7 +25378,7 @@
         <v>32.361846248590403</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="18">
         <f t="shared" si="3"/>
         <v>377</v>
@@ -25286,7 +25394,7 @@
         <v>32.336324109389899</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="18">
         <f t="shared" si="3"/>
         <v>378</v>
@@ -25302,7 +25410,7 @@
         <v>32.312101030555532</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="18">
         <f t="shared" si="3"/>
         <v>379</v>
@@ -25318,7 +25426,7 @@
         <v>32.287425299815283</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="18">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -25334,7 +25442,7 @@
         <v>32.260721547421028</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="18">
         <f t="shared" si="3"/>
         <v>381</v>
@@ -25350,7 +25458,7 @@
         <v>32.234420440393677</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="18">
         <f t="shared" si="3"/>
         <v>382</v>
@@ -25366,7 +25474,7 @@
         <v>32.208335571335049</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="18">
         <f t="shared" si="3"/>
         <v>383</v>
@@ -25382,7 +25490,7 @@
         <v>32.183248534281958</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="18">
         <f t="shared" si="3"/>
         <v>384</v>
@@ -25398,7 +25506,7 @@
         <v>32.157979656692682</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="18">
         <f t="shared" si="3"/>
         <v>385</v>
@@ -25414,7 +25522,7 @@
         <v>32.134712179038935</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="18">
         <f t="shared" si="3"/>
         <v>386</v>
@@ -25430,7 +25538,7 @@
         <v>32.111539350932617</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="18">
         <f t="shared" si="3"/>
         <v>387</v>
@@ -25446,7 +25554,7 @@
         <v>32.088072842764831</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="18">
         <f t="shared" si="3"/>
         <v>388</v>
@@ -25462,7 +25570,7 @@
         <v>32.064031418505131</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="18">
         <f t="shared" si="3"/>
         <v>389</v>
@@ -25478,7 +25586,7 @@
         <v>32.038982493753188</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="18">
         <f t="shared" si="3"/>
         <v>390</v>
@@ -25494,7 +25602,7 @@
         <v>32.015472284384586</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="18">
         <f t="shared" si="3"/>
         <v>391</v>
@@ -25510,7 +25618,7 @@
         <v>31.992133479028105</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="18">
         <f t="shared" si="3"/>
         <v>392</v>
@@ -25526,7 +25634,7 @@
         <v>31.970342324132627</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="18">
         <f t="shared" si="3"/>
         <v>393</v>
@@ -25542,7 +25650,7 @@
         <v>31.947847812264605</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="18">
         <f t="shared" si="3"/>
         <v>394</v>
@@ -25558,7 +25666,7 @@
         <v>31.925162919923835</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="18">
         <f t="shared" si="3"/>
         <v>395</v>
@@ -25574,7 +25682,7 @@
         <v>31.902643521873394</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="18">
         <f t="shared" si="3"/>
         <v>396</v>
@@ -25590,7 +25698,7 @@
         <v>31.880162098838358</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="18">
         <f t="shared" si="3"/>
         <v>397</v>
@@ -25606,7 +25714,7 @@
         <v>31.856912319294686</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="18">
         <f t="shared" si="3"/>
         <v>398</v>
@@ -25622,7 +25730,7 @@
         <v>31.833502994170832</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="18">
         <f t="shared" si="3"/>
         <v>399</v>
@@ -25638,7 +25746,7 @@
         <v>31.810135819323285</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="18">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -25654,7 +25762,7 @@
         <v>31.786510481299977</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="18">
         <f t="shared" si="3"/>
         <v>401</v>
@@ -25670,7 +25778,7 @@
         <v>31.762603973266813</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="18">
         <f t="shared" si="3"/>
         <v>402</v>
@@ -25686,7 +25794,7 @@
         <v>31.740060184179082</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="18">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -25702,7 +25810,7 @@
         <v>31.717901224590552</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="18">
         <f t="shared" si="3"/>
         <v>404</v>
@@ -25718,7 +25826,7 @@
         <v>31.696743053440571</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="18">
         <f t="shared" si="3"/>
         <v>405</v>
@@ -25734,7 +25842,7 @@
         <v>31.675343689580224</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="18">
         <f t="shared" si="3"/>
         <v>406</v>
@@ -25750,7 +25858,7 @@
         <v>31.654517718201948</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="18">
         <f t="shared" si="3"/>
         <v>407</v>
@@ -25766,7 +25874,7 @@
         <v>31.634383765773933</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="18">
         <f t="shared" si="3"/>
         <v>408</v>
@@ -25782,7 +25890,7 @@
         <v>31.614814196789194</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="18">
         <f t="shared" si="3"/>
         <v>409</v>
@@ -25798,7 +25906,7 @@
         <v>31.595291421638123</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="18">
         <f t="shared" si="3"/>
         <v>410</v>
@@ -25814,7 +25922,7 @@
         <v>31.576376077073149</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="18">
         <f t="shared" si="3"/>
         <v>411</v>
@@ -25830,7 +25938,7 @@
         <v>31.556968836934285</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="18">
         <f t="shared" si="3"/>
         <v>412</v>
@@ -25846,7 +25954,7 @@
         <v>31.537000465776678</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="18">
         <f t="shared" si="3"/>
         <v>413</v>
@@ -25862,7 +25970,7 @@
         <v>31.51698351661015</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="18">
         <f t="shared" si="3"/>
         <v>414</v>
@@ -25878,7 +25986,7 @@
         <v>31.497618822125581</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="18">
         <f t="shared" si="3"/>
         <v>415</v>
@@ -25894,7 +26002,7 @@
         <v>31.477986006602389</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="18">
         <f t="shared" si="3"/>
         <v>416</v>
@@ -25910,7 +26018,7 @@
         <v>31.457798540048056</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="18">
         <f t="shared" si="3"/>
         <v>417</v>
@@ -25926,7 +26034,7 @@
         <v>31.436820603693025</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="18">
         <f t="shared" si="3"/>
         <v>418</v>
@@ -25942,7 +26050,7 @@
         <v>31.415703809449742</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="18">
         <f t="shared" si="3"/>
         <v>419</v>
@@ -25958,7 +26066,7 @@
         <v>31.394544609999983</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="18">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -25974,7 +26082,7 @@
         <v>31.373248077023792</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="18">
         <f t="shared" si="3"/>
         <v>421</v>
@@ -25990,7 +26098,7 @@
         <v>31.352860316555802</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="18">
         <f t="shared" si="3"/>
         <v>422</v>
@@ -26006,7 +26114,7 @@
         <v>31.333066808696664</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="18">
         <f t="shared" si="3"/>
         <v>423</v>
@@ -26022,7 +26130,7 @@
         <v>31.312728588203292</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="18">
         <f t="shared" si="3"/>
         <v>424</v>
@@ -26038,7 +26146,7 @@
         <v>31.292557059056588</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="18">
         <f t="shared" si="3"/>
         <v>425</v>
@@ -26054,7 +26162,7 @@
         <v>31.272433394847042</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="18">
         <f t="shared" si="3"/>
         <v>426</v>
@@ -26070,7 +26178,7 @@
         <v>31.252615475892004</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="18">
         <f t="shared" si="3"/>
         <v>427</v>
@@ -26086,7 +26194,7 @@
         <v>31.234248694566734</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="18">
         <f t="shared" si="3"/>
         <v>428</v>
@@ -26102,7 +26210,7 @@
         <v>31.216178020046716</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="18">
         <f t="shared" si="3"/>
         <v>429</v>
@@ -26118,7 +26226,7 @@
         <v>31.198378071095561</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="18">
         <f t="shared" si="3"/>
         <v>430</v>
@@ -26134,7 +26242,7 @@
         <v>31.181219051604643</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="18">
         <f t="shared" si="3"/>
         <v>431</v>
@@ -26150,7 +26258,7 @@
         <v>31.163745224617159</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="18">
         <f t="shared" si="3"/>
         <v>432</v>
@@ -26166,7 +26274,7 @@
         <v>31.146653223379619</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="18">
         <f t="shared" si="3"/>
         <v>433</v>
@@ -26182,7 +26290,7 @@
         <v>31.13037919833717</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="18">
         <f t="shared" si="3"/>
         <v>434</v>
@@ -26198,7 +26306,7 @@
         <v>31.114986621290313</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="18">
         <f t="shared" si="3"/>
         <v>435</v>
@@ -26214,7 +26322,7 @@
         <v>31.099825733563208</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="18">
         <f t="shared" si="3"/>
         <v>436</v>
@@ -26230,7 +26338,7 @@
         <v>31.084757327499986</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="18">
         <f t="shared" si="3"/>
         <v>437</v>
@@ -26246,7 +26354,7 @@
         <v>31.0702384314874</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="18">
         <f t="shared" si="3"/>
         <v>438</v>
@@ -26262,7 +26370,7 @@
         <v>31.055991311598159</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="18">
         <f t="shared" si="3"/>
         <v>439</v>
@@ -26278,7 +26386,7 @@
         <v>31.042583586697024</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="18">
         <f t="shared" si="3"/>
         <v>440</v>
@@ -26294,7 +26402,7 @@
         <v>31.028623168590894</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="18">
         <f t="shared" si="3"/>
         <v>441</v>
@@ -26310,7 +26418,7 @@
         <v>31.014726063038534</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="18">
         <f t="shared" si="3"/>
         <v>442</v>
@@ -26326,7 +26434,7 @@
         <v>31.001661071425325</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="18">
         <f t="shared" si="3"/>
         <v>443</v>
@@ -26342,7 +26450,7 @@
         <v>30.988406755598181</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="18">
         <f t="shared" si="3"/>
         <v>444</v>
@@ -26358,7 +26466,7 @@
         <v>30.974761696036023</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="18">
         <f t="shared" si="3"/>
         <v>445</v>
@@ -26374,7 +26482,7 @@
         <v>30.960436389707851</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="18">
         <f t="shared" si="3"/>
         <v>446</v>
@@ -26390,7 +26498,7 @@
         <v>30.94619774446187</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="18">
         <f t="shared" si="3"/>
         <v>447</v>
@@ -26406,7 +26514,7 @@
         <v>30.931776720425042</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="18">
         <f t="shared" si="3"/>
         <v>448</v>
@@ -26422,7 +26530,7 @@
         <v>30.918245970691949</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="18">
         <f t="shared" si="3"/>
         <v>449</v>
@@ -26438,7 +26546,7 @@
         <v>30.904263238886397</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="18">
         <f t="shared" si="3"/>
         <v>450</v>
@@ -26454,7 +26562,7 @@
         <v>30.890875985377765</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="18">
         <f t="shared" si="3"/>
         <v>451</v>
@@ -26470,7 +26578,7 @@
         <v>30.87739288889134</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="18">
         <f t="shared" si="3"/>
         <v>452</v>
@@ -26486,7 +26594,7 @@
         <v>30.86381458553096</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="18">
         <f t="shared" si="3"/>
         <v>453</v>
@@ -26502,7 +26610,7 @@
         <v>30.849744354150097</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="18">
         <f t="shared" si="3"/>
         <v>454</v>
@@ -26518,7 +26626,7 @@
         <v>30.834546681035228</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="18">
         <f t="shared" si="3"/>
         <v>455</v>
@@ -26534,7 +26642,7 @@
         <v>30.820426797890097</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="18">
         <f t="shared" si="3"/>
         <v>456</v>
@@ -26550,7 +26658,7 @@
         <v>30.806346913728056</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="18">
         <f t="shared" si="3"/>
         <v>457</v>
@@ -26566,7 +26674,7 @@
         <v>30.791891014048126</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="18">
         <f t="shared" si="3"/>
         <v>458</v>
@@ -26582,7 +26690,7 @@
         <v>30.777563740087324</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="18">
         <f t="shared" si="3"/>
         <v>459</v>
@@ -26598,7 +26706,7 @@
         <v>30.762841379999987</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="18">
         <f t="shared" si="3"/>
         <v>460</v>
@@ -26614,7 +26722,7 @@
         <v>30.747661291543466</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="18">
         <f t="shared" si="3"/>
         <v>461</v>
@@ -26630,7 +26738,7 @@
         <v>30.732980897288492</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="18">
         <f t="shared" si="3"/>
         <v>462</v>
@@ -26646,7 +26754,7 @@
         <v>30.719035053181805</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="18">
         <f t="shared" si="3"/>
         <v>463</v>
@@ -26662,7 +26770,7 @@
         <v>30.704782279503227</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="18">
         <f t="shared" si="3"/>
         <v>464</v>
@@ -26678,7 +26786,7 @@
         <v>30.69059094019395</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="18">
         <f t="shared" si="3"/>
         <v>465</v>
@@ -26694,7 +26802,7 @@
         <v>30.676611175870953</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="18">
         <f t="shared" si="3"/>
         <v>466</v>
@@ -26710,7 +26818,7 @@
         <v>30.661725743669511</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="18">
         <f t="shared" si="3"/>
         <v>467</v>
@@ -26726,7 +26834,7 @@
         <v>30.646732754603839</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="18">
         <f t="shared" si="3"/>
         <v>468</v>
@@ -26742,7 +26850,7 @@
         <v>30.631825206153827</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="18">
         <f t="shared" si="3"/>
         <v>469</v>
@@ -26758,7 +26866,7 @@
         <v>30.616533466012775</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="18">
         <f t="shared" si="3"/>
         <v>470</v>
@@ -26774,7 +26882,7 @@
         <v>30.601391905446789</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="18">
         <f t="shared" si="3"/>
         <v>471</v>
@@ -26790,7 +26898,7 @@
         <v>30.585890010191065</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="18">
         <f t="shared" si="3"/>
         <v>472</v>
@@ -26806,7 +26914,7 @@
         <v>30.570411431122864</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="18">
         <f t="shared" si="3"/>
         <v>473</v>
@@ -26822,7 +26930,7 @@
         <v>30.554237199936555</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="18">
         <f t="shared" si="3"/>
         <v>474</v>
@@ -26838,7 +26946,7 @@
         <v>30.538173409493648</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="18">
         <f t="shared" si="3"/>
         <v>475</v>
@@ -26854,7 +26962,7 @@
         <v>30.522219358273663</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="18">
         <f t="shared" si="3"/>
         <v>476</v>
@@ -26870,7 +26978,7 @@
         <v>30.507151671344516</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="18">
         <f t="shared" si="3"/>
         <v>477</v>
@@ -26886,7 +26994,7 @@
         <v>30.492629340628909</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="18">
         <f t="shared" si="3"/>
         <v>478</v>
@@ -26902,7 +27010,7 @@
         <v>30.478795386276133</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" s="18">
         <f t="shared" si="3"/>
         <v>479</v>
@@ -26918,7 +27026,7 @@
         <v>30.465060948350711</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" s="18">
         <f t="shared" si="3"/>
         <v>480</v>
@@ -26934,7 +27042,7 @@
         <v>30.451467072479147</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" s="18">
         <f t="shared" si="3"/>
         <v>481</v>
@@ -26950,7 +27058,7 @@
         <v>30.437389179002061</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" s="18">
         <f t="shared" si="3"/>
         <v>482</v>
@@ -26966,7 +27074,7 @@
         <v>30.423680902531103</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="18">
         <f t="shared" si="3"/>
         <v>483</v>
@@ -26982,7 +27090,7 @@
         <v>30.410339947329177</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" s="18">
         <f t="shared" si="3"/>
         <v>484</v>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="15600" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="302">
   <si>
     <t>PE</t>
   </si>
@@ -1215,90 +1215,6 @@
   </si>
   <si>
     <t xml:space="preserve">2023/2/24
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/3/1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/3/2
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/3/3
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/3/6
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/3/7
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/3/8
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/3/9
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/3/10
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/3/13
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/3/14
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/3/15
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/3/16
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/3/17
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/3/20
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/3/21
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/3/22
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/3/23
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/3/24
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/3/27
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/3/28
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023/3/29
 </t>
   </si>
 </sst>
@@ -1313,7 +1229,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1862,118 +1778,118 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44985</c:v>
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1985,115 +1901,115 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4000</c:v>
+                  <c:v>3783.4996370436897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6000</c:v>
+                  <c:v>6143.6117008713063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8173.7580810682693</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10000</c:v>
+                  <c:v>11353.811149064422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12000</c:v>
+                  <c:v>14968.552321848347</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14000</c:v>
+                  <c:v>16822.477397497114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16000</c:v>
+                  <c:v>18240.153038857396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18000</c:v>
+                  <c:v>21221.531045139225</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20000</c:v>
+                  <c:v>23603.74034292587</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22000</c:v>
+                  <c:v>28072.985437531297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24000</c:v>
+                  <c:v>31610.696441599135</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26000</c:v>
+                  <c:v>31960.877336479982</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28000</c:v>
+                  <c:v>32030.541196234128</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30000</c:v>
+                  <c:v>36542.468793623324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32000</c:v>
+                  <c:v>40028.514786085325</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34000</c:v>
+                  <c:v>43079.887556825692</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36000</c:v>
+                  <c:v>43952.380972166822</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38000</c:v>
+                  <c:v>44041.688138414858</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40000</c:v>
+                  <c:v>45572.995207693384</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42000</c:v>
+                  <c:v>49094.404023982002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44000</c:v>
+                  <c:v>51969.911593071687</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>46000</c:v>
+                  <c:v>53008.069006718506</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48000</c:v>
+                  <c:v>49351.052479165373</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50000</c:v>
+                  <c:v>51254.60334650999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52000</c:v>
+                  <c:v>47701.945217252243</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>54000</c:v>
+                  <c:v>45202.535414395512</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56000</c:v>
+                  <c:v>48944.813088421164</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58000</c:v>
+                  <c:v>57317.86097478633</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>60000</c:v>
+                  <c:v>56010.270798873862</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>62000</c:v>
+                  <c:v>55547.679913640975</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>64000</c:v>
+                  <c:v>52229.088937270295</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>66000</c:v>
+                  <c:v>53475.074735568647</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>68000</c:v>
+                  <c:v>58406.85441256113</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70000</c:v>
+                  <c:v>60293.406710853284</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>72000</c:v>
+                  <c:v>68151.7828856181</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>74000</c:v>
+                  <c:v>67767.93214664339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2135,118 +2051,118 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44985</c:v>
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2258,115 +2174,115 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>2000.0000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3783.4996370436897</c:v>
+                  <c:v>-216.50036295631025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6143.6117008713063</c:v>
+                  <c:v>143.61170087130631</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8173.7580810682693</c:v>
+                  <c:v>173.75808106826935</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11353.811149064422</c:v>
+                  <c:v>1353.8111490644224</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14968.552321848347</c:v>
+                  <c:v>2968.5523218483468</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16822.477397497114</c:v>
+                  <c:v>2822.477397497114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18240.153038857396</c:v>
+                  <c:v>2240.1530388573956</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21221.531045139225</c:v>
+                  <c:v>3221.5310451392252</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23603.74034292587</c:v>
+                  <c:v>3603.7403429258702</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28072.985437531297</c:v>
+                  <c:v>6072.9854375312971</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31610.696441599135</c:v>
+                  <c:v>7610.6964415991351</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31960.877336479982</c:v>
+                  <c:v>5960.8773364799818</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32030.541196234128</c:v>
+                  <c:v>4030.5411962341277</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36542.468793623324</c:v>
+                  <c:v>6542.468793623324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40028.514786085325</c:v>
+                  <c:v>8028.5147860853249</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43079.887556825692</c:v>
+                  <c:v>9079.8875568256917</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43952.380972166822</c:v>
+                  <c:v>7952.3809721668222</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44041.688138414858</c:v>
+                  <c:v>6041.6881384148583</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45572.995207693384</c:v>
+                  <c:v>5572.9952076933841</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49094.404023982002</c:v>
+                  <c:v>7094.4040239820024</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51969.911593071687</c:v>
+                  <c:v>7969.9115930716871</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53008.069006718506</c:v>
+                  <c:v>7008.069006718506</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49351.052479165373</c:v>
+                  <c:v>1351.0524791653734</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51254.60334650999</c:v>
+                  <c:v>1254.6033465099899</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>47701.945217252243</c:v>
+                  <c:v>-4298.0547827477567</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45202.535414395512</c:v>
+                  <c:v>-8797.4645856044881</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48944.813088421164</c:v>
+                  <c:v>-7055.1869115788359</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>57317.86097478633</c:v>
+                  <c:v>-682.13902521366981</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>56010.270798873862</c:v>
+                  <c:v>-3989.7292011261379</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55547.679913640975</c:v>
+                  <c:v>-6452.3200863590246</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>52229.088937270295</c:v>
+                  <c:v>-11770.911062729705</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>53475.074735568647</c:v>
+                  <c:v>-12524.925264431353</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>58406.85441256113</c:v>
+                  <c:v>-9593.1455874388703</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>60293.406710853284</c:v>
+                  <c:v>-9706.5932891467164</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>68151.7828856181</c:v>
+                  <c:v>-3848.2171143818996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>67767.93214664339</c:v>
+                  <c:v>-6232.0678533566097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2408,118 +2324,118 @@
             <c:numRef>
               <c:f>model1!时间</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>43889</c:v>
+                  <c:v>3.25108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43921</c:v>
+                  <c:v>2.8991500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43951</c:v>
+                  <c:v>3.17509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43980</c:v>
+                  <c:v>3.1906699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44012</c:v>
+                  <c:v>3.6513100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44043</c:v>
+                  <c:v>4.1706000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44074</c:v>
+                  <c:v>4.1298999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44104</c:v>
+                  <c:v>3.9869400000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44134</c:v>
+                  <c:v>4.2014499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44165</c:v>
+                  <c:v>4.27712</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44196</c:v>
+                  <c:v>4.7245600000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44225</c:v>
+                  <c:v>4.9833500000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44253</c:v>
+                  <c:v>4.7232599999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44286</c:v>
+                  <c:v>4.4379900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44316</c:v>
+                  <c:v>4.7860299999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44347</c:v>
+                  <c:v>4.9806599999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44377</c:v>
+                  <c:v>5.1114799999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44407</c:v>
+                  <c:v>4.9776999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44439</c:v>
+                  <c:v>4.7613100000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44469</c:v>
+                  <c:v>4.7106400000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44498</c:v>
+                  <c:v>4.8678999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44530</c:v>
+                  <c:v>4.9547099609374996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44561</c:v>
+                  <c:v>4.8630097656249998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44589</c:v>
+                  <c:v>4.3440297851562502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44620</c:v>
+                  <c:v>4.3355400390624999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44651</c:v>
+                  <c:v>3.8658500976562502</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44680</c:v>
+                  <c:v>3.5012099609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44712</c:v>
+                  <c:v>3.6361599121093748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44742</c:v>
+                  <c:v>4.1096201171875002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44771</c:v>
+                  <c:v>3.8724699707031252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>44804</c:v>
+                  <c:v>3.7022099609375001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44834</c:v>
+                  <c:v>3.3477299804687499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44865</c:v>
+                  <c:v>3.2993999023437501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44895</c:v>
+                  <c:v>3.4802900390625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>44925</c:v>
+                  <c:v>3.4735300292968749</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>44957</c:v>
+                  <c:v>3.8110336914062501</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>44985</c:v>
+                  <c:v>3.6777292480468748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2528,119 +2444,8 @@
             <c:numRef>
               <c:f>model1!金额</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-216.50036295631025</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>143.61170087130631</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>173.75808106826935</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1353.8111490644224</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2968.5523218483468</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2822.477397497114</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2240.1530388573956</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3221.5310451392252</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3603.7403429258702</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6072.9854375312971</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7610.6964415991351</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5960.8773364799818</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4030.5411962341277</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6542.468793623324</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8028.5147860853249</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9079.8875568256917</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7952.3809721668222</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6041.6881384148583</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5572.9952076933841</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7094.4040239820024</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7969.9115930716871</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7008.069006718506</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1351.0524791653734</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1254.6033465099899</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-4298.0547827477567</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-8797.4645856044881</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-7055.1869115788359</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-682.13902521366981</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-3989.7292011261379</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-6452.3200863590246</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-11770.911062729705</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-12524.925264431353</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-9593.1455874388703</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-9706.5932891467164</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-3848.2171143818996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-6232.0678533566097</c:v>
-                </c:pt>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2661,17 +2466,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="269060352"/>
-        <c:axId val="274309504"/>
+        <c:axId val="255695488"/>
+        <c:axId val="258176128"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="269060352"/>
+      <c:catAx>
+        <c:axId val="255695488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2708,14 +2513,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274309504"/>
+        <c:crossAx val="258176128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="274309504"/>
+        <c:axId val="258176128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2766,7 +2572,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269060352"/>
+        <c:crossAx val="255695488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3174,12 +2980,12 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -3200,7 +3006,7 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>180</v>
       </c>
@@ -3230,7 +3036,7 @@
       </c>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:25" ht="14.1" customHeight="1">
+    <row r="2" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -3246,7 +3052,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:25" ht="14.1" customHeight="1">
+    <row r="3" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>43889</v>
       </c>
@@ -3317,7 +3123,7 @@
         <v>-22000</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14.1" customHeight="1">
+    <row r="4" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>43921</v>
       </c>
@@ -3394,7 +3200,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.1" customHeight="1">
+    <row r="5" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>43951</v>
       </c>
@@ -3466,7 +3272,7 @@
         <v>-24000</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="14.1" customHeight="1">
+    <row r="6" spans="1:25" ht="14.1" customHeig